--- a/RawData/EU_RawData_VPython.xlsx
+++ b/RawData/EU_RawData_VPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souvi\Documents\These\80_Calculations\01_MFA_GlassIndustry\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967C4157-2314-4F3A-AAAC-3786327B37E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7CC89F0-4657-4AFF-8AE4-4A3634452F2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="1860" windowWidth="19650" windowHeight="13860" firstSheet="2" activeTab="2" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
   </bookViews>
@@ -1528,9 +1528,6 @@
     <t>glass ind., unit</t>
   </si>
   <si>
-    <t>architectural glass/flat glass, %</t>
-  </si>
-  <si>
     <t>productivity in the glass industry, t/employee</t>
   </si>
   <si>
@@ -1646,6 +1643,9 @@
   </si>
   <si>
     <t>I - Total energy consumption in the flat glass sector</t>
+  </si>
+  <si>
+    <t>bldg glass/flat glass, %</t>
   </si>
 </sst>
 </file>
@@ -3662,13 +3662,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="46" t="s">
         <v>20</v>
-      </c>
-      <c r="D1" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="46" t="s">
-        <v>21</v>
       </c>
       <c r="F1" s="46" t="s">
         <v>1</v>
@@ -5080,8 +5080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{984B49BA-6D54-42C1-84EE-7F8663080B50}">
   <dimension ref="A1:BU115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K60" sqref="K60"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5105,19 +5105,19 @@
         <v>3</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -6312,7 +6312,7 @@
         <v>6458</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E53" s="23">
         <v>60600</v>
@@ -7867,19 +7867,19 @@
         <v>3</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9589,19 +9589,19 @@
         <v>3</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -11426,13 +11426,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -12661,67 +12661,67 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="G1" s="35"/>
       <c r="H1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="M1" s="35"/>
       <c r="N1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="S1" s="35"/>
       <c r="T1" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="V1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -14237,10 +14237,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -15671,22 +15671,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">

--- a/RawData/EU_RawData_VPython.xlsx
+++ b/RawData/EU_RawData_VPython.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souvi\Documents\These\80_Calculations\01_MFA_GlassIndustry\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7CC89F0-4657-4AFF-8AE4-4A3634452F2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D838A44-A263-4BD4-968B-3CE73534DB64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="19650" windowHeight="13860" firstSheet="2" activeTab="2" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="19650" windowHeight="13860" firstSheet="2" activeTab="2" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
   </bookViews>
   <sheets>
     <sheet name="stock" sheetId="17" r:id="rId1"/>
@@ -1502,7 +1502,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
   <si>
     <t>year</t>
   </si>
@@ -1532,9 +1532,6 @@
   </si>
   <si>
     <t>processed flat glass, kt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                             </t>
   </si>
   <si>
     <t>flat glass ind., unit</t>
@@ -3662,13 +3659,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="46" t="s">
         <v>19</v>
-      </c>
-      <c r="D1" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="46" t="s">
-        <v>20</v>
       </c>
       <c r="F1" s="46" t="s">
         <v>1</v>
@@ -5081,7 +5078,7 @@
   <dimension ref="A1:BU115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5105,19 +5102,19 @@
         <v>3</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -6311,9 +6308,7 @@
       <c r="C53" s="19">
         <v>6458</v>
       </c>
-      <c r="D53" s="23" t="s">
-        <v>10</v>
-      </c>
+      <c r="D53" s="8"/>
       <c r="E53" s="23">
         <v>60600</v>
       </c>
@@ -7843,7 +7838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63B1BC36-79CC-403E-BDAB-F4ACF4DC04E2}">
   <dimension ref="A1:BT107"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -7870,16 +7865,16 @@
         <v>9</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9592,16 +9587,16 @@
         <v>9</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -11426,7 +11421,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>7</v>
@@ -12661,67 +12656,67 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="G1" s="35"/>
       <c r="H1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="M1" s="35"/>
       <c r="N1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="S1" s="35"/>
       <c r="T1" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -14237,10 +14232,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -15671,22 +15666,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">

--- a/RawData/EU_RawData_VPython.xlsx
+++ b/RawData/EU_RawData_VPython.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souvi\Documents\These\80_Calculations\01_MFA_GlassIndustry\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D838A44-A263-4BD4-968B-3CE73534DB64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9362DC09-B244-4A2F-959E-2ECE57201276}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="19650" windowHeight="13860" firstSheet="2" activeTab="2" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="19650" windowHeight="13860" firstSheet="5" activeTab="7" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
   </bookViews>
   <sheets>
     <sheet name="stock" sheetId="17" r:id="rId1"/>
@@ -5077,7 +5077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{984B49BA-6D54-42C1-84EE-7F8663080B50}">
   <dimension ref="A1:BU115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
@@ -14208,11 +14208,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70AADF96-AA57-46CE-950B-FAE3AC3D5FD3}">
   <dimension ref="A1:BW93"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RawData/EU_RawData_VPython.xlsx
+++ b/RawData/EU_RawData_VPython.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souvi\Documents\These\80_Calculations\01_MFA_GlassIndustry\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9362DC09-B244-4A2F-959E-2ECE57201276}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1096A02-1A12-4E29-A450-B1FD2D7AA936}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="19650" windowHeight="13860" firstSheet="5" activeTab="7" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="19650" windowHeight="13860" firstSheet="1" activeTab="4" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
   </bookViews>
   <sheets>
     <sheet name="stock" sheetId="17" r:id="rId1"/>
@@ -193,23 +193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{BFC02998-5088-4912-8C5D-DA8F52C40B58}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Unless otherwise indicated in a note attached to the cell, all data collected in this column comes from:
-PRODCOM, Eurostat, 2020
-Code: 23111217 
-Label: Non-wired sheets, of float, surface ground or polished glass, having an absorbent or reflecting layer, not otherwise worked, of a thickness &gt; 3,5 mm </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{50753E68-A245-4D7B-9CBE-A829F1613C3E}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{50753E68-A245-4D7B-9CBE-A829F1613C3E}">
       <text>
         <r>
           <rPr>
@@ -225,7 +209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{5A63D96A-0581-49AA-AF21-44B780879F75}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{5A63D96A-0581-49AA-AF21-44B780879F75}">
       <text>
         <r>
           <rPr>
@@ -320,7 +304,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C65" authorId="0" shapeId="0" xr:uid="{40DE4105-200D-4440-9B6B-6740067120DA}">
+    <comment ref="C62" authorId="0" shapeId="0" xr:uid="{40DE4105-200D-4440-9B6B-6740067120DA}">
       <text>
         <r>
           <rPr>
@@ -333,7 +317,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C66" authorId="0" shapeId="0" xr:uid="{959CBDBD-EFD2-4543-91B8-75D3E697257E}">
+    <comment ref="C63" authorId="0" shapeId="0" xr:uid="{959CBDBD-EFD2-4543-91B8-75D3E697257E}">
       <text>
         <r>
           <rPr>
@@ -346,7 +330,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C67" authorId="0" shapeId="0" xr:uid="{9B416B7C-032F-4959-A6F7-232A6DCBAD31}">
+    <comment ref="C64" authorId="0" shapeId="0" xr:uid="{9B416B7C-032F-4959-A6F7-232A6DCBAD31}">
       <text>
         <r>
           <rPr>
@@ -359,7 +343,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="C68" authorId="0" shapeId="0" xr:uid="{68B4C6D8-528F-4828-B32D-626BF8DEB7E5}">
+    <comment ref="C65" authorId="0" shapeId="0" xr:uid="{5654F17E-FD37-41F4-85BB-5CFE082C43A0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PRODCOM, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C66" authorId="0" shapeId="0" xr:uid="{3235C2D9-908E-4084-8BA4-512AA9EE5E1C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PRODCOM, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C67" authorId="0" shapeId="0" xr:uid="{68B4C6D8-528F-4828-B32D-626BF8DEB7E5}">
       <text>
         <r>
           <rPr>
@@ -372,7 +382,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C69" authorId="0" shapeId="0" xr:uid="{DC89D0C0-A259-4B07-8880-4343F538493F}">
+    <comment ref="C68" authorId="0" shapeId="0" xr:uid="{DC89D0C0-A259-4B07-8880-4343F538493F}">
       <text>
         <r>
           <rPr>
@@ -385,7 +395,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C70" authorId="0" shapeId="0" xr:uid="{9CFD90AD-75AD-4C0B-8511-277A4CBF89F0}">
+    <comment ref="C69" authorId="0" shapeId="0" xr:uid="{9CFD90AD-75AD-4C0B-8511-277A4CBF89F0}">
       <text>
         <r>
           <rPr>
@@ -398,7 +408,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C71" authorId="0" shapeId="0" xr:uid="{C01AC5BA-33CA-4ACC-9EFE-3057B9A863C2}">
+    <comment ref="C70" authorId="0" shapeId="0" xr:uid="{C01AC5BA-33CA-4ACC-9EFE-3057B9A863C2}">
       <text>
         <r>
           <rPr>
@@ -411,7 +421,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C72" authorId="0" shapeId="0" xr:uid="{435D93BD-7A36-4AED-B12A-DCC3FCF2054B}">
+    <comment ref="C71" authorId="0" shapeId="0" xr:uid="{435D93BD-7A36-4AED-B12A-DCC3FCF2054B}">
       <text>
         <r>
           <rPr>
@@ -424,7 +434,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C73" authorId="0" shapeId="0" xr:uid="{59AB2B1C-49AE-4FCE-9439-279E903197F7}">
+    <comment ref="C72" authorId="0" shapeId="0" xr:uid="{59AB2B1C-49AE-4FCE-9439-279E903197F7}">
       <text>
         <r>
           <rPr>
@@ -437,7 +447,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C74" authorId="0" shapeId="0" xr:uid="{5DDAD10A-A291-429B-9C03-53F481EF3719}">
+    <comment ref="C73" authorId="0" shapeId="0" xr:uid="{5DDAD10A-A291-429B-9C03-53F481EF3719}">
       <text>
         <r>
           <rPr>
@@ -450,7 +460,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C84" authorId="0" shapeId="0" xr:uid="{184CE6BF-C66C-4B8C-B844-AFCA8076D376}">
+    <comment ref="C74" authorId="0" shapeId="0" xr:uid="{184CE6BF-C66C-4B8C-B844-AFCA8076D376}">
       <text>
         <r>
           <rPr>
@@ -463,7 +473,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C85" authorId="0" shapeId="0" xr:uid="{7B64207A-4B7F-49D4-8902-9CF4C4B55DD9}">
+    <comment ref="C75" authorId="0" shapeId="0" xr:uid="{7B64207A-4B7F-49D4-8902-9CF4C4B55DD9}">
       <text>
         <r>
           <rPr>
@@ -476,7 +486,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C86" authorId="0" shapeId="0" xr:uid="{27841799-E6EF-4060-9FDB-24DBBDE88D1B}">
+    <comment ref="C76" authorId="0" shapeId="0" xr:uid="{27841799-E6EF-4060-9FDB-24DBBDE88D1B}">
       <text>
         <r>
           <rPr>
@@ -489,7 +499,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C87" authorId="0" shapeId="0" xr:uid="{688390A4-8EB6-47A6-BDD3-34CFBF22EAD7}">
+    <comment ref="C77" authorId="0" shapeId="0" xr:uid="{688390A4-8EB6-47A6-BDD3-34CFBF22EAD7}">
       <text>
         <r>
           <rPr>
@@ -502,7 +512,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C88" authorId="0" shapeId="0" xr:uid="{D3E3CCD5-0CB8-4E7D-BB00-353131729589}">
+    <comment ref="C78" authorId="0" shapeId="0" xr:uid="{D3E3CCD5-0CB8-4E7D-BB00-353131729589}">
       <text>
         <r>
           <rPr>
@@ -515,7 +525,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C89" authorId="0" shapeId="0" xr:uid="{2B8CC10E-D90B-4E24-B19A-923A89F556EB}">
+    <comment ref="C79" authorId="0" shapeId="0" xr:uid="{2B8CC10E-D90B-4E24-B19A-923A89F556EB}">
       <text>
         <r>
           <rPr>
@@ -528,7 +538,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C90" authorId="0" shapeId="0" xr:uid="{A4F9EAF2-1D64-4A10-AF7D-F515A422F0FA}">
+    <comment ref="C80" authorId="0" shapeId="0" xr:uid="{A4F9EAF2-1D64-4A10-AF7D-F515A422F0FA}">
       <text>
         <r>
           <rPr>
@@ -541,7 +551,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D90" authorId="0" shapeId="0" xr:uid="{EA54CD95-B976-4548-BA05-EFF0F9A21C82}">
+    <comment ref="D80" authorId="0" shapeId="0" xr:uid="{EA54CD95-B976-4548-BA05-EFF0F9A21C82}">
       <text>
         <r>
           <rPr>
@@ -555,7 +565,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C91" authorId="0" shapeId="0" xr:uid="{B9929390-98CF-4C9B-8E80-FE30A5F81702}">
+    <comment ref="C81" authorId="0" shapeId="0" xr:uid="{B9929390-98CF-4C9B-8E80-FE30A5F81702}">
       <text>
         <r>
           <rPr>
@@ -579,7 +589,7 @@
     <author>jean</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{DF84A9A4-8E6E-4E64-AA32-C09222A5CD48}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{36B01168-7CD9-424E-9863-A93BA654772A}">
       <text>
         <r>
           <rPr>
@@ -593,7 +603,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{734346B1-C8D4-4527-907D-1EAF13BD2B1D}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{F769ABC1-07EE-4C09-85EB-02B7784190DD}">
       <text>
         <r>
           <rPr>
@@ -607,7 +617,21 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{7E44E4BD-D9BF-43A2-9BB8-2DF3310F9600}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{83BA963E-18B2-40DE-AE93-6AD4012F2F0D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Unless otherwise indicated in a note attached to the cell, all data collected in this column comes from : 
+Statistical Report 2018-2019, Glass Alliance Europe, 2019.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{7E44E4BD-D9BF-43A2-9BB8-2DF3310F9600}">
       <text>
         <r>
           <rPr>
@@ -620,22 +644,6 @@
 PRODCOM, Eurostat, 2020
 Code: 23121330
 Label: Multiple-walled insulating units of glass </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{9CCA60CE-3EEC-4993-A8BC-77713533104D}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Unless otherwise indicated in a note attached to the cell, all data collected in this column comes from:
-PRODCOM, Eurostat, 2020
-Code: 23111217 
-Label: Non-wired sheets, of float, surface ground or polished glass, having an absorbent or reflecting layer, not otherwise worked, of a thickness &gt; 3,5 mm </t>
         </r>
       </text>
     </comment>
@@ -671,7 +679,59 @@
         </r>
       </text>
     </comment>
-    <comment ref="C56" authorId="0" shapeId="0" xr:uid="{460A2D85-B99F-4E9D-A3FF-3E710D1DABF3}">
+    <comment ref="C53" authorId="0" shapeId="0" xr:uid="{75D1EFAC-3A48-4569-A73B-CC7C50554E25}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PRODCOM, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C54" authorId="0" shapeId="0" xr:uid="{8774EF82-D61F-46E1-BD32-88D45F330D06}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PRODCOM, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C55" authorId="0" shapeId="0" xr:uid="{7FB1EA9A-C921-4824-B000-8D0BA40CCBF7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PRODCOM, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C56" authorId="0" shapeId="0" xr:uid="{046B1B06-CAC9-4D30-8C02-E10DF5AA3106}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PRODCOM, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D56" authorId="0" shapeId="0" xr:uid="{460A2D85-B99F-4E9D-A3FF-3E710D1DABF3}">
       <text>
         <r>
           <rPr>
@@ -684,7 +744,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="C57" authorId="0" shapeId="0" xr:uid="{527847D6-D6B4-4289-AABE-2E7887D0309C}">
+    <comment ref="C57" authorId="0" shapeId="0" xr:uid="{06063FCE-F25E-4ADE-9B5F-A613162E2000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PRODCOM, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D57" authorId="0" shapeId="0" xr:uid="{527847D6-D6B4-4289-AABE-2E7887D0309C}">
       <text>
         <r>
           <rPr>
@@ -697,7 +770,85 @@
         </r>
       </text>
     </comment>
-    <comment ref="C64" authorId="0" shapeId="0" xr:uid="{0ECBAB56-5171-4FD8-8583-BA3C4DACF07F}">
+    <comment ref="C58" authorId="0" shapeId="0" xr:uid="{DB18610C-73A1-4C9E-AB94-D8E22F59A21A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PRODCOM, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C59" authorId="0" shapeId="0" xr:uid="{B9A4A9E5-68F0-45F6-B0BE-55A0B278E4A8}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PRODCOM, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C60" authorId="0" shapeId="0" xr:uid="{D8158D47-EEB6-4A29-96FE-88E1EA88597F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PRODCOM, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C61" authorId="0" shapeId="0" xr:uid="{3E80839C-5321-4543-BFB9-8D10322B7607}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PRODCOM, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C62" authorId="0" shapeId="0" xr:uid="{532B329C-8697-4D3E-BDAC-F9326DC57D26}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PRODCOM, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C63" authorId="0" shapeId="0" xr:uid="{63646367-D2FD-4E9F-963A-37B6F657DC90}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PRODCOM, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D64" authorId="0" shapeId="0" xr:uid="{0ECBAB56-5171-4FD8-8583-BA3C4DACF07F}">
       <text>
         <r>
           <rPr>
@@ -711,7 +862,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C68" authorId="0" shapeId="0" xr:uid="{BFA2359C-8DAC-40C2-A6B1-4F17DEB02D73}">
+    <comment ref="C68" authorId="0" shapeId="0" xr:uid="{42B011F6-32EB-4A59-B47F-0E7511916AB8}">
       <text>
         <r>
           <rPr>
@@ -720,11 +871,37 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>"EU glass industry 2004-5", Verre, vol. 12, n°5, October 2006, p. 78-9</t>
+          <t>PRODCOM, Eurostat, 2020</t>
         </r>
       </text>
     </comment>
-    <comment ref="C69" authorId="0" shapeId="0" xr:uid="{6DCF18C4-CF40-4C9F-AB01-A03DC29900C1}">
+    <comment ref="C69" authorId="0" shapeId="0" xr:uid="{D865F151-E977-47B9-8553-F2DCB8DC12F4}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PRODCOM, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C70" authorId="0" shapeId="0" xr:uid="{FC8C7925-D2E6-47CF-ADFE-33FDE152CE09}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PRODCOM, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D71" authorId="0" shapeId="0" xr:uid="{6DCF18C4-CF40-4C9F-AB01-A03DC29900C1}">
       <text>
         <r>
           <rPr>
@@ -737,7 +914,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D69" authorId="0" shapeId="0" xr:uid="{894BAE6B-2FEB-494D-B07A-7E7A7D85DA2C}">
+    <comment ref="E71" authorId="0" shapeId="0" xr:uid="{894BAE6B-2FEB-494D-B07A-7E7A7D85DA2C}">
       <text>
         <r>
           <rPr>
@@ -750,7 +927,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C70" authorId="0" shapeId="0" xr:uid="{D9E70016-A292-45D5-ABFB-ED6C209D1A54}">
+    <comment ref="D72" authorId="0" shapeId="0" xr:uid="{D9E70016-A292-45D5-ABFB-ED6C209D1A54}">
       <text>
         <r>
           <rPr>
@@ -763,7 +940,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D70" authorId="0" shapeId="0" xr:uid="{0DAD9C07-AD8B-44E1-96BD-B7F1FD788A20}">
+    <comment ref="E72" authorId="0" shapeId="0" xr:uid="{0DAD9C07-AD8B-44E1-96BD-B7F1FD788A20}">
       <text>
         <r>
           <rPr>
@@ -786,7 +963,7 @@
     <author>jean</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{56EC9883-838D-4DE1-8597-562FB29DFBF9}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{E563F93E-5361-4C28-BAC0-361BEBC7B952}">
       <text>
         <r>
           <rPr>
@@ -800,7 +977,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{E354E382-5EC0-480A-B0E1-88C3825F425D}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{56EC9883-838D-4DE1-8597-562FB29DFBF9}">
       <text>
         <r>
           <rPr>
@@ -814,7 +991,21 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{7B043CCB-264C-4F34-8E9F-2050C26C1F60}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{E354E382-5EC0-480A-B0E1-88C3825F425D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Unless otherwise indicated in a note attached to the cell, all data collected in this column comes from : 
+Statistical Report 2018-2019, Glass Alliance Europe, 2019.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{7B043CCB-264C-4F34-8E9F-2050C26C1F60}">
       <text>
         <r>
           <rPr>
@@ -827,22 +1018,6 @@
 PRODCOM, Eurostat, 2020
 Code: 23121330
 Label: Multiple-walled insulating units of glass </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{CD660EAA-1DC0-4B2A-B025-E710A8597A8E}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Unless otherwise indicated in a note attached to the cell, all data collected in this column comes from:
-PRODCOM, Eurostat, 2020
-Code: 23111217 
-Label: Non-wired sheets, of float, surface ground or polished glass, having an absorbent or reflecting layer, not otherwise worked, of a thickness &gt; 3,5 mm </t>
         </r>
       </text>
     </comment>
@@ -878,7 +1053,59 @@
         </r>
       </text>
     </comment>
-    <comment ref="C56" authorId="0" shapeId="0" xr:uid="{DC9B0559-4DE5-433B-8C8C-D80AE464D719}">
+    <comment ref="C53" authorId="0" shapeId="0" xr:uid="{F7FC6F83-AD4D-4216-8488-A9F4DD64818D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PRODCOM, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C54" authorId="0" shapeId="0" xr:uid="{5E21A32F-01C0-4BF2-8C2A-89F3727FDAC4}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PRODCOM, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C55" authorId="0" shapeId="0" xr:uid="{54A8468F-93F4-456E-A5EB-14A81F78E107}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PRODCOM, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C56" authorId="0" shapeId="0" xr:uid="{E8802FB6-99A7-46B8-9D8B-54CA9212A2CD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PRODCOM, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D56" authorId="0" shapeId="0" xr:uid="{DC9B0559-4DE5-433B-8C8C-D80AE464D719}">
       <text>
         <r>
           <rPr>
@@ -891,7 +1118,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="C57" authorId="0" shapeId="0" xr:uid="{C16C9800-E7FB-47B6-B934-AE69624684B6}">
+    <comment ref="C57" authorId="0" shapeId="0" xr:uid="{E3B0B3B3-1AB8-4708-8B28-9BF29DDBCCCE}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PRODCOM, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D57" authorId="0" shapeId="0" xr:uid="{C16C9800-E7FB-47B6-B934-AE69624684B6}">
       <text>
         <r>
           <rPr>
@@ -904,7 +1144,85 @@
         </r>
       </text>
     </comment>
-    <comment ref="C64" authorId="0" shapeId="0" xr:uid="{2DD9C977-7E7F-4630-9FF0-497CA83A0C3A}">
+    <comment ref="C58" authorId="0" shapeId="0" xr:uid="{DCE03363-DD6B-4F81-9939-06553EF6EB11}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PRODCOM, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C59" authorId="0" shapeId="0" xr:uid="{45A86C9F-0BA3-45D0-8A02-CCFAAC556904}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PRODCOM, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C60" authorId="0" shapeId="0" xr:uid="{4D341467-6072-422A-B236-8FC7678F0785}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PRODCOM, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C61" authorId="0" shapeId="0" xr:uid="{AF3A0F54-9D58-4EBB-BB31-5F37D6133D15}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PRODCOM, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C62" authorId="0" shapeId="0" xr:uid="{7A5E9FF7-3275-42ED-BA8A-0183A5D85528}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PRODCOM, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C63" authorId="0" shapeId="0" xr:uid="{2F9F27B2-CFC7-47C6-AB3A-03ED61E6681A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PRODCOM, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D64" authorId="0" shapeId="0" xr:uid="{2DD9C977-7E7F-4630-9FF0-497CA83A0C3A}">
       <text>
         <r>
           <rPr>
@@ -919,7 +1237,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C68" authorId="0" shapeId="0" xr:uid="{3ADD79B6-F0A7-4B6F-8090-938FDDF41222}">
+    <comment ref="C68" authorId="0" shapeId="0" xr:uid="{3CB5E35A-94E9-4DF3-BCE6-888692D98EF9}">
       <text>
         <r>
           <rPr>
@@ -928,11 +1246,37 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>"EU glass industry 2004-5", Verre, vol. 12, n°5, October 2006, p. 78-9</t>
+          <t>PRODCOM, Eurostat, 2020</t>
         </r>
       </text>
     </comment>
-    <comment ref="C69" authorId="0" shapeId="0" xr:uid="{816167FF-0B5F-42BE-A8BD-5F96791C722A}">
+    <comment ref="C69" authorId="0" shapeId="0" xr:uid="{91F16BAA-1572-4EA7-AEC8-685B78F92F45}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PRODCOM, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C70" authorId="0" shapeId="0" xr:uid="{58145A59-CA3F-408D-94A8-38F8FA561B3E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PRODCOM, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D71" authorId="0" shapeId="0" xr:uid="{816167FF-0B5F-42BE-A8BD-5F96791C722A}">
       <text>
         <r>
           <rPr>
@@ -945,7 +1289,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D69" authorId="0" shapeId="0" xr:uid="{0003E6B0-B7EF-4880-89DA-F546D6B9AE2B}">
+    <comment ref="E71" authorId="0" shapeId="0" xr:uid="{0003E6B0-B7EF-4880-89DA-F546D6B9AE2B}">
       <text>
         <r>
           <rPr>
@@ -958,7 +1302,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C70" authorId="0" shapeId="0" xr:uid="{4268157F-E551-4D1D-BCBD-1B6904ECB103}">
+    <comment ref="D72" authorId="0" shapeId="0" xr:uid="{4268157F-E551-4D1D-BCBD-1B6904ECB103}">
       <text>
         <r>
           <rPr>
@@ -971,7 +1315,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D70" authorId="0" shapeId="0" xr:uid="{27945D53-9EE0-4742-A0CF-637ECCF5FC7F}">
+    <comment ref="E72" authorId="0" shapeId="0" xr:uid="{27945D53-9EE0-4742-A0CF-637ECCF5FC7F}">
       <text>
         <r>
           <rPr>
@@ -1502,7 +1846,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
   <si>
     <t>year</t>
   </si>
@@ -1529,9 +1873,6 @@
   </si>
   <si>
     <t>productivity in the glass industry, t/employee</t>
-  </si>
-  <si>
-    <t>processed flat glass, kt</t>
   </si>
   <si>
     <t>flat glass ind., unit</t>
@@ -1571,9 +1912,6 @@
   </si>
   <si>
     <t>IGU, "000 m²</t>
-  </si>
-  <si>
-    <t>float glass w/ reflecting layer, "000 m²</t>
   </si>
   <si>
     <t>LSG for bldg, "000 m²</t>
@@ -1644,14 +1982,21 @@
   <si>
     <t>bldg glass/flat glass, %</t>
   </si>
+  <si>
+    <t>flat glass (unworked), kt</t>
+  </si>
+  <si>
+    <t>flat glass (processed), kt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0\ _z_ł_-;\-* #,##0\ _z_ł_-;_-* &quot;-&quot;??\ _z_ł_-;_-@_-"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -1781,7 +2126,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1920,6 +2265,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3659,13 +4005,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="46" t="s">
         <v>18</v>
-      </c>
-      <c r="D1" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="46" t="s">
-        <v>19</v>
       </c>
       <c r="F1" s="46" t="s">
         <v>1</v>
@@ -5075,10 +5421,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{984B49BA-6D54-42C1-84EE-7F8663080B50}">
-  <dimension ref="A1:BU115"/>
+  <dimension ref="A1:BT105"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5086,12 +5435,12 @@
     <col min="1" max="1" width="12.28515625" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" style="10" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" style="8" customWidth="1"/>
-    <col min="4" max="8" width="20.85546875" style="4" customWidth="1"/>
-    <col min="9" max="17" width="17.7109375" style="4" customWidth="1"/>
-    <col min="18" max="16384" width="10.7109375" style="6"/>
+    <col min="4" max="7" width="20.85546875" style="4" customWidth="1"/>
+    <col min="8" max="16" width="17.7109375" style="4" customWidth="1"/>
+    <col min="17" max="16384" width="10.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
         <v>4</v>
       </c>
@@ -5102,22 +5451,19 @@
         <v>3</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>6</v>
       </c>
@@ -5138,9 +5484,8 @@
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>6</v>
       </c>
@@ -5160,9 +5505,8 @@
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>6</v>
       </c>
@@ -5182,9 +5526,8 @@
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>6</v>
       </c>
@@ -5204,9 +5547,8 @@
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>6</v>
       </c>
@@ -5226,9 +5568,8 @@
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -5238,8 +5579,8 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -5248,9 +5589,8 @@
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -5270,9 +5610,8 @@
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -5292,9 +5631,8 @@
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -5314,9 +5652,8 @@
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>6</v>
       </c>
@@ -5336,9 +5673,8 @@
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>6</v>
       </c>
@@ -5358,9 +5694,8 @@
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>6</v>
       </c>
@@ -5380,9 +5715,8 @@
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>6</v>
       </c>
@@ -5402,9 +5736,8 @@
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>6</v>
       </c>
@@ -5425,9 +5758,8 @@
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>6</v>
       </c>
@@ -5448,9 +5780,8 @@
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>6</v>
       </c>
@@ -5470,9 +5801,8 @@
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>6</v>
       </c>
@@ -5492,9 +5822,8 @@
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>6</v>
       </c>
@@ -5514,9 +5843,8 @@
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>6</v>
       </c>
@@ -5536,9 +5864,8 @@
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>6</v>
       </c>
@@ -5558,9 +5885,8 @@
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>6</v>
       </c>
@@ -5580,9 +5906,8 @@
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>6</v>
       </c>
@@ -5602,9 +5927,8 @@
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>6</v>
       </c>
@@ -5624,9 +5948,8 @@
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>6</v>
       </c>
@@ -5646,9 +5969,8 @@
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>6</v>
       </c>
@@ -5668,9 +5990,8 @@
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>6</v>
       </c>
@@ -5692,9 +6013,8 @@
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>
       <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>6</v>
       </c>
@@ -5714,9 +6034,8 @@
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>9</v>
       </c>
@@ -5737,9 +6056,8 @@
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
       <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>9</v>
       </c>
@@ -5760,9 +6078,8 @@
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
       <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>9</v>
       </c>
@@ -5783,9 +6100,8 @@
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
       <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>9</v>
       </c>
@@ -5807,9 +6123,8 @@
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
       <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>9</v>
       </c>
@@ -5829,9 +6144,8 @@
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
       <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>9</v>
       </c>
@@ -5851,9 +6165,8 @@
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
       <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>9</v>
       </c>
@@ -5875,9 +6188,8 @@
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
       <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>9</v>
       </c>
@@ -5897,9 +6209,8 @@
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
       <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>10</v>
       </c>
@@ -5922,9 +6233,8 @@
       <c r="N37" s="8"/>
       <c r="O37" s="8"/>
       <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>10</v>
       </c>
@@ -5949,9 +6259,8 @@
       <c r="N38" s="8"/>
       <c r="O38" s="8"/>
       <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>10</v>
       </c>
@@ -5974,9 +6283,8 @@
       <c r="N39" s="8"/>
       <c r="O39" s="8"/>
       <c r="P39" s="8"/>
-      <c r="Q39" s="8"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>10</v>
       </c>
@@ -5999,9 +6307,8 @@
       <c r="N40" s="8"/>
       <c r="O40" s="8"/>
       <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>10</v>
       </c>
@@ -6022,9 +6329,8 @@
       <c r="N41" s="8"/>
       <c r="O41" s="8"/>
       <c r="P41" s="8"/>
-      <c r="Q41" s="8"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>10</v>
       </c>
@@ -6047,9 +6353,8 @@
       <c r="N42" s="8"/>
       <c r="O42" s="8"/>
       <c r="P42" s="8"/>
-      <c r="Q42" s="8"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>12</v>
       </c>
@@ -6072,9 +6377,8 @@
       <c r="N43" s="8"/>
       <c r="O43" s="8"/>
       <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>12</v>
       </c>
@@ -6097,9 +6401,8 @@
       <c r="N44" s="8"/>
       <c r="O44" s="8"/>
       <c r="P44" s="8"/>
-      <c r="Q44" s="8"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>12</v>
       </c>
@@ -6122,9 +6425,8 @@
       <c r="N45" s="8"/>
       <c r="O45" s="8"/>
       <c r="P45" s="8"/>
-      <c r="Q45" s="8"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>12</v>
       </c>
@@ -6147,9 +6449,8 @@
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
       <c r="P46" s="8"/>
-      <c r="Q46" s="8"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>12</v>
       </c>
@@ -6172,9 +6473,8 @@
       <c r="N47" s="8"/>
       <c r="O47" s="8"/>
       <c r="P47" s="8"/>
-      <c r="Q47" s="8"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>12</v>
       </c>
@@ -6197,9 +6497,8 @@
       <c r="N48" s="8"/>
       <c r="O48" s="8"/>
       <c r="P48" s="8"/>
-      <c r="Q48" s="8"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>12</v>
       </c>
@@ -6222,9 +6521,8 @@
       <c r="N49" s="8"/>
       <c r="O49" s="8"/>
       <c r="P49" s="8"/>
-      <c r="Q49" s="8"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>12</v>
       </c>
@@ -6247,9 +6545,8 @@
       <c r="N50" s="8"/>
       <c r="O50" s="8"/>
       <c r="P50" s="8"/>
-      <c r="Q50" s="8"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>12</v>
       </c>
@@ -6272,9 +6569,8 @@
       <c r="N51" s="8"/>
       <c r="O51" s="8"/>
       <c r="P51" s="8"/>
-      <c r="Q51" s="8"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>12</v>
       </c>
@@ -6286,6 +6582,7 @@
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
@@ -6296,9 +6593,8 @@
       <c r="N52" s="8"/>
       <c r="O52" s="8"/>
       <c r="P52" s="8"/>
-      <c r="Q52" s="8"/>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>15</v>
       </c>
@@ -6312,13 +6608,13 @@
       <c r="E53" s="23">
         <v>60600</v>
       </c>
-      <c r="F53" s="23"/>
+      <c r="F53" s="23">
+        <v>25796.228999999999</v>
+      </c>
       <c r="G53" s="23">
-        <v>25796.228999999999</v>
-      </c>
-      <c r="H53" s="23">
         <v>31200</v>
       </c>
+      <c r="H53" s="8"/>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
@@ -6327,9 +6623,8 @@
       <c r="N53" s="8"/>
       <c r="O53" s="8"/>
       <c r="P53" s="8"/>
-      <c r="Q53" s="8"/>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>15</v>
       </c>
@@ -6347,14 +6642,12 @@
         <v>74400</v>
       </c>
       <c r="F54" s="23">
-        <v>226448.15900000001</v>
+        <v>32690.953000000001</v>
       </c>
       <c r="G54" s="23">
-        <v>32690.953000000001</v>
-      </c>
-      <c r="H54" s="23">
         <v>36553.089</v>
       </c>
+      <c r="H54" s="8"/>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
@@ -6363,9 +6656,8 @@
       <c r="N54" s="8"/>
       <c r="O54" s="8"/>
       <c r="P54" s="8"/>
-      <c r="Q54" s="8"/>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>15</v>
       </c>
@@ -6380,14 +6672,12 @@
         <v>78500</v>
       </c>
       <c r="F55" s="23">
-        <v>210000</v>
+        <v>41397.082000000002</v>
       </c>
       <c r="G55" s="23">
-        <v>41397.082000000002</v>
-      </c>
-      <c r="H55" s="23">
         <v>35336.627999999997</v>
       </c>
+      <c r="H55" s="8"/>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
@@ -6396,9 +6686,8 @@
       <c r="N55" s="8"/>
       <c r="O55" s="8"/>
       <c r="P55" s="8"/>
-      <c r="Q55" s="8"/>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>15</v>
       </c>
@@ -6413,14 +6702,12 @@
         <v>84266.865000000005</v>
       </c>
       <c r="F56" s="23">
-        <v>300000</v>
+        <v>44100</v>
       </c>
       <c r="G56" s="23">
-        <v>44100</v>
-      </c>
-      <c r="H56" s="23">
         <v>37534.491999999998</v>
       </c>
+      <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="8"/>
@@ -6428,9 +6715,8 @@
       <c r="N56" s="8"/>
       <c r="O56" s="8"/>
       <c r="P56" s="8"/>
-      <c r="Q56" s="8"/>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>15</v>
       </c>
@@ -6445,14 +6731,12 @@
         <v>82744.091</v>
       </c>
       <c r="F57" s="23">
-        <v>350000</v>
+        <v>48000</v>
       </c>
       <c r="G57" s="23">
-        <v>48000</v>
-      </c>
-      <c r="H57" s="23">
         <v>47223.747000000003</v>
       </c>
+      <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="8"/>
@@ -6460,9 +6744,8 @@
       <c r="N57" s="8"/>
       <c r="O57" s="8"/>
       <c r="P57" s="8"/>
-      <c r="Q57" s="8"/>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>15</v>
       </c>
@@ -6477,14 +6760,12 @@
         <v>86330.619000000006</v>
       </c>
       <c r="F58" s="23">
-        <v>320000</v>
+        <v>60000</v>
       </c>
       <c r="G58" s="23">
-        <v>60000</v>
-      </c>
-      <c r="H58" s="23">
         <v>46216.288999999997</v>
       </c>
+      <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="8"/>
@@ -6492,9 +6773,8 @@
       <c r="N58" s="8"/>
       <c r="O58" s="8"/>
       <c r="P58" s="8"/>
-      <c r="Q58" s="8"/>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>15</v>
       </c>
@@ -6509,14 +6789,12 @@
         <v>92966.712</v>
       </c>
       <c r="F59" s="23">
-        <v>250000</v>
+        <v>52234.777000000002</v>
       </c>
       <c r="G59" s="23">
-        <v>52234.777000000002</v>
-      </c>
-      <c r="H59" s="23">
         <v>53590.887000000002</v>
       </c>
+      <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="8"/>
@@ -6524,9 +6802,8 @@
       <c r="N59" s="8"/>
       <c r="O59" s="8"/>
       <c r="P59" s="8"/>
-      <c r="Q59" s="8"/>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>15</v>
       </c>
@@ -6541,14 +6818,12 @@
         <v>98642.020999999993</v>
       </c>
       <c r="F60" s="23">
-        <v>248185.33900000001</v>
+        <v>57701.517999999996</v>
       </c>
       <c r="G60" s="23">
-        <v>57701.517999999996</v>
-      </c>
-      <c r="H60" s="23">
         <v>51940.305</v>
       </c>
+      <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="8"/>
@@ -6556,9 +6831,8 @@
       <c r="N60" s="8"/>
       <c r="O60" s="8"/>
       <c r="P60" s="8"/>
-      <c r="Q60" s="8"/>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>15</v>
       </c>
@@ -6573,14 +6847,12 @@
         <v>95425.483999999997</v>
       </c>
       <c r="F61" s="23">
-        <v>237571.15400000001</v>
+        <v>68000</v>
       </c>
       <c r="G61" s="23">
-        <v>68000</v>
-      </c>
-      <c r="H61" s="23">
         <v>49243.307999999997</v>
       </c>
+      <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="8"/>
@@ -6588,29 +6860,21 @@
       <c r="N61" s="8"/>
       <c r="O61" s="8"/>
       <c r="P61" s="8"/>
-      <c r="Q61" s="8"/>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B62" s="11">
         <v>2004</v>
       </c>
-      <c r="C62" s="20"/>
+      <c r="C62" s="20">
+        <v>9220</v>
+      </c>
       <c r="D62" s="23"/>
-      <c r="E62" s="23">
-        <v>101697.42</v>
-      </c>
-      <c r="F62" s="23">
-        <v>257569.31899999999</v>
-      </c>
-      <c r="G62" s="23">
-        <v>71730.678</v>
-      </c>
-      <c r="H62" s="23">
-        <v>49000</v>
-      </c>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="8"/>
@@ -6618,29 +6882,21 @@
       <c r="N62" s="8"/>
       <c r="O62" s="8"/>
       <c r="P62" s="8"/>
-      <c r="Q62" s="8"/>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B63" s="11">
         <v>2005</v>
       </c>
-      <c r="C63" s="20"/>
+      <c r="C63" s="20">
+        <v>9372</v>
+      </c>
       <c r="D63" s="23"/>
-      <c r="E63" s="23">
-        <v>98495.653000000006</v>
-      </c>
-      <c r="F63" s="23">
-        <v>252066.77900000001</v>
-      </c>
-      <c r="G63" s="23">
-        <v>77580.266000000003</v>
-      </c>
-      <c r="H63" s="23">
-        <v>43140</v>
-      </c>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
+      <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="8"/>
@@ -6648,20 +6904,21 @@
       <c r="N63" s="8"/>
       <c r="O63" s="8"/>
       <c r="P63" s="8"/>
-      <c r="Q63" s="8"/>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>25</v>
       </c>
       <c r="B64" s="11">
-        <v>2003</v>
-      </c>
-      <c r="C64" s="6"/>
+        <v>2006</v>
+      </c>
+      <c r="C64" s="20">
+        <v>9605</v>
+      </c>
       <c r="D64" s="23"/>
       <c r="E64" s="23"/>
       <c r="F64" s="23"/>
-      <c r="G64" s="23"/>
+      <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="8"/>
@@ -6669,22 +6926,28 @@
       <c r="N64" s="8"/>
       <c r="O64" s="8"/>
       <c r="P64" s="8"/>
-      <c r="Q64" s="8"/>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B65" s="11">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C65" s="20">
-        <v>9220</v>
-      </c>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
+        <v>8691.1670157000008</v>
+      </c>
+      <c r="D65" s="50"/>
+      <c r="E65" s="23">
+        <v>113192.66800000001</v>
+      </c>
+      <c r="F65" s="23">
+        <v>68405.209000000003</v>
+      </c>
+      <c r="G65" s="4">
+        <v>55565.65</v>
+      </c>
+      <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="8"/>
@@ -6692,22 +6955,28 @@
       <c r="N65" s="8"/>
       <c r="O65" s="8"/>
       <c r="P65" s="8"/>
-      <c r="Q65" s="8"/>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B66" s="11">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C66" s="20">
-        <v>9372</v>
-      </c>
-      <c r="D66" s="23"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="23"/>
+        <v>10382.656077550002</v>
+      </c>
+      <c r="D66" s="50"/>
+      <c r="E66" s="23">
+        <v>181005.50700000001</v>
+      </c>
+      <c r="F66" s="23">
+        <v>73752.312000000005</v>
+      </c>
+      <c r="G66" s="4">
+        <v>59086.072999999997</v>
+      </c>
+      <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="8"/>
@@ -6715,22 +6984,28 @@
       <c r="N66" s="8"/>
       <c r="O66" s="8"/>
       <c r="P66" s="8"/>
-      <c r="Q66" s="8"/>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B67" s="11">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C67" s="20">
-        <v>9605</v>
-      </c>
-      <c r="D67" s="23"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="23"/>
+        <v>9692</v>
+      </c>
+      <c r="D67" s="50"/>
+      <c r="E67" s="23">
+        <v>121769.47</v>
+      </c>
+      <c r="F67" s="23">
+        <v>80093.182000000001</v>
+      </c>
+      <c r="G67" s="4">
+        <v>55642.788999999997</v>
+      </c>
+      <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="8"/>
@@ -6738,22 +7013,28 @@
       <c r="N67" s="8"/>
       <c r="O67" s="8"/>
       <c r="P67" s="8"/>
-      <c r="Q67" s="8"/>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>27</v>
       </c>
       <c r="B68" s="11">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="C68" s="20">
-        <v>9692</v>
-      </c>
-      <c r="D68" s="23"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="23"/>
-      <c r="G68" s="23"/>
+        <v>9981</v>
+      </c>
+      <c r="D68" s="50"/>
+      <c r="E68" s="23">
+        <v>142026.62299999999</v>
+      </c>
+      <c r="F68" s="23">
+        <v>97098.35</v>
+      </c>
+      <c r="G68" s="4">
+        <v>64801.589</v>
+      </c>
+      <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="8"/>
@@ -6761,22 +7042,28 @@
       <c r="N68" s="8"/>
       <c r="O68" s="8"/>
       <c r="P68" s="8"/>
-      <c r="Q68" s="8"/>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>27</v>
       </c>
       <c r="B69" s="11">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="C69" s="20">
-        <v>9981</v>
-      </c>
-      <c r="D69" s="23"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="23"/>
-      <c r="G69" s="23"/>
+        <v>10261.653</v>
+      </c>
+      <c r="D69" s="50"/>
+      <c r="E69" s="23">
+        <v>148000</v>
+      </c>
+      <c r="F69" s="23">
+        <v>101911.291</v>
+      </c>
+      <c r="G69" s="4">
+        <v>65669.297000000006</v>
+      </c>
+      <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="8"/>
@@ -6784,22 +7071,28 @@
       <c r="N69" s="8"/>
       <c r="O69" s="8"/>
       <c r="P69" s="8"/>
-      <c r="Q69" s="8"/>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>27</v>
       </c>
       <c r="B70" s="11">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C70" s="20">
-        <v>10261.653</v>
-      </c>
-      <c r="D70" s="23"/>
-      <c r="E70" s="23"/>
-      <c r="F70" s="23"/>
-      <c r="G70" s="23"/>
+        <v>9865</v>
+      </c>
+      <c r="D70" s="50"/>
+      <c r="E70" s="23">
+        <v>136000</v>
+      </c>
+      <c r="F70" s="23">
+        <v>107679.027</v>
+      </c>
+      <c r="G70" s="4">
+        <v>56321.105000000003</v>
+      </c>
+      <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="8"/>
@@ -6807,22 +7100,28 @@
       <c r="N70" s="8"/>
       <c r="O70" s="8"/>
       <c r="P70" s="8"/>
-      <c r="Q70" s="8"/>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>27</v>
       </c>
       <c r="B71" s="11">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C71" s="20">
-        <v>9865</v>
-      </c>
-      <c r="D71" s="23"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="23"/>
-      <c r="G71" s="23"/>
+        <v>8965</v>
+      </c>
+      <c r="D71" s="50"/>
+      <c r="E71" s="23">
+        <v>118000</v>
+      </c>
+      <c r="F71" s="23">
+        <v>88115.28</v>
+      </c>
+      <c r="G71" s="4">
+        <v>50145.05</v>
+      </c>
+      <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="8"/>
@@ -6830,22 +7129,28 @@
       <c r="N71" s="8"/>
       <c r="O71" s="8"/>
       <c r="P71" s="8"/>
-      <c r="Q71" s="8"/>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>27</v>
       </c>
       <c r="B72" s="11">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C72" s="20">
-        <v>8965</v>
-      </c>
-      <c r="D72" s="23"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="23"/>
-      <c r="G72" s="23"/>
+        <v>10099</v>
+      </c>
+      <c r="D72" s="50"/>
+      <c r="E72" s="23">
+        <v>120000</v>
+      </c>
+      <c r="F72" s="23">
+        <v>76946.489000000001</v>
+      </c>
+      <c r="G72" s="4">
+        <v>52428.658000000003</v>
+      </c>
+      <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="8"/>
@@ -6853,22 +7158,28 @@
       <c r="N72" s="8"/>
       <c r="O72" s="8"/>
       <c r="P72" s="8"/>
-      <c r="Q72" s="8"/>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>27</v>
       </c>
       <c r="B73" s="11">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C73" s="20">
-        <v>10099</v>
-      </c>
-      <c r="D73" s="23"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="23"/>
-      <c r="G73" s="23"/>
+        <v>10293</v>
+      </c>
+      <c r="D73" s="50"/>
+      <c r="E73" s="23">
+        <v>120000</v>
+      </c>
+      <c r="F73" s="23">
+        <v>81032.27</v>
+      </c>
+      <c r="G73" s="4">
+        <v>62346.044000000002</v>
+      </c>
+      <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="8"/>
@@ -6876,22 +7187,28 @@
       <c r="N73" s="8"/>
       <c r="O73" s="8"/>
       <c r="P73" s="8"/>
-      <c r="Q73" s="8"/>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B74" s="11">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C74" s="20">
-        <v>10293</v>
+        <v>9216</v>
       </c>
       <c r="D74" s="23"/>
-      <c r="E74" s="23"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="23"/>
+      <c r="E74" s="23">
+        <v>112904.86900000001</v>
+      </c>
+      <c r="F74" s="23">
+        <v>77789.354000000007</v>
+      </c>
+      <c r="G74" s="23">
+        <v>62604.678</v>
+      </c>
+      <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="8"/>
@@ -6899,29 +7216,28 @@
       <c r="N74" s="8"/>
       <c r="O74" s="8"/>
       <c r="P74" s="8"/>
-      <c r="Q74" s="8"/>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>28</v>
       </c>
       <c r="B75" s="11">
-        <v>2003</v>
-      </c>
-      <c r="C75" s="20"/>
+        <v>2013</v>
+      </c>
+      <c r="C75" s="20">
+        <v>8893</v>
+      </c>
       <c r="D75" s="23"/>
       <c r="E75" s="23">
-        <v>113251.666</v>
+        <v>105000</v>
       </c>
       <c r="F75" s="23">
-        <v>263971.15399999998</v>
+        <v>75012.630999999994</v>
       </c>
       <c r="G75" s="23">
-        <v>68413.452000000005</v>
-      </c>
-      <c r="H75" s="23">
-        <v>55647.65</v>
-      </c>
+        <v>56927.894</v>
+      </c>
+      <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="8"/>
@@ -6929,29 +7245,28 @@
       <c r="N75" s="8"/>
       <c r="O75" s="8"/>
       <c r="P75" s="8"/>
-      <c r="Q75" s="8"/>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>28</v>
       </c>
       <c r="B76" s="11">
-        <v>2004</v>
-      </c>
-      <c r="C76" s="20"/>
+        <v>2014</v>
+      </c>
+      <c r="C76" s="20">
+        <v>9284</v>
+      </c>
       <c r="D76" s="23"/>
       <c r="E76" s="23">
-        <v>181089.446</v>
+        <v>110466.864</v>
       </c>
       <c r="F76" s="23">
-        <v>293969.31900000002</v>
+        <v>93402.23</v>
       </c>
       <c r="G76" s="23">
-        <v>73793.736000000004</v>
-      </c>
-      <c r="H76" s="23">
-        <v>59187.250999999997</v>
-      </c>
+        <v>58911</v>
+      </c>
+      <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="8"/>
@@ -6959,29 +7274,28 @@
       <c r="N76" s="8"/>
       <c r="O76" s="8"/>
       <c r="P76" s="8"/>
-      <c r="Q76" s="8"/>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>28</v>
       </c>
       <c r="B77" s="11">
-        <v>2005</v>
-      </c>
-      <c r="C77" s="20"/>
+        <v>2015</v>
+      </c>
+      <c r="C77" s="20">
+        <v>9641</v>
+      </c>
       <c r="D77" s="23"/>
       <c r="E77" s="23">
-        <v>121797.067</v>
+        <v>116000</v>
       </c>
       <c r="F77" s="23">
-        <v>302186.723</v>
+        <v>94520.953999999998</v>
       </c>
       <c r="G77" s="23">
-        <v>80156.737999999998</v>
-      </c>
-      <c r="H77" s="23">
-        <v>55765.843000000001</v>
-      </c>
+        <v>57000</v>
+      </c>
+      <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="8"/>
@@ -6989,29 +7303,28 @@
       <c r="N77" s="8"/>
       <c r="O77" s="8"/>
       <c r="P77" s="8"/>
-      <c r="Q77" s="8"/>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>28</v>
       </c>
       <c r="B78" s="11">
-        <v>2006</v>
-      </c>
-      <c r="C78" s="20"/>
+        <v>2016</v>
+      </c>
+      <c r="C78" s="20">
+        <v>9835</v>
+      </c>
       <c r="D78" s="23"/>
       <c r="E78" s="23">
-        <v>142049.389</v>
+        <v>114000</v>
       </c>
       <c r="F78" s="23">
-        <v>345444.37800000003</v>
+        <v>85681.248000000007</v>
       </c>
       <c r="G78" s="23">
-        <v>97153.543000000005</v>
-      </c>
-      <c r="H78" s="23">
-        <v>64858.487000000001</v>
-      </c>
+        <v>55864.315999999999</v>
+      </c>
+      <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="8"/>
@@ -7019,29 +7332,29 @@
       <c r="N78" s="8"/>
       <c r="O78" s="8"/>
       <c r="P78" s="8"/>
-      <c r="Q78" s="8"/>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>28</v>
       </c>
       <c r="B79" s="11">
-        <v>2007</v>
-      </c>
-      <c r="C79" s="20"/>
+        <v>2017</v>
+      </c>
+      <c r="C79" s="20">
+        <v>10665</v>
+      </c>
       <c r="D79" s="23"/>
       <c r="E79" s="23">
-        <v>148025.71799999999</v>
+        <v>121600</v>
       </c>
       <c r="F79" s="23">
-        <v>347568.58399999997</v>
+        <v>86735.168000000005</v>
       </c>
       <c r="G79" s="23">
-        <v>101982.52499999999</v>
-      </c>
-      <c r="H79" s="23">
-        <v>65725.37</v>
-      </c>
+        <v>57552.178</v>
+      </c>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="8"/>
@@ -7049,29 +7362,31 @@
       <c r="N79" s="8"/>
       <c r="O79" s="8"/>
       <c r="P79" s="8"/>
-      <c r="Q79" s="8"/>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>28</v>
       </c>
       <c r="B80" s="11">
-        <v>2008</v>
-      </c>
-      <c r="C80" s="20"/>
-      <c r="D80" s="23"/>
+        <v>2018</v>
+      </c>
+      <c r="C80" s="20">
+        <v>10643</v>
+      </c>
+      <c r="D80" s="24">
+        <v>0.8</v>
+      </c>
       <c r="E80" s="23">
-        <v>137295.86300000001</v>
+        <v>117011.436</v>
       </c>
       <c r="F80" s="23">
-        <v>335543.20500000002</v>
+        <v>84718.142999999996</v>
       </c>
       <c r="G80" s="23">
-        <v>107755.08900000001</v>
-      </c>
-      <c r="H80" s="23">
-        <v>56763.076000000001</v>
-      </c>
+        <v>50337.612999999998</v>
+      </c>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="8"/>
@@ -7079,29 +7394,28 @@
       <c r="N80" s="8"/>
       <c r="O80" s="8"/>
       <c r="P80" s="8"/>
-      <c r="Q80" s="8"/>
-    </row>
-    <row r="81" spans="1:73" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>28</v>
       </c>
       <c r="B81" s="11">
-        <v>2009</v>
-      </c>
-      <c r="C81" s="20"/>
-      <c r="D81" s="23"/>
+        <v>2019</v>
+      </c>
+      <c r="C81" s="20">
+        <v>10840</v>
+      </c>
       <c r="E81" s="23">
-        <v>118455.64200000001</v>
+        <v>121061.246</v>
       </c>
       <c r="F81" s="23">
-        <v>266833.37099999998</v>
+        <v>95316.274000000005</v>
       </c>
       <c r="G81" s="23">
-        <v>88180.46</v>
-      </c>
-      <c r="H81" s="23">
-        <v>50598.949000000001</v>
-      </c>
+        <v>51128.069000000003</v>
+      </c>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="8"/>
@@ -7109,2076 +7423,302 @@
       <c r="N81" s="8"/>
       <c r="O81" s="8"/>
       <c r="P81" s="8"/>
-      <c r="Q81" s="8"/>
-    </row>
-    <row r="82" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
-        <v>28</v>
-      </c>
-      <c r="B82" s="11">
-        <v>2010</v>
-      </c>
-      <c r="C82" s="20"/>
+    </row>
+    <row r="82" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="30"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="8"/>
       <c r="D82" s="23"/>
-      <c r="E82" s="23">
-        <v>120097.166</v>
-      </c>
-      <c r="F82" s="23">
-        <v>281027.636</v>
-      </c>
-      <c r="G82" s="23">
-        <v>77037.201000000001</v>
-      </c>
-      <c r="H82" s="23">
-        <v>52465.947999999997</v>
-      </c>
-      <c r="J82" s="8"/>
-      <c r="K82" s="8"/>
-      <c r="L82" s="8"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="23"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
       <c r="M82" s="8"/>
       <c r="N82" s="8"/>
       <c r="O82" s="8"/>
-      <c r="P82" s="8"/>
-      <c r="Q82" s="8"/>
-    </row>
-    <row r="83" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
-        <v>28</v>
-      </c>
-      <c r="B83" s="11">
-        <v>2011</v>
-      </c>
-      <c r="C83" s="20"/>
+      <c r="Q82" s="6"/>
+      <c r="R82" s="6"/>
+      <c r="S82" s="6"/>
+      <c r="T82" s="6"/>
+      <c r="U82" s="6"/>
+      <c r="V82" s="6"/>
+      <c r="W82" s="6"/>
+      <c r="X82" s="6"/>
+      <c r="Y82" s="6"/>
+      <c r="Z82" s="6"/>
+      <c r="AA82" s="6"/>
+      <c r="AB82" s="6"/>
+      <c r="AC82" s="6"/>
+      <c r="AD82" s="6"/>
+      <c r="AE82" s="6"/>
+      <c r="AF82" s="6"/>
+      <c r="AG82" s="6"/>
+      <c r="AH82" s="6"/>
+      <c r="AI82" s="6"/>
+      <c r="AJ82" s="6"/>
+      <c r="AK82" s="6"/>
+      <c r="AL82" s="6"/>
+      <c r="AM82" s="6"/>
+      <c r="AN82" s="6"/>
+      <c r="AO82" s="6"/>
+      <c r="AP82" s="6"/>
+      <c r="AQ82" s="6"/>
+      <c r="AR82" s="6"/>
+      <c r="AS82" s="6"/>
+      <c r="AT82" s="6"/>
+      <c r="AU82" s="6"/>
+      <c r="AV82" s="6"/>
+      <c r="AW82" s="6"/>
+      <c r="AX82" s="6"/>
+      <c r="AY82" s="6"/>
+      <c r="AZ82" s="6"/>
+      <c r="BA82" s="6"/>
+      <c r="BB82" s="6"/>
+      <c r="BC82" s="6"/>
+      <c r="BD82" s="6"/>
+      <c r="BE82" s="6"/>
+      <c r="BF82" s="6"/>
+      <c r="BG82" s="6"/>
+      <c r="BH82" s="6"/>
+      <c r="BI82" s="6"/>
+      <c r="BJ82" s="6"/>
+      <c r="BK82" s="6"/>
+      <c r="BL82" s="6"/>
+      <c r="BM82" s="6"/>
+      <c r="BN82" s="6"/>
+      <c r="BO82" s="6"/>
+      <c r="BP82" s="6"/>
+      <c r="BQ82" s="6"/>
+      <c r="BR82" s="6"/>
+      <c r="BS82" s="6"/>
+      <c r="BT82" s="6"/>
+    </row>
+    <row r="83" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="30"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="8"/>
       <c r="D83" s="23"/>
-      <c r="E83" s="23">
-        <v>119555.14</v>
-      </c>
-      <c r="F83" s="23">
-        <v>268084.603</v>
-      </c>
-      <c r="G83" s="23">
-        <v>81121.335999999996</v>
-      </c>
-      <c r="H83" s="23">
-        <v>62363.332999999999</v>
-      </c>
-      <c r="J83" s="8"/>
-      <c r="K83" s="8"/>
-      <c r="L83" s="8"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="23"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
       <c r="M83" s="8"/>
       <c r="N83" s="8"/>
       <c r="O83" s="8"/>
-      <c r="P83" s="8"/>
-      <c r="Q83" s="8"/>
-    </row>
-    <row r="84" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
-        <v>28</v>
-      </c>
-      <c r="B84" s="11">
-        <v>2012</v>
-      </c>
-      <c r="C84" s="20">
-        <v>9216</v>
-      </c>
-      <c r="D84" s="23"/>
-      <c r="E84" s="23">
-        <v>112904.86900000001</v>
-      </c>
-      <c r="F84" s="23">
-        <v>261917.55600000001</v>
-      </c>
-      <c r="G84" s="23">
-        <v>77789.354000000007</v>
-      </c>
-      <c r="H84" s="23">
-        <v>62604.678</v>
-      </c>
-      <c r="J84" s="8"/>
-      <c r="K84" s="8"/>
-      <c r="L84" s="8"/>
+      <c r="Q83" s="6"/>
+      <c r="R83" s="6"/>
+      <c r="S83" s="6"/>
+      <c r="T83" s="6"/>
+      <c r="U83" s="6"/>
+      <c r="V83" s="6"/>
+      <c r="W83" s="6"/>
+      <c r="X83" s="6"/>
+      <c r="Y83" s="6"/>
+      <c r="Z83" s="6"/>
+      <c r="AA83" s="6"/>
+      <c r="AB83" s="6"/>
+      <c r="AC83" s="6"/>
+      <c r="AD83" s="6"/>
+      <c r="AE83" s="6"/>
+      <c r="AF83" s="6"/>
+      <c r="AG83" s="6"/>
+      <c r="AH83" s="6"/>
+      <c r="AI83" s="6"/>
+      <c r="AJ83" s="6"/>
+      <c r="AK83" s="6"/>
+      <c r="AL83" s="6"/>
+      <c r="AM83" s="6"/>
+      <c r="AN83" s="6"/>
+      <c r="AO83" s="6"/>
+      <c r="AP83" s="6"/>
+      <c r="AQ83" s="6"/>
+      <c r="AR83" s="6"/>
+      <c r="AS83" s="6"/>
+      <c r="AT83" s="6"/>
+      <c r="AU83" s="6"/>
+      <c r="AV83" s="6"/>
+      <c r="AW83" s="6"/>
+      <c r="AX83" s="6"/>
+      <c r="AY83" s="6"/>
+      <c r="AZ83" s="6"/>
+      <c r="BA83" s="6"/>
+      <c r="BB83" s="6"/>
+      <c r="BC83" s="6"/>
+      <c r="BD83" s="6"/>
+      <c r="BE83" s="6"/>
+      <c r="BF83" s="6"/>
+      <c r="BG83" s="6"/>
+      <c r="BH83" s="6"/>
+      <c r="BI83" s="6"/>
+      <c r="BJ83" s="6"/>
+      <c r="BK83" s="6"/>
+      <c r="BL83" s="6"/>
+      <c r="BM83" s="6"/>
+      <c r="BN83" s="6"/>
+      <c r="BO83" s="6"/>
+      <c r="BP83" s="6"/>
+      <c r="BQ83" s="6"/>
+      <c r="BR83" s="6"/>
+      <c r="BS83" s="6"/>
+      <c r="BT83" s="6"/>
+    </row>
+    <row r="84" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="30"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
       <c r="M84" s="8"/>
       <c r="N84" s="8"/>
       <c r="O84" s="8"/>
-      <c r="P84" s="8"/>
-      <c r="Q84" s="8"/>
-    </row>
-    <row r="85" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
-        <v>28</v>
-      </c>
-      <c r="B85" s="11">
-        <v>2013</v>
-      </c>
-      <c r="C85" s="20">
-        <v>8893</v>
-      </c>
-      <c r="D85" s="23"/>
-      <c r="E85" s="23">
-        <v>105000</v>
-      </c>
-      <c r="F85" s="23">
-        <v>267402.35100000002</v>
-      </c>
-      <c r="G85" s="23">
-        <v>75012.630999999994</v>
-      </c>
-      <c r="H85" s="23">
-        <v>56927.894</v>
-      </c>
-      <c r="J85" s="8"/>
-      <c r="K85" s="8"/>
-      <c r="L85" s="8"/>
-      <c r="M85" s="8"/>
-      <c r="N85" s="8"/>
-      <c r="O85" s="8"/>
-      <c r="P85" s="8"/>
-      <c r="Q85" s="8"/>
-    </row>
-    <row r="86" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
-        <v>28</v>
-      </c>
-      <c r="B86" s="11">
-        <v>2014</v>
-      </c>
-      <c r="C86" s="20">
-        <v>9284</v>
-      </c>
-      <c r="D86" s="23"/>
-      <c r="E86" s="23">
-        <v>110466.864</v>
-      </c>
-      <c r="F86" s="23">
-        <v>302240.84499999997</v>
-      </c>
-      <c r="G86" s="23">
-        <v>93402.23</v>
-      </c>
-      <c r="H86" s="23">
-        <v>58911</v>
-      </c>
-      <c r="J86" s="8"/>
-      <c r="K86" s="8"/>
-      <c r="L86" s="8"/>
-      <c r="M86" s="8"/>
-      <c r="N86" s="8"/>
-      <c r="O86" s="8"/>
-      <c r="P86" s="8"/>
-      <c r="Q86" s="8"/>
-    </row>
-    <row r="87" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
-        <v>28</v>
-      </c>
-      <c r="B87" s="11">
-        <v>2015</v>
-      </c>
-      <c r="C87" s="20">
-        <v>9641</v>
-      </c>
-      <c r="D87" s="23"/>
-      <c r="E87" s="23">
-        <v>116000</v>
-      </c>
-      <c r="F87" s="23">
-        <v>290030.24300000002</v>
-      </c>
-      <c r="G87" s="23">
-        <v>94520.953999999998</v>
-      </c>
-      <c r="H87" s="23">
-        <v>57000</v>
-      </c>
-      <c r="J87" s="8"/>
-      <c r="K87" s="8"/>
-      <c r="L87" s="8"/>
-      <c r="M87" s="8"/>
-      <c r="N87" s="8"/>
-      <c r="O87" s="8"/>
-      <c r="P87" s="8"/>
-      <c r="Q87" s="8"/>
-    </row>
-    <row r="88" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
-        <v>28</v>
-      </c>
-      <c r="B88" s="11">
-        <v>2016</v>
-      </c>
-      <c r="C88" s="20">
-        <v>9835</v>
-      </c>
-      <c r="D88" s="23"/>
-      <c r="E88" s="23">
-        <v>114000</v>
-      </c>
-      <c r="F88" s="23">
-        <v>302527.228</v>
-      </c>
-      <c r="G88" s="23">
-        <v>85681.248000000007</v>
-      </c>
-      <c r="H88" s="23">
-        <v>55864.315999999999</v>
-      </c>
-      <c r="J88" s="8"/>
-      <c r="K88" s="8"/>
-      <c r="L88" s="8"/>
-      <c r="M88" s="8"/>
-      <c r="N88" s="8"/>
-      <c r="O88" s="8"/>
-      <c r="P88" s="8"/>
-      <c r="Q88" s="8"/>
-    </row>
-    <row r="89" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A89" s="2">
-        <v>28</v>
-      </c>
-      <c r="B89" s="11">
-        <v>2017</v>
-      </c>
-      <c r="C89" s="20">
-        <v>10665</v>
-      </c>
-      <c r="D89" s="23"/>
-      <c r="E89" s="23">
-        <v>121600</v>
-      </c>
-      <c r="F89" s="23">
-        <v>286038.31300000002</v>
-      </c>
-      <c r="G89" s="23">
-        <v>86735.168000000005</v>
-      </c>
-      <c r="H89" s="23">
-        <v>57552.178</v>
-      </c>
-      <c r="I89" s="8"/>
-      <c r="J89" s="8"/>
-      <c r="K89" s="8"/>
-      <c r="L89" s="8"/>
-      <c r="M89" s="8"/>
-      <c r="N89" s="8"/>
-      <c r="O89" s="8"/>
-      <c r="P89" s="8"/>
-      <c r="Q89" s="8"/>
-    </row>
-    <row r="90" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
-        <v>28</v>
-      </c>
-      <c r="B90" s="11">
-        <v>2018</v>
-      </c>
-      <c r="C90" s="20">
-        <v>10643</v>
-      </c>
-      <c r="D90" s="24">
-        <v>0.8</v>
-      </c>
-      <c r="E90" s="23">
-        <v>117011.436</v>
-      </c>
-      <c r="F90" s="23">
-        <v>287262.00699999998</v>
-      </c>
-      <c r="G90" s="23">
-        <v>84718.142999999996</v>
-      </c>
-      <c r="H90" s="23">
-        <v>50337.612999999998</v>
-      </c>
-      <c r="I90" s="8"/>
-      <c r="J90" s="8"/>
-      <c r="K90" s="8"/>
-      <c r="L90" s="8"/>
-      <c r="M90" s="8"/>
-      <c r="N90" s="8"/>
-      <c r="O90" s="8"/>
-      <c r="P90" s="8"/>
-      <c r="Q90" s="8"/>
-    </row>
-    <row r="91" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A91" s="2">
-        <v>28</v>
-      </c>
-      <c r="B91" s="11">
-        <v>2019</v>
-      </c>
-      <c r="C91" s="20">
-        <v>10840</v>
-      </c>
-      <c r="E91" s="23">
-        <v>121061.246</v>
-      </c>
-      <c r="F91" s="23">
-        <v>296506.85100000002</v>
-      </c>
-      <c r="G91" s="23">
-        <v>95316.274000000005</v>
-      </c>
-      <c r="H91" s="23">
-        <v>51128.069000000003</v>
-      </c>
-      <c r="I91" s="8"/>
-      <c r="J91" s="8"/>
-      <c r="K91" s="8"/>
-      <c r="L91" s="8"/>
-      <c r="M91" s="8"/>
-      <c r="N91" s="8"/>
-      <c r="O91" s="8"/>
-      <c r="P91" s="8"/>
-      <c r="Q91" s="8"/>
-    </row>
-    <row r="92" spans="1:73" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="30"/>
+      <c r="Q84" s="6"/>
+      <c r="R84" s="6"/>
+      <c r="S84" s="6"/>
+      <c r="T84" s="6"/>
+      <c r="U84" s="6"/>
+      <c r="V84" s="6"/>
+      <c r="W84" s="6"/>
+      <c r="X84" s="6"/>
+      <c r="Y84" s="6"/>
+      <c r="Z84" s="6"/>
+      <c r="AA84" s="6"/>
+      <c r="AB84" s="6"/>
+      <c r="AC84" s="6"/>
+      <c r="AD84" s="6"/>
+      <c r="AE84" s="6"/>
+      <c r="AF84" s="6"/>
+      <c r="AG84" s="6"/>
+      <c r="AH84" s="6"/>
+      <c r="AI84" s="6"/>
+      <c r="AJ84" s="6"/>
+      <c r="AK84" s="6"/>
+      <c r="AL84" s="6"/>
+      <c r="AM84" s="6"/>
+      <c r="AN84" s="6"/>
+      <c r="AO84" s="6"/>
+      <c r="AP84" s="6"/>
+      <c r="AQ84" s="6"/>
+      <c r="AR84" s="6"/>
+      <c r="AS84" s="6"/>
+      <c r="AT84" s="6"/>
+      <c r="AU84" s="6"/>
+      <c r="AV84" s="6"/>
+      <c r="AW84" s="6"/>
+      <c r="AX84" s="6"/>
+      <c r="AY84" s="6"/>
+      <c r="AZ84" s="6"/>
+      <c r="BA84" s="6"/>
+      <c r="BB84" s="6"/>
+      <c r="BC84" s="6"/>
+      <c r="BD84" s="6"/>
+      <c r="BE84" s="6"/>
+      <c r="BF84" s="6"/>
+      <c r="BG84" s="6"/>
+      <c r="BH84" s="6"/>
+      <c r="BI84" s="6"/>
+      <c r="BJ84" s="6"/>
+      <c r="BK84" s="6"/>
+      <c r="BL84" s="6"/>
+      <c r="BM84" s="6"/>
+      <c r="BN84" s="6"/>
+      <c r="BO84" s="6"/>
+      <c r="BP84" s="6"/>
+      <c r="BQ84" s="6"/>
+      <c r="BR84" s="6"/>
+      <c r="BS84" s="6"/>
+      <c r="BT84" s="6"/>
+    </row>
+    <row r="85" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
+    </row>
+    <row r="86" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
+    </row>
+    <row r="87" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A87" s="30"/>
+    </row>
+    <row r="88" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A88" s="30"/>
+    </row>
+    <row r="89" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A89" s="30"/>
+      <c r="E89" s="22"/>
+    </row>
+    <row r="90" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="E90" s="22"/>
+    </row>
+    <row r="91" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="10"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="8"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="9"/>
+      <c r="Q91" s="6"/>
+      <c r="R91" s="6"/>
+      <c r="S91" s="6"/>
+      <c r="T91" s="6"/>
+      <c r="U91" s="6"/>
+      <c r="V91" s="6"/>
+      <c r="W91" s="6"/>
+      <c r="X91" s="6"/>
+      <c r="Y91" s="6"/>
+      <c r="Z91" s="6"/>
+      <c r="AA91" s="6"/>
+      <c r="AB91" s="6"/>
+      <c r="AC91" s="6"/>
+      <c r="AD91" s="6"/>
+      <c r="AE91" s="6"/>
+      <c r="AF91" s="6"/>
+      <c r="AG91" s="6"/>
+      <c r="AH91" s="6"/>
+      <c r="AI91" s="6"/>
+      <c r="AJ91" s="6"/>
+      <c r="AK91" s="6"/>
+      <c r="AL91" s="6"/>
+      <c r="AM91" s="6"/>
+      <c r="AN91" s="6"/>
+      <c r="AO91" s="6"/>
+      <c r="AP91" s="6"/>
+      <c r="AQ91" s="6"/>
+      <c r="AR91" s="6"/>
+      <c r="AS91" s="6"/>
+      <c r="AT91" s="6"/>
+      <c r="AU91" s="6"/>
+      <c r="AV91" s="6"/>
+      <c r="AW91" s="6"/>
+      <c r="AX91" s="6"/>
+      <c r="AY91" s="6"/>
+      <c r="AZ91" s="6"/>
+      <c r="BA91" s="6"/>
+      <c r="BB91" s="6"/>
+      <c r="BC91" s="6"/>
+      <c r="BD91" s="6"/>
+      <c r="BE91" s="6"/>
+      <c r="BF91" s="6"/>
+      <c r="BG91" s="6"/>
+      <c r="BH91" s="6"/>
+      <c r="BI91" s="6"/>
+      <c r="BJ91" s="6"/>
+      <c r="BK91" s="6"/>
+      <c r="BL91" s="6"/>
+      <c r="BM91" s="6"/>
+      <c r="BN91" s="6"/>
+      <c r="BO91" s="6"/>
+      <c r="BP91" s="6"/>
+      <c r="BQ91" s="6"/>
+      <c r="BR91" s="6"/>
+      <c r="BS91" s="6"/>
+      <c r="BT91" s="6"/>
+    </row>
+    <row r="92" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="10"/>
       <c r="B92" s="10"/>
       <c r="C92" s="8"/>
-      <c r="D92" s="23"/>
-      <c r="E92" s="23"/>
-      <c r="F92" s="23"/>
-      <c r="G92" s="23"/>
-      <c r="I92" s="8"/>
-      <c r="J92" s="8"/>
-      <c r="N92" s="8"/>
-      <c r="O92" s="8"/>
-      <c r="P92" s="8"/>
-      <c r="R92" s="6"/>
-      <c r="S92" s="6"/>
-      <c r="T92" s="6"/>
-      <c r="U92" s="6"/>
-      <c r="V92" s="6"/>
-      <c r="W92" s="6"/>
-      <c r="X92" s="6"/>
-      <c r="Y92" s="6"/>
-      <c r="Z92" s="6"/>
-      <c r="AA92" s="6"/>
-      <c r="AB92" s="6"/>
-      <c r="AC92" s="6"/>
-      <c r="AD92" s="6"/>
-      <c r="AE92" s="6"/>
-      <c r="AF92" s="6"/>
-      <c r="AG92" s="6"/>
-      <c r="AH92" s="6"/>
-      <c r="AI92" s="6"/>
-      <c r="AJ92" s="6"/>
-      <c r="AK92" s="6"/>
-      <c r="AL92" s="6"/>
-      <c r="AM92" s="6"/>
-      <c r="AN92" s="6"/>
-      <c r="AO92" s="6"/>
-      <c r="AP92" s="6"/>
-      <c r="AQ92" s="6"/>
-      <c r="AR92" s="6"/>
-      <c r="AS92" s="6"/>
-      <c r="AT92" s="6"/>
-      <c r="AU92" s="6"/>
-      <c r="AV92" s="6"/>
-      <c r="AW92" s="6"/>
-      <c r="AX92" s="6"/>
-      <c r="AY92" s="6"/>
-      <c r="AZ92" s="6"/>
-      <c r="BA92" s="6"/>
-      <c r="BB92" s="6"/>
-      <c r="BC92" s="6"/>
-      <c r="BD92" s="6"/>
-      <c r="BE92" s="6"/>
-      <c r="BF92" s="6"/>
-      <c r="BG92" s="6"/>
-      <c r="BH92" s="6"/>
-      <c r="BI92" s="6"/>
-      <c r="BJ92" s="6"/>
-      <c r="BK92" s="6"/>
-      <c r="BL92" s="6"/>
-      <c r="BM92" s="6"/>
-      <c r="BN92" s="6"/>
-      <c r="BO92" s="6"/>
-      <c r="BP92" s="6"/>
-      <c r="BQ92" s="6"/>
-      <c r="BR92" s="6"/>
-      <c r="BS92" s="6"/>
-      <c r="BT92" s="6"/>
-      <c r="BU92" s="6"/>
-    </row>
-    <row r="93" spans="1:73" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="30"/>
-      <c r="B93" s="10"/>
-      <c r="C93" s="8"/>
-      <c r="D93" s="23"/>
-      <c r="E93" s="23"/>
-      <c r="F93" s="23"/>
-      <c r="G93" s="23"/>
-      <c r="I93" s="8"/>
-      <c r="J93" s="8"/>
-      <c r="N93" s="8"/>
-      <c r="O93" s="8"/>
-      <c r="P93" s="8"/>
-      <c r="R93" s="6"/>
-      <c r="S93" s="6"/>
-      <c r="T93" s="6"/>
-      <c r="U93" s="6"/>
-      <c r="V93" s="6"/>
-      <c r="W93" s="6"/>
-      <c r="X93" s="6"/>
-      <c r="Y93" s="6"/>
-      <c r="Z93" s="6"/>
-      <c r="AA93" s="6"/>
-      <c r="AB93" s="6"/>
-      <c r="AC93" s="6"/>
-      <c r="AD93" s="6"/>
-      <c r="AE93" s="6"/>
-      <c r="AF93" s="6"/>
-      <c r="AG93" s="6"/>
-      <c r="AH93" s="6"/>
-      <c r="AI93" s="6"/>
-      <c r="AJ93" s="6"/>
-      <c r="AK93" s="6"/>
-      <c r="AL93" s="6"/>
-      <c r="AM93" s="6"/>
-      <c r="AN93" s="6"/>
-      <c r="AO93" s="6"/>
-      <c r="AP93" s="6"/>
-      <c r="AQ93" s="6"/>
-      <c r="AR93" s="6"/>
-      <c r="AS93" s="6"/>
-      <c r="AT93" s="6"/>
-      <c r="AU93" s="6"/>
-      <c r="AV93" s="6"/>
-      <c r="AW93" s="6"/>
-      <c r="AX93" s="6"/>
-      <c r="AY93" s="6"/>
-      <c r="AZ93" s="6"/>
-      <c r="BA93" s="6"/>
-      <c r="BB93" s="6"/>
-      <c r="BC93" s="6"/>
-      <c r="BD93" s="6"/>
-      <c r="BE93" s="6"/>
-      <c r="BF93" s="6"/>
-      <c r="BG93" s="6"/>
-      <c r="BH93" s="6"/>
-      <c r="BI93" s="6"/>
-      <c r="BJ93" s="6"/>
-      <c r="BK93" s="6"/>
-      <c r="BL93" s="6"/>
-      <c r="BM93" s="6"/>
-      <c r="BN93" s="6"/>
-      <c r="BO93" s="6"/>
-      <c r="BP93" s="6"/>
-      <c r="BQ93" s="6"/>
-      <c r="BR93" s="6"/>
-      <c r="BS93" s="6"/>
-      <c r="BT93" s="6"/>
-      <c r="BU93" s="6"/>
-    </row>
-    <row r="94" spans="1:73" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="30"/>
-      <c r="B94" s="10"/>
-      <c r="C94" s="8"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="6"/>
-      <c r="I94" s="8"/>
-      <c r="J94" s="8"/>
-      <c r="N94" s="8"/>
-      <c r="O94" s="8"/>
-      <c r="P94" s="8"/>
-      <c r="R94" s="6"/>
-      <c r="S94" s="6"/>
-      <c r="T94" s="6"/>
-      <c r="U94" s="6"/>
-      <c r="V94" s="6"/>
-      <c r="W94" s="6"/>
-      <c r="X94" s="6"/>
-      <c r="Y94" s="6"/>
-      <c r="Z94" s="6"/>
-      <c r="AA94" s="6"/>
-      <c r="AB94" s="6"/>
-      <c r="AC94" s="6"/>
-      <c r="AD94" s="6"/>
-      <c r="AE94" s="6"/>
-      <c r="AF94" s="6"/>
-      <c r="AG94" s="6"/>
-      <c r="AH94" s="6"/>
-      <c r="AI94" s="6"/>
-      <c r="AJ94" s="6"/>
-      <c r="AK94" s="6"/>
-      <c r="AL94" s="6"/>
-      <c r="AM94" s="6"/>
-      <c r="AN94" s="6"/>
-      <c r="AO94" s="6"/>
-      <c r="AP94" s="6"/>
-      <c r="AQ94" s="6"/>
-      <c r="AR94" s="6"/>
-      <c r="AS94" s="6"/>
-      <c r="AT94" s="6"/>
-      <c r="AU94" s="6"/>
-      <c r="AV94" s="6"/>
-      <c r="AW94" s="6"/>
-      <c r="AX94" s="6"/>
-      <c r="AY94" s="6"/>
-      <c r="AZ94" s="6"/>
-      <c r="BA94" s="6"/>
-      <c r="BB94" s="6"/>
-      <c r="BC94" s="6"/>
-      <c r="BD94" s="6"/>
-      <c r="BE94" s="6"/>
-      <c r="BF94" s="6"/>
-      <c r="BG94" s="6"/>
-      <c r="BH94" s="6"/>
-      <c r="BI94" s="6"/>
-      <c r="BJ94" s="6"/>
-      <c r="BK94" s="6"/>
-      <c r="BL94" s="6"/>
-      <c r="BM94" s="6"/>
-      <c r="BN94" s="6"/>
-      <c r="BO94" s="6"/>
-      <c r="BP94" s="6"/>
-      <c r="BQ94" s="6"/>
-      <c r="BR94" s="6"/>
-      <c r="BS94" s="6"/>
-      <c r="BT94" s="6"/>
-      <c r="BU94" s="6"/>
-    </row>
-    <row r="95" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="I95" s="8"/>
-      <c r="J95" s="8"/>
-    </row>
-    <row r="96" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="I96" s="8"/>
-      <c r="J96" s="8"/>
-    </row>
-    <row r="97" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A97" s="30"/>
-    </row>
-    <row r="98" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A98" s="30"/>
-    </row>
-    <row r="99" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A99" s="30"/>
-      <c r="E99" s="22"/>
-    </row>
-    <row r="100" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="E100" s="22"/>
-    </row>
-    <row r="101" spans="1:73" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="10"/>
-      <c r="B101" s="10"/>
-      <c r="C101" s="8"/>
-      <c r="E101" s="22"/>
-      <c r="G101" s="9"/>
-      <c r="R101" s="6"/>
-      <c r="S101" s="6"/>
-      <c r="T101" s="6"/>
-      <c r="U101" s="6"/>
-      <c r="V101" s="6"/>
-      <c r="W101" s="6"/>
-      <c r="X101" s="6"/>
-      <c r="Y101" s="6"/>
-      <c r="Z101" s="6"/>
-      <c r="AA101" s="6"/>
-      <c r="AB101" s="6"/>
-      <c r="AC101" s="6"/>
-      <c r="AD101" s="6"/>
-      <c r="AE101" s="6"/>
-      <c r="AF101" s="6"/>
-      <c r="AG101" s="6"/>
-      <c r="AH101" s="6"/>
-      <c r="AI101" s="6"/>
-      <c r="AJ101" s="6"/>
-      <c r="AK101" s="6"/>
-      <c r="AL101" s="6"/>
-      <c r="AM101" s="6"/>
-      <c r="AN101" s="6"/>
-      <c r="AO101" s="6"/>
-      <c r="AP101" s="6"/>
-      <c r="AQ101" s="6"/>
-      <c r="AR101" s="6"/>
-      <c r="AS101" s="6"/>
-      <c r="AT101" s="6"/>
-      <c r="AU101" s="6"/>
-      <c r="AV101" s="6"/>
-      <c r="AW101" s="6"/>
-      <c r="AX101" s="6"/>
-      <c r="AY101" s="6"/>
-      <c r="AZ101" s="6"/>
-      <c r="BA101" s="6"/>
-      <c r="BB101" s="6"/>
-      <c r="BC101" s="6"/>
-      <c r="BD101" s="6"/>
-      <c r="BE101" s="6"/>
-      <c r="BF101" s="6"/>
-      <c r="BG101" s="6"/>
-      <c r="BH101" s="6"/>
-      <c r="BI101" s="6"/>
-      <c r="BJ101" s="6"/>
-      <c r="BK101" s="6"/>
-      <c r="BL101" s="6"/>
-      <c r="BM101" s="6"/>
-      <c r="BN101" s="6"/>
-      <c r="BO101" s="6"/>
-      <c r="BP101" s="6"/>
-      <c r="BQ101" s="6"/>
-      <c r="BR101" s="6"/>
-      <c r="BS101" s="6"/>
-      <c r="BT101" s="6"/>
-      <c r="BU101" s="6"/>
-    </row>
-    <row r="102" spans="1:73" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="10"/>
-      <c r="B102" s="10"/>
-      <c r="C102" s="8"/>
-      <c r="E102" s="22"/>
-      <c r="G102" s="9"/>
-      <c r="R102" s="6"/>
-      <c r="S102" s="6"/>
-      <c r="T102" s="6"/>
-      <c r="U102" s="6"/>
-      <c r="V102" s="6"/>
-      <c r="W102" s="6"/>
-      <c r="X102" s="6"/>
-      <c r="Y102" s="6"/>
-      <c r="Z102" s="6"/>
-      <c r="AA102" s="6"/>
-      <c r="AB102" s="6"/>
-      <c r="AC102" s="6"/>
-      <c r="AD102" s="6"/>
-      <c r="AE102" s="6"/>
-      <c r="AF102" s="6"/>
-      <c r="AG102" s="6"/>
-      <c r="AH102" s="6"/>
-      <c r="AI102" s="6"/>
-      <c r="AJ102" s="6"/>
-      <c r="AK102" s="6"/>
-      <c r="AL102" s="6"/>
-      <c r="AM102" s="6"/>
-      <c r="AN102" s="6"/>
-      <c r="AO102" s="6"/>
-      <c r="AP102" s="6"/>
-      <c r="AQ102" s="6"/>
-      <c r="AR102" s="6"/>
-      <c r="AS102" s="6"/>
-      <c r="AT102" s="6"/>
-      <c r="AU102" s="6"/>
-      <c r="AV102" s="6"/>
-      <c r="AW102" s="6"/>
-      <c r="AX102" s="6"/>
-      <c r="AY102" s="6"/>
-      <c r="AZ102" s="6"/>
-      <c r="BA102" s="6"/>
-      <c r="BB102" s="6"/>
-      <c r="BC102" s="6"/>
-      <c r="BD102" s="6"/>
-      <c r="BE102" s="6"/>
-      <c r="BF102" s="6"/>
-      <c r="BG102" s="6"/>
-      <c r="BH102" s="6"/>
-      <c r="BI102" s="6"/>
-      <c r="BJ102" s="6"/>
-      <c r="BK102" s="6"/>
-      <c r="BL102" s="6"/>
-      <c r="BM102" s="6"/>
-      <c r="BN102" s="6"/>
-      <c r="BO102" s="6"/>
-      <c r="BP102" s="6"/>
-      <c r="BQ102" s="6"/>
-      <c r="BR102" s="6"/>
-      <c r="BS102" s="6"/>
-      <c r="BT102" s="6"/>
-      <c r="BU102" s="6"/>
-    </row>
-    <row r="103" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="E103" s="22"/>
-    </row>
-    <row r="104" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="E104" s="22"/>
-    </row>
-    <row r="105" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="E105" s="22"/>
-    </row>
-    <row r="106" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A106" s="30"/>
-      <c r="E106" s="22"/>
-    </row>
-    <row r="107" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A107" s="30"/>
-      <c r="E107" s="22"/>
-    </row>
-    <row r="108" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="E108" s="22"/>
-    </row>
-    <row r="109" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="E109" s="22"/>
-    </row>
-    <row r="110" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="E110" s="22"/>
-    </row>
-    <row r="111" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="E111" s="22"/>
-    </row>
-    <row r="112" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="E112" s="22"/>
-    </row>
-    <row r="113" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E113" s="22"/>
-    </row>
-    <row r="114" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E114" s="22"/>
-    </row>
-    <row r="115" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E115" s="22"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63B1BC36-79CC-403E-BDAB-F4ACF4DC04E2}">
-  <dimension ref="A1:BT107"/>
-  <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="7" customWidth="1"/>
-    <col min="4" max="8" width="24.140625" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="10.7109375" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>6</v>
-      </c>
-      <c r="B2" s="11">
-        <v>1945</v>
-      </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>6</v>
-      </c>
-      <c r="B3" s="11">
-        <v>1946</v>
-      </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>6</v>
-      </c>
-      <c r="B4" s="11">
-        <v>1947</v>
-      </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>6</v>
-      </c>
-      <c r="B5" s="11">
-        <v>1948</v>
-      </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>6</v>
-      </c>
-      <c r="B6" s="11">
-        <v>1949</v>
-      </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="11">
-        <v>1950</v>
-      </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="11">
-        <v>1951</v>
-      </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>6</v>
-      </c>
-      <c r="B9" s="11">
-        <v>1952</v>
-      </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>6</v>
-      </c>
-      <c r="B10" s="11">
-        <v>1953</v>
-      </c>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>6</v>
-      </c>
-      <c r="B11" s="11">
-        <v>1954</v>
-      </c>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>6</v>
-      </c>
-      <c r="B12" s="11">
-        <v>1955</v>
-      </c>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>6</v>
-      </c>
-      <c r="B13" s="11">
-        <v>1956</v>
-      </c>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>6</v>
-      </c>
-      <c r="B14" s="11">
-        <v>1957</v>
-      </c>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>6</v>
-      </c>
-      <c r="B15" s="11">
-        <v>1958</v>
-      </c>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>6</v>
-      </c>
-      <c r="B16" s="11">
-        <v>1959</v>
-      </c>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>6</v>
-      </c>
-      <c r="B17" s="11">
-        <v>1960</v>
-      </c>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>6</v>
-      </c>
-      <c r="B18" s="11">
-        <v>1961</v>
-      </c>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>6</v>
-      </c>
-      <c r="B19" s="11">
-        <v>1962</v>
-      </c>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>6</v>
-      </c>
-      <c r="B20" s="11">
-        <v>1963</v>
-      </c>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>6</v>
-      </c>
-      <c r="B21" s="11">
-        <v>1964</v>
-      </c>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>6</v>
-      </c>
-      <c r="B22" s="11">
-        <v>1965</v>
-      </c>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>6</v>
-      </c>
-      <c r="B23" s="11">
-        <v>1966</v>
-      </c>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>6</v>
-      </c>
-      <c r="B24" s="11">
-        <v>1967</v>
-      </c>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>6</v>
-      </c>
-      <c r="B25" s="11">
-        <v>1968</v>
-      </c>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>6</v>
-      </c>
-      <c r="B26" s="11">
-        <v>1969</v>
-      </c>
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>6</v>
-      </c>
-      <c r="B27" s="11">
-        <v>1970</v>
-      </c>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>6</v>
-      </c>
-      <c r="B28" s="11">
-        <v>1971</v>
-      </c>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>9</v>
-      </c>
-      <c r="B29" s="11">
-        <v>1972</v>
-      </c>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>9</v>
-      </c>
-      <c r="B30" s="11">
-        <v>1973</v>
-      </c>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>9</v>
-      </c>
-      <c r="B31" s="11">
-        <v>1974</v>
-      </c>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>9</v>
-      </c>
-      <c r="B32" s="11">
-        <v>1975</v>
-      </c>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>9</v>
-      </c>
-      <c r="B33" s="11">
-        <v>1976</v>
-      </c>
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>9</v>
-      </c>
-      <c r="B34" s="11">
-        <v>1977</v>
-      </c>
-      <c r="C34" s="3"/>
-    </row>
-    <row r="35" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>9</v>
-      </c>
-      <c r="B35" s="11">
-        <v>1978</v>
-      </c>
-      <c r="C35" s="3"/>
-    </row>
-    <row r="36" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>9</v>
-      </c>
-      <c r="B36" s="11">
-        <v>1979</v>
-      </c>
-      <c r="C36" s="3"/>
-    </row>
-    <row r="37" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>10</v>
-      </c>
-      <c r="B37" s="11">
-        <v>1980</v>
-      </c>
-      <c r="C37" s="3"/>
-    </row>
-    <row r="38" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>10</v>
-      </c>
-      <c r="B38" s="11">
-        <v>1981</v>
-      </c>
-      <c r="C38" s="3"/>
-    </row>
-    <row r="39" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>10</v>
-      </c>
-      <c r="B39" s="11">
-        <v>1982</v>
-      </c>
-      <c r="C39" s="3"/>
-    </row>
-    <row r="40" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>10</v>
-      </c>
-      <c r="B40" s="11">
-        <v>1983</v>
-      </c>
-      <c r="C40" s="3"/>
-    </row>
-    <row r="41" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>10</v>
-      </c>
-      <c r="B41" s="11">
-        <v>1984</v>
-      </c>
-      <c r="C41" s="3"/>
-    </row>
-    <row r="42" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>10</v>
-      </c>
-      <c r="B42" s="11">
-        <v>1985</v>
-      </c>
-      <c r="C42" s="3"/>
-    </row>
-    <row r="43" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>12</v>
-      </c>
-      <c r="B43" s="11">
-        <v>1986</v>
-      </c>
-      <c r="C43" s="3"/>
-    </row>
-    <row r="44" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>12</v>
-      </c>
-      <c r="B44" s="11">
-        <v>1987</v>
-      </c>
-      <c r="C44" s="3"/>
-    </row>
-    <row r="45" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
-        <v>12</v>
-      </c>
-      <c r="B45" s="11">
-        <v>1988</v>
-      </c>
-      <c r="C45" s="3"/>
-    </row>
-    <row r="46" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
-        <v>12</v>
-      </c>
-      <c r="B46" s="11">
-        <v>1989</v>
-      </c>
-      <c r="C46" s="3"/>
-    </row>
-    <row r="47" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
-        <v>12</v>
-      </c>
-      <c r="B47" s="11">
-        <v>1990</v>
-      </c>
-      <c r="C47" s="3"/>
-    </row>
-    <row r="48" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
-        <v>12</v>
-      </c>
-      <c r="B48" s="11">
-        <v>1991</v>
-      </c>
-      <c r="C48" s="3"/>
-    </row>
-    <row r="49" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>12</v>
-      </c>
-      <c r="B49" s="11">
-        <v>1992</v>
-      </c>
-      <c r="C49" s="8"/>
-    </row>
-    <row r="50" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
-        <v>12</v>
-      </c>
-      <c r="B50" s="11">
-        <v>1993</v>
-      </c>
-      <c r="C50" s="8"/>
-    </row>
-    <row r="51" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>12</v>
-      </c>
-      <c r="B51" s="11">
-        <v>1994</v>
-      </c>
-      <c r="C51" s="8"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-    </row>
-    <row r="52" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
-        <v>12</v>
-      </c>
-      <c r="B52" s="11">
-        <v>1995</v>
-      </c>
-      <c r="C52" s="8"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-    </row>
-    <row r="53" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
-        <v>15</v>
-      </c>
-      <c r="B53" s="11">
-        <v>1995</v>
-      </c>
-      <c r="C53" s="8"/>
-      <c r="E53" s="3">
-        <v>7483.3069999999998</v>
-      </c>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3">
-        <v>9546.4539999999997</v>
-      </c>
-      <c r="H53" s="3">
-        <v>7329.8549999999996</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
-        <v>15</v>
-      </c>
-      <c r="B54" s="11">
-        <v>1996</v>
-      </c>
-      <c r="C54" s="8"/>
-      <c r="E54" s="3">
-        <v>5233.1869999999999</v>
-      </c>
-      <c r="F54" s="3">
-        <v>34750.608999999997</v>
-      </c>
-      <c r="G54" s="3">
-        <v>10136.938</v>
-      </c>
-      <c r="H54" s="3">
-        <v>8106.6859999999997</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
-        <v>15</v>
-      </c>
-      <c r="B55" s="11">
-        <v>1997</v>
-      </c>
-      <c r="C55" s="8"/>
-      <c r="E55" s="3">
-        <v>4034.9340000000002</v>
-      </c>
-      <c r="F55" s="3">
-        <v>34668.879000000001</v>
-      </c>
-      <c r="G55" s="3">
-        <v>10830.210999999999</v>
-      </c>
-      <c r="H55" s="3">
-        <v>8817.2330000000002</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
-        <v>15</v>
-      </c>
-      <c r="B56" s="11">
-        <v>1998</v>
-      </c>
-      <c r="C56" s="3">
-        <f>941.569+213.195</f>
-        <v>1154.7639999999999</v>
-      </c>
-      <c r="E56" s="3">
-        <v>4102.0870000000004</v>
-      </c>
-      <c r="F56" s="3">
-        <v>41818.177000000003</v>
-      </c>
-      <c r="G56" s="3">
-        <v>25215.841</v>
-      </c>
-      <c r="H56" s="3">
-        <v>9971.1929999999993</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
-        <v>15</v>
-      </c>
-      <c r="B57" s="11">
-        <v>1999</v>
-      </c>
-      <c r="C57" s="3">
-        <f>945.255+271.208</f>
-        <v>1216.463</v>
-      </c>
-      <c r="E57" s="3">
-        <v>4915.6459999999997</v>
-      </c>
-      <c r="F57" s="3">
-        <v>35173.658000000003</v>
-      </c>
-      <c r="G57" s="3">
-        <v>17587.901999999998</v>
-      </c>
-      <c r="H57" s="3">
-        <v>11447.376</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
-        <v>15</v>
-      </c>
-      <c r="B58" s="11">
-        <v>2000</v>
-      </c>
-      <c r="C58" s="3"/>
-      <c r="E58" s="3">
-        <v>5434.8280000000004</v>
-      </c>
-      <c r="F58" s="3">
-        <v>33525.404999999999</v>
-      </c>
-      <c r="G58" s="3">
-        <v>18056.97</v>
-      </c>
-      <c r="H58" s="3">
-        <v>13732.503000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
-        <v>15</v>
-      </c>
-      <c r="B59" s="11">
-        <v>2001</v>
-      </c>
-      <c r="C59" s="3"/>
-      <c r="E59" s="3">
-        <v>6008.4570000000003</v>
-      </c>
-      <c r="F59" s="3">
-        <v>46334.142999999996</v>
-      </c>
-      <c r="G59" s="3">
-        <v>21311.46</v>
-      </c>
-      <c r="H59" s="3">
-        <v>14914.946</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
-        <v>15</v>
-      </c>
-      <c r="B60" s="11">
-        <v>2002</v>
-      </c>
-      <c r="C60" s="3"/>
-      <c r="E60" s="3">
-        <v>7822.39</v>
-      </c>
-      <c r="F60" s="3">
-        <v>41375.326999999997</v>
-      </c>
-      <c r="G60" s="3">
-        <v>19255.411</v>
-      </c>
-      <c r="H60" s="3">
-        <v>14820.972</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
-        <v>15</v>
-      </c>
-      <c r="B61" s="11">
-        <v>2003</v>
-      </c>
-      <c r="C61" s="3"/>
-      <c r="E61" s="3">
-        <v>1172.6949999999999</v>
-      </c>
-      <c r="F61" s="3">
-        <v>4377.5450000000001</v>
-      </c>
-      <c r="G61" s="3">
-        <v>3355.3629999999998</v>
-      </c>
-      <c r="H61" s="3">
-        <v>7628.6629999999996</v>
-      </c>
-      <c r="I61" s="22"/>
-    </row>
-    <row r="62" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
-        <v>15</v>
-      </c>
-      <c r="B62" s="11">
-        <v>2004</v>
-      </c>
-      <c r="C62" s="3"/>
-      <c r="E62" s="3">
-        <v>1444.4349999999999</v>
-      </c>
-      <c r="F62" s="3">
-        <v>3830.6559999999999</v>
-      </c>
-      <c r="G62" s="3">
-        <v>3298.2890000000002</v>
-      </c>
-      <c r="H62" s="3">
-        <v>10972.534</v>
-      </c>
-      <c r="I62" s="22"/>
-    </row>
-    <row r="63" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
-        <v>15</v>
-      </c>
-      <c r="B63" s="11">
-        <v>2005</v>
-      </c>
-      <c r="C63" s="3"/>
-      <c r="E63" s="3">
-        <v>2228.107</v>
-      </c>
-      <c r="F63" s="3">
-        <v>6095.9620000000004</v>
-      </c>
-      <c r="G63" s="3">
-        <v>3318.0369999999998</v>
-      </c>
-      <c r="H63" s="3">
-        <v>11535.121999999999</v>
-      </c>
-      <c r="I63" s="22"/>
-    </row>
-    <row r="64" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
-        <v>25</v>
-      </c>
-      <c r="B64" s="11">
-        <v>2003</v>
-      </c>
-      <c r="C64" s="19">
-        <v>704.35699999999997</v>
-      </c>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="22"/>
-    </row>
-    <row r="65" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
-        <v>25</v>
-      </c>
-      <c r="B65" s="11">
-        <v>2004</v>
-      </c>
-      <c r="C65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="I65" s="22"/>
-    </row>
-    <row r="66" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
-        <v>25</v>
-      </c>
-      <c r="B66" s="11">
-        <v>2005</v>
-      </c>
-      <c r="C66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="I66" s="22"/>
-    </row>
-    <row r="67" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
-        <v>25</v>
-      </c>
-      <c r="B67" s="11">
-        <v>2006</v>
-      </c>
-      <c r="C67" s="8"/>
-      <c r="I67" s="22"/>
-    </row>
-    <row r="68" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
-        <v>27</v>
-      </c>
-      <c r="B68" s="11">
-        <v>2005</v>
-      </c>
-      <c r="C68" s="3">
-        <v>545.57299999999998</v>
-      </c>
-      <c r="E68" s="8"/>
-      <c r="I68" s="22"/>
-    </row>
-    <row r="69" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
-        <v>27</v>
-      </c>
-      <c r="B69" s="11">
-        <v>2006</v>
-      </c>
-      <c r="C69" s="3">
-        <v>586.322</v>
-      </c>
-      <c r="D69" s="3">
-        <v>427.07400000000001</v>
-      </c>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="I69" s="22"/>
-    </row>
-    <row r="70" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
-        <v>27</v>
-      </c>
-      <c r="B70" s="11">
-        <v>2007</v>
-      </c>
-      <c r="C70" s="3">
-        <v>1113.5429999999999</v>
-      </c>
-      <c r="D70" s="3">
-        <v>627.68499999999995</v>
-      </c>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="I70" s="22"/>
-    </row>
-    <row r="71" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
-        <v>27</v>
-      </c>
-      <c r="B71" s="11">
-        <v>2008</v>
-      </c>
-      <c r="C71" s="3">
-        <v>820.62699999999995</v>
-      </c>
-      <c r="D71" s="3">
-        <v>673.98299999999995</v>
-      </c>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="H71" s="22"/>
-      <c r="I71" s="22"/>
-    </row>
-    <row r="72" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
-        <v>27</v>
-      </c>
-      <c r="B72" s="11">
-        <v>2009</v>
-      </c>
-      <c r="C72" s="3">
-        <v>543.71500000000003</v>
-      </c>
-      <c r="D72" s="3">
-        <v>541.99699999999996</v>
-      </c>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="H72" s="22"/>
-      <c r="I72" s="22"/>
-    </row>
-    <row r="73" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
-        <v>27</v>
-      </c>
-      <c r="B73" s="11">
-        <v>2010</v>
-      </c>
-      <c r="C73" s="3">
-        <v>507.49700000000001</v>
-      </c>
-      <c r="D73" s="3">
-        <v>638.48099999999999</v>
-      </c>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="H73" s="22"/>
-      <c r="I73" s="22"/>
-    </row>
-    <row r="74" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
-        <v>27</v>
-      </c>
-      <c r="B74" s="11">
-        <v>2011</v>
-      </c>
-      <c r="C74" s="3">
-        <v>517.15700000000004</v>
-      </c>
-      <c r="D74" s="3">
-        <v>663.61699999999996</v>
-      </c>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="H74" s="22"/>
-      <c r="I74" s="22"/>
-    </row>
-    <row r="75" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
-        <v>28</v>
-      </c>
-      <c r="B75" s="11">
-        <v>2003</v>
-      </c>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3">
-        <v>509.49</v>
-      </c>
-      <c r="F75" s="3">
-        <v>4894.2690000000002</v>
-      </c>
-      <c r="G75" s="3">
-        <v>2344.739</v>
-      </c>
-      <c r="H75" s="3">
-        <v>3360.08</v>
-      </c>
-      <c r="I75" s="22"/>
-    </row>
-    <row r="76" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
-        <v>28</v>
-      </c>
-      <c r="B76" s="11">
-        <v>2004</v>
-      </c>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3">
-        <v>650.22900000000004</v>
-      </c>
-      <c r="F76" s="3">
-        <v>4057.1619999999998</v>
-      </c>
-      <c r="G76" s="3">
-        <v>1439.1030000000001</v>
-      </c>
-      <c r="H76" s="3">
-        <v>6175.723</v>
-      </c>
-      <c r="I76" s="22"/>
-    </row>
-    <row r="77" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
-        <v>28</v>
-      </c>
-      <c r="B77" s="11">
-        <v>2005</v>
-      </c>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3">
-        <v>814.904</v>
-      </c>
-      <c r="F77" s="3">
-        <v>5874.0730000000003</v>
-      </c>
-      <c r="G77" s="3">
-        <v>1571.348</v>
-      </c>
-      <c r="H77" s="3">
-        <v>6842.5439999999999</v>
-      </c>
-      <c r="I77" s="22"/>
-    </row>
-    <row r="78" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
-        <v>28</v>
-      </c>
-      <c r="B78" s="11">
-        <v>2006</v>
-      </c>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3">
-        <v>2111.614</v>
-      </c>
-      <c r="F78" s="3">
-        <v>8227.5069999999996</v>
-      </c>
-      <c r="G78" s="3">
-        <v>3127.643</v>
-      </c>
-      <c r="H78" s="3">
-        <v>14733.841</v>
-      </c>
-      <c r="I78" s="22"/>
-    </row>
-    <row r="79" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
-        <v>28</v>
-      </c>
-      <c r="B79" s="11">
-        <v>2007</v>
-      </c>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3">
-        <v>817.27200000000005</v>
-      </c>
-      <c r="F79" s="3">
-        <v>20867.095000000001</v>
-      </c>
-      <c r="G79" s="3">
-        <v>4338.3040000000001</v>
-      </c>
-      <c r="H79" s="3">
-        <v>21084.445</v>
-      </c>
-      <c r="I79" s="22"/>
-    </row>
-    <row r="80" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
-        <v>28</v>
-      </c>
-      <c r="B80" s="11">
-        <v>2008</v>
-      </c>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3">
-        <v>736.73699999999997</v>
-      </c>
-      <c r="F80" s="3">
-        <v>26623.167000000001</v>
-      </c>
-      <c r="G80" s="3">
-        <v>4004.1680000000001</v>
-      </c>
-      <c r="H80" s="3">
-        <v>24357.814999999999</v>
-      </c>
-      <c r="I80" s="22"/>
-    </row>
-    <row r="81" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
-        <v>28</v>
-      </c>
-      <c r="B81" s="11">
-        <v>2009</v>
-      </c>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3">
-        <v>620.351</v>
-      </c>
-      <c r="F81" s="3">
-        <v>10489.532999999999</v>
-      </c>
-      <c r="G81" s="3">
-        <v>3028.364</v>
-      </c>
-      <c r="H81" s="3">
-        <v>20377.013999999999</v>
-      </c>
-      <c r="I81" s="22"/>
-    </row>
-    <row r="82" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
-        <v>28</v>
-      </c>
-      <c r="B82" s="11">
-        <v>2010</v>
-      </c>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3">
-        <v>583.94399999999996</v>
-      </c>
-      <c r="F82" s="3">
-        <v>6545.491</v>
-      </c>
-      <c r="G82" s="3">
-        <v>2733.2220000000002</v>
-      </c>
-      <c r="H82" s="3">
-        <v>26022.456999999999</v>
-      </c>
-      <c r="I82" s="22"/>
-    </row>
-    <row r="83" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
-        <v>28</v>
-      </c>
-      <c r="B83" s="11">
-        <v>2011</v>
-      </c>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3">
-        <v>758.06899999999996</v>
-      </c>
-      <c r="F83" s="3">
-        <v>8158.5</v>
-      </c>
-      <c r="G83" s="3">
-        <v>2423.9059999999999</v>
-      </c>
-      <c r="H83" s="3">
-        <v>26469.467000000001</v>
-      </c>
-      <c r="I83" s="22"/>
-    </row>
-    <row r="84" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
-        <v>28</v>
-      </c>
-      <c r="B84" s="11">
-        <v>2012</v>
-      </c>
-      <c r="C84" s="3">
-        <v>378.505</v>
-      </c>
-      <c r="D84" s="3">
-        <v>625.54399999999998</v>
-      </c>
-      <c r="E84" s="3">
-        <v>722.11400000000003</v>
-      </c>
-      <c r="F84" s="3">
-        <v>4276.3069999999998</v>
-      </c>
-      <c r="G84" s="3">
-        <v>2359.4920000000002</v>
-      </c>
-      <c r="H84" s="3">
-        <v>25387.23</v>
-      </c>
-      <c r="I84" s="22"/>
-    </row>
-    <row r="85" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
-        <v>28</v>
-      </c>
-      <c r="B85" s="11">
-        <v>2013</v>
-      </c>
-      <c r="C85" s="3">
-        <v>290.38400000000001</v>
-      </c>
-      <c r="D85" s="3">
-        <v>655.63199999999995</v>
-      </c>
-      <c r="E85" s="3">
-        <v>728.94299999999998</v>
-      </c>
-      <c r="F85" s="3">
-        <v>2639.9920000000002</v>
-      </c>
-      <c r="G85" s="3">
-        <v>2179.9409999999998</v>
-      </c>
-      <c r="H85" s="3">
-        <v>31836.011999999999</v>
-      </c>
-      <c r="I85" s="22"/>
-    </row>
-    <row r="86" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
-        <v>28</v>
-      </c>
-      <c r="B86" s="11">
-        <v>2014</v>
-      </c>
-      <c r="C86" s="3">
-        <v>327.24400000000003</v>
-      </c>
-      <c r="D86" s="3">
-        <v>707.38400000000001</v>
-      </c>
-      <c r="E86" s="3">
-        <v>1141.9649999999999</v>
-      </c>
-      <c r="F86" s="3">
-        <v>2688.7730000000001</v>
-      </c>
-      <c r="G86" s="3">
-        <v>4642.4650000000001</v>
-      </c>
-      <c r="H86" s="3">
-        <v>29436.129000000001</v>
-      </c>
-      <c r="I86" s="22"/>
-    </row>
-    <row r="87" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
-        <v>28</v>
-      </c>
-      <c r="B87" s="11">
-        <v>2015</v>
-      </c>
-      <c r="C87" s="3">
-        <v>366.73200000000003</v>
-      </c>
-      <c r="D87" s="3">
-        <v>712.36800000000005</v>
-      </c>
-      <c r="E87" s="3">
-        <v>873.85500000000002</v>
-      </c>
-      <c r="F87" s="3">
-        <v>2945.8609999999999</v>
-      </c>
-      <c r="G87" s="3">
-        <v>3367.3890000000001</v>
-      </c>
-      <c r="H87" s="3">
-        <v>26235.525000000001</v>
-      </c>
-      <c r="I87" s="22"/>
-    </row>
-    <row r="88" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
-        <v>28</v>
-      </c>
-      <c r="B88" s="11">
-        <v>2016</v>
-      </c>
-      <c r="C88" s="3">
-        <v>540.10900000000004</v>
-      </c>
-      <c r="D88" s="3">
-        <v>714.90200000000004</v>
-      </c>
-      <c r="E88" s="3">
-        <v>1001.8440000000001</v>
-      </c>
-      <c r="F88" s="3">
-        <v>5294.817</v>
-      </c>
-      <c r="G88" s="3">
-        <v>4195.741</v>
-      </c>
-      <c r="H88" s="3">
-        <v>26909.106</v>
-      </c>
-    </row>
-    <row r="89" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="2">
-        <v>28</v>
-      </c>
-      <c r="B89" s="11">
-        <v>2017</v>
-      </c>
-      <c r="C89" s="3">
-        <v>730.62099999999998</v>
-      </c>
-      <c r="D89" s="3">
-        <v>804.36800000000005</v>
-      </c>
-      <c r="E89" s="3">
-        <v>2117.5160000000001</v>
-      </c>
-      <c r="F89" s="3">
-        <v>8219.0840000000007</v>
-      </c>
-      <c r="G89" s="3">
-        <v>4777.6589999999997</v>
-      </c>
-      <c r="H89" s="3">
-        <v>34995.555</v>
-      </c>
-    </row>
-    <row r="90" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
-        <v>28</v>
-      </c>
-      <c r="B90" s="11">
-        <v>2018</v>
-      </c>
-      <c r="C90" s="3">
-        <v>764.327</v>
-      </c>
-      <c r="D90" s="3">
-        <v>909.30200000000002</v>
-      </c>
-      <c r="E90" s="3">
-        <v>1019.8150000000001</v>
-      </c>
-      <c r="F90" s="3">
-        <v>6592.3310000000001</v>
-      </c>
-      <c r="G90" s="3">
-        <v>8142.7259999999997</v>
-      </c>
-      <c r="H90" s="3">
-        <v>45395.548999999999</v>
-      </c>
-    </row>
-    <row r="91" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="2">
-        <v>28</v>
-      </c>
-      <c r="B91" s="11">
-        <v>2019</v>
-      </c>
-      <c r="C91" s="3"/>
-      <c r="E91" s="3">
-        <v>2317.875</v>
-      </c>
-      <c r="F91" s="3">
-        <v>7426.4040000000005</v>
-      </c>
-      <c r="G91" s="3">
-        <v>9001.4130000000005</v>
-      </c>
-      <c r="H91" s="3">
-        <v>45385.997000000003</v>
-      </c>
-    </row>
-    <row r="92" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="30"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
-      <c r="H92" s="6"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="6"/>
-      <c r="K92" s="6"/>
-      <c r="L92" s="6"/>
-      <c r="M92" s="6"/>
-      <c r="N92" s="6"/>
-      <c r="O92" s="6"/>
-      <c r="P92" s="6"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="9"/>
       <c r="Q92" s="6"/>
       <c r="R92" s="6"/>
       <c r="S92" s="6"/>
@@ -9236,85 +7776,1584 @@
       <c r="BS92" s="6"/>
       <c r="BT92" s="6"/>
     </row>
-    <row r="93" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="30"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
-      <c r="I93" s="6"/>
-      <c r="J93" s="6"/>
-      <c r="K93" s="6"/>
-      <c r="L93" s="6"/>
-      <c r="M93" s="6"/>
-      <c r="N93" s="6"/>
-      <c r="O93" s="6"/>
-      <c r="P93" s="6"/>
-      <c r="Q93" s="6"/>
-      <c r="R93" s="6"/>
-      <c r="S93" s="6"/>
-      <c r="T93" s="6"/>
-      <c r="U93" s="6"/>
-      <c r="V93" s="6"/>
-      <c r="W93" s="6"/>
-      <c r="X93" s="6"/>
-      <c r="Y93" s="6"/>
-      <c r="Z93" s="6"/>
-      <c r="AA93" s="6"/>
-      <c r="AB93" s="6"/>
-      <c r="AC93" s="6"/>
-      <c r="AD93" s="6"/>
-      <c r="AE93" s="6"/>
-      <c r="AF93" s="6"/>
-      <c r="AG93" s="6"/>
-      <c r="AH93" s="6"/>
-      <c r="AI93" s="6"/>
-      <c r="AJ93" s="6"/>
-      <c r="AK93" s="6"/>
-      <c r="AL93" s="6"/>
-      <c r="AM93" s="6"/>
-      <c r="AN93" s="6"/>
-      <c r="AO93" s="6"/>
-      <c r="AP93" s="6"/>
-      <c r="AQ93" s="6"/>
-      <c r="AR93" s="6"/>
-      <c r="AS93" s="6"/>
-      <c r="AT93" s="6"/>
-      <c r="AU93" s="6"/>
-      <c r="AV93" s="6"/>
-      <c r="AW93" s="6"/>
-      <c r="AX93" s="6"/>
-      <c r="AY93" s="6"/>
-      <c r="AZ93" s="6"/>
-      <c r="BA93" s="6"/>
-      <c r="BB93" s="6"/>
-      <c r="BC93" s="6"/>
-      <c r="BD93" s="6"/>
-      <c r="BE93" s="6"/>
-      <c r="BF93" s="6"/>
-      <c r="BG93" s="6"/>
-      <c r="BH93" s="6"/>
-      <c r="BI93" s="6"/>
-      <c r="BJ93" s="6"/>
-      <c r="BK93" s="6"/>
-      <c r="BL93" s="6"/>
-      <c r="BM93" s="6"/>
-      <c r="BN93" s="6"/>
-      <c r="BO93" s="6"/>
-      <c r="BP93" s="6"/>
-      <c r="BQ93" s="6"/>
-      <c r="BR93" s="6"/>
-      <c r="BS93" s="6"/>
-      <c r="BT93" s="6"/>
+    <row r="93" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="E93" s="22"/>
+    </row>
+    <row r="94" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="E94" s="22"/>
+    </row>
+    <row r="95" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="E95" s="22"/>
+    </row>
+    <row r="96" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A96" s="30"/>
+      <c r="E96" s="22"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="30"/>
+      <c r="E97" s="22"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E98" s="22"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E99" s="22"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E100" s="22"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E101" s="22"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E102" s="22"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E103" s="22"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E104" s="22"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E105" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63B1BC36-79CC-403E-BDAB-F4ACF4DC04E2}">
+  <dimension ref="A1:BT100"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C59" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C69" sqref="C69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="2" customWidth="1"/>
+    <col min="3" max="4" width="24.140625" style="7" customWidth="1"/>
+    <col min="5" max="8" width="24.140625" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="10.7109375" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>6</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1945</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>6</v>
+      </c>
+      <c r="B3" s="11">
+        <v>1946</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>6</v>
+      </c>
+      <c r="B4" s="11">
+        <v>1947</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>6</v>
+      </c>
+      <c r="B5" s="11">
+        <v>1948</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>6</v>
+      </c>
+      <c r="B6" s="11">
+        <v>1949</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
+        <v>1950</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11">
+        <v>1951</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="11">
+        <v>1952</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>6</v>
+      </c>
+      <c r="B10" s="11">
+        <v>1953</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>6</v>
+      </c>
+      <c r="B11" s="11">
+        <v>1954</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>6</v>
+      </c>
+      <c r="B12" s="11">
+        <v>1955</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>6</v>
+      </c>
+      <c r="B13" s="11">
+        <v>1956</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>6</v>
+      </c>
+      <c r="B14" s="11">
+        <v>1957</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>6</v>
+      </c>
+      <c r="B15" s="11">
+        <v>1958</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>6</v>
+      </c>
+      <c r="B16" s="11">
+        <v>1959</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>6</v>
+      </c>
+      <c r="B17" s="11">
+        <v>1960</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>6</v>
+      </c>
+      <c r="B18" s="11">
+        <v>1961</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>6</v>
+      </c>
+      <c r="B19" s="11">
+        <v>1962</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>6</v>
+      </c>
+      <c r="B20" s="11">
+        <v>1963</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>6</v>
+      </c>
+      <c r="B21" s="11">
+        <v>1964</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>6</v>
+      </c>
+      <c r="B22" s="11">
+        <v>1965</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>6</v>
+      </c>
+      <c r="B23" s="11">
+        <v>1966</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>6</v>
+      </c>
+      <c r="B24" s="11">
+        <v>1967</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>6</v>
+      </c>
+      <c r="B25" s="11">
+        <v>1968</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>6</v>
+      </c>
+      <c r="B26" s="11">
+        <v>1969</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>6</v>
+      </c>
+      <c r="B27" s="11">
+        <v>1970</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>6</v>
+      </c>
+      <c r="B28" s="11">
+        <v>1971</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>9</v>
+      </c>
+      <c r="B29" s="11">
+        <v>1972</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>9</v>
+      </c>
+      <c r="B30" s="11">
+        <v>1973</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>9</v>
+      </c>
+      <c r="B31" s="11">
+        <v>1974</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>9</v>
+      </c>
+      <c r="B32" s="11">
+        <v>1975</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>9</v>
+      </c>
+      <c r="B33" s="11">
+        <v>1976</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>9</v>
+      </c>
+      <c r="B34" s="11">
+        <v>1977</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>9</v>
+      </c>
+      <c r="B35" s="11">
+        <v>1978</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>9</v>
+      </c>
+      <c r="B36" s="11">
+        <v>1979</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>10</v>
+      </c>
+      <c r="B37" s="11">
+        <v>1980</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>10</v>
+      </c>
+      <c r="B38" s="11">
+        <v>1981</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>10</v>
+      </c>
+      <c r="B39" s="11">
+        <v>1982</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>10</v>
+      </c>
+      <c r="B40" s="11">
+        <v>1983</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="7"/>
+    </row>
+    <row r="41" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>10</v>
+      </c>
+      <c r="B41" s="11">
+        <v>1984</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="7"/>
+    </row>
+    <row r="42" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>10</v>
+      </c>
+      <c r="B42" s="11">
+        <v>1985</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="7"/>
+    </row>
+    <row r="43" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>12</v>
+      </c>
+      <c r="B43" s="11">
+        <v>1986</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="7"/>
+    </row>
+    <row r="44" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>12</v>
+      </c>
+      <c r="B44" s="11">
+        <v>1987</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="7"/>
+    </row>
+    <row r="45" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>12</v>
+      </c>
+      <c r="B45" s="11">
+        <v>1988</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="7"/>
+    </row>
+    <row r="46" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>12</v>
+      </c>
+      <c r="B46" s="11">
+        <v>1989</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="7"/>
+    </row>
+    <row r="47" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>12</v>
+      </c>
+      <c r="B47" s="11">
+        <v>1990</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="7"/>
+    </row>
+    <row r="48" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>12</v>
+      </c>
+      <c r="B48" s="11">
+        <v>1991</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="7"/>
+    </row>
+    <row r="49" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>12</v>
+      </c>
+      <c r="B49" s="11">
+        <v>1992</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+    </row>
+    <row r="50" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>12</v>
+      </c>
+      <c r="B50" s="11">
+        <v>1993</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+    </row>
+    <row r="51" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>12</v>
+      </c>
+      <c r="B51" s="11">
+        <v>1994</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+    </row>
+    <row r="52" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>12</v>
+      </c>
+      <c r="B52" s="11">
+        <v>1995</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+    </row>
+    <row r="53" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>15</v>
+      </c>
+      <c r="B53" s="11">
+        <v>1995</v>
+      </c>
+      <c r="C53" s="8">
+        <v>1074.1015816699996</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="F53" s="3">
+        <v>7483.3069999999998</v>
+      </c>
+      <c r="G53" s="3">
+        <v>9546.4539999999997</v>
+      </c>
+      <c r="H53" s="3">
+        <v>7329.8549999999996</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>15</v>
+      </c>
+      <c r="B54" s="11">
+        <v>1996</v>
+      </c>
+      <c r="C54" s="8">
+        <v>1672.6261045800002</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="F54" s="3">
+        <v>5233.1869999999999</v>
+      </c>
+      <c r="G54" s="3">
+        <v>10136.938</v>
+      </c>
+      <c r="H54" s="3">
+        <v>8106.6859999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>15</v>
+      </c>
+      <c r="B55" s="11">
+        <v>1997</v>
+      </c>
+      <c r="C55" s="8">
+        <v>1600.2104694600002</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="F55" s="3">
+        <v>4034.9340000000002</v>
+      </c>
+      <c r="G55" s="3">
+        <v>10830.210999999999</v>
+      </c>
+      <c r="H55" s="3">
+        <v>8817.2330000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>15</v>
+      </c>
+      <c r="B56" s="11">
+        <v>1998</v>
+      </c>
+      <c r="C56" s="8">
+        <v>1993.0603617749996</v>
+      </c>
+      <c r="D56" s="7">
+        <f>941.569+213.195</f>
+        <v>1154.7639999999999</v>
+      </c>
+      <c r="F56" s="3">
+        <v>4102.0870000000004</v>
+      </c>
+      <c r="G56" s="3">
+        <v>25215.841</v>
+      </c>
+      <c r="H56" s="3">
+        <v>9971.1929999999993</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>15</v>
+      </c>
+      <c r="B57" s="11">
+        <v>1999</v>
+      </c>
+      <c r="C57" s="8">
+        <v>1946.1907399950003</v>
+      </c>
+      <c r="D57" s="7">
+        <f>945.255+271.208</f>
+        <v>1216.463</v>
+      </c>
+      <c r="F57" s="3">
+        <v>4915.6459999999997</v>
+      </c>
+      <c r="G57" s="3">
+        <v>17587.901999999998</v>
+      </c>
+      <c r="H57" s="3">
+        <v>11447.376</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>15</v>
+      </c>
+      <c r="B58" s="11">
+        <v>2000</v>
+      </c>
+      <c r="C58" s="8">
+        <v>2022.4696268799999</v>
+      </c>
+      <c r="D58" s="7"/>
+      <c r="F58" s="3">
+        <v>5434.8280000000004</v>
+      </c>
+      <c r="G58" s="3">
+        <v>18056.97</v>
+      </c>
+      <c r="H58" s="3">
+        <v>13732.503000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>15</v>
+      </c>
+      <c r="B59" s="11">
+        <v>2001</v>
+      </c>
+      <c r="C59" s="8">
+        <v>2115.9937219499998</v>
+      </c>
+      <c r="D59" s="7"/>
+      <c r="F59" s="3">
+        <v>6008.4570000000003</v>
+      </c>
+      <c r="G59" s="3">
+        <v>21311.46</v>
+      </c>
+      <c r="H59" s="3">
+        <v>14914.946</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>15</v>
+      </c>
+      <c r="B60" s="11">
+        <v>2002</v>
+      </c>
+      <c r="C60" s="8">
+        <v>2145.6239194</v>
+      </c>
+      <c r="D60" s="7"/>
+      <c r="F60" s="3">
+        <v>7822.39</v>
+      </c>
+      <c r="G60" s="3">
+        <v>19255.411</v>
+      </c>
+      <c r="H60" s="3">
+        <v>14820.972</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>15</v>
+      </c>
+      <c r="B61" s="11">
+        <v>2003</v>
+      </c>
+      <c r="C61" s="8">
+        <v>901.44722968999997</v>
+      </c>
+      <c r="D61" s="7"/>
+      <c r="F61" s="3">
+        <v>1172.6949999999999</v>
+      </c>
+      <c r="G61" s="3">
+        <v>3355.3629999999998</v>
+      </c>
+      <c r="H61" s="3">
+        <v>7628.6629999999996</v>
+      </c>
+      <c r="I61" s="22"/>
+    </row>
+    <row r="62" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>15</v>
+      </c>
+      <c r="B62" s="11">
+        <v>2004</v>
+      </c>
+      <c r="C62" s="8">
+        <v>819.09412166000004</v>
+      </c>
+      <c r="D62" s="7"/>
+      <c r="F62" s="3">
+        <v>1444.4349999999999</v>
+      </c>
+      <c r="G62" s="3">
+        <v>3298.2890000000002</v>
+      </c>
+      <c r="H62" s="3">
+        <v>10972.534</v>
+      </c>
+      <c r="I62" s="22"/>
+    </row>
+    <row r="63" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>15</v>
+      </c>
+      <c r="B63" s="11">
+        <v>2005</v>
+      </c>
+      <c r="C63" s="8">
+        <v>858.37958348000006</v>
+      </c>
+      <c r="D63" s="7"/>
+      <c r="F63" s="3">
+        <v>2228.107</v>
+      </c>
+      <c r="G63" s="3">
+        <v>3318.0369999999998</v>
+      </c>
+      <c r="H63" s="3">
+        <v>11535.121999999999</v>
+      </c>
+      <c r="I63" s="22"/>
+    </row>
+    <row r="64" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>25</v>
+      </c>
+      <c r="B64" s="11">
+        <v>2003</v>
+      </c>
+      <c r="C64" s="19"/>
+      <c r="D64" s="7">
+        <v>704.35699999999997</v>
+      </c>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="22"/>
+    </row>
+    <row r="65" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>25</v>
+      </c>
+      <c r="B65" s="11">
+        <v>2004</v>
+      </c>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="I65" s="22"/>
+    </row>
+    <row r="66" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>25</v>
+      </c>
+      <c r="B66" s="11">
+        <v>2005</v>
+      </c>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="I66" s="22"/>
+    </row>
+    <row r="67" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>25</v>
+      </c>
+      <c r="B67" s="11">
+        <v>2006</v>
+      </c>
+      <c r="D67" s="6"/>
+      <c r="I67" s="22"/>
+    </row>
+    <row r="68" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>27</v>
+      </c>
+      <c r="B68" s="11">
+        <v>2003</v>
+      </c>
+      <c r="C68" s="7">
+        <v>790.90893583649995</v>
+      </c>
+      <c r="D68" s="6"/>
+      <c r="F68" s="3">
+        <v>509.61599999999999</v>
+      </c>
+      <c r="G68" s="3">
+        <v>2346.2510000000002</v>
+      </c>
+      <c r="H68" s="3">
+        <v>3424.3919999999998</v>
+      </c>
+      <c r="I68" s="22"/>
+    </row>
+    <row r="69" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>27</v>
+      </c>
+      <c r="B69" s="11">
+        <v>2004</v>
+      </c>
+      <c r="C69" s="7">
+        <v>934.63890502670006</v>
+      </c>
+      <c r="D69" s="6"/>
+      <c r="F69" s="3">
+        <v>646.22699999999998</v>
+      </c>
+      <c r="G69" s="3">
+        <v>1469.97</v>
+      </c>
+      <c r="H69" s="3">
+        <v>6455.6959999999999</v>
+      </c>
+      <c r="I69" s="22"/>
+    </row>
+    <row r="70" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>27</v>
+      </c>
+      <c r="B70" s="11">
+        <v>2005</v>
+      </c>
+      <c r="C70" s="7">
+        <v>869.2332499173001</v>
+      </c>
+      <c r="D70" s="6"/>
+      <c r="F70" s="3">
+        <v>813.60900000000004</v>
+      </c>
+      <c r="G70" s="3">
+        <v>1594.422</v>
+      </c>
+      <c r="H70" s="3">
+        <v>7257.1170000000002</v>
+      </c>
+      <c r="I70" s="22"/>
+    </row>
+    <row r="71" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>27</v>
+      </c>
+      <c r="B71" s="11">
+        <v>2006</v>
+      </c>
+      <c r="C71" s="3">
+        <f>D71+E71</f>
+        <v>1013.396</v>
+      </c>
+      <c r="D71" s="7">
+        <v>586.322</v>
+      </c>
+      <c r="E71" s="3">
+        <v>427.07400000000001</v>
+      </c>
+      <c r="F71" s="3">
+        <v>810</v>
+      </c>
+      <c r="G71" s="3">
+        <v>3157.335</v>
+      </c>
+      <c r="H71" s="3">
+        <v>14911.803</v>
+      </c>
+      <c r="I71" s="22"/>
+    </row>
+    <row r="72" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>27</v>
+      </c>
+      <c r="B72" s="11">
+        <v>2007</v>
+      </c>
+      <c r="C72" s="3">
+        <f t="shared" ref="C72:C76" si="0">D72+E72</f>
+        <v>1741.2279999999998</v>
+      </c>
+      <c r="D72" s="7">
+        <v>1113.5429999999999</v>
+      </c>
+      <c r="E72" s="3">
+        <v>627.68499999999995</v>
+      </c>
+      <c r="F72" s="3">
+        <v>804.54899999999998</v>
+      </c>
+      <c r="G72" s="3">
+        <v>4406.3050000000003</v>
+      </c>
+      <c r="H72" s="3">
+        <v>21148.894</v>
+      </c>
+      <c r="I72" s="22"/>
+    </row>
+    <row r="73" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>27</v>
+      </c>
+      <c r="B73" s="11">
+        <v>2008</v>
+      </c>
+      <c r="C73" s="3">
+        <f t="shared" si="0"/>
+        <v>1494.61</v>
+      </c>
+      <c r="D73" s="7">
+        <v>820.62699999999995</v>
+      </c>
+      <c r="E73" s="3">
+        <v>673.98299999999995</v>
+      </c>
+      <c r="F73" s="3">
+        <v>732.27300000000002</v>
+      </c>
+      <c r="G73" s="3">
+        <v>4105.2259999999997</v>
+      </c>
+      <c r="H73" s="3">
+        <v>24651.62</v>
+      </c>
+      <c r="I73" s="22"/>
+    </row>
+    <row r="74" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>27</v>
+      </c>
+      <c r="B74" s="11">
+        <v>2009</v>
+      </c>
+      <c r="C74" s="3">
+        <f t="shared" si="0"/>
+        <v>1085.712</v>
+      </c>
+      <c r="D74" s="7">
+        <v>543.71500000000003</v>
+      </c>
+      <c r="E74" s="3">
+        <v>541.99699999999996</v>
+      </c>
+      <c r="F74" s="3">
+        <v>618.51900000000001</v>
+      </c>
+      <c r="G74" s="3">
+        <v>3049.2249999999999</v>
+      </c>
+      <c r="H74" s="3">
+        <v>20399.199000000001</v>
+      </c>
+      <c r="I74" s="22"/>
+    </row>
+    <row r="75" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>27</v>
+      </c>
+      <c r="B75" s="11">
+        <v>2010</v>
+      </c>
+      <c r="C75" s="3">
+        <f t="shared" si="0"/>
+        <v>1145.9780000000001</v>
+      </c>
+      <c r="D75" s="7">
+        <v>507.49700000000001</v>
+      </c>
+      <c r="E75" s="3">
+        <v>638.48099999999999</v>
+      </c>
+      <c r="F75" s="3">
+        <v>577.404</v>
+      </c>
+      <c r="G75" s="3">
+        <v>2741.011</v>
+      </c>
+      <c r="H75" s="3">
+        <v>26038.659</v>
+      </c>
+      <c r="I75" s="22"/>
+    </row>
+    <row r="76" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>27</v>
+      </c>
+      <c r="B76" s="11">
+        <v>2011</v>
+      </c>
+      <c r="C76" s="3">
+        <f t="shared" si="0"/>
+        <v>1180.7739999999999</v>
+      </c>
+      <c r="D76" s="7">
+        <v>517.15700000000004</v>
+      </c>
+      <c r="E76" s="3">
+        <v>663.61699999999996</v>
+      </c>
+      <c r="F76" s="3">
+        <v>623.62900000000002</v>
+      </c>
+      <c r="G76" s="3">
+        <v>2429.1030000000001</v>
+      </c>
+      <c r="H76" s="3">
+        <v>26446.292000000001</v>
+      </c>
+      <c r="I76" s="22"/>
+    </row>
+    <row r="77" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>28</v>
+      </c>
+      <c r="B77" s="11">
+        <v>2012</v>
+      </c>
+      <c r="C77" s="3">
+        <f>E77+D77</f>
+        <v>1004.049</v>
+      </c>
+      <c r="D77" s="3">
+        <v>378.505</v>
+      </c>
+      <c r="E77" s="3">
+        <v>625.54399999999998</v>
+      </c>
+      <c r="F77" s="3">
+        <v>722.11400000000003</v>
+      </c>
+      <c r="G77" s="3">
+        <v>2359.4920000000002</v>
+      </c>
+      <c r="H77" s="3">
+        <v>25387.23</v>
+      </c>
+      <c r="I77" s="22"/>
+    </row>
+    <row r="78" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>28</v>
+      </c>
+      <c r="B78" s="11">
+        <v>2013</v>
+      </c>
+      <c r="C78" s="3">
+        <f>E78+D78</f>
+        <v>946.01599999999996</v>
+      </c>
+      <c r="D78" s="3">
+        <v>290.38400000000001</v>
+      </c>
+      <c r="E78" s="3">
+        <v>655.63199999999995</v>
+      </c>
+      <c r="F78" s="3">
+        <v>728.94299999999998</v>
+      </c>
+      <c r="G78" s="3">
+        <v>2179.9409999999998</v>
+      </c>
+      <c r="H78" s="3">
+        <v>31836.011999999999</v>
+      </c>
+      <c r="I78" s="22"/>
+    </row>
+    <row r="79" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>28</v>
+      </c>
+      <c r="B79" s="11">
+        <v>2014</v>
+      </c>
+      <c r="C79" s="3">
+        <f>E79+D79</f>
+        <v>1034.6280000000002</v>
+      </c>
+      <c r="D79" s="3">
+        <v>327.24400000000003</v>
+      </c>
+      <c r="E79" s="3">
+        <v>707.38400000000001</v>
+      </c>
+      <c r="F79" s="3">
+        <v>1141.9649999999999</v>
+      </c>
+      <c r="G79" s="3">
+        <v>4642.4650000000001</v>
+      </c>
+      <c r="H79" s="3">
+        <v>29436.129000000001</v>
+      </c>
+      <c r="I79" s="22"/>
+    </row>
+    <row r="80" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>28</v>
+      </c>
+      <c r="B80" s="11">
+        <v>2015</v>
+      </c>
+      <c r="C80" s="3">
+        <f>E80+D80</f>
+        <v>1079.1000000000001</v>
+      </c>
+      <c r="D80" s="3">
+        <v>366.73200000000003</v>
+      </c>
+      <c r="E80" s="3">
+        <v>712.36800000000005</v>
+      </c>
+      <c r="F80" s="3">
+        <v>873.85500000000002</v>
+      </c>
+      <c r="G80" s="3">
+        <v>3367.3890000000001</v>
+      </c>
+      <c r="H80" s="3">
+        <v>26235.525000000001</v>
+      </c>
+      <c r="I80" s="22"/>
+    </row>
+    <row r="81" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>28</v>
+      </c>
+      <c r="B81" s="11">
+        <v>2016</v>
+      </c>
+      <c r="C81" s="3">
+        <f>E81+D81</f>
+        <v>1255.011</v>
+      </c>
+      <c r="D81" s="3">
+        <v>540.10900000000004</v>
+      </c>
+      <c r="E81" s="3">
+        <v>714.90200000000004</v>
+      </c>
+      <c r="F81" s="3">
+        <v>1001.8440000000001</v>
+      </c>
+      <c r="G81" s="3">
+        <v>4195.741</v>
+      </c>
+      <c r="H81" s="3">
+        <v>26909.106</v>
+      </c>
+    </row>
+    <row r="82" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>28</v>
+      </c>
+      <c r="B82" s="11">
+        <v>2017</v>
+      </c>
+      <c r="C82" s="3">
+        <f>E82+D82</f>
+        <v>1534.989</v>
+      </c>
+      <c r="D82" s="3">
+        <v>730.62099999999998</v>
+      </c>
+      <c r="E82" s="3">
+        <v>804.36800000000005</v>
+      </c>
+      <c r="F82" s="3">
+        <v>2117.5160000000001</v>
+      </c>
+      <c r="G82" s="3">
+        <v>4777.6589999999997</v>
+      </c>
+      <c r="H82" s="3">
+        <v>34995.555</v>
+      </c>
+    </row>
+    <row r="83" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>28</v>
+      </c>
+      <c r="B83" s="11">
+        <v>2018</v>
+      </c>
+      <c r="C83" s="3">
+        <f>E83+D83</f>
+        <v>1673.6289999999999</v>
+      </c>
+      <c r="D83" s="3">
+        <v>764.327</v>
+      </c>
+      <c r="E83" s="3">
+        <v>909.30200000000002</v>
+      </c>
+      <c r="F83" s="3">
+        <v>1019.8150000000001</v>
+      </c>
+      <c r="G83" s="3">
+        <v>8142.7259999999997</v>
+      </c>
+      <c r="H83" s="3">
+        <v>45395.548999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>28</v>
+      </c>
+      <c r="B84" s="11">
+        <v>2019</v>
+      </c>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="F84" s="3">
+        <v>2317.875</v>
+      </c>
+      <c r="G84" s="3">
+        <v>9001.4130000000005</v>
+      </c>
+      <c r="H84" s="3">
+        <v>45385.997000000003</v>
+      </c>
+    </row>
+    <row r="85" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="30"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="6"/>
+      <c r="M85" s="6"/>
+      <c r="N85" s="6"/>
+      <c r="O85" s="6"/>
+      <c r="P85" s="6"/>
+      <c r="Q85" s="6"/>
+      <c r="R85" s="6"/>
+      <c r="S85" s="6"/>
+      <c r="T85" s="6"/>
+      <c r="U85" s="6"/>
+      <c r="V85" s="6"/>
+      <c r="W85" s="6"/>
+      <c r="X85" s="6"/>
+      <c r="Y85" s="6"/>
+      <c r="Z85" s="6"/>
+      <c r="AA85" s="6"/>
+      <c r="AB85" s="6"/>
+      <c r="AC85" s="6"/>
+      <c r="AD85" s="6"/>
+      <c r="AE85" s="6"/>
+      <c r="AF85" s="6"/>
+      <c r="AG85" s="6"/>
+      <c r="AH85" s="6"/>
+      <c r="AI85" s="6"/>
+      <c r="AJ85" s="6"/>
+      <c r="AK85" s="6"/>
+      <c r="AL85" s="6"/>
+      <c r="AM85" s="6"/>
+      <c r="AN85" s="6"/>
+      <c r="AO85" s="6"/>
+      <c r="AP85" s="6"/>
+      <c r="AQ85" s="6"/>
+      <c r="AR85" s="6"/>
+      <c r="AS85" s="6"/>
+      <c r="AT85" s="6"/>
+      <c r="AU85" s="6"/>
+      <c r="AV85" s="6"/>
+      <c r="AW85" s="6"/>
+      <c r="AX85" s="6"/>
+      <c r="AY85" s="6"/>
+      <c r="AZ85" s="6"/>
+      <c r="BA85" s="6"/>
+      <c r="BB85" s="6"/>
+      <c r="BC85" s="6"/>
+      <c r="BD85" s="6"/>
+      <c r="BE85" s="6"/>
+      <c r="BF85" s="6"/>
+      <c r="BG85" s="6"/>
+      <c r="BH85" s="6"/>
+      <c r="BI85" s="6"/>
+      <c r="BJ85" s="6"/>
+      <c r="BK85" s="6"/>
+      <c r="BL85" s="6"/>
+      <c r="BM85" s="6"/>
+      <c r="BN85" s="6"/>
+      <c r="BO85" s="6"/>
+      <c r="BP85" s="6"/>
+      <c r="BQ85" s="6"/>
+      <c r="BR85" s="6"/>
+      <c r="BS85" s="6"/>
+      <c r="BT85" s="6"/>
+    </row>
+    <row r="86" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="30"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6"/>
+      <c r="M86" s="6"/>
+      <c r="N86" s="6"/>
+      <c r="O86" s="6"/>
+      <c r="P86" s="6"/>
+      <c r="Q86" s="6"/>
+      <c r="R86" s="6"/>
+      <c r="S86" s="6"/>
+      <c r="T86" s="6"/>
+      <c r="U86" s="6"/>
+      <c r="V86" s="6"/>
+      <c r="W86" s="6"/>
+      <c r="X86" s="6"/>
+      <c r="Y86" s="6"/>
+      <c r="Z86" s="6"/>
+      <c r="AA86" s="6"/>
+      <c r="AB86" s="6"/>
+      <c r="AC86" s="6"/>
+      <c r="AD86" s="6"/>
+      <c r="AE86" s="6"/>
+      <c r="AF86" s="6"/>
+      <c r="AG86" s="6"/>
+      <c r="AH86" s="6"/>
+      <c r="AI86" s="6"/>
+      <c r="AJ86" s="6"/>
+      <c r="AK86" s="6"/>
+      <c r="AL86" s="6"/>
+      <c r="AM86" s="6"/>
+      <c r="AN86" s="6"/>
+      <c r="AO86" s="6"/>
+      <c r="AP86" s="6"/>
+      <c r="AQ86" s="6"/>
+      <c r="AR86" s="6"/>
+      <c r="AS86" s="6"/>
+      <c r="AT86" s="6"/>
+      <c r="AU86" s="6"/>
+      <c r="AV86" s="6"/>
+      <c r="AW86" s="6"/>
+      <c r="AX86" s="6"/>
+      <c r="AY86" s="6"/>
+      <c r="AZ86" s="6"/>
+      <c r="BA86" s="6"/>
+      <c r="BB86" s="6"/>
+      <c r="BC86" s="6"/>
+      <c r="BD86" s="6"/>
+      <c r="BE86" s="6"/>
+      <c r="BF86" s="6"/>
+      <c r="BG86" s="6"/>
+      <c r="BH86" s="6"/>
+      <c r="BI86" s="6"/>
+      <c r="BJ86" s="6"/>
+      <c r="BK86" s="6"/>
+      <c r="BL86" s="6"/>
+      <c r="BM86" s="6"/>
+      <c r="BN86" s="6"/>
+      <c r="BO86" s="6"/>
+      <c r="BP86" s="6"/>
+      <c r="BQ86" s="6"/>
+      <c r="BR86" s="6"/>
+      <c r="BS86" s="6"/>
+      <c r="BT86" s="6"/>
+    </row>
+    <row r="87" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="30"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="7"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6"/>
+      <c r="M87" s="6"/>
+      <c r="N87" s="6"/>
+      <c r="O87" s="6"/>
+      <c r="P87" s="6"/>
+      <c r="Q87" s="6"/>
+      <c r="R87" s="6"/>
+      <c r="S87" s="6"/>
+      <c r="T87" s="6"/>
+      <c r="U87" s="6"/>
+      <c r="V87" s="6"/>
+      <c r="W87" s="6"/>
+      <c r="X87" s="6"/>
+      <c r="Y87" s="6"/>
+      <c r="Z87" s="6"/>
+      <c r="AA87" s="6"/>
+      <c r="AB87" s="6"/>
+      <c r="AC87" s="6"/>
+      <c r="AD87" s="6"/>
+      <c r="AE87" s="6"/>
+      <c r="AF87" s="6"/>
+      <c r="AG87" s="6"/>
+      <c r="AH87" s="6"/>
+      <c r="AI87" s="6"/>
+      <c r="AJ87" s="6"/>
+      <c r="AK87" s="6"/>
+      <c r="AL87" s="6"/>
+      <c r="AM87" s="6"/>
+      <c r="AN87" s="6"/>
+      <c r="AO87" s="6"/>
+      <c r="AP87" s="6"/>
+      <c r="AQ87" s="6"/>
+      <c r="AR87" s="6"/>
+      <c r="AS87" s="6"/>
+      <c r="AT87" s="6"/>
+      <c r="AU87" s="6"/>
+      <c r="AV87" s="6"/>
+      <c r="AW87" s="6"/>
+      <c r="AX87" s="6"/>
+      <c r="AY87" s="6"/>
+      <c r="AZ87" s="6"/>
+      <c r="BA87" s="6"/>
+      <c r="BB87" s="6"/>
+      <c r="BC87" s="6"/>
+      <c r="BD87" s="6"/>
+      <c r="BE87" s="6"/>
+      <c r="BF87" s="6"/>
+      <c r="BG87" s="6"/>
+      <c r="BH87" s="6"/>
+      <c r="BI87" s="6"/>
+      <c r="BJ87" s="6"/>
+      <c r="BK87" s="6"/>
+      <c r="BL87" s="6"/>
+      <c r="BM87" s="6"/>
+      <c r="BN87" s="6"/>
+      <c r="BO87" s="6"/>
+      <c r="BP87" s="6"/>
+      <c r="BQ87" s="6"/>
+      <c r="BR87" s="6"/>
+      <c r="BS87" s="6"/>
+      <c r="BT87" s="6"/>
+    </row>
+    <row r="90" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A90" s="30"/>
+    </row>
+    <row r="91" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A91" s="30"/>
+    </row>
+    <row r="92" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A92" s="30"/>
     </row>
     <row r="94" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="30"/>
+      <c r="A94" s="10"/>
       <c r="B94" s="2"/>
       <c r="C94" s="7"/>
-      <c r="D94" s="6"/>
+      <c r="D94" s="7"/>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
@@ -9384,168 +9423,85 @@
       <c r="BS94" s="6"/>
       <c r="BT94" s="6"/>
     </row>
-    <row r="97" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A97" s="30"/>
-    </row>
-    <row r="98" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A98" s="30"/>
-    </row>
-    <row r="99" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="10"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6"/>
+      <c r="L95" s="6"/>
+      <c r="M95" s="6"/>
+      <c r="N95" s="6"/>
+      <c r="O95" s="6"/>
+      <c r="P95" s="6"/>
+      <c r="Q95" s="6"/>
+      <c r="R95" s="6"/>
+      <c r="S95" s="6"/>
+      <c r="T95" s="6"/>
+      <c r="U95" s="6"/>
+      <c r="V95" s="6"/>
+      <c r="W95" s="6"/>
+      <c r="X95" s="6"/>
+      <c r="Y95" s="6"/>
+      <c r="Z95" s="6"/>
+      <c r="AA95" s="6"/>
+      <c r="AB95" s="6"/>
+      <c r="AC95" s="6"/>
+      <c r="AD95" s="6"/>
+      <c r="AE95" s="6"/>
+      <c r="AF95" s="6"/>
+      <c r="AG95" s="6"/>
+      <c r="AH95" s="6"/>
+      <c r="AI95" s="6"/>
+      <c r="AJ95" s="6"/>
+      <c r="AK95" s="6"/>
+      <c r="AL95" s="6"/>
+      <c r="AM95" s="6"/>
+      <c r="AN95" s="6"/>
+      <c r="AO95" s="6"/>
+      <c r="AP95" s="6"/>
+      <c r="AQ95" s="6"/>
+      <c r="AR95" s="6"/>
+      <c r="AS95" s="6"/>
+      <c r="AT95" s="6"/>
+      <c r="AU95" s="6"/>
+      <c r="AV95" s="6"/>
+      <c r="AW95" s="6"/>
+      <c r="AX95" s="6"/>
+      <c r="AY95" s="6"/>
+      <c r="AZ95" s="6"/>
+      <c r="BA95" s="6"/>
+      <c r="BB95" s="6"/>
+      <c r="BC95" s="6"/>
+      <c r="BD95" s="6"/>
+      <c r="BE95" s="6"/>
+      <c r="BF95" s="6"/>
+      <c r="BG95" s="6"/>
+      <c r="BH95" s="6"/>
+      <c r="BI95" s="6"/>
+      <c r="BJ95" s="6"/>
+      <c r="BK95" s="6"/>
+      <c r="BL95" s="6"/>
+      <c r="BM95" s="6"/>
+      <c r="BN95" s="6"/>
+      <c r="BO95" s="6"/>
+      <c r="BP95" s="6"/>
+      <c r="BQ95" s="6"/>
+      <c r="BR95" s="6"/>
+      <c r="BS95" s="6"/>
+      <c r="BT95" s="6"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="30"/>
     </row>
-    <row r="101" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="10"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
-      <c r="H101" s="6"/>
-      <c r="I101" s="6"/>
-      <c r="J101" s="6"/>
-      <c r="K101" s="6"/>
-      <c r="L101" s="6"/>
-      <c r="M101" s="6"/>
-      <c r="N101" s="6"/>
-      <c r="O101" s="6"/>
-      <c r="P101" s="6"/>
-      <c r="Q101" s="6"/>
-      <c r="R101" s="6"/>
-      <c r="S101" s="6"/>
-      <c r="T101" s="6"/>
-      <c r="U101" s="6"/>
-      <c r="V101" s="6"/>
-      <c r="W101" s="6"/>
-      <c r="X101" s="6"/>
-      <c r="Y101" s="6"/>
-      <c r="Z101" s="6"/>
-      <c r="AA101" s="6"/>
-      <c r="AB101" s="6"/>
-      <c r="AC101" s="6"/>
-      <c r="AD101" s="6"/>
-      <c r="AE101" s="6"/>
-      <c r="AF101" s="6"/>
-      <c r="AG101" s="6"/>
-      <c r="AH101" s="6"/>
-      <c r="AI101" s="6"/>
-      <c r="AJ101" s="6"/>
-      <c r="AK101" s="6"/>
-      <c r="AL101" s="6"/>
-      <c r="AM101" s="6"/>
-      <c r="AN101" s="6"/>
-      <c r="AO101" s="6"/>
-      <c r="AP101" s="6"/>
-      <c r="AQ101" s="6"/>
-      <c r="AR101" s="6"/>
-      <c r="AS101" s="6"/>
-      <c r="AT101" s="6"/>
-      <c r="AU101" s="6"/>
-      <c r="AV101" s="6"/>
-      <c r="AW101" s="6"/>
-      <c r="AX101" s="6"/>
-      <c r="AY101" s="6"/>
-      <c r="AZ101" s="6"/>
-      <c r="BA101" s="6"/>
-      <c r="BB101" s="6"/>
-      <c r="BC101" s="6"/>
-      <c r="BD101" s="6"/>
-      <c r="BE101" s="6"/>
-      <c r="BF101" s="6"/>
-      <c r="BG101" s="6"/>
-      <c r="BH101" s="6"/>
-      <c r="BI101" s="6"/>
-      <c r="BJ101" s="6"/>
-      <c r="BK101" s="6"/>
-      <c r="BL101" s="6"/>
-      <c r="BM101" s="6"/>
-      <c r="BN101" s="6"/>
-      <c r="BO101" s="6"/>
-      <c r="BP101" s="6"/>
-      <c r="BQ101" s="6"/>
-      <c r="BR101" s="6"/>
-      <c r="BS101" s="6"/>
-      <c r="BT101" s="6"/>
-    </row>
-    <row r="102" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="10"/>
-      <c r="B102" s="2"/>
-      <c r="C102" s="7"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6"/>
-      <c r="G102" s="6"/>
-      <c r="H102" s="6"/>
-      <c r="I102" s="6"/>
-      <c r="J102" s="6"/>
-      <c r="K102" s="6"/>
-      <c r="L102" s="6"/>
-      <c r="M102" s="6"/>
-      <c r="N102" s="6"/>
-      <c r="O102" s="6"/>
-      <c r="P102" s="6"/>
-      <c r="Q102" s="6"/>
-      <c r="R102" s="6"/>
-      <c r="S102" s="6"/>
-      <c r="T102" s="6"/>
-      <c r="U102" s="6"/>
-      <c r="V102" s="6"/>
-      <c r="W102" s="6"/>
-      <c r="X102" s="6"/>
-      <c r="Y102" s="6"/>
-      <c r="Z102" s="6"/>
-      <c r="AA102" s="6"/>
-      <c r="AB102" s="6"/>
-      <c r="AC102" s="6"/>
-      <c r="AD102" s="6"/>
-      <c r="AE102" s="6"/>
-      <c r="AF102" s="6"/>
-      <c r="AG102" s="6"/>
-      <c r="AH102" s="6"/>
-      <c r="AI102" s="6"/>
-      <c r="AJ102" s="6"/>
-      <c r="AK102" s="6"/>
-      <c r="AL102" s="6"/>
-      <c r="AM102" s="6"/>
-      <c r="AN102" s="6"/>
-      <c r="AO102" s="6"/>
-      <c r="AP102" s="6"/>
-      <c r="AQ102" s="6"/>
-      <c r="AR102" s="6"/>
-      <c r="AS102" s="6"/>
-      <c r="AT102" s="6"/>
-      <c r="AU102" s="6"/>
-      <c r="AV102" s="6"/>
-      <c r="AW102" s="6"/>
-      <c r="AX102" s="6"/>
-      <c r="AY102" s="6"/>
-      <c r="AZ102" s="6"/>
-      <c r="BA102" s="6"/>
-      <c r="BB102" s="6"/>
-      <c r="BC102" s="6"/>
-      <c r="BD102" s="6"/>
-      <c r="BE102" s="6"/>
-      <c r="BF102" s="6"/>
-      <c r="BG102" s="6"/>
-      <c r="BH102" s="6"/>
-      <c r="BI102" s="6"/>
-      <c r="BJ102" s="6"/>
-      <c r="BK102" s="6"/>
-      <c r="BL102" s="6"/>
-      <c r="BM102" s="6"/>
-      <c r="BN102" s="6"/>
-      <c r="BO102" s="6"/>
-      <c r="BP102" s="6"/>
-      <c r="BQ102" s="6"/>
-      <c r="BR102" s="6"/>
-      <c r="BS102" s="6"/>
-      <c r="BT102" s="6"/>
-    </row>
-    <row r="106" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A106" s="30"/>
-    </row>
-    <row r="107" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A107" s="30"/>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9556,13 +9512,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2629125-5F59-4D2B-B790-D44D45AA199C}">
-  <dimension ref="A1:BU109"/>
+  <dimension ref="A1:BU102"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9573,7 +9529,7 @@
     <col min="9" max="16384" width="10.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="42" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
         <v>4</v>
       </c>
@@ -9584,19 +9540,19 @@
         <v>3</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -9606,7 +9562,6 @@
       <c r="B2" s="11">
         <v>1945</v>
       </c>
-      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -9615,7 +9570,6 @@
       <c r="B3" s="11">
         <v>1946</v>
       </c>
-      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -9624,7 +9578,6 @@
       <c r="B4" s="11">
         <v>1947</v>
       </c>
-      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -9633,7 +9586,6 @@
       <c r="B5" s="11">
         <v>1948</v>
       </c>
-      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -9642,7 +9594,6 @@
       <c r="B6" s="11">
         <v>1949</v>
       </c>
-      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -9651,7 +9602,6 @@
       <c r="B7" s="11">
         <v>1950</v>
       </c>
-      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -9660,7 +9610,6 @@
       <c r="B8" s="11">
         <v>1951</v>
       </c>
-      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -9669,7 +9618,6 @@
       <c r="B9" s="11">
         <v>1952</v>
       </c>
-      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -9678,7 +9626,6 @@
       <c r="B10" s="11">
         <v>1953</v>
       </c>
-      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -9689,7 +9636,7 @@
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -9700,7 +9647,7 @@
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -9711,7 +9658,7 @@
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -9722,7 +9669,7 @@
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -9733,7 +9680,7 @@
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -9744,9 +9691,9 @@
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>6</v>
       </c>
@@ -9755,9 +9702,9 @@
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>6</v>
       </c>
@@ -9766,9 +9713,9 @@
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>6</v>
       </c>
@@ -9777,9 +9724,9 @@
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>6</v>
       </c>
@@ -9788,9 +9735,9 @@
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>6</v>
       </c>
@@ -9799,9 +9746,9 @@
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>6</v>
       </c>
@@ -9810,9 +9757,9 @@
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>6</v>
       </c>
@@ -9821,9 +9768,9 @@
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>6</v>
       </c>
@@ -9832,9 +9779,9 @@
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>6</v>
       </c>
@@ -9843,9 +9790,9 @@
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
-      <c r="F25" s="8"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>6</v>
       </c>
@@ -9854,9 +9801,9 @@
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
-      <c r="F26" s="8"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>6</v>
       </c>
@@ -9865,9 +9812,9 @@
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
-      <c r="F27" s="8"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>6</v>
       </c>
@@ -9876,9 +9823,9 @@
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
-      <c r="F28" s="8"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E28" s="8"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>9</v>
       </c>
@@ -9887,9 +9834,9 @@
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
-      <c r="F29" s="8"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E29" s="8"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>9</v>
       </c>
@@ -9898,9 +9845,9 @@
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
-      <c r="F30" s="8"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>9</v>
       </c>
@@ -9909,9 +9856,9 @@
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
-      <c r="F31" s="8"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E31" s="8"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>9</v>
       </c>
@@ -9920,7 +9867,7 @@
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
-      <c r="F32" s="8"/>
+      <c r="E32" s="8"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
@@ -9931,7 +9878,7 @@
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
-      <c r="F33" s="8"/>
+      <c r="E33" s="8"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
@@ -9942,7 +9889,7 @@
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
-      <c r="F34" s="8"/>
+      <c r="E34" s="8"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -9953,7 +9900,7 @@
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
-      <c r="F35" s="8"/>
+      <c r="E35" s="8"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
@@ -9964,7 +9911,7 @@
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
-      <c r="F36" s="8"/>
+      <c r="E36" s="8"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
@@ -9975,7 +9922,7 @@
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
-      <c r="F37" s="8"/>
+      <c r="E37" s="8"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
@@ -9984,7 +9931,6 @@
       <c r="B38" s="11">
         <v>1981</v>
       </c>
-      <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
@@ -9996,7 +9942,6 @@
       <c r="B39" s="11">
         <v>1982</v>
       </c>
-      <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
@@ -10008,7 +9953,6 @@
       <c r="B40" s="11">
         <v>1983</v>
       </c>
-      <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
@@ -10020,9 +9964,6 @@
       <c r="B41" s="11">
         <v>1984</v>
       </c>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
       <c r="I41" s="8"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -10032,9 +9973,6 @@
       <c r="B42" s="11">
         <v>1985</v>
       </c>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
       <c r="I42" s="8"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -10044,9 +9982,6 @@
       <c r="B43" s="11">
         <v>1986</v>
       </c>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
       <c r="I43" s="8"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -10056,9 +9991,6 @@
       <c r="B44" s="11">
         <v>1987</v>
       </c>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
       <c r="I44" s="8"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -10068,9 +10000,6 @@
       <c r="B45" s="11">
         <v>1988</v>
       </c>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
       <c r="I45" s="8"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -10080,9 +10009,6 @@
       <c r="B46" s="11">
         <v>1989</v>
       </c>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
       <c r="I46" s="8"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -10092,9 +10018,6 @@
       <c r="B47" s="11">
         <v>1990</v>
       </c>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
       <c r="I47" s="8"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -10104,9 +10027,6 @@
       <c r="B48" s="11">
         <v>1991</v>
       </c>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
       <c r="I48" s="8"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -10116,9 +10036,6 @@
       <c r="B49" s="11">
         <v>1992</v>
       </c>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
       <c r="I49" s="8"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -10128,11 +10045,6 @@
       <c r="B50" s="11">
         <v>1993</v>
       </c>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
       <c r="I50" s="8"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -10142,11 +10054,6 @@
       <c r="B51" s="11">
         <v>1994</v>
       </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
       <c r="I51" s="8"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -10156,11 +10063,6 @@
       <c r="B52" s="11">
         <v>1995</v>
       </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
       <c r="I52" s="8"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -10170,15 +10072,16 @@
       <c r="B53" s="11">
         <v>1995</v>
       </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="7">
+      <c r="C53" s="7">
+        <v>2804.6375943999997</v>
+      </c>
+      <c r="F53" s="7">
         <v>5350.2730000000001</v>
       </c>
       <c r="G53" s="7">
         <v>10350.689</v>
       </c>
-      <c r="H53" s="8">
+      <c r="H53" s="7">
         <v>5953.241</v>
       </c>
       <c r="I53" s="8"/>
@@ -10190,18 +10093,16 @@
       <c r="B54" s="11">
         <v>1996</v>
       </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="7">
+      <c r="C54" s="7">
+        <v>3066.5245173500002</v>
+      </c>
+      <c r="F54" s="7">
         <v>5190.4229999999998</v>
-      </c>
-      <c r="F54" s="7">
-        <v>30234.971000000001</v>
       </c>
       <c r="G54" s="7">
         <v>11485.144</v>
       </c>
-      <c r="H54" s="8">
+      <c r="H54" s="7">
         <v>6737.9170000000004</v>
       </c>
       <c r="I54" s="8"/>
@@ -10213,18 +10114,16 @@
       <c r="B55" s="11">
         <v>1997</v>
       </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="7">
+      <c r="C55" s="7">
+        <v>3302.8370570149996</v>
+      </c>
+      <c r="F55" s="7">
         <v>5691.5780000000004</v>
-      </c>
-      <c r="F55" s="7">
-        <v>34952.101000000002</v>
       </c>
       <c r="G55" s="7">
         <v>11683.558000000001</v>
       </c>
-      <c r="H55" s="8">
+      <c r="H55" s="7">
         <v>6880.1769999999997</v>
       </c>
       <c r="I55" s="8"/>
@@ -10237,19 +10136,19 @@
         <v>1998</v>
       </c>
       <c r="C56" s="7">
+        <v>3371.0010588300001</v>
+      </c>
+      <c r="D56" s="7">
         <f>642.57+224.035</f>
         <v>866.60500000000002</v>
       </c>
-      <c r="E56" s="7">
+      <c r="F56" s="7">
         <v>5844.848</v>
-      </c>
-      <c r="F56" s="7">
-        <v>38882.150999999998</v>
       </c>
       <c r="G56" s="7">
         <v>13531.013000000001</v>
       </c>
-      <c r="H56" s="8">
+      <c r="H56" s="7">
         <v>8422.8529999999992</v>
       </c>
       <c r="I56" s="8"/>
@@ -10262,19 +10161,19 @@
         <v>1999</v>
       </c>
       <c r="C57" s="7">
+        <v>3284.3094187949991</v>
+      </c>
+      <c r="D57" s="7">
         <f>593.254+199.435</f>
         <v>792.68900000000008</v>
       </c>
-      <c r="E57" s="7">
+      <c r="F57" s="7">
         <v>5784.3459999999995</v>
-      </c>
-      <c r="F57" s="7">
-        <v>39408.607000000004</v>
       </c>
       <c r="G57" s="7">
         <v>16217.342000000001</v>
       </c>
-      <c r="H57" s="8">
+      <c r="H57" s="7">
         <v>7825.3469999999998</v>
       </c>
       <c r="I57" s="8"/>
@@ -10286,16 +10185,16 @@
       <c r="B58" s="11">
         <v>2000</v>
       </c>
-      <c r="E58" s="7">
+      <c r="C58" s="7">
+        <v>3677.6053743550001</v>
+      </c>
+      <c r="F58" s="7">
         <v>7048.3940000000002</v>
-      </c>
-      <c r="F58" s="7">
-        <v>45703.873</v>
       </c>
       <c r="G58" s="7">
         <v>17874.256000000001</v>
       </c>
-      <c r="H58" s="8">
+      <c r="H58" s="7">
         <v>8318.5519999999997</v>
       </c>
       <c r="I58" s="8"/>
@@ -10307,16 +10206,16 @@
       <c r="B59" s="11">
         <v>2001</v>
       </c>
-      <c r="E59" s="7">
+      <c r="C59" s="7">
+        <v>3355.6221511100002</v>
+      </c>
+      <c r="F59" s="7">
         <v>8277.2360000000008</v>
-      </c>
-      <c r="F59" s="7">
-        <v>42419.595999999998</v>
       </c>
       <c r="G59" s="7">
         <v>17815.11</v>
       </c>
-      <c r="H59" s="8">
+      <c r="H59" s="7">
         <v>8543.8629999999994</v>
       </c>
       <c r="I59" s="8"/>
@@ -10328,16 +10227,16 @@
       <c r="B60" s="11">
         <v>2002</v>
       </c>
-      <c r="E60" s="7">
+      <c r="C60" s="7">
+        <v>3826.0446242099997</v>
+      </c>
+      <c r="F60" s="7">
         <v>9688.3340000000007</v>
-      </c>
-      <c r="F60" s="7">
-        <v>50295.398000000001</v>
       </c>
       <c r="G60" s="7">
         <v>19542.358</v>
       </c>
-      <c r="H60" s="8">
+      <c r="H60" s="7">
         <v>9458.7469999999994</v>
       </c>
       <c r="I60" s="8"/>
@@ -10349,16 +10248,16 @@
       <c r="B61" s="11">
         <v>2003</v>
       </c>
-      <c r="E61" s="7">
+      <c r="C61" s="7">
+        <v>996.9946056849999</v>
+      </c>
+      <c r="F61" s="7">
         <v>1840.808</v>
-      </c>
-      <c r="F61" s="7">
-        <v>23778.879000000001</v>
       </c>
       <c r="G61" s="7">
         <v>2948.6559999999999</v>
       </c>
-      <c r="H61" s="8">
+      <c r="H61" s="7">
         <v>2814.6170000000002</v>
       </c>
       <c r="I61" s="8"/>
@@ -10370,16 +10269,16 @@
       <c r="B62" s="11">
         <v>2004</v>
       </c>
-      <c r="E62" s="7">
+      <c r="C62" s="7">
+        <v>1209.7130233650003</v>
+      </c>
+      <c r="F62" s="7">
         <v>1739.0219999999999</v>
-      </c>
-      <c r="F62" s="7">
-        <v>20644.539000000001</v>
       </c>
       <c r="G62" s="7">
         <v>3453.4580000000001</v>
       </c>
-      <c r="H62" s="8">
+      <c r="H62" s="7">
         <v>2954.6019999999999</v>
       </c>
       <c r="I62" s="8"/>
@@ -10391,16 +10290,16 @@
       <c r="B63" s="11">
         <v>2005</v>
       </c>
-      <c r="E63" s="7">
+      <c r="C63" s="7">
+        <v>1158.6093982850002</v>
+      </c>
+      <c r="F63" s="7">
         <v>1588.31</v>
-      </c>
-      <c r="F63" s="7">
-        <v>20788.940999999999</v>
       </c>
       <c r="G63" s="7">
         <v>4276.2860000000001</v>
       </c>
-      <c r="H63" s="8">
+      <c r="H63" s="7">
         <v>2655.777</v>
       </c>
       <c r="I63" s="8"/>
@@ -10412,14 +10311,10 @@
       <c r="B64" s="11">
         <v>2003</v>
       </c>
-      <c r="C64" s="7">
+      <c r="D64" s="7">
         <f>921.863</f>
         <v>921.86300000000006</v>
       </c>
-      <c r="D64" s="7">
-        <v>1722.568</v>
-      </c>
-      <c r="H64" s="8"/>
       <c r="I64" s="8"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -10429,10 +10324,6 @@
       <c r="B65" s="11">
         <v>2004</v>
       </c>
-      <c r="D65" s="7">
-        <v>1544.7529999999999</v>
-      </c>
-      <c r="H65" s="8"/>
       <c r="I65" s="8"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -10442,10 +10333,6 @@
       <c r="B66" s="11">
         <v>2005</v>
       </c>
-      <c r="C66" s="6"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="8"/>
       <c r="I66" s="8"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -10455,10 +10342,6 @@
       <c r="B67" s="11">
         <v>2006</v>
       </c>
-      <c r="C67" s="6"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="8"/>
       <c r="I67" s="8"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -10466,14 +10349,20 @@
         <v>27</v>
       </c>
       <c r="B68" s="11">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="C68" s="7">
-        <v>1024.9259999999999</v>
-      </c>
-      <c r="F68" s="8"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="8"/>
+        <v>762.55452276400001</v>
+      </c>
+      <c r="F68" s="7">
+        <v>1722.568</v>
+      </c>
+      <c r="G68" s="7">
+        <v>1885.9570000000001</v>
+      </c>
+      <c r="H68" s="7">
+        <v>2211.817</v>
+      </c>
       <c r="I68" s="8"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -10481,17 +10370,20 @@
         <v>27</v>
       </c>
       <c r="B69" s="11">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="C69" s="7">
-        <v>1007.268</v>
-      </c>
-      <c r="D69" s="7">
-        <v>341.19200000000001</v>
-      </c>
-      <c r="F69" s="8"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="8"/>
+        <v>985.56460808499992</v>
+      </c>
+      <c r="F69" s="7">
+        <v>1544.7529999999999</v>
+      </c>
+      <c r="G69" s="7">
+        <v>2122.0839999999998</v>
+      </c>
+      <c r="H69" s="7">
+        <v>2068.3710000000001</v>
+      </c>
       <c r="I69" s="8"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -10499,17 +10391,20 @@
         <v>27</v>
       </c>
       <c r="B70" s="11">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="C70" s="7">
-        <v>1074.24</v>
-      </c>
-      <c r="D70" s="7">
-        <v>309.33800000000002</v>
-      </c>
-      <c r="F70" s="8"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="8"/>
+        <v>925.86978555419989</v>
+      </c>
+      <c r="F70" s="7">
+        <v>1326.1379999999999</v>
+      </c>
+      <c r="G70" s="7">
+        <v>2545.4520000000002</v>
+      </c>
+      <c r="H70" s="7">
+        <v>2189.857</v>
+      </c>
       <c r="I70" s="8"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -10517,17 +10412,27 @@
         <v>27</v>
       </c>
       <c r="B71" s="11">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="C71" s="7">
-        <v>1114.9590000000001</v>
+        <f t="shared" ref="C71:C76" si="0">D71+E71</f>
+        <v>1348.46</v>
       </c>
       <c r="D71" s="7">
-        <v>352.69499999999999</v>
-      </c>
-      <c r="F71" s="8"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="8"/>
+        <v>1007.268</v>
+      </c>
+      <c r="E71" s="7">
+        <v>341.19200000000001</v>
+      </c>
+      <c r="F71" s="7">
+        <v>2641.1060000000002</v>
+      </c>
+      <c r="G71" s="7">
+        <v>3349.741</v>
+      </c>
+      <c r="H71" s="7">
+        <v>2868.5459999999998</v>
+      </c>
       <c r="I71" s="8"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -10535,17 +10440,27 @@
         <v>27</v>
       </c>
       <c r="B72" s="11">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="C72" s="7">
-        <v>828.10799999999995</v>
+        <f t="shared" si="0"/>
+        <v>1383.578</v>
       </c>
       <c r="D72" s="7">
-        <v>287.56700000000001</v>
-      </c>
-      <c r="F72" s="8"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="8"/>
+        <v>1074.24</v>
+      </c>
+      <c r="E72" s="7">
+        <v>309.33800000000002</v>
+      </c>
+      <c r="F72" s="7">
+        <v>3148.8449999999998</v>
+      </c>
+      <c r="G72" s="7">
+        <v>3267.6909999999998</v>
+      </c>
+      <c r="H72" s="7">
+        <v>2729.8240000000001</v>
+      </c>
       <c r="I72" s="8"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -10553,17 +10468,27 @@
         <v>27</v>
       </c>
       <c r="B73" s="11">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="C73" s="7">
-        <v>1180.9100000000001</v>
+        <f t="shared" si="0"/>
+        <v>1467.654</v>
       </c>
       <c r="D73" s="7">
-        <v>358.15899999999999</v>
-      </c>
-      <c r="F73" s="8"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="8"/>
+        <v>1114.9590000000001</v>
+      </c>
+      <c r="E73" s="7">
+        <v>352.69499999999999</v>
+      </c>
+      <c r="F73" s="7">
+        <v>2422.9180000000001</v>
+      </c>
+      <c r="G73" s="7">
+        <v>3611.6860000000001</v>
+      </c>
+      <c r="H73" s="7">
+        <v>3540.538</v>
+      </c>
       <c r="I73" s="8"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -10571,58 +10496,82 @@
         <v>27</v>
       </c>
       <c r="B74" s="11">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="C74" s="7">
-        <v>1052.134</v>
+        <f t="shared" si="0"/>
+        <v>1115.675</v>
       </c>
       <c r="D74" s="7">
-        <v>396.529</v>
-      </c>
-      <c r="F74" s="8"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="8"/>
+        <v>828.10799999999995</v>
+      </c>
+      <c r="E74" s="7">
+        <v>287.56700000000001</v>
+      </c>
+      <c r="F74" s="7">
+        <v>1868.1790000000001</v>
+      </c>
+      <c r="G74" s="7">
+        <v>2757.027</v>
+      </c>
+      <c r="H74" s="7">
+        <v>4285.7719999999999</v>
+      </c>
       <c r="I74" s="8"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B75" s="11">
-        <v>2003</v>
+        <v>2010</v>
+      </c>
+      <c r="C75" s="7">
+        <f t="shared" si="0"/>
+        <v>1539.069</v>
+      </c>
+      <c r="D75" s="7">
+        <v>1180.9100000000001</v>
       </c>
       <c r="E75" s="7">
-        <v>1314.933</v>
+        <v>358.15899999999999</v>
       </c>
       <c r="F75" s="7">
-        <v>13138.22</v>
+        <v>2025.9480000000001</v>
       </c>
       <c r="G75" s="7">
-        <v>1836.5060000000001</v>
+        <v>3089.2269999999999</v>
       </c>
       <c r="H75" s="7">
-        <v>2190.2429999999999</v>
+        <v>5618.5649999999996</v>
       </c>
       <c r="I75" s="8"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B76" s="11">
-        <v>2004</v>
+        <v>2011</v>
+      </c>
+      <c r="C76" s="7">
+        <f t="shared" si="0"/>
+        <v>1448.663</v>
+      </c>
+      <c r="D76" s="7">
+        <v>1052.134</v>
       </c>
       <c r="E76" s="7">
-        <v>1481.8969999999999</v>
+        <v>396.529</v>
       </c>
       <c r="F76" s="7">
-        <v>13427.543</v>
+        <v>2480.3870000000002</v>
       </c>
       <c r="G76" s="7">
-        <v>2065.0219999999999</v>
+        <v>3578.6190000000001</v>
       </c>
       <c r="H76" s="7">
-        <v>2047.5150000000001</v>
+        <v>6767.4059999999999</v>
       </c>
       <c r="I76" s="8"/>
     </row>
@@ -10631,506 +10580,449 @@
         <v>28</v>
       </c>
       <c r="B77" s="11">
-        <v>2005</v>
+        <v>2012</v>
+      </c>
+      <c r="C77" s="7">
+        <f t="shared" ref="C77:C82" si="1">D77+E77</f>
+        <v>1448.3419999999999</v>
+      </c>
+      <c r="D77" s="7">
+        <v>1053.7329999999999</v>
       </c>
       <c r="E77" s="7">
-        <v>1277.0999999999999</v>
+        <v>394.60899999999998</v>
       </c>
       <c r="F77" s="7">
-        <v>11523.7</v>
+        <v>2572.4760000000001</v>
       </c>
       <c r="G77" s="7">
-        <v>2474.1889999999999</v>
+        <v>4019.998</v>
       </c>
       <c r="H77" s="7">
-        <v>1995.422</v>
-      </c>
-      <c r="I77" s="8"/>
+        <v>4086.7570000000001</v>
+      </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>28</v>
       </c>
       <c r="B78" s="11">
-        <v>2006</v>
+        <v>2013</v>
+      </c>
+      <c r="C78" s="7">
+        <f t="shared" si="1"/>
+        <v>1484.9680000000001</v>
+      </c>
+      <c r="D78" s="7">
+        <v>1068.7080000000001</v>
       </c>
       <c r="E78" s="7">
-        <v>2591.5540000000001</v>
+        <v>416.26</v>
       </c>
       <c r="F78" s="7">
-        <v>17141.224999999999</v>
+        <v>2472.8229999999999</v>
       </c>
       <c r="G78" s="7">
-        <v>3201.9050000000002</v>
+        <v>4474.7030000000004</v>
       </c>
       <c r="H78" s="7">
-        <v>2811.7530000000002</v>
-      </c>
-      <c r="I78" s="8"/>
+        <v>4081.2939999999999</v>
+      </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>28</v>
       </c>
       <c r="B79" s="11">
-        <v>2007</v>
+        <v>2014</v>
+      </c>
+      <c r="C79" s="7">
+        <f t="shared" si="1"/>
+        <v>1281.933</v>
+      </c>
+      <c r="D79" s="7">
+        <v>864.29300000000001</v>
       </c>
       <c r="E79" s="7">
-        <v>3089.6709999999998</v>
+        <v>417.64</v>
       </c>
       <c r="F79" s="7">
-        <v>23243.877</v>
+        <v>2628.556</v>
       </c>
       <c r="G79" s="7">
-        <v>3116.366</v>
+        <v>5069.1350000000002</v>
       </c>
       <c r="H79" s="7">
-        <v>2668.0210000000002</v>
-      </c>
-      <c r="I79" s="8"/>
+        <v>3610.806</v>
+      </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>28</v>
       </c>
       <c r="B80" s="11">
-        <v>2008</v>
+        <v>2015</v>
+      </c>
+      <c r="C80" s="7">
+        <f t="shared" si="1"/>
+        <v>1187.539</v>
+      </c>
+      <c r="D80" s="7">
+        <v>794.27099999999996</v>
       </c>
       <c r="E80" s="7">
-        <v>2347.15</v>
+        <v>393.26799999999997</v>
       </c>
       <c r="F80" s="7">
-        <v>22298.875</v>
+        <v>2833.78</v>
       </c>
       <c r="G80" s="7">
-        <v>3430.1570000000002</v>
+        <v>4255.9660000000003</v>
       </c>
       <c r="H80" s="7">
-        <v>3419.9180000000001</v>
-      </c>
-      <c r="I80" s="8"/>
+        <v>3253.2179999999998</v>
+      </c>
     </row>
     <row r="81" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>28</v>
       </c>
       <c r="B81" s="11">
-        <v>2009</v>
+        <v>2016</v>
+      </c>
+      <c r="C81" s="7">
+        <f t="shared" si="1"/>
+        <v>1192.2070000000001</v>
+      </c>
+      <c r="D81" s="7">
+        <v>753.94</v>
       </c>
       <c r="E81" s="7">
-        <v>1808.837</v>
+        <v>438.267</v>
       </c>
       <c r="F81" s="7">
-        <v>14337.436</v>
+        <v>2941.31</v>
       </c>
       <c r="G81" s="7">
-        <v>2563.5030000000002</v>
+        <v>4430.3440000000001</v>
       </c>
       <c r="H81" s="7">
-        <v>4101.165</v>
-      </c>
-      <c r="I81" s="8"/>
+        <v>3864.1849999999999</v>
+      </c>
     </row>
     <row r="82" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>28</v>
       </c>
       <c r="B82" s="11">
-        <v>2010</v>
+        <v>2017</v>
+      </c>
+      <c r="C82" s="7">
+        <f t="shared" si="1"/>
+        <v>1158.692</v>
+      </c>
+      <c r="D82" s="7">
+        <v>732.66899999999998</v>
       </c>
       <c r="E82" s="7">
-        <v>1986.8810000000001</v>
+        <v>426.02300000000002</v>
       </c>
       <c r="F82" s="7">
-        <v>18813.948</v>
+        <v>3406.7809999999999</v>
       </c>
       <c r="G82" s="7">
-        <v>2883.9830000000002</v>
+        <v>4634.991</v>
       </c>
       <c r="H82" s="7">
-        <v>4989.4790000000003</v>
-      </c>
-      <c r="I82" s="8"/>
+        <v>4788.6809999999996</v>
+      </c>
     </row>
     <row r="83" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>28</v>
       </c>
       <c r="B83" s="11">
-        <v>2011</v>
+        <v>2018</v>
+      </c>
+      <c r="C83" s="7">
+        <f>D83+E83</f>
+        <v>1178.923</v>
+      </c>
+      <c r="D83" s="7">
+        <v>734.2</v>
       </c>
       <c r="E83" s="7">
-        <v>2435.538</v>
+        <v>444.72300000000001</v>
       </c>
       <c r="F83" s="7">
-        <v>19885.66</v>
+        <v>3195.5569999999998</v>
       </c>
       <c r="G83" s="7">
-        <v>3371.7739999999999</v>
+        <v>7563.942</v>
       </c>
       <c r="H83" s="7">
-        <v>6404.049</v>
-      </c>
-      <c r="I83" s="8"/>
+        <v>5885.2169999999996</v>
+      </c>
     </row>
     <row r="84" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>28</v>
       </c>
       <c r="B84" s="11">
-        <v>2012</v>
-      </c>
-      <c r="C84" s="7">
-        <v>1053.7329999999999</v>
-      </c>
-      <c r="D84" s="7">
-        <v>394.60899999999998</v>
-      </c>
-      <c r="E84" s="7">
-        <v>2572.4760000000001</v>
+        <v>2019</v>
       </c>
       <c r="F84" s="7">
-        <v>20566.518</v>
+        <v>3415.4450000000002</v>
       </c>
       <c r="G84" s="7">
-        <v>4019.998</v>
+        <v>5511.6109999999999</v>
       </c>
       <c r="H84" s="7">
-        <v>4086.7570000000001</v>
-      </c>
-    </row>
-    <row r="85" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
-        <v>28</v>
-      </c>
-      <c r="B85" s="11">
-        <v>2013</v>
-      </c>
-      <c r="C85" s="7">
-        <v>1068.7080000000001</v>
-      </c>
-      <c r="D85" s="7">
-        <v>416.26</v>
-      </c>
-      <c r="E85" s="7">
-        <v>2472.8229999999999</v>
-      </c>
-      <c r="F85" s="7">
-        <v>23383.77</v>
-      </c>
-      <c r="G85" s="7">
-        <v>4474.7030000000004</v>
-      </c>
-      <c r="H85" s="7">
-        <v>4081.2939999999999</v>
-      </c>
-    </row>
-    <row r="86" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
-        <v>28</v>
-      </c>
-      <c r="B86" s="11">
-        <v>2014</v>
-      </c>
-      <c r="C86" s="7">
-        <v>864.29300000000001</v>
-      </c>
-      <c r="D86" s="7">
-        <v>417.64</v>
-      </c>
-      <c r="E86" s="7">
-        <v>2628.556</v>
-      </c>
-      <c r="F86" s="7">
-        <v>17131.758999999998</v>
-      </c>
-      <c r="G86" s="7">
-        <v>5069.1350000000002</v>
-      </c>
-      <c r="H86" s="7">
-        <v>3610.806</v>
-      </c>
-    </row>
-    <row r="87" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
-        <v>28</v>
-      </c>
-      <c r="B87" s="11">
-        <v>2015</v>
-      </c>
-      <c r="C87" s="7">
-        <v>794.27099999999996</v>
-      </c>
-      <c r="D87" s="7">
-        <v>393.26799999999997</v>
-      </c>
-      <c r="E87" s="7">
-        <v>2833.78</v>
-      </c>
-      <c r="F87" s="7">
-        <v>15822.808000000001</v>
-      </c>
-      <c r="G87" s="7">
-        <v>4255.9660000000003</v>
-      </c>
-      <c r="H87" s="7">
-        <v>3253.2179999999998</v>
-      </c>
-    </row>
-    <row r="88" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
-        <v>28</v>
-      </c>
-      <c r="B88" s="11">
-        <v>2016</v>
-      </c>
-      <c r="C88" s="7">
-        <v>753.94</v>
-      </c>
-      <c r="D88" s="7">
-        <v>438.267</v>
-      </c>
-      <c r="E88" s="7">
-        <v>2941.31</v>
-      </c>
-      <c r="F88" s="7">
-        <v>16340.52</v>
-      </c>
-      <c r="G88" s="7">
-        <v>4430.3440000000001</v>
-      </c>
-      <c r="H88" s="7">
-        <v>3864.1849999999999</v>
-      </c>
-    </row>
-    <row r="89" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A89" s="2">
-        <v>28</v>
-      </c>
-      <c r="B89" s="11">
-        <v>2017</v>
-      </c>
-      <c r="C89" s="7">
-        <v>732.66899999999998</v>
-      </c>
-      <c r="D89" s="7">
-        <v>426.02300000000002</v>
-      </c>
-      <c r="E89" s="7">
-        <v>3406.7809999999999</v>
-      </c>
-      <c r="F89" s="7">
-        <v>17407.946</v>
-      </c>
-      <c r="G89" s="7">
-        <v>4634.991</v>
-      </c>
-      <c r="H89" s="7">
-        <v>4788.6809999999996</v>
-      </c>
+        <v>4615.6750000000002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:73" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="30"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="6"/>
+      <c r="M85" s="6"/>
+      <c r="N85" s="6"/>
+      <c r="O85" s="6"/>
+      <c r="P85" s="6"/>
+      <c r="Q85" s="6"/>
+      <c r="R85" s="6"/>
+      <c r="S85" s="6"/>
+      <c r="T85" s="6"/>
+      <c r="U85" s="6"/>
+      <c r="V85" s="6"/>
+      <c r="W85" s="6"/>
+      <c r="X85" s="6"/>
+      <c r="Y85" s="6"/>
+      <c r="Z85" s="6"/>
+      <c r="AA85" s="6"/>
+      <c r="AB85" s="6"/>
+      <c r="AC85" s="6"/>
+      <c r="AD85" s="6"/>
+      <c r="AE85" s="6"/>
+      <c r="AF85" s="6"/>
+      <c r="AG85" s="6"/>
+      <c r="AH85" s="6"/>
+      <c r="AI85" s="6"/>
+      <c r="AJ85" s="6"/>
+      <c r="AK85" s="6"/>
+      <c r="AL85" s="6"/>
+      <c r="AM85" s="6"/>
+      <c r="AN85" s="6"/>
+      <c r="AO85" s="6"/>
+      <c r="AP85" s="6"/>
+      <c r="AQ85" s="6"/>
+      <c r="AR85" s="6"/>
+      <c r="AS85" s="6"/>
+      <c r="AT85" s="6"/>
+      <c r="AU85" s="6"/>
+      <c r="AV85" s="6"/>
+      <c r="AW85" s="6"/>
+      <c r="AX85" s="6"/>
+      <c r="AY85" s="6"/>
+      <c r="AZ85" s="6"/>
+      <c r="BA85" s="6"/>
+      <c r="BB85" s="6"/>
+      <c r="BC85" s="6"/>
+      <c r="BD85" s="6"/>
+      <c r="BE85" s="6"/>
+      <c r="BF85" s="6"/>
+      <c r="BG85" s="6"/>
+      <c r="BH85" s="6"/>
+      <c r="BI85" s="6"/>
+      <c r="BJ85" s="6"/>
+      <c r="BK85" s="6"/>
+      <c r="BL85" s="6"/>
+      <c r="BM85" s="6"/>
+      <c r="BN85" s="6"/>
+      <c r="BO85" s="6"/>
+      <c r="BP85" s="6"/>
+      <c r="BQ85" s="6"/>
+      <c r="BR85" s="6"/>
+      <c r="BS85" s="6"/>
+      <c r="BT85" s="6"/>
+      <c r="BU85" s="6"/>
+    </row>
+    <row r="86" spans="1:73" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="30"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6"/>
+      <c r="M86" s="6"/>
+      <c r="N86" s="6"/>
+      <c r="O86" s="6"/>
+      <c r="P86" s="6"/>
+      <c r="Q86" s="6"/>
+      <c r="R86" s="6"/>
+      <c r="S86" s="6"/>
+      <c r="T86" s="6"/>
+      <c r="U86" s="6"/>
+      <c r="V86" s="6"/>
+      <c r="W86" s="6"/>
+      <c r="X86" s="6"/>
+      <c r="Y86" s="6"/>
+      <c r="Z86" s="6"/>
+      <c r="AA86" s="6"/>
+      <c r="AB86" s="6"/>
+      <c r="AC86" s="6"/>
+      <c r="AD86" s="6"/>
+      <c r="AE86" s="6"/>
+      <c r="AF86" s="6"/>
+      <c r="AG86" s="6"/>
+      <c r="AH86" s="6"/>
+      <c r="AI86" s="6"/>
+      <c r="AJ86" s="6"/>
+      <c r="AK86" s="6"/>
+      <c r="AL86" s="6"/>
+      <c r="AM86" s="6"/>
+      <c r="AN86" s="6"/>
+      <c r="AO86" s="6"/>
+      <c r="AP86" s="6"/>
+      <c r="AQ86" s="6"/>
+      <c r="AR86" s="6"/>
+      <c r="AS86" s="6"/>
+      <c r="AT86" s="6"/>
+      <c r="AU86" s="6"/>
+      <c r="AV86" s="6"/>
+      <c r="AW86" s="6"/>
+      <c r="AX86" s="6"/>
+      <c r="AY86" s="6"/>
+      <c r="AZ86" s="6"/>
+      <c r="BA86" s="6"/>
+      <c r="BB86" s="6"/>
+      <c r="BC86" s="6"/>
+      <c r="BD86" s="6"/>
+      <c r="BE86" s="6"/>
+      <c r="BF86" s="6"/>
+      <c r="BG86" s="6"/>
+      <c r="BH86" s="6"/>
+      <c r="BI86" s="6"/>
+      <c r="BJ86" s="6"/>
+      <c r="BK86" s="6"/>
+      <c r="BL86" s="6"/>
+      <c r="BM86" s="6"/>
+      <c r="BN86" s="6"/>
+      <c r="BO86" s="6"/>
+      <c r="BP86" s="6"/>
+      <c r="BQ86" s="6"/>
+      <c r="BR86" s="6"/>
+      <c r="BS86" s="6"/>
+      <c r="BT86" s="6"/>
+      <c r="BU86" s="6"/>
+    </row>
+    <row r="87" spans="1:73" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="30"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6"/>
+      <c r="M87" s="6"/>
+      <c r="N87" s="6"/>
+      <c r="O87" s="6"/>
+      <c r="P87" s="6"/>
+      <c r="Q87" s="6"/>
+      <c r="R87" s="6"/>
+      <c r="S87" s="6"/>
+      <c r="T87" s="6"/>
+      <c r="U87" s="6"/>
+      <c r="V87" s="6"/>
+      <c r="W87" s="6"/>
+      <c r="X87" s="6"/>
+      <c r="Y87" s="6"/>
+      <c r="Z87" s="6"/>
+      <c r="AA87" s="6"/>
+      <c r="AB87" s="6"/>
+      <c r="AC87" s="6"/>
+      <c r="AD87" s="6"/>
+      <c r="AE87" s="6"/>
+      <c r="AF87" s="6"/>
+      <c r="AG87" s="6"/>
+      <c r="AH87" s="6"/>
+      <c r="AI87" s="6"/>
+      <c r="AJ87" s="6"/>
+      <c r="AK87" s="6"/>
+      <c r="AL87" s="6"/>
+      <c r="AM87" s="6"/>
+      <c r="AN87" s="6"/>
+      <c r="AO87" s="6"/>
+      <c r="AP87" s="6"/>
+      <c r="AQ87" s="6"/>
+      <c r="AR87" s="6"/>
+      <c r="AS87" s="6"/>
+      <c r="AT87" s="6"/>
+      <c r="AU87" s="6"/>
+      <c r="AV87" s="6"/>
+      <c r="AW87" s="6"/>
+      <c r="AX87" s="6"/>
+      <c r="AY87" s="6"/>
+      <c r="AZ87" s="6"/>
+      <c r="BA87" s="6"/>
+      <c r="BB87" s="6"/>
+      <c r="BC87" s="6"/>
+      <c r="BD87" s="6"/>
+      <c r="BE87" s="6"/>
+      <c r="BF87" s="6"/>
+      <c r="BG87" s="6"/>
+      <c r="BH87" s="6"/>
+      <c r="BI87" s="6"/>
+      <c r="BJ87" s="6"/>
+      <c r="BK87" s="6"/>
+      <c r="BL87" s="6"/>
+      <c r="BM87" s="6"/>
+      <c r="BN87" s="6"/>
+      <c r="BO87" s="6"/>
+      <c r="BP87" s="6"/>
+      <c r="BQ87" s="6"/>
+      <c r="BR87" s="6"/>
+      <c r="BS87" s="6"/>
+      <c r="BT87" s="6"/>
+      <c r="BU87" s="6"/>
     </row>
     <row r="90" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
-        <v>28</v>
-      </c>
-      <c r="B90" s="11">
-        <v>2018</v>
-      </c>
-      <c r="C90" s="7">
-        <v>734.2</v>
-      </c>
-      <c r="D90" s="7">
-        <v>444.72300000000001</v>
-      </c>
-      <c r="E90" s="7">
-        <v>3195.5569999999998</v>
-      </c>
-      <c r="F90" s="7">
-        <v>18431.286</v>
-      </c>
-      <c r="G90" s="7">
-        <v>7563.942</v>
-      </c>
-      <c r="H90" s="7">
-        <v>5885.2169999999996</v>
-      </c>
+      <c r="A90" s="30"/>
     </row>
     <row r="91" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A91" s="2">
-        <v>28</v>
-      </c>
-      <c r="B91" s="11">
-        <v>2019</v>
-      </c>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="7">
-        <v>3415.4450000000002</v>
-      </c>
-      <c r="F91" s="7">
-        <v>14923.388999999999</v>
-      </c>
-      <c r="G91" s="7">
-        <v>5511.6109999999999</v>
-      </c>
-      <c r="H91" s="7">
-        <v>4615.6750000000002</v>
-      </c>
-    </row>
-    <row r="92" spans="1:73" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="30"/>
+    </row>
+    <row r="92" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A92" s="30"/>
-      <c r="B92" s="10"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="7"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="6"/>
-      <c r="K92" s="6"/>
-      <c r="L92" s="6"/>
-      <c r="M92" s="6"/>
-      <c r="N92" s="6"/>
-      <c r="O92" s="6"/>
-      <c r="P92" s="6"/>
-      <c r="Q92" s="6"/>
-      <c r="R92" s="6"/>
-      <c r="S92" s="6"/>
-      <c r="T92" s="6"/>
-      <c r="U92" s="6"/>
-      <c r="V92" s="6"/>
-      <c r="W92" s="6"/>
-      <c r="X92" s="6"/>
-      <c r="Y92" s="6"/>
-      <c r="Z92" s="6"/>
-      <c r="AA92" s="6"/>
-      <c r="AB92" s="6"/>
-      <c r="AC92" s="6"/>
-      <c r="AD92" s="6"/>
-      <c r="AE92" s="6"/>
-      <c r="AF92" s="6"/>
-      <c r="AG92" s="6"/>
-      <c r="AH92" s="6"/>
-      <c r="AI92" s="6"/>
-      <c r="AJ92" s="6"/>
-      <c r="AK92" s="6"/>
-      <c r="AL92" s="6"/>
-      <c r="AM92" s="6"/>
-      <c r="AN92" s="6"/>
-      <c r="AO92" s="6"/>
-      <c r="AP92" s="6"/>
-      <c r="AQ92" s="6"/>
-      <c r="AR92" s="6"/>
-      <c r="AS92" s="6"/>
-      <c r="AT92" s="6"/>
-      <c r="AU92" s="6"/>
-      <c r="AV92" s="6"/>
-      <c r="AW92" s="6"/>
-      <c r="AX92" s="6"/>
-      <c r="AY92" s="6"/>
-      <c r="AZ92" s="6"/>
-      <c r="BA92" s="6"/>
-      <c r="BB92" s="6"/>
-      <c r="BC92" s="6"/>
-      <c r="BD92" s="6"/>
-      <c r="BE92" s="6"/>
-      <c r="BF92" s="6"/>
-      <c r="BG92" s="6"/>
-      <c r="BH92" s="6"/>
-      <c r="BI92" s="6"/>
-      <c r="BJ92" s="6"/>
-      <c r="BK92" s="6"/>
-      <c r="BL92" s="6"/>
-      <c r="BM92" s="6"/>
-      <c r="BN92" s="6"/>
-      <c r="BO92" s="6"/>
-      <c r="BP92" s="6"/>
-      <c r="BQ92" s="6"/>
-      <c r="BR92" s="6"/>
-      <c r="BS92" s="6"/>
-      <c r="BT92" s="6"/>
-      <c r="BU92" s="6"/>
-    </row>
-    <row r="93" spans="1:73" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="30"/>
-      <c r="B93" s="10"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
-      <c r="I93" s="6"/>
-      <c r="J93" s="6"/>
-      <c r="K93" s="6"/>
-      <c r="L93" s="6"/>
-      <c r="M93" s="6"/>
-      <c r="N93" s="6"/>
-      <c r="O93" s="6"/>
-      <c r="P93" s="6"/>
-      <c r="Q93" s="6"/>
-      <c r="R93" s="6"/>
-      <c r="S93" s="6"/>
-      <c r="T93" s="6"/>
-      <c r="U93" s="6"/>
-      <c r="V93" s="6"/>
-      <c r="W93" s="6"/>
-      <c r="X93" s="6"/>
-      <c r="Y93" s="6"/>
-      <c r="Z93" s="6"/>
-      <c r="AA93" s="6"/>
-      <c r="AB93" s="6"/>
-      <c r="AC93" s="6"/>
-      <c r="AD93" s="6"/>
-      <c r="AE93" s="6"/>
-      <c r="AF93" s="6"/>
-      <c r="AG93" s="6"/>
-      <c r="AH93" s="6"/>
-      <c r="AI93" s="6"/>
-      <c r="AJ93" s="6"/>
-      <c r="AK93" s="6"/>
-      <c r="AL93" s="6"/>
-      <c r="AM93" s="6"/>
-      <c r="AN93" s="6"/>
-      <c r="AO93" s="6"/>
-      <c r="AP93" s="6"/>
-      <c r="AQ93" s="6"/>
-      <c r="AR93" s="6"/>
-      <c r="AS93" s="6"/>
-      <c r="AT93" s="6"/>
-      <c r="AU93" s="6"/>
-      <c r="AV93" s="6"/>
-      <c r="AW93" s="6"/>
-      <c r="AX93" s="6"/>
-      <c r="AY93" s="6"/>
-      <c r="AZ93" s="6"/>
-      <c r="BA93" s="6"/>
-      <c r="BB93" s="6"/>
-      <c r="BC93" s="6"/>
-      <c r="BD93" s="6"/>
-      <c r="BE93" s="6"/>
-      <c r="BF93" s="6"/>
-      <c r="BG93" s="6"/>
-      <c r="BH93" s="6"/>
-      <c r="BI93" s="6"/>
-      <c r="BJ93" s="6"/>
-      <c r="BK93" s="6"/>
-      <c r="BL93" s="6"/>
-      <c r="BM93" s="6"/>
-      <c r="BN93" s="6"/>
-      <c r="BO93" s="6"/>
-      <c r="BP93" s="6"/>
-      <c r="BQ93" s="6"/>
-      <c r="BR93" s="6"/>
-      <c r="BS93" s="6"/>
-      <c r="BT93" s="6"/>
-      <c r="BU93" s="6"/>
+    </row>
+    <row r="93" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="E93" s="22"/>
     </row>
     <row r="94" spans="1:73" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="30"/>
+      <c r="A94" s="10"/>
       <c r="B94" s="10"/>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
+      <c r="E94" s="22"/>
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c r="H94" s="7"/>
@@ -11200,190 +11092,103 @@
       <c r="BT94" s="6"/>
       <c r="BU94" s="6"/>
     </row>
-    <row r="97" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A97" s="30"/>
-    </row>
-    <row r="98" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A98" s="30"/>
-    </row>
-    <row r="99" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:73" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="10"/>
+      <c r="B95" s="10"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="22"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6"/>
+      <c r="L95" s="6"/>
+      <c r="M95" s="6"/>
+      <c r="N95" s="6"/>
+      <c r="O95" s="6"/>
+      <c r="P95" s="6"/>
+      <c r="Q95" s="6"/>
+      <c r="R95" s="6"/>
+      <c r="S95" s="6"/>
+      <c r="T95" s="6"/>
+      <c r="U95" s="6"/>
+      <c r="V95" s="6"/>
+      <c r="W95" s="6"/>
+      <c r="X95" s="6"/>
+      <c r="Y95" s="6"/>
+      <c r="Z95" s="6"/>
+      <c r="AA95" s="6"/>
+      <c r="AB95" s="6"/>
+      <c r="AC95" s="6"/>
+      <c r="AD95" s="6"/>
+      <c r="AE95" s="6"/>
+      <c r="AF95" s="6"/>
+      <c r="AG95" s="6"/>
+      <c r="AH95" s="6"/>
+      <c r="AI95" s="6"/>
+      <c r="AJ95" s="6"/>
+      <c r="AK95" s="6"/>
+      <c r="AL95" s="6"/>
+      <c r="AM95" s="6"/>
+      <c r="AN95" s="6"/>
+      <c r="AO95" s="6"/>
+      <c r="AP95" s="6"/>
+      <c r="AQ95" s="6"/>
+      <c r="AR95" s="6"/>
+      <c r="AS95" s="6"/>
+      <c r="AT95" s="6"/>
+      <c r="AU95" s="6"/>
+      <c r="AV95" s="6"/>
+      <c r="AW95" s="6"/>
+      <c r="AX95" s="6"/>
+      <c r="AY95" s="6"/>
+      <c r="AZ95" s="6"/>
+      <c r="BA95" s="6"/>
+      <c r="BB95" s="6"/>
+      <c r="BC95" s="6"/>
+      <c r="BD95" s="6"/>
+      <c r="BE95" s="6"/>
+      <c r="BF95" s="6"/>
+      <c r="BG95" s="6"/>
+      <c r="BH95" s="6"/>
+      <c r="BI95" s="6"/>
+      <c r="BJ95" s="6"/>
+      <c r="BK95" s="6"/>
+      <c r="BL95" s="6"/>
+      <c r="BM95" s="6"/>
+      <c r="BN95" s="6"/>
+      <c r="BO95" s="6"/>
+      <c r="BP95" s="6"/>
+      <c r="BQ95" s="6"/>
+      <c r="BR95" s="6"/>
+      <c r="BS95" s="6"/>
+      <c r="BT95" s="6"/>
+      <c r="BU95" s="6"/>
+    </row>
+    <row r="96" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="E96" s="22"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E97" s="22"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E98" s="22"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="30"/>
-    </row>
-    <row r="100" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="D100" s="22"/>
-    </row>
-    <row r="101" spans="1:73" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="10"/>
-      <c r="B101" s="10"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="22"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
-      <c r="H101" s="7"/>
-      <c r="I101" s="6"/>
-      <c r="J101" s="6"/>
-      <c r="K101" s="6"/>
-      <c r="L101" s="6"/>
-      <c r="M101" s="6"/>
-      <c r="N101" s="6"/>
-      <c r="O101" s="6"/>
-      <c r="P101" s="6"/>
-      <c r="Q101" s="6"/>
-      <c r="R101" s="6"/>
-      <c r="S101" s="6"/>
-      <c r="T101" s="6"/>
-      <c r="U101" s="6"/>
-      <c r="V101" s="6"/>
-      <c r="W101" s="6"/>
-      <c r="X101" s="6"/>
-      <c r="Y101" s="6"/>
-      <c r="Z101" s="6"/>
-      <c r="AA101" s="6"/>
-      <c r="AB101" s="6"/>
-      <c r="AC101" s="6"/>
-      <c r="AD101" s="6"/>
-      <c r="AE101" s="6"/>
-      <c r="AF101" s="6"/>
-      <c r="AG101" s="6"/>
-      <c r="AH101" s="6"/>
-      <c r="AI101" s="6"/>
-      <c r="AJ101" s="6"/>
-      <c r="AK101" s="6"/>
-      <c r="AL101" s="6"/>
-      <c r="AM101" s="6"/>
-      <c r="AN101" s="6"/>
-      <c r="AO101" s="6"/>
-      <c r="AP101" s="6"/>
-      <c r="AQ101" s="6"/>
-      <c r="AR101" s="6"/>
-      <c r="AS101" s="6"/>
-      <c r="AT101" s="6"/>
-      <c r="AU101" s="6"/>
-      <c r="AV101" s="6"/>
-      <c r="AW101" s="6"/>
-      <c r="AX101" s="6"/>
-      <c r="AY101" s="6"/>
-      <c r="AZ101" s="6"/>
-      <c r="BA101" s="6"/>
-      <c r="BB101" s="6"/>
-      <c r="BC101" s="6"/>
-      <c r="BD101" s="6"/>
-      <c r="BE101" s="6"/>
-      <c r="BF101" s="6"/>
-      <c r="BG101" s="6"/>
-      <c r="BH101" s="6"/>
-      <c r="BI101" s="6"/>
-      <c r="BJ101" s="6"/>
-      <c r="BK101" s="6"/>
-      <c r="BL101" s="6"/>
-      <c r="BM101" s="6"/>
-      <c r="BN101" s="6"/>
-      <c r="BO101" s="6"/>
-      <c r="BP101" s="6"/>
-      <c r="BQ101" s="6"/>
-      <c r="BR101" s="6"/>
-      <c r="BS101" s="6"/>
-      <c r="BT101" s="6"/>
-      <c r="BU101" s="6"/>
-    </row>
-    <row r="102" spans="1:73" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="10"/>
-      <c r="B102" s="10"/>
-      <c r="C102" s="7"/>
-      <c r="D102" s="22"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="7"/>
-      <c r="G102" s="7"/>
-      <c r="H102" s="7"/>
-      <c r="I102" s="6"/>
-      <c r="J102" s="6"/>
-      <c r="K102" s="6"/>
-      <c r="L102" s="6"/>
-      <c r="M102" s="6"/>
-      <c r="N102" s="6"/>
-      <c r="O102" s="6"/>
-      <c r="P102" s="6"/>
-      <c r="Q102" s="6"/>
-      <c r="R102" s="6"/>
-      <c r="S102" s="6"/>
-      <c r="T102" s="6"/>
-      <c r="U102" s="6"/>
-      <c r="V102" s="6"/>
-      <c r="W102" s="6"/>
-      <c r="X102" s="6"/>
-      <c r="Y102" s="6"/>
-      <c r="Z102" s="6"/>
-      <c r="AA102" s="6"/>
-      <c r="AB102" s="6"/>
-      <c r="AC102" s="6"/>
-      <c r="AD102" s="6"/>
-      <c r="AE102" s="6"/>
-      <c r="AF102" s="6"/>
-      <c r="AG102" s="6"/>
-      <c r="AH102" s="6"/>
-      <c r="AI102" s="6"/>
-      <c r="AJ102" s="6"/>
-      <c r="AK102" s="6"/>
-      <c r="AL102" s="6"/>
-      <c r="AM102" s="6"/>
-      <c r="AN102" s="6"/>
-      <c r="AO102" s="6"/>
-      <c r="AP102" s="6"/>
-      <c r="AQ102" s="6"/>
-      <c r="AR102" s="6"/>
-      <c r="AS102" s="6"/>
-      <c r="AT102" s="6"/>
-      <c r="AU102" s="6"/>
-      <c r="AV102" s="6"/>
-      <c r="AW102" s="6"/>
-      <c r="AX102" s="6"/>
-      <c r="AY102" s="6"/>
-      <c r="AZ102" s="6"/>
-      <c r="BA102" s="6"/>
-      <c r="BB102" s="6"/>
-      <c r="BC102" s="6"/>
-      <c r="BD102" s="6"/>
-      <c r="BE102" s="6"/>
-      <c r="BF102" s="6"/>
-      <c r="BG102" s="6"/>
-      <c r="BH102" s="6"/>
-      <c r="BI102" s="6"/>
-      <c r="BJ102" s="6"/>
-      <c r="BK102" s="6"/>
-      <c r="BL102" s="6"/>
-      <c r="BM102" s="6"/>
-      <c r="BN102" s="6"/>
-      <c r="BO102" s="6"/>
-      <c r="BP102" s="6"/>
-      <c r="BQ102" s="6"/>
-      <c r="BR102" s="6"/>
-      <c r="BS102" s="6"/>
-      <c r="BT102" s="6"/>
-      <c r="BU102" s="6"/>
-    </row>
-    <row r="103" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="D103" s="22"/>
-    </row>
-    <row r="104" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="D104" s="22"/>
-    </row>
-    <row r="105" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="D105" s="22"/>
-    </row>
-    <row r="106" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A106" s="30"/>
-      <c r="D106" s="22"/>
-    </row>
-    <row r="107" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A107" s="30"/>
-      <c r="D107" s="22"/>
-    </row>
-    <row r="108" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="D108" s="22"/>
-    </row>
-    <row r="109" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="D109" s="22"/>
+      <c r="E99" s="22"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="30"/>
+      <c r="E100" s="22"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E101" s="22"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E102" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11421,7 +11226,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>7</v>
@@ -12656,67 +12461,67 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="G1" s="35"/>
       <c r="H1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="M1" s="35"/>
       <c r="N1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="S1" s="35"/>
       <c r="T1" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -14208,8 +14013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70AADF96-AA57-46CE-950B-FAE3AC3D5FD3}">
   <dimension ref="A1:BW93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
@@ -14232,10 +14037,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -15666,22 +15471,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">

--- a/RawData/EU_RawData_VPython.xlsx
+++ b/RawData/EU_RawData_VPython.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souvi\Documents\These\80_Calculations\01_MFA_GlassIndustry\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1096A02-1A12-4E29-A450-B1FD2D7AA936}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA3A38E-FF46-4C8D-B0A9-E0B5B9A1A83D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="19650" windowHeight="13860" firstSheet="1" activeTab="4" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="19650" windowHeight="13860" activeTab="3" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
   </bookViews>
   <sheets>
     <sheet name="stock" sheetId="17" r:id="rId1"/>
     <sheet name="consumption" sheetId="16" r:id="rId2"/>
-    <sheet name="prod" sheetId="15" r:id="rId3"/>
+    <sheet name="prod" sheetId="20" r:id="rId3"/>
     <sheet name="import" sheetId="14" r:id="rId4"/>
     <sheet name="export" sheetId="12" r:id="rId5"/>
     <sheet name="workforce" sheetId="11" r:id="rId6"/>
@@ -56,7 +56,7 @@
             <family val="2"/>
           </rPr>
           <t>Unless otherwise indicated in a note attached to the cell, all data collected in this column comes from : 
-Ecodesign of Window Products. LOT 32, IfF, VHK and VITO, June 2015.</t>
+Ecodesign of Window Products. LOT 32, Task 3, IfF, VHK and VITO, June, 2015, p. 22</t>
         </r>
       </text>
     </comment>
@@ -163,7 +163,7 @@
     <author>jean</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{C2F8294C-B31F-43D8-B6AF-585789679304}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{F059D56F-DE8E-462B-B709-940839D868B5}">
       <text>
         <r>
           <rPr>
@@ -177,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{E278B976-4E5D-4CF3-857E-0C27846DEAE3}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{8FFAC56C-9F20-4C57-B69F-46C4751E7D08}">
       <text>
         <r>
           <rPr>
@@ -193,7 +193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{50753E68-A245-4D7B-9CBE-A829F1613C3E}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{80DE692A-0D82-4ABD-BF2B-A0F9B0509919}">
       <text>
         <r>
           <rPr>
@@ -209,7 +209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{5A63D96A-0581-49AA-AF21-44B780879F75}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{BC044FF9-5242-4021-B857-18E0CF542688}">
       <text>
         <r>
           <rPr>
@@ -225,7 +225,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E27" authorId="0" shapeId="0" xr:uid="{AAB4A390-3B60-4C4E-B843-392CC59A122F}">
+    <comment ref="E27" authorId="0" shapeId="0" xr:uid="{2FFE3DD3-AC63-477C-AF0A-BB8559A6CCC5}">
       <text>
         <r>
           <rPr>
@@ -242,7 +242,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E32" authorId="0" shapeId="0" xr:uid="{FB9EF9CB-05A2-474C-8923-74267D6DFFA7}">
+    <comment ref="E32" authorId="0" shapeId="0" xr:uid="{608AA8EB-5141-4B01-857A-BF5796CE27F1}">
       <text>
         <r>
           <rPr>
@@ -259,7 +259,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D35" authorId="0" shapeId="0" xr:uid="{0E134010-E02E-4225-8906-789775788339}">
+    <comment ref="D35" authorId="0" shapeId="0" xr:uid="{2D00541E-5F06-4DE5-9E02-C6205EE8A6FA}">
       <text>
         <r>
           <rPr>
@@ -274,7 +274,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E38" authorId="0" shapeId="0" xr:uid="{F3B2E85C-31FC-406E-B6FD-895D5DAD64D7}">
+    <comment ref="E38" authorId="0" shapeId="0" xr:uid="{067A2B5D-1BD0-4D98-851E-39DACD586699}">
       <text>
         <r>
           <rPr>
@@ -291,7 +291,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D54" authorId="0" shapeId="0" xr:uid="{CBBF48C2-F469-4571-AC9E-684DE44CCF62}">
+    <comment ref="D54" authorId="0" shapeId="0" xr:uid="{1A5FC396-CA94-45D3-96D2-3CF51D654280}">
       <text>
         <r>
           <rPr>
@@ -304,7 +304,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C62" authorId="0" shapeId="0" xr:uid="{40DE4105-200D-4440-9B6B-6740067120DA}">
+    <comment ref="C62" authorId="0" shapeId="0" xr:uid="{61C0B995-E6D9-4B62-83E8-128177F7111C}">
       <text>
         <r>
           <rPr>
@@ -317,7 +317,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C63" authorId="0" shapeId="0" xr:uid="{959CBDBD-EFD2-4543-91B8-75D3E697257E}">
+    <comment ref="C63" authorId="0" shapeId="0" xr:uid="{3420A8DA-86CD-461C-B5EF-E5E341F66904}">
       <text>
         <r>
           <rPr>
@@ -330,7 +330,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C64" authorId="0" shapeId="0" xr:uid="{9B416B7C-032F-4959-A6F7-232A6DCBAD31}">
+    <comment ref="C64" authorId="0" shapeId="0" xr:uid="{E2E6B502-5E11-486A-B7F5-F7D2D1A61F18}">
       <text>
         <r>
           <rPr>
@@ -343,7 +343,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C65" authorId="0" shapeId="0" xr:uid="{5654F17E-FD37-41F4-85BB-5CFE082C43A0}">
+    <comment ref="C65" authorId="0" shapeId="0" xr:uid="{ABA1165A-04A7-4E70-BB9B-891205CF7634}">
       <text>
         <r>
           <rPr>
@@ -356,7 +356,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C66" authorId="0" shapeId="0" xr:uid="{3235C2D9-908E-4084-8BA4-512AA9EE5E1C}">
+    <comment ref="C66" authorId="0" shapeId="0" xr:uid="{86F0C66A-9D33-4161-8B74-9A88C4258AD7}">
       <text>
         <r>
           <rPr>
@@ -369,7 +369,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C67" authorId="0" shapeId="0" xr:uid="{68B4C6D8-528F-4828-B32D-626BF8DEB7E5}">
+    <comment ref="C67" authorId="0" shapeId="0" xr:uid="{06079FF0-F391-474A-92DD-8AB76D15EB4C}">
       <text>
         <r>
           <rPr>
@@ -382,7 +382,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C68" authorId="0" shapeId="0" xr:uid="{DC89D0C0-A259-4B07-8880-4343F538493F}">
+    <comment ref="C68" authorId="0" shapeId="0" xr:uid="{63DC345D-894D-4762-BAE5-B5F6842FA5D7}">
       <text>
         <r>
           <rPr>
@@ -395,7 +395,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C69" authorId="0" shapeId="0" xr:uid="{9CFD90AD-75AD-4C0B-8511-277A4CBF89F0}">
+    <comment ref="C69" authorId="0" shapeId="0" xr:uid="{7DC06089-8053-4DB1-A5ED-89B24AB09D0D}">
       <text>
         <r>
           <rPr>
@@ -408,7 +408,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C70" authorId="0" shapeId="0" xr:uid="{C01AC5BA-33CA-4ACC-9EFE-3057B9A863C2}">
+    <comment ref="C70" authorId="0" shapeId="0" xr:uid="{C54884A4-57A8-405A-AD39-2A87F9480410}">
       <text>
         <r>
           <rPr>
@@ -421,7 +421,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C71" authorId="0" shapeId="0" xr:uid="{435D93BD-7A36-4AED-B12A-DCC3FCF2054B}">
+    <comment ref="C71" authorId="0" shapeId="0" xr:uid="{16444560-60C6-4C97-80F2-6D350FD378B9}">
       <text>
         <r>
           <rPr>
@@ -434,7 +434,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C72" authorId="0" shapeId="0" xr:uid="{59AB2B1C-49AE-4FCE-9439-279E903197F7}">
+    <comment ref="C72" authorId="0" shapeId="0" xr:uid="{609C0CB6-A79E-4EC0-B78B-D9A591E2D528}">
       <text>
         <r>
           <rPr>
@@ -447,7 +447,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C73" authorId="0" shapeId="0" xr:uid="{5DDAD10A-A291-429B-9C03-53F481EF3719}">
+    <comment ref="C73" authorId="0" shapeId="0" xr:uid="{C2D64CB9-6768-4672-B9C2-D7DDC36BF91C}">
       <text>
         <r>
           <rPr>
@@ -460,7 +460,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C74" authorId="0" shapeId="0" xr:uid="{184CE6BF-C66C-4B8C-B844-AFCA8076D376}">
+    <comment ref="C74" authorId="0" shapeId="0" xr:uid="{7266362F-CE0F-4A8A-B31C-4BB1A3655F29}">
       <text>
         <r>
           <rPr>
@@ -473,7 +473,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C75" authorId="0" shapeId="0" xr:uid="{7B64207A-4B7F-49D4-8902-9CF4C4B55DD9}">
+    <comment ref="C75" authorId="0" shapeId="0" xr:uid="{1566FB03-5421-4053-856B-37728392DA6A}">
       <text>
         <r>
           <rPr>
@@ -486,7 +486,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C76" authorId="0" shapeId="0" xr:uid="{27841799-E6EF-4060-9FDB-24DBBDE88D1B}">
+    <comment ref="C76" authorId="0" shapeId="0" xr:uid="{04957374-FADF-46A2-A36D-5F0000E93D45}">
       <text>
         <r>
           <rPr>
@@ -499,7 +499,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C77" authorId="0" shapeId="0" xr:uid="{688390A4-8EB6-47A6-BDD3-34CFBF22EAD7}">
+    <comment ref="C77" authorId="0" shapeId="0" xr:uid="{AFC55CD5-7ABF-4C88-A904-6818D97FBE7D}">
       <text>
         <r>
           <rPr>
@@ -512,7 +512,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C78" authorId="0" shapeId="0" xr:uid="{D3E3CCD5-0CB8-4E7D-BB00-353131729589}">
+    <comment ref="C78" authorId="0" shapeId="0" xr:uid="{E3C9A90F-913A-4472-81F0-E7FCE402BC5C}">
       <text>
         <r>
           <rPr>
@@ -525,7 +525,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C79" authorId="0" shapeId="0" xr:uid="{2B8CC10E-D90B-4E24-B19A-923A89F556EB}">
+    <comment ref="C79" authorId="0" shapeId="0" xr:uid="{F84571EB-B01E-42E4-8975-7C5D1CF35C05}">
       <text>
         <r>
           <rPr>
@@ -538,7 +538,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C80" authorId="0" shapeId="0" xr:uid="{A4F9EAF2-1D64-4A10-AF7D-F515A422F0FA}">
+    <comment ref="C80" authorId="0" shapeId="0" xr:uid="{58526606-2914-4328-90D3-CB9AD6D547DF}">
       <text>
         <r>
           <rPr>
@@ -551,7 +551,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D80" authorId="0" shapeId="0" xr:uid="{EA54CD95-B976-4548-BA05-EFF0F9A21C82}">
+    <comment ref="D80" authorId="0" shapeId="0" xr:uid="{3090E952-025D-4482-89E6-80FD7B080CB1}">
       <text>
         <r>
           <rPr>
@@ -565,7 +565,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C81" authorId="0" shapeId="0" xr:uid="{B9929390-98CF-4C9B-8E80-FE30A5F81702}">
+    <comment ref="C81" authorId="0" shapeId="0" xr:uid="{AE1B76E1-63E4-4BE0-A1EC-B4D9B663AEBD}">
       <text>
         <r>
           <rPr>
@@ -1846,7 +1846,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
   <si>
     <t>year</t>
   </si>
@@ -1864,9 +1864,6 @@
   </si>
   <si>
     <t>non-residential glazing, "000 m²</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>glass ind., unit</t>
@@ -2587,7 +2584,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2715,7 +2712,6 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -2726,7 +2722,6 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -2737,7 +2732,6 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -2748,7 +2742,6 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -2759,7 +2752,6 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -2788,9 +2780,6 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="12" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="14" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -2801,9 +2790,6 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="12"/>
-      <c r="E14" s="12" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -2814,7 +2800,6 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -2825,7 +2810,6 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -2836,7 +2820,6 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -2847,7 +2830,6 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
     </row>
     <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -2858,7 +2840,6 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -2869,7 +2850,6 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
     </row>
     <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -2880,7 +2860,6 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
     </row>
     <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
@@ -2909,7 +2888,6 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
     </row>
     <row r="24" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
@@ -2920,7 +2898,6 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
     </row>
     <row r="25" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
@@ -2931,7 +2908,6 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
     </row>
     <row r="26" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
@@ -2942,7 +2918,6 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -2953,7 +2928,6 @@
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
     </row>
     <row r="28" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
@@ -2964,7 +2938,6 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
     </row>
     <row r="29" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
@@ -2975,7 +2948,6 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
     </row>
     <row r="30" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
@@ -2986,7 +2958,6 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
     </row>
     <row r="31" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
@@ -2997,7 +2968,6 @@
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
     </row>
     <row r="32" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
@@ -3026,7 +2996,6 @@
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
     </row>
     <row r="34" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
@@ -3037,9 +3006,6 @@
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="12"/>
-      <c r="E34" s="12" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="35" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -3050,7 +3016,6 @@
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
     </row>
     <row r="36" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
@@ -3061,7 +3026,6 @@
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
     </row>
     <row r="37" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
@@ -3072,7 +3036,6 @@
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
     </row>
     <row r="38" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
@@ -3083,7 +3046,6 @@
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
     </row>
     <row r="39" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
@@ -3094,7 +3056,6 @@
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
     </row>
     <row r="40" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
@@ -3105,7 +3066,6 @@
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
     </row>
     <row r="41" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
@@ -3116,7 +3076,6 @@
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
     </row>
     <row r="42" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -3145,7 +3104,6 @@
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
     </row>
     <row r="44" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
@@ -3156,7 +3114,6 @@
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
     </row>
     <row r="45" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
@@ -3167,7 +3124,6 @@
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
     </row>
     <row r="46" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
@@ -3178,7 +3134,6 @@
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
     </row>
     <row r="47" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
@@ -3189,7 +3144,6 @@
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
     </row>
     <row r="48" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
@@ -3200,7 +3154,6 @@
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
     </row>
     <row r="49" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
@@ -3211,7 +3164,6 @@
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
     </row>
     <row r="50" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -3222,7 +3174,6 @@
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
     </row>
     <row r="51" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
@@ -3233,7 +3184,6 @@
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
     </row>
     <row r="52" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
@@ -3262,7 +3212,6 @@
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
     </row>
     <row r="54" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
@@ -3273,7 +3222,6 @@
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
     </row>
     <row r="55" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -3284,7 +3232,6 @@
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
     </row>
     <row r="56" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
@@ -3295,7 +3242,6 @@
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
     </row>
     <row r="57" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
@@ -3306,7 +3252,6 @@
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
     </row>
     <row r="58" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
@@ -3317,7 +3262,6 @@
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
     </row>
     <row r="59" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
@@ -3328,7 +3272,6 @@
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
     </row>
     <row r="60" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
@@ -3339,7 +3282,6 @@
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
     </row>
     <row r="61" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
@@ -3350,7 +3292,6 @@
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
     </row>
     <row r="62" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -3379,7 +3320,6 @@
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
     </row>
     <row r="64" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
@@ -3390,7 +3330,6 @@
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
     </row>
     <row r="65" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
@@ -3404,7 +3343,6 @@
         <v>4927680</v>
       </c>
       <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
     </row>
     <row r="66" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
@@ -3415,7 +3353,6 @@
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
     </row>
     <row r="67" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -3426,7 +3363,6 @@
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
     </row>
     <row r="68" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
@@ -3437,7 +3373,6 @@
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
     </row>
     <row r="69" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
@@ -3448,7 +3383,6 @@
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
     </row>
     <row r="70" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
@@ -3459,7 +3393,6 @@
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
     </row>
     <row r="71" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
@@ -3470,7 +3403,6 @@
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
     </row>
     <row r="72" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
@@ -3981,7 +3913,7 @@
   <dimension ref="A1:BS93"/>
   <sheetViews>
     <sheetView zoomScale="65" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
@@ -4005,13 +3937,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="46" t="s">
         <v>17</v>
-      </c>
-      <c r="D1" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="46" t="s">
-        <v>18</v>
       </c>
       <c r="F1" s="46" t="s">
         <v>1</v>
@@ -5420,14 +5352,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{984B49BA-6D54-42C1-84EE-7F8663080B50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D014A44-A0D2-41E4-AD5D-2CB29E224E01}">
   <dimension ref="A1:BT105"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B62" sqref="B62"/>
+      <selection pane="bottomRight" activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5451,16 +5383,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -7828,11 +7760,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63B1BC36-79CC-403E-BDAB-F4ACF4DC04E2}">
   <dimension ref="A1:BT100"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C69" sqref="C69"/>
+      <selection pane="bottomRight" activeCell="M85" sqref="M85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7855,19 +7787,19 @@
         <v>3</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="F1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8915,7 +8847,7 @@
         <v>2012</v>
       </c>
       <c r="C77" s="3">
-        <f>E77+D77</f>
+        <f t="shared" ref="C77:C83" si="1">E77+D77</f>
         <v>1004.049</v>
       </c>
       <c r="D77" s="3">
@@ -8943,7 +8875,7 @@
         <v>2013</v>
       </c>
       <c r="C78" s="3">
-        <f>E78+D78</f>
+        <f t="shared" si="1"/>
         <v>946.01599999999996</v>
       </c>
       <c r="D78" s="3">
@@ -8971,7 +8903,7 @@
         <v>2014</v>
       </c>
       <c r="C79" s="3">
-        <f>E79+D79</f>
+        <f t="shared" si="1"/>
         <v>1034.6280000000002</v>
       </c>
       <c r="D79" s="3">
@@ -8999,7 +8931,7 @@
         <v>2015</v>
       </c>
       <c r="C80" s="3">
-        <f>E80+D80</f>
+        <f t="shared" si="1"/>
         <v>1079.1000000000001</v>
       </c>
       <c r="D80" s="3">
@@ -9027,7 +8959,7 @@
         <v>2016</v>
       </c>
       <c r="C81" s="3">
-        <f>E81+D81</f>
+        <f t="shared" si="1"/>
         <v>1255.011</v>
       </c>
       <c r="D81" s="3">
@@ -9054,7 +8986,7 @@
         <v>2017</v>
       </c>
       <c r="C82" s="3">
-        <f>E82+D82</f>
+        <f t="shared" si="1"/>
         <v>1534.989</v>
       </c>
       <c r="D82" s="3">
@@ -9081,7 +9013,7 @@
         <v>2018</v>
       </c>
       <c r="C83" s="3">
-        <f>E83+D83</f>
+        <f t="shared" si="1"/>
         <v>1673.6289999999999</v>
       </c>
       <c r="D83" s="3">
@@ -9514,11 +9446,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2629125-5F59-4D2B-B790-D44D45AA199C}">
   <dimension ref="A1:BU102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
+      <selection pane="bottomRight" activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9540,19 +9472,19 @@
         <v>3</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="F1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -11226,13 +11158,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -12461,67 +12393,67 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="G1" s="35"/>
       <c r="H1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="M1" s="35"/>
       <c r="N1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="S1" s="35"/>
       <c r="T1" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -14037,10 +13969,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -15471,22 +15403,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">

--- a/RawData/EU_RawData_VPython.xlsx
+++ b/RawData/EU_RawData_VPython.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souvi\Documents\These\80_Calculations\01_MFA_GlassIndustry\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA3A38E-FF46-4C8D-B0A9-E0B5B9A1A83D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F8B956-D0F2-4EAE-9E33-87B221E3B769}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="19650" windowHeight="13860" activeTab="3" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
+    <workbookView xWindow="3900" yWindow="1530" windowWidth="21510" windowHeight="14670" firstSheet="1" activeTab="6" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
   </bookViews>
   <sheets>
     <sheet name="stock" sheetId="17" r:id="rId1"/>
@@ -1416,7 +1416,7 @@
     <author>jean</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{2218B88B-1E8A-40E1-872F-DDB6B93A82C7}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{C2855AB6-36CF-44AB-88D5-53E4AAFFC284}">
       <text>
         <r>
           <rPr>
@@ -1430,7 +1430,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{0B8DCAF5-6651-4811-A2B6-D192113267D7}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{2218B88B-1E8A-40E1-872F-DDB6B93A82C7}">
       <text>
         <r>
           <rPr>
@@ -1444,7 +1444,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{DEBD7CA6-B32A-49EF-BCEE-33043A999820}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{0B8DCAF5-6651-4811-A2B6-D192113267D7}">
       <text>
         <r>
           <rPr>
@@ -1458,7 +1458,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{397224C5-0620-4957-8D24-5AE18E44D756}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{DEBD7CA6-B32A-49EF-BCEE-33043A999820}">
       <text>
         <r>
           <rPr>
@@ -1472,7 +1472,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{062A2D02-1513-4DE1-9436-E1315FFB4693}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{397224C5-0620-4957-8D24-5AE18E44D756}">
       <text>
         <r>
           <rPr>
@@ -1486,7 +1486,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{ABBF27CE-AB17-4B62-821A-DD0067859E7A}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{062A2D02-1513-4DE1-9436-E1315FFB4693}">
       <text>
         <r>
           <rPr>
@@ -1500,7 +1500,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{F0275E9E-AE0E-4978-8287-4440143E8699}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{ABBF27CE-AB17-4B62-821A-DD0067859E7A}">
       <text>
         <r>
           <rPr>
@@ -1514,7 +1514,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{720C057B-9594-4FEA-B206-AF2D2A88B8B5}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{F0275E9E-AE0E-4978-8287-4440143E8699}">
       <text>
         <r>
           <rPr>
@@ -1528,7 +1528,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{451737A2-687A-4FEA-BD0E-7148A1A16F52}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{720C057B-9594-4FEA-B206-AF2D2A88B8B5}">
       <text>
         <r>
           <rPr>
@@ -1542,7 +1542,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{1262E888-F996-4D4B-AAD7-67035BFF41BF}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{451737A2-687A-4FEA-BD0E-7148A1A16F52}">
       <text>
         <r>
           <rPr>
@@ -1556,7 +1556,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{0A7FF325-4795-4709-B14E-12ECB9286D83}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{1262E888-F996-4D4B-AAD7-67035BFF41BF}">
       <text>
         <r>
           <rPr>
@@ -1570,7 +1570,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{0C600EC5-2816-4118-84DE-CEBA05D52076}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{0A7FF325-4795-4709-B14E-12ECB9286D83}">
       <text>
         <r>
           <rPr>
@@ -1584,7 +1584,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{BEE0B9C3-B1EA-4159-A420-D745E657DC38}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{0C600EC5-2816-4118-84DE-CEBA05D52076}">
       <text>
         <r>
           <rPr>
@@ -1598,7 +1598,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{40CBC84D-4932-4800-AE6E-9D9600F536EF}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{BEE0B9C3-B1EA-4159-A420-D745E657DC38}">
       <text>
         <r>
           <rPr>
@@ -1612,7 +1612,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{E4CD590C-D6AE-40A7-8364-C1C587FA3E12}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{40CBC84D-4932-4800-AE6E-9D9600F536EF}">
       <text>
         <r>
           <rPr>
@@ -1626,7 +1626,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{46A0FBBA-2F34-4AD0-A428-A29EA8001325}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{E4CD590C-D6AE-40A7-8364-C1C587FA3E12}">
       <text>
         <r>
           <rPr>
@@ -1640,7 +1640,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{C90EA2CB-7B80-4E07-8E6A-2E7EF1F64E0B}">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{46A0FBBA-2F34-4AD0-A428-A29EA8001325}">
       <text>
         <r>
           <rPr>
@@ -1654,7 +1654,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{39293397-21C8-4D7D-A801-C41F3BCFC47C}">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{C90EA2CB-7B80-4E07-8E6A-2E7EF1F64E0B}">
       <text>
         <r>
           <rPr>
@@ -1668,7 +1668,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{E66E9267-CC37-4EAF-AB1C-F2FD4D32244B}">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{39293397-21C8-4D7D-A801-C41F3BCFC47C}">
       <text>
         <r>
           <rPr>
@@ -1682,7 +1682,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{9308057F-C550-4744-8060-39B074F9BFB2}">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{E66E9267-CC37-4EAF-AB1C-F2FD4D32244B}">
       <text>
         <r>
           <rPr>
@@ -1693,6 +1693,61 @@
           </rPr>
           <t>Unless otherwise indicated in a note attached to the cell, all data collected in this column comes from:
 The glass industry in the European Economic Community, Commission of the European Communities, 1984</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{9308057F-C550-4744-8060-39B074F9BFB2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Unless otherwise indicated in a note attached to the cell, all data collected in this column comes from:
+The glass industry in the European Economic Community, Commission of the European Communities, 1984</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{27BF96C4-1918-4424-AF42-DE3DD4B7885D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Boaglio</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{7404C297-C888-4CDB-8837-12939F2F6D10}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Plan d’action sectoriel visant a l’amelioration de l’efficience energetique a l’horizon 2012 dans l’industrie verriere en wallonie</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B68" authorId="0" shapeId="0" xr:uid="{64676118-BB2E-4054-86E7-4A8894595376}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Life Cycle Assessment of Float Glass, PE International, 2011
+https://glassforeurope.com/report-life-cycle-assessment-of-float-glass/
+(accessed September 30, 2020)</t>
         </r>
       </text>
     </comment>
@@ -1846,7 +1901,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
   <si>
     <t>year</t>
   </si>
@@ -1984,6 +2039,9 @@
   </si>
   <si>
     <t>flat glass (processed), kt</t>
+  </si>
+  <si>
+    <t>Specific consumption, GJ/t</t>
   </si>
 </sst>
 </file>
@@ -2123,7 +2181,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2263,6 +2321,18 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2581,10 +2651,10 @@
   <dimension ref="A1:BT93"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomRight" activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3913,7 +3983,7 @@
   <dimension ref="A1:BS93"/>
   <sheetViews>
     <sheetView zoomScale="65" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
@@ -5355,11 +5425,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D014A44-A0D2-41E4-AD5D-2CB29E224E01}">
   <dimension ref="A1:BT105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E86" sqref="E86"/>
+      <selection pane="bottomRight" activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7760,8 +7830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63B1BC36-79CC-403E-BDAB-F4ACF4DC04E2}">
   <dimension ref="A1:BT100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C59" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="M85" sqref="M85"/>
@@ -11137,7 +11207,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12364,203 +12434,215 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46AF0D7-F026-4606-8FE3-F48C9C7C976D}">
-  <dimension ref="A1:BV76"/>
+  <dimension ref="A1:BX76"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" style="7" customWidth="1"/>
-    <col min="4" max="6" width="21.140625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="4.5703125" style="36" customWidth="1"/>
-    <col min="8" max="12" width="21.140625" style="6" customWidth="1"/>
-    <col min="13" max="13" width="4.5703125" style="36" customWidth="1"/>
-    <col min="14" max="18" width="21.140625" style="6" customWidth="1"/>
-    <col min="19" max="19" width="4.42578125" style="36" customWidth="1"/>
-    <col min="20" max="24" width="21.140625" style="6" customWidth="1"/>
-    <col min="25" max="16384" width="10.7109375" style="6"/>
+    <col min="2" max="2" width="13.5703125" style="53" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" style="36" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" style="7" customWidth="1"/>
+    <col min="6" max="8" width="21.140625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="4.5703125" style="36" customWidth="1"/>
+    <col min="10" max="14" width="21.140625" style="6" customWidth="1"/>
+    <col min="15" max="15" width="4.5703125" style="36" customWidth="1"/>
+    <col min="16" max="20" width="21.140625" style="6" customWidth="1"/>
+    <col min="21" max="21" width="4.42578125" style="36" customWidth="1"/>
+    <col min="22" max="26" width="21.140625" style="6" customWidth="1"/>
+    <col min="27" max="16384" width="10.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="35"/>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="35"/>
+      <c r="J1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="35"/>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="35"/>
+      <c r="P1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="35"/>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="35"/>
+      <c r="V1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>1945</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>1946</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>1947</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B4" s="51">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>1948</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>1949</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>1950</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>1951</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>1952</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>1953</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>1954</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>1955</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B12" s="54">
+        <v>35</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>1956</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>1957</v>
       </c>
-      <c r="C14" s="8"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>1958</v>
       </c>
-      <c r="C15" s="8"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>1959</v>
       </c>
-      <c r="C16" s="8"/>
-    </row>
-    <row r="17" spans="1:74" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:76" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>1960</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="8"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="36"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="8"/>
+      <c r="G17" s="6"/>
       <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="I17" s="36"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
-      <c r="M17" s="36"/>
+      <c r="M17" s="6"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
+      <c r="O17" s="36"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
-      <c r="S17" s="36"/>
+      <c r="S17" s="6"/>
       <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
+      <c r="U17" s="36"/>
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>
       <c r="X17" s="6"/>
@@ -12614,30 +12696,32 @@
       <c r="BT17" s="6"/>
       <c r="BU17" s="6"/>
       <c r="BV17" s="6"/>
-    </row>
-    <row r="18" spans="1:74" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BW17" s="6"/>
+      <c r="BX17" s="6"/>
+    </row>
+    <row r="18" spans="1:76" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>1961</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="8"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="36"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="8"/>
+      <c r="G18" s="6"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="I18" s="36"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
-      <c r="M18" s="36"/>
+      <c r="M18" s="6"/>
       <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
+      <c r="O18" s="36"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
-      <c r="S18" s="36"/>
+      <c r="S18" s="6"/>
       <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
+      <c r="U18" s="36"/>
       <c r="V18" s="6"/>
       <c r="W18" s="6"/>
       <c r="X18" s="6"/>
@@ -12691,30 +12775,32 @@
       <c r="BT18" s="6"/>
       <c r="BU18" s="6"/>
       <c r="BV18" s="6"/>
-    </row>
-    <row r="19" spans="1:74" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BW18" s="6"/>
+      <c r="BX18" s="6"/>
+    </row>
+    <row r="19" spans="1:76" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>1962</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="8"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="36"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="8"/>
+      <c r="G19" s="6"/>
       <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="I19" s="36"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
-      <c r="M19" s="36"/>
+      <c r="M19" s="6"/>
       <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
+      <c r="O19" s="36"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
-      <c r="S19" s="36"/>
+      <c r="S19" s="6"/>
       <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
+      <c r="U19" s="36"/>
       <c r="V19" s="6"/>
       <c r="W19" s="6"/>
       <c r="X19" s="6"/>
@@ -12768,61 +12854,63 @@
       <c r="BT19" s="6"/>
       <c r="BU19" s="6"/>
       <c r="BV19" s="6"/>
-    </row>
-    <row r="20" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BW19" s="6"/>
+      <c r="BX19" s="6"/>
+    </row>
+    <row r="20" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>1963</v>
       </c>
     </row>
-    <row r="21" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>1964</v>
       </c>
     </row>
-    <row r="22" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>1965</v>
       </c>
     </row>
-    <row r="23" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>1966</v>
       </c>
     </row>
-    <row r="24" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>1967</v>
       </c>
     </row>
-    <row r="25" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>1968</v>
       </c>
     </row>
-    <row r="26" spans="1:74" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:76" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>1969</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="7"/>
       <c r="F26" s="6"/>
-      <c r="G26" s="36"/>
+      <c r="G26" s="6"/>
       <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+      <c r="I26" s="36"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
-      <c r="M26" s="36"/>
+      <c r="M26" s="6"/>
       <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
+      <c r="O26" s="36"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
-      <c r="S26" s="36"/>
+      <c r="S26" s="6"/>
       <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
+      <c r="U26" s="36"/>
       <c r="V26" s="6"/>
       <c r="W26" s="6"/>
       <c r="X26" s="6"/>
@@ -12876,76 +12964,80 @@
       <c r="BT26" s="6"/>
       <c r="BU26" s="6"/>
       <c r="BV26" s="6"/>
-    </row>
-    <row r="27" spans="1:74" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BW26" s="6"/>
+      <c r="BX26" s="6"/>
+    </row>
+    <row r="27" spans="1:76" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>1970</v>
       </c>
-      <c r="B27" s="37">
+      <c r="B27" s="53">
+        <v>17.5</v>
+      </c>
+      <c r="C27" s="40"/>
+      <c r="D27" s="37">
         <v>27.611000000000001</v>
       </c>
-      <c r="C27" s="38">
+      <c r="E27" s="38">
         <v>78.8</v>
       </c>
-      <c r="D27" s="39">
+      <c r="F27" s="39">
         <v>17</v>
       </c>
-      <c r="E27" s="39">
+      <c r="G27" s="39">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F27" s="39">
+      <c r="H27" s="39">
         <v>0</v>
       </c>
-      <c r="G27" s="40"/>
-      <c r="H27" s="39">
+      <c r="I27" s="40"/>
+      <c r="J27" s="39">
         <v>10.363</v>
       </c>
-      <c r="I27" s="39">
+      <c r="K27" s="39">
         <v>78.5</v>
       </c>
-      <c r="J27" s="39">
+      <c r="L27" s="39">
         <v>14.4</v>
       </c>
-      <c r="K27" s="39">
+      <c r="M27" s="39">
         <v>7.1</v>
       </c>
-      <c r="L27" s="39">
+      <c r="N27" s="39">
         <v>0</v>
       </c>
-      <c r="M27" s="40"/>
-      <c r="N27" s="39">
+      <c r="O27" s="40"/>
+      <c r="P27" s="39">
         <v>10.976000000000001</v>
       </c>
-      <c r="O27" s="39">
+      <c r="Q27" s="39">
         <v>66.7</v>
       </c>
-      <c r="P27" s="39">
+      <c r="R27" s="39">
         <v>26.8</v>
       </c>
-      <c r="Q27" s="39">
+      <c r="S27" s="39">
         <v>6.4</v>
       </c>
-      <c r="R27" s="39">
+      <c r="T27" s="39">
         <v>0.1</v>
       </c>
-      <c r="S27" s="40"/>
-      <c r="T27" s="39">
+      <c r="U27" s="40"/>
+      <c r="V27" s="39">
         <v>10.3</v>
       </c>
-      <c r="U27" s="39">
+      <c r="W27" s="39">
         <v>74.400000000000006</v>
       </c>
-      <c r="V27" s="39">
+      <c r="X27" s="39">
         <v>9.6999999999999993</v>
       </c>
-      <c r="W27" s="39">
+      <c r="Y27" s="39">
         <v>6.4</v>
       </c>
-      <c r="X27" s="39">
+      <c r="Z27" s="39">
         <v>9.5</v>
       </c>
-      <c r="Y27" s="6"/>
-      <c r="Z27" s="6"/>
       <c r="AA27" s="6"/>
       <c r="AB27" s="6"/>
       <c r="AC27" s="6"/>
@@ -12994,801 +13086,838 @@
       <c r="BT27" s="6"/>
       <c r="BU27" s="6"/>
       <c r="BV27" s="6"/>
-    </row>
-    <row r="28" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="BW27" s="6"/>
+      <c r="BX27" s="6"/>
+    </row>
+    <row r="28" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>1971</v>
       </c>
-      <c r="B28" s="37">
+      <c r="C28" s="40"/>
+      <c r="D28" s="37">
         <v>27.611000000000001</v>
       </c>
-      <c r="C28" s="38">
+      <c r="E28" s="38">
         <v>78.8</v>
       </c>
-      <c r="D28" s="39">
+      <c r="F28" s="39">
         <v>17</v>
       </c>
-      <c r="E28" s="39">
+      <c r="G28" s="39">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F28" s="39">
+      <c r="H28" s="39">
         <v>0</v>
       </c>
-      <c r="G28" s="40"/>
-      <c r="H28" s="39">
+      <c r="I28" s="40"/>
+      <c r="J28" s="39">
         <v>10.363</v>
       </c>
-      <c r="I28" s="39">
+      <c r="K28" s="39">
         <v>78.5</v>
       </c>
-      <c r="J28" s="39">
+      <c r="L28" s="39">
         <v>14.4</v>
       </c>
-      <c r="K28" s="39">
+      <c r="M28" s="39">
         <v>7.1</v>
       </c>
-      <c r="L28" s="39">
+      <c r="N28" s="39">
         <v>0</v>
       </c>
-      <c r="M28" s="40"/>
-      <c r="N28" s="39">
+      <c r="O28" s="40"/>
+      <c r="P28" s="39">
         <v>10.976000000000001</v>
       </c>
-      <c r="O28" s="39">
+      <c r="Q28" s="39">
         <v>66.7</v>
       </c>
-      <c r="P28" s="39">
+      <c r="R28" s="39">
         <v>26.8</v>
       </c>
-      <c r="Q28" s="39">
+      <c r="S28" s="39">
         <v>6.4</v>
       </c>
-      <c r="R28" s="39">
+      <c r="T28" s="39">
         <v>0.1</v>
       </c>
-      <c r="S28" s="40"/>
-      <c r="T28" s="39">
+      <c r="U28" s="40"/>
+      <c r="V28" s="39">
         <v>10.3</v>
       </c>
-      <c r="U28" s="39">
+      <c r="W28" s="39">
         <v>74.400000000000006</v>
       </c>
-      <c r="V28" s="39">
+      <c r="X28" s="39">
         <v>9.6999999999999993</v>
       </c>
-      <c r="W28" s="39">
+      <c r="Y28" s="39">
         <v>6.4</v>
       </c>
-      <c r="X28" s="39">
+      <c r="Z28" s="39">
         <v>9.5</v>
       </c>
     </row>
-    <row r="29" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>1972</v>
       </c>
-      <c r="B29" s="37">
+      <c r="C29" s="40"/>
+      <c r="D29" s="37">
         <v>27.611000000000001</v>
       </c>
-      <c r="C29" s="38">
+      <c r="E29" s="38">
         <v>78.8</v>
       </c>
-      <c r="D29" s="39">
+      <c r="F29" s="39">
         <v>17</v>
       </c>
-      <c r="E29" s="39">
+      <c r="G29" s="39">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F29" s="39">
+      <c r="H29" s="39">
         <v>0</v>
       </c>
-      <c r="G29" s="40"/>
-      <c r="H29" s="39">
+      <c r="I29" s="40"/>
+      <c r="J29" s="39">
         <v>10.363</v>
       </c>
-      <c r="I29" s="39">
+      <c r="K29" s="39">
         <v>78.5</v>
       </c>
-      <c r="J29" s="39">
+      <c r="L29" s="39">
         <v>14.4</v>
       </c>
-      <c r="K29" s="39">
+      <c r="M29" s="39">
         <v>7.1</v>
       </c>
-      <c r="L29" s="39">
+      <c r="N29" s="39">
         <v>0</v>
       </c>
-      <c r="M29" s="40"/>
-      <c r="N29" s="39">
+      <c r="O29" s="40"/>
+      <c r="P29" s="39">
         <v>10.976000000000001</v>
       </c>
-      <c r="O29" s="39">
+      <c r="Q29" s="39">
         <v>66.7</v>
       </c>
-      <c r="P29" s="39">
+      <c r="R29" s="39">
         <v>26.8</v>
       </c>
-      <c r="Q29" s="39">
+      <c r="S29" s="39">
         <v>6.4</v>
       </c>
-      <c r="R29" s="39">
+      <c r="T29" s="39">
         <v>0.1</v>
       </c>
-      <c r="S29" s="40"/>
-      <c r="T29" s="39">
+      <c r="U29" s="40"/>
+      <c r="V29" s="39">
         <v>10.3</v>
       </c>
-      <c r="U29" s="39">
+      <c r="W29" s="39">
         <v>74.400000000000006</v>
       </c>
-      <c r="V29" s="39">
+      <c r="X29" s="39">
         <v>9.6999999999999993</v>
       </c>
-      <c r="W29" s="39">
+      <c r="Y29" s="39">
         <v>6.4</v>
       </c>
-      <c r="X29" s="39">
+      <c r="Z29" s="39">
         <v>9.5</v>
       </c>
     </row>
-    <row r="30" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>1973</v>
       </c>
-      <c r="B30" s="37">
+      <c r="C30" s="40"/>
+      <c r="D30" s="37">
         <v>27.611000000000001</v>
       </c>
-      <c r="C30" s="38">
+      <c r="E30" s="38">
         <v>78.900000000000006</v>
       </c>
-      <c r="D30" s="39">
+      <c r="F30" s="39">
         <v>17</v>
       </c>
-      <c r="E30" s="39">
+      <c r="G30" s="39">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F30" s="39">
+      <c r="H30" s="39">
         <v>0</v>
       </c>
-      <c r="G30" s="40"/>
-      <c r="H30" s="39">
+      <c r="I30" s="40"/>
+      <c r="J30" s="39">
         <v>10.363</v>
       </c>
-      <c r="I30" s="39">
+      <c r="K30" s="39">
         <v>78.5</v>
       </c>
-      <c r="J30" s="39">
+      <c r="L30" s="39">
         <v>14.4</v>
       </c>
-      <c r="K30" s="39">
+      <c r="M30" s="39">
         <v>7.1</v>
       </c>
-      <c r="L30" s="39">
+      <c r="N30" s="39">
         <v>0</v>
       </c>
-      <c r="M30" s="40"/>
-      <c r="N30" s="39">
+      <c r="O30" s="40"/>
+      <c r="P30" s="39">
         <v>10.976000000000001</v>
       </c>
-      <c r="O30" s="39">
+      <c r="Q30" s="39">
         <v>66.7</v>
       </c>
-      <c r="P30" s="39">
+      <c r="R30" s="39">
         <v>26.8</v>
       </c>
-      <c r="Q30" s="39">
+      <c r="S30" s="39">
         <v>6.4</v>
       </c>
-      <c r="R30" s="39">
+      <c r="T30" s="39">
         <v>0.1</v>
       </c>
-      <c r="S30" s="40"/>
-      <c r="T30" s="39">
+      <c r="U30" s="40"/>
+      <c r="V30" s="39">
         <v>10.3</v>
       </c>
-      <c r="U30" s="39">
+      <c r="W30" s="39">
         <v>74.400000000000006</v>
       </c>
-      <c r="V30" s="39">
+      <c r="X30" s="39">
         <v>9.6999999999999993</v>
       </c>
-      <c r="W30" s="39">
+      <c r="Y30" s="39">
         <v>6.4</v>
       </c>
-      <c r="X30" s="39">
+      <c r="Z30" s="39">
         <v>9.5</v>
       </c>
     </row>
-    <row r="31" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>1974</v>
       </c>
-      <c r="B31" s="37">
+      <c r="B31" s="53">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="C31" s="40"/>
+      <c r="D31" s="37">
         <v>27.609000000000002</v>
       </c>
-      <c r="C31" s="38">
+      <c r="E31" s="38">
         <v>80.400000000000006</v>
       </c>
-      <c r="D31" s="39">
+      <c r="F31" s="39">
         <v>15.4</v>
       </c>
-      <c r="E31" s="39">
+      <c r="G31" s="39">
         <v>4.2</v>
       </c>
-      <c r="F31" s="39">
+      <c r="H31" s="39">
         <v>0</v>
       </c>
-      <c r="G31" s="40"/>
-      <c r="H31" s="39">
+      <c r="I31" s="40"/>
+      <c r="J31" s="39">
         <v>10.863</v>
       </c>
-      <c r="I31" s="39">
+      <c r="K31" s="39">
         <v>66.5</v>
       </c>
-      <c r="J31" s="39">
+      <c r="L31" s="39">
         <v>27.2</v>
       </c>
-      <c r="K31" s="39">
+      <c r="M31" s="39">
         <v>6.3</v>
       </c>
-      <c r="L31" s="39">
+      <c r="N31" s="39">
         <v>0</v>
       </c>
-      <c r="M31" s="40"/>
-      <c r="N31" s="39">
+      <c r="O31" s="40"/>
+      <c r="P31" s="39">
         <v>9.4339999999999993</v>
       </c>
-      <c r="O31" s="39">
+      <c r="Q31" s="39">
         <v>62</v>
       </c>
-      <c r="P31" s="39">
+      <c r="R31" s="39">
         <v>30.8</v>
       </c>
-      <c r="Q31" s="39">
+      <c r="S31" s="39">
         <v>7.2</v>
       </c>
-      <c r="R31" s="39">
+      <c r="T31" s="39">
         <v>0</v>
       </c>
-      <c r="S31" s="40"/>
-      <c r="T31" s="39">
+      <c r="U31" s="40"/>
+      <c r="V31" s="39">
         <v>9.7530000000000001</v>
       </c>
-      <c r="U31" s="39">
+      <c r="W31" s="39">
         <v>69.900000000000006</v>
       </c>
-      <c r="V31" s="39">
+      <c r="X31" s="39">
         <v>14.4</v>
       </c>
-      <c r="W31" s="39">
+      <c r="Y31" s="39">
         <v>5.7</v>
       </c>
-      <c r="X31" s="39">
+      <c r="Z31" s="39">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>1975</v>
       </c>
-      <c r="B32" s="37">
+      <c r="B32" s="53">
+        <v>16.7</v>
+      </c>
+      <c r="C32" s="40"/>
+      <c r="D32" s="37">
         <v>21.454999999999998</v>
       </c>
-      <c r="C32" s="38">
+      <c r="E32" s="38">
         <v>76.5</v>
       </c>
-      <c r="D32" s="39">
+      <c r="F32" s="39">
         <v>19</v>
       </c>
-      <c r="E32" s="39">
+      <c r="G32" s="39">
         <v>4.5</v>
       </c>
-      <c r="F32" s="39">
+      <c r="H32" s="39">
         <v>0</v>
       </c>
-      <c r="G32" s="40"/>
-      <c r="H32" s="39">
+      <c r="I32" s="40"/>
+      <c r="J32" s="39">
         <v>8.8529999999999998</v>
       </c>
-      <c r="I32" s="39">
+      <c r="K32" s="39">
         <v>61.8</v>
       </c>
-      <c r="J32" s="39">
+      <c r="L32" s="39">
         <v>30.7</v>
       </c>
-      <c r="K32" s="39">
+      <c r="M32" s="39">
         <v>7.5</v>
       </c>
-      <c r="L32" s="39">
+      <c r="N32" s="39">
         <v>0</v>
       </c>
-      <c r="M32" s="40"/>
-      <c r="N32" s="39">
+      <c r="O32" s="40"/>
+      <c r="P32" s="39">
         <v>9.1509999999999998</v>
       </c>
-      <c r="O32" s="39">
+      <c r="Q32" s="39">
         <v>60.3</v>
       </c>
-      <c r="P32" s="39">
+      <c r="R32" s="39">
         <v>31.6</v>
       </c>
-      <c r="Q32" s="39">
+      <c r="S32" s="39">
         <v>8.1</v>
       </c>
-      <c r="R32" s="39">
+      <c r="T32" s="39">
         <v>0</v>
       </c>
-      <c r="S32" s="40"/>
-      <c r="T32" s="39">
+      <c r="U32" s="40"/>
+      <c r="V32" s="39">
         <v>8.4689999999999994</v>
       </c>
-      <c r="U32" s="39">
+      <c r="W32" s="39">
         <v>67</v>
       </c>
-      <c r="V32" s="39">
+      <c r="X32" s="39">
         <v>16.100000000000001</v>
       </c>
-      <c r="W32" s="39">
+      <c r="Y32" s="39">
         <v>5.4</v>
       </c>
-      <c r="X32" s="39">
+      <c r="Z32" s="39">
         <v>11.6</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>1976</v>
       </c>
-      <c r="B33" s="37">
+      <c r="B33" s="53">
+        <v>14.9</v>
+      </c>
+      <c r="C33" s="40"/>
+      <c r="D33" s="37">
         <v>23.710999999999999</v>
       </c>
-      <c r="C33" s="38">
+      <c r="E33" s="38">
         <v>74.5</v>
       </c>
-      <c r="D33" s="39">
+      <c r="F33" s="39">
         <v>21.3</v>
       </c>
-      <c r="E33" s="39">
+      <c r="G33" s="39">
         <v>4.2</v>
       </c>
-      <c r="F33" s="39">
+      <c r="H33" s="39">
         <v>0</v>
       </c>
-      <c r="G33" s="40"/>
-      <c r="H33" s="39">
+      <c r="I33" s="40"/>
+      <c r="J33" s="39">
         <v>8.86</v>
       </c>
-      <c r="I33" s="39">
+      <c r="K33" s="39">
         <v>62.8</v>
       </c>
-      <c r="J33" s="39">
+      <c r="L33" s="39">
         <v>29.4</v>
       </c>
-      <c r="K33" s="39">
+      <c r="M33" s="39">
         <v>7.8</v>
       </c>
-      <c r="L33" s="39">
+      <c r="N33" s="39">
         <v>0</v>
       </c>
-      <c r="M33" s="40"/>
-      <c r="N33" s="39">
+      <c r="O33" s="40"/>
+      <c r="P33" s="39">
         <v>10.8</v>
       </c>
-      <c r="O33" s="39">
+      <c r="Q33" s="39">
         <v>57.3</v>
       </c>
-      <c r="P33" s="39">
+      <c r="R33" s="39">
         <v>33.6</v>
       </c>
-      <c r="Q33" s="39">
+      <c r="S33" s="39">
         <v>9.1</v>
       </c>
-      <c r="R33" s="39">
+      <c r="T33" s="39">
         <v>0</v>
       </c>
-      <c r="S33" s="40"/>
-      <c r="T33" s="39">
+      <c r="U33" s="40"/>
+      <c r="V33" s="39">
         <v>7.8760000000000003</v>
       </c>
-      <c r="U33" s="39">
+      <c r="W33" s="39">
         <v>61</v>
       </c>
-      <c r="V33" s="39">
+      <c r="X33" s="39">
         <v>20.9</v>
       </c>
-      <c r="W33" s="39">
+      <c r="Y33" s="39">
         <v>5.7</v>
       </c>
-      <c r="X33" s="39">
+      <c r="Z33" s="39">
         <v>12.4</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>1977</v>
       </c>
-      <c r="B34" s="37">
+      <c r="B34" s="53">
+        <v>13.9</v>
+      </c>
+      <c r="C34" s="40"/>
+      <c r="D34" s="37">
         <v>21.686</v>
       </c>
-      <c r="C34" s="38">
+      <c r="E34" s="38">
         <v>68.5</v>
       </c>
-      <c r="D34" s="39">
+      <c r="F34" s="39">
         <v>26.8</v>
       </c>
-      <c r="E34" s="39">
+      <c r="G34" s="39">
         <v>4.7</v>
       </c>
-      <c r="F34" s="39">
+      <c r="H34" s="39">
         <v>0</v>
       </c>
-      <c r="G34" s="40"/>
-      <c r="H34" s="39">
+      <c r="I34" s="40"/>
+      <c r="J34" s="39">
         <v>8.5619999999999994</v>
       </c>
-      <c r="I34" s="39">
+      <c r="K34" s="39">
         <v>61</v>
       </c>
-      <c r="J34" s="39">
+      <c r="L34" s="39">
         <v>30.5</v>
       </c>
-      <c r="K34" s="39">
+      <c r="M34" s="39">
         <v>8.5</v>
       </c>
-      <c r="L34" s="39">
+      <c r="N34" s="39">
         <v>0</v>
       </c>
-      <c r="M34" s="40"/>
-      <c r="N34" s="39">
+      <c r="O34" s="40"/>
+      <c r="P34" s="39">
         <v>12.46</v>
       </c>
-      <c r="O34" s="39">
+      <c r="Q34" s="39">
         <v>52.5</v>
       </c>
-      <c r="P34" s="39">
+      <c r="R34" s="39">
         <v>39.1</v>
       </c>
-      <c r="Q34" s="39">
+      <c r="S34" s="39">
         <v>8.4</v>
       </c>
-      <c r="R34" s="39">
+      <c r="T34" s="39">
         <v>0</v>
       </c>
-      <c r="S34" s="40"/>
-      <c r="T34" s="39">
+      <c r="U34" s="40"/>
+      <c r="V34" s="39">
         <v>7.2720000000000002</v>
       </c>
-      <c r="U34" s="39">
+      <c r="W34" s="39">
         <v>49.8</v>
       </c>
-      <c r="V34" s="39">
+      <c r="X34" s="39">
         <v>30.8</v>
       </c>
-      <c r="W34" s="39">
+      <c r="Y34" s="39">
         <v>5.7</v>
       </c>
-      <c r="X34" s="39">
+      <c r="Z34" s="39">
         <v>13.7</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>1978</v>
       </c>
-      <c r="B35" s="37">
+      <c r="B35" s="53">
+        <v>13.3</v>
+      </c>
+      <c r="C35" s="40"/>
+      <c r="D35" s="37">
         <v>20.614000000000001</v>
       </c>
-      <c r="C35" s="38">
+      <c r="E35" s="38">
         <v>68.8</v>
       </c>
-      <c r="D35" s="39">
+      <c r="F35" s="39">
         <v>27.1</v>
       </c>
-      <c r="E35" s="39">
+      <c r="G35" s="39">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F35" s="39">
+      <c r="H35" s="39">
         <v>0</v>
       </c>
-      <c r="G35" s="40"/>
-      <c r="H35" s="39">
+      <c r="I35" s="40"/>
+      <c r="J35" s="39">
         <v>7.593</v>
       </c>
-      <c r="I35" s="39">
+      <c r="K35" s="39">
         <v>50.8</v>
       </c>
-      <c r="J35" s="39">
+      <c r="L35" s="39">
         <v>39.4</v>
       </c>
-      <c r="K35" s="39">
+      <c r="M35" s="39">
         <v>9.6999999999999993</v>
       </c>
-      <c r="L35" s="39">
+      <c r="N35" s="39">
         <v>0</v>
       </c>
-      <c r="M35" s="40"/>
-      <c r="N35" s="39">
+      <c r="O35" s="40"/>
+      <c r="P35" s="39">
         <v>11.843</v>
       </c>
-      <c r="O35" s="39">
+      <c r="Q35" s="39">
         <v>52.8</v>
       </c>
-      <c r="P35" s="39">
+      <c r="R35" s="39">
         <v>38.799999999999997</v>
       </c>
-      <c r="Q35" s="39">
+      <c r="S35" s="39">
         <v>8.4</v>
       </c>
-      <c r="R35" s="39">
+      <c r="T35" s="39">
         <v>0</v>
       </c>
-      <c r="S35" s="40"/>
-      <c r="T35" s="39">
+      <c r="U35" s="40"/>
+      <c r="V35" s="39">
         <v>7.1989999999999998</v>
       </c>
-      <c r="U35" s="39">
+      <c r="W35" s="39">
         <v>47</v>
       </c>
-      <c r="V35" s="39">
+      <c r="X35" s="39">
         <v>33.5</v>
       </c>
-      <c r="W35" s="39">
-        <v>6</v>
-      </c>
-      <c r="X35" s="39">
+      <c r="Y35" s="39">
+        <v>6</v>
+      </c>
+      <c r="Z35" s="39">
         <v>13.5</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>1979</v>
       </c>
-      <c r="B36" s="39">
+      <c r="B36" s="53">
+        <v>12.8</v>
+      </c>
+      <c r="C36" s="40"/>
+      <c r="D36" s="39">
         <v>19.794</v>
       </c>
-      <c r="C36" s="38">
+      <c r="E36" s="38">
         <v>68.3</v>
       </c>
-      <c r="D36" s="39">
+      <c r="F36" s="39">
         <v>27.4</v>
       </c>
-      <c r="E36" s="39">
+      <c r="G36" s="39">
         <v>4.3</v>
       </c>
-      <c r="F36" s="39">
+      <c r="H36" s="39">
         <v>0</v>
       </c>
-      <c r="G36" s="40"/>
-      <c r="H36" s="39">
+      <c r="I36" s="40"/>
+      <c r="J36" s="39">
         <v>8.76</v>
       </c>
-      <c r="I36" s="39">
+      <c r="K36" s="39">
         <v>57.4</v>
       </c>
-      <c r="J36" s="39">
+      <c r="L36" s="39">
         <v>32.6</v>
       </c>
-      <c r="K36" s="39">
+      <c r="M36" s="39">
         <v>10</v>
       </c>
-      <c r="L36" s="39">
+      <c r="N36" s="39">
         <v>0</v>
       </c>
-      <c r="M36" s="40"/>
-      <c r="N36" s="39">
+      <c r="O36" s="40"/>
+      <c r="P36" s="39">
         <v>12.27</v>
       </c>
-      <c r="O36" s="39">
+      <c r="Q36" s="39">
         <v>53.5</v>
       </c>
-      <c r="P36" s="39">
+      <c r="R36" s="39">
         <v>37.5</v>
       </c>
-      <c r="Q36" s="39">
+      <c r="S36" s="39">
         <v>9</v>
       </c>
-      <c r="R36" s="39">
+      <c r="T36" s="39">
         <v>0</v>
       </c>
-      <c r="S36" s="40"/>
-      <c r="T36" s="39">
+      <c r="U36" s="40"/>
+      <c r="V36" s="39">
         <v>7.0709999999999997</v>
       </c>
-      <c r="U36" s="39">
+      <c r="W36" s="39">
         <v>50.6</v>
       </c>
-      <c r="V36" s="39">
+      <c r="X36" s="39">
         <v>41.6</v>
       </c>
-      <c r="W36" s="39">
+      <c r="Y36" s="39">
         <v>8</v>
       </c>
-      <c r="X36" s="39">
+      <c r="Z36" s="39">
         <v>15.6</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>1980</v>
       </c>
-      <c r="B37" s="39">
+      <c r="B37" s="53">
+        <v>11</v>
+      </c>
+      <c r="C37" s="40"/>
+      <c r="D37" s="39">
         <v>14.538</v>
       </c>
-      <c r="C37" s="38">
+      <c r="E37" s="38">
         <v>68.8</v>
       </c>
-      <c r="D37" s="39">
+      <c r="F37" s="39">
         <v>26.9</v>
       </c>
-      <c r="E37" s="39">
+      <c r="G37" s="39">
         <v>4.3</v>
       </c>
-      <c r="F37" s="39">
+      <c r="H37" s="39">
         <v>0</v>
       </c>
-      <c r="G37" s="40"/>
-      <c r="H37" s="39">
+      <c r="I37" s="40"/>
+      <c r="J37" s="39">
         <v>8.76</v>
       </c>
-      <c r="I37" s="39">
+      <c r="K37" s="39">
         <v>62</v>
       </c>
-      <c r="J37" s="39">
+      <c r="L37" s="39">
         <v>28.6</v>
       </c>
-      <c r="K37" s="39">
+      <c r="M37" s="39">
         <v>9.4</v>
       </c>
-      <c r="L37" s="39">
+      <c r="N37" s="39">
         <v>0</v>
       </c>
-      <c r="M37" s="40"/>
-      <c r="N37" s="39">
+      <c r="O37" s="40"/>
+      <c r="P37" s="39">
         <v>13.137</v>
       </c>
-      <c r="O37" s="39">
+      <c r="Q37" s="39">
         <v>50.1</v>
       </c>
-      <c r="P37" s="39">
+      <c r="R37" s="39">
         <v>40.799999999999997</v>
       </c>
-      <c r="Q37" s="39">
+      <c r="S37" s="39">
         <v>9.1</v>
       </c>
-      <c r="R37" s="39">
+      <c r="T37" s="39">
         <v>0</v>
       </c>
-      <c r="S37" s="40"/>
-      <c r="T37" s="39">
+      <c r="U37" s="40"/>
+      <c r="V37" s="39">
         <v>6.5789999999999997</v>
       </c>
-      <c r="U37" s="39">
+      <c r="W37" s="39">
         <v>41.9</v>
       </c>
-      <c r="V37" s="39">
+      <c r="X37" s="39">
         <v>37.799999999999997</v>
       </c>
-      <c r="W37" s="39">
+      <c r="Y37" s="39">
         <v>6.9</v>
       </c>
-      <c r="X37" s="39">
+      <c r="Z37" s="39">
         <v>13.3</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>1981</v>
       </c>
-      <c r="B38" s="39">
+      <c r="B38" s="53">
+        <v>12.3</v>
+      </c>
+      <c r="C38" s="40"/>
+      <c r="D38" s="39">
         <v>17.120999999999999</v>
       </c>
-      <c r="C38" s="38">
+      <c r="E38" s="38">
         <v>59</v>
       </c>
-      <c r="D38" s="39">
+      <c r="F38" s="39">
         <v>36.1</v>
       </c>
-      <c r="E38" s="39">
+      <c r="G38" s="39">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F38" s="39">
+      <c r="H38" s="39">
         <v>0</v>
       </c>
-      <c r="G38" s="40"/>
-      <c r="H38" s="39">
+      <c r="I38" s="40"/>
+      <c r="J38" s="39">
         <v>8.4280000000000008</v>
       </c>
-      <c r="I38" s="39">
+      <c r="K38" s="39">
         <v>52.1</v>
       </c>
-      <c r="J38" s="39">
+      <c r="L38" s="39">
         <v>38.6</v>
       </c>
-      <c r="K38" s="39">
+      <c r="M38" s="39">
         <v>9.3000000000000007</v>
       </c>
-      <c r="L38" s="39">
+      <c r="N38" s="39">
         <v>0</v>
       </c>
-      <c r="M38" s="40"/>
-      <c r="N38" s="39">
+      <c r="O38" s="40"/>
+      <c r="P38" s="39">
         <v>11.477</v>
       </c>
-      <c r="O38" s="39">
+      <c r="Q38" s="39">
         <v>48.9</v>
       </c>
-      <c r="P38" s="39">
+      <c r="R38" s="39">
         <v>41.6</v>
       </c>
-      <c r="Q38" s="39">
+      <c r="S38" s="39">
         <v>9.5</v>
       </c>
-      <c r="R38" s="39">
+      <c r="T38" s="39">
         <v>0</v>
       </c>
-      <c r="S38" s="40"/>
-      <c r="T38" s="39">
+      <c r="U38" s="40"/>
+      <c r="V38" s="39">
         <v>6.9930000000000003</v>
       </c>
-      <c r="U38" s="39">
+      <c r="W38" s="39">
         <v>43.3</v>
       </c>
-      <c r="V38" s="39">
+      <c r="X38" s="39">
         <v>36.4</v>
       </c>
-      <c r="W38" s="39">
+      <c r="Y38" s="39">
         <v>6.9</v>
       </c>
-      <c r="X38" s="39">
+      <c r="Z38" s="39">
         <v>13.4</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>1982</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>1983</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>1984</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>1985</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>1986</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
         <v>1987</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
         <v>1988</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <v>1989</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <v>1990</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
         <v>1991</v>
       </c>
@@ -13873,62 +14002,66 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="11">
         <v>2008</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
         <v>2009</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="11">
         <v>2010</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="11">
         <v>2011</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B68" s="51">
+        <f>6.1+0.8+2.1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="11">
         <v>2012</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="11">
         <v>2013</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="11">
         <v>2014</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="11">
         <v>2015</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="11">
         <v>2016</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="11">
         <v>2017</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="11">
         <v>2018</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="11">
         <v>2019</v>
       </c>

--- a/RawData/EU_RawData_VPython.xlsx
+++ b/RawData/EU_RawData_VPython.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souvi\Documents\These\80_Calculations\01_MFA_GlassIndustry\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F8B956-D0F2-4EAE-9E33-87B221E3B769}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA97C2AA-EFB5-4F4C-85EA-386D80BE7C62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="1530" windowWidth="21510" windowHeight="14670" firstSheet="1" activeTab="6" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="2" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
   </bookViews>
   <sheets>
     <sheet name="stock" sheetId="17" r:id="rId1"/>
@@ -222,6 +222,20 @@
 PRODCOM, Eurostat, 2020
 Code: 23121230
 Label: Toughened (tempered) safety glass, n.e.c.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{B8601103-B042-4408-A64D-67536E1000E5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>100.000 insulating glass units sold in 1955 according to Van de Voorde et al., 2015
+Hypothesis: average surface of a window = 1.5x1.5m²</t>
         </r>
       </text>
     </comment>
@@ -473,6 +487,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="D74" authorId="0" shapeId="0" xr:uid="{9F265CDE-4355-48C3-9184-2FC192F796F5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The European Integrated Pollution Prevention and Control Bureau, Best Available Techniques (BAT) Reference Document for the Manufacture of Glass: Industrial Emissions Directive 2010/75/EU (Integrated Pollution Prevention and Control)</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C75" authorId="0" shapeId="0" xr:uid="{1566FB03-5421-4053-856B-37728392DA6A}">
       <text>
         <r>
@@ -496,6 +523,19 @@
             <family val="2"/>
           </rPr>
           <t>Statistical Report 2018-2019, Glass Alliance Europe, 2019.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D76" authorId="0" shapeId="0" xr:uid="{89DCC878-CC58-40F4-84F3-96CD2E75B16C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Final report for a study on composition and drivers of energy prices and costs in energy intensive industries: The case of the flat glass industry</t>
         </r>
       </text>
     </comment>
@@ -576,6 +616,33 @@
           </rPr>
           <t xml:space="preserve">Glass Alliance Europe, website, accessed 30 September 2020
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D81" authorId="0" shapeId="0" xr:uid="{EAB8E431-D9B5-4B77-AF38-06614AEBF635}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jean:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+EUROPE’S FLAT GLASS SECTOR: AN INDUSTRY PROFILE
+Europe's Flat Glass Sector: An Industry Profile, 2020.
+Find at:
+https://www.euractiv.com/section/energy-environment/special_report/europes-flat-glass-sector-an-industry-profile/</t>
         </r>
       </text>
     </comment>
@@ -679,58 +746,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="C53" authorId="0" shapeId="0" xr:uid="{75D1EFAC-3A48-4569-A73B-CC7C50554E25}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PRODCOM, Eurostat, 2020</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C54" authorId="0" shapeId="0" xr:uid="{8774EF82-D61F-46E1-BD32-88D45F330D06}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PRODCOM, Eurostat, 2020</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C55" authorId="0" shapeId="0" xr:uid="{7FB1EA9A-C921-4824-B000-8D0BA40CCBF7}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PRODCOM, Eurostat, 2020</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C56" authorId="0" shapeId="0" xr:uid="{046B1B06-CAC9-4D30-8C02-E10DF5AA3106}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PRODCOM, Eurostat, 2020</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="D56" authorId="0" shapeId="0" xr:uid="{460A2D85-B99F-4E9D-A3FF-3E710D1DABF3}">
       <text>
         <r>
@@ -744,19 +759,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="C57" authorId="0" shapeId="0" xr:uid="{06063FCE-F25E-4ADE-9B5F-A613162E2000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PRODCOM, Eurostat, 2020</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="D57" authorId="0" shapeId="0" xr:uid="{527847D6-D6B4-4289-AABE-2E7887D0309C}">
       <text>
         <r>
@@ -767,45 +769,6 @@
             <family val="2"/>
           </rPr>
           <t>"Statistiques de l'industrie verrière en Europe en 1999", Verre, vol 6, n° 3, mai-juin 2000, p. 22-3</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C58" authorId="0" shapeId="0" xr:uid="{DB18610C-73A1-4C9E-AB94-D8E22F59A21A}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PRODCOM, Eurostat, 2020</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C59" authorId="0" shapeId="0" xr:uid="{B9A4A9E5-68F0-45F6-B0BE-55A0B278E4A8}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PRODCOM, Eurostat, 2020</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C60" authorId="0" shapeId="0" xr:uid="{D8158D47-EEB6-4A29-96FE-88E1EA88597F}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PRODCOM, Eurostat, 2020</t>
         </r>
       </text>
     </comment>
@@ -1053,58 +1016,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="C53" authorId="0" shapeId="0" xr:uid="{F7FC6F83-AD4D-4216-8488-A9F4DD64818D}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PRODCOM, Eurostat, 2020</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C54" authorId="0" shapeId="0" xr:uid="{5E21A32F-01C0-4BF2-8C2A-89F3727FDAC4}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PRODCOM, Eurostat, 2020</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C55" authorId="0" shapeId="0" xr:uid="{54A8468F-93F4-456E-A5EB-14A81F78E107}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PRODCOM, Eurostat, 2020</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C56" authorId="0" shapeId="0" xr:uid="{E8802FB6-99A7-46B8-9D8B-54CA9212A2CD}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PRODCOM, Eurostat, 2020</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="D56" authorId="0" shapeId="0" xr:uid="{DC9B0559-4DE5-433B-8C8C-D80AE464D719}">
       <text>
         <r>
@@ -1118,19 +1029,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="C57" authorId="0" shapeId="0" xr:uid="{E3B0B3B3-1AB8-4708-8B28-9BF29DDBCCCE}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PRODCOM, Eurostat, 2020</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="D57" authorId="0" shapeId="0" xr:uid="{C16C9800-E7FB-47B6-B934-AE69624684B6}">
       <text>
         <r>
@@ -1141,45 +1039,6 @@
             <family val="2"/>
           </rPr>
           <t>"Statistiques de l'industrie verrière en Europe en 1999", Verre, vol 6, n° 3, mai-juin 2000, p. 22-3</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C58" authorId="0" shapeId="0" xr:uid="{DCE03363-DD6B-4F81-9939-06553EF6EB11}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PRODCOM, Eurostat, 2020</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C59" authorId="0" shapeId="0" xr:uid="{45A86C9F-0BA3-45D0-8A02-CCFAAC556904}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PRODCOM, Eurostat, 2020</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C60" authorId="0" shapeId="0" xr:uid="{4D341467-6072-422A-B236-8FC7678F0785}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PRODCOM, Eurostat, 2020</t>
         </r>
       </text>
     </comment>
@@ -2048,12 +1907,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0\ _z_ł_-;\-* #,##0\ _z_ł_-;_-* &quot;-&quot;??\ _z_ł_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2114,6 +1974,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2177,11 +2044,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2333,10 +2201,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5425,11 +5300,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D014A44-A0D2-41E4-AD5D-2CB29E224E01}">
   <dimension ref="A1:BT105"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I58" sqref="I58"/>
+      <selection pane="bottomRight" activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5684,7 +5559,10 @@
         <v>1955</v>
       </c>
       <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="E12" s="1">
+        <f>100000*1.5*1.5/1000</f>
+        <v>225</v>
+      </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -5705,7 +5583,7 @@
         <v>1956</v>
       </c>
       <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
+      <c r="E13" s="55"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -6876,6 +6754,7 @@
       <c r="D62" s="23"/>
       <c r="E62" s="23"/>
       <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
@@ -6898,6 +6777,7 @@
       <c r="D63" s="23"/>
       <c r="E63" s="23"/>
       <c r="F63" s="23"/>
+      <c r="G63" s="23"/>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
@@ -6920,6 +6800,7 @@
       <c r="D64" s="23"/>
       <c r="E64" s="23"/>
       <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
@@ -6946,7 +6827,7 @@
       <c r="F65" s="23">
         <v>68405.209000000003</v>
       </c>
-      <c r="G65" s="4">
+      <c r="G65" s="23">
         <v>55565.65</v>
       </c>
       <c r="I65" s="8"/>
@@ -6975,7 +6856,7 @@
       <c r="F66" s="23">
         <v>73752.312000000005</v>
       </c>
-      <c r="G66" s="4">
+      <c r="G66" s="23">
         <v>59086.072999999997</v>
       </c>
       <c r="I66" s="8"/>
@@ -7004,7 +6885,7 @@
       <c r="F67" s="23">
         <v>80093.182000000001</v>
       </c>
-      <c r="G67" s="4">
+      <c r="G67" s="23">
         <v>55642.788999999997</v>
       </c>
       <c r="I67" s="8"/>
@@ -7033,7 +6914,7 @@
       <c r="F68" s="23">
         <v>97098.35</v>
       </c>
-      <c r="G68" s="4">
+      <c r="G68" s="23">
         <v>64801.589</v>
       </c>
       <c r="I68" s="8"/>
@@ -7062,7 +6943,7 @@
       <c r="F69" s="23">
         <v>101911.291</v>
       </c>
-      <c r="G69" s="4">
+      <c r="G69" s="23">
         <v>65669.297000000006</v>
       </c>
       <c r="I69" s="8"/>
@@ -7091,7 +6972,7 @@
       <c r="F70" s="23">
         <v>107679.027</v>
       </c>
-      <c r="G70" s="4">
+      <c r="G70" s="23">
         <v>56321.105000000003</v>
       </c>
       <c r="I70" s="8"/>
@@ -7120,7 +7001,7 @@
       <c r="F71" s="23">
         <v>88115.28</v>
       </c>
-      <c r="G71" s="4">
+      <c r="G71" s="23">
         <v>50145.05</v>
       </c>
       <c r="I71" s="8"/>
@@ -7149,7 +7030,7 @@
       <c r="F72" s="23">
         <v>76946.489000000001</v>
       </c>
-      <c r="G72" s="4">
+      <c r="G72" s="23">
         <v>52428.658000000003</v>
       </c>
       <c r="I72" s="8"/>
@@ -7178,7 +7059,7 @@
       <c r="F73" s="23">
         <v>81032.27</v>
       </c>
-      <c r="G73" s="4">
+      <c r="G73" s="23">
         <v>62346.044000000002</v>
       </c>
       <c r="I73" s="8"/>
@@ -7200,7 +7081,9 @@
       <c r="C74" s="20">
         <v>9216</v>
       </c>
-      <c r="D74" s="23"/>
+      <c r="D74" s="24">
+        <v>0.8</v>
+      </c>
       <c r="E74" s="23">
         <v>112904.86900000001</v>
       </c>
@@ -7258,7 +7141,9 @@
       <c r="C76" s="20">
         <v>9284</v>
       </c>
-      <c r="D76" s="23"/>
+      <c r="D76" s="24">
+        <v>0.82</v>
+      </c>
       <c r="E76" s="23">
         <v>110466.864</v>
       </c>
@@ -7406,6 +7291,9 @@
       </c>
       <c r="C81" s="20">
         <v>10840</v>
+      </c>
+      <c r="D81" s="24">
+        <v>0.8</v>
       </c>
       <c r="E81" s="23">
         <v>121061.246</v>
@@ -7632,6 +7520,7 @@
       <c r="BT84" s="6"/>
     </row>
     <row r="85" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="D85" s="56"/>
       <c r="H85" s="8"/>
       <c r="I85" s="8"/>
     </row>
@@ -7831,10 +7720,10 @@
   <dimension ref="A1:BT100"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M85" sqref="M85"/>
+      <selection pane="bottomRight" activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8349,7 +8238,7 @@
       <c r="B49" s="11">
         <v>1992</v>
       </c>
-      <c r="C49" s="8"/>
+      <c r="C49" s="3"/>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8359,7 +8248,7 @@
       <c r="B50" s="11">
         <v>1993</v>
       </c>
-      <c r="C50" s="8"/>
+      <c r="C50" s="3"/>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8369,7 +8258,7 @@
       <c r="B51" s="11">
         <v>1994</v>
       </c>
-      <c r="C51" s="8"/>
+      <c r="C51" s="3"/>
       <c r="D51" s="8"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
@@ -8381,7 +8270,7 @@
       <c r="B52" s="11">
         <v>1995</v>
       </c>
-      <c r="C52" s="8"/>
+      <c r="C52" s="3"/>
       <c r="D52" s="8"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
@@ -8393,19 +8282,11 @@
       <c r="B53" s="11">
         <v>1995</v>
       </c>
-      <c r="C53" s="8">
-        <v>1074.1015816699996</v>
-      </c>
+      <c r="C53" s="3"/>
       <c r="D53" s="8"/>
-      <c r="F53" s="3">
-        <v>7483.3069999999998</v>
-      </c>
-      <c r="G53" s="3">
-        <v>9546.4539999999997</v>
-      </c>
-      <c r="H53" s="3">
-        <v>7329.8549999999996</v>
-      </c>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
     </row>
     <row r="54" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
@@ -8414,19 +8295,11 @@
       <c r="B54" s="11">
         <v>1996</v>
       </c>
-      <c r="C54" s="8">
-        <v>1672.6261045800002</v>
-      </c>
+      <c r="C54" s="3"/>
       <c r="D54" s="8"/>
-      <c r="F54" s="3">
-        <v>5233.1869999999999</v>
-      </c>
-      <c r="G54" s="3">
-        <v>10136.938</v>
-      </c>
-      <c r="H54" s="3">
-        <v>8106.6859999999997</v>
-      </c>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -8435,19 +8308,11 @@
       <c r="B55" s="11">
         <v>1997</v>
       </c>
-      <c r="C55" s="8">
-        <v>1600.2104694600002</v>
-      </c>
+      <c r="C55" s="3"/>
       <c r="D55" s="8"/>
-      <c r="F55" s="3">
-        <v>4034.9340000000002</v>
-      </c>
-      <c r="G55" s="3">
-        <v>10830.210999999999</v>
-      </c>
-      <c r="H55" s="3">
-        <v>8817.2330000000002</v>
-      </c>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
     </row>
     <row r="56" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
@@ -8456,22 +8321,14 @@
       <c r="B56" s="11">
         <v>1998</v>
       </c>
-      <c r="C56" s="8">
-        <v>1993.0603617749996</v>
-      </c>
+      <c r="C56" s="3"/>
       <c r="D56" s="7">
         <f>941.569+213.195</f>
         <v>1154.7639999999999</v>
       </c>
-      <c r="F56" s="3">
-        <v>4102.0870000000004</v>
-      </c>
-      <c r="G56" s="3">
-        <v>25215.841</v>
-      </c>
-      <c r="H56" s="3">
-        <v>9971.1929999999993</v>
-      </c>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
     </row>
     <row r="57" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
@@ -8480,22 +8337,14 @@
       <c r="B57" s="11">
         <v>1999</v>
       </c>
-      <c r="C57" s="8">
-        <v>1946.1907399950003</v>
-      </c>
+      <c r="C57" s="3"/>
       <c r="D57" s="7">
         <f>945.255+271.208</f>
         <v>1216.463</v>
       </c>
-      <c r="F57" s="3">
-        <v>4915.6459999999997</v>
-      </c>
-      <c r="G57" s="3">
-        <v>17587.901999999998</v>
-      </c>
-      <c r="H57" s="3">
-        <v>11447.376</v>
-      </c>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
     </row>
     <row r="58" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
@@ -8504,19 +8353,11 @@
       <c r="B58" s="11">
         <v>2000</v>
       </c>
-      <c r="C58" s="8">
-        <v>2022.4696268799999</v>
-      </c>
+      <c r="C58" s="3"/>
       <c r="D58" s="7"/>
-      <c r="F58" s="3">
-        <v>5434.8280000000004</v>
-      </c>
-      <c r="G58" s="3">
-        <v>18056.97</v>
-      </c>
-      <c r="H58" s="3">
-        <v>13732.503000000001</v>
-      </c>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
     </row>
     <row r="59" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
@@ -8525,19 +8366,11 @@
       <c r="B59" s="11">
         <v>2001</v>
       </c>
-      <c r="C59" s="8">
-        <v>2115.9937219499998</v>
-      </c>
+      <c r="C59" s="3"/>
       <c r="D59" s="7"/>
-      <c r="F59" s="3">
-        <v>6008.4570000000003</v>
-      </c>
-      <c r="G59" s="3">
-        <v>21311.46</v>
-      </c>
-      <c r="H59" s="3">
-        <v>14914.946</v>
-      </c>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
     </row>
     <row r="60" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
@@ -8546,19 +8379,11 @@
       <c r="B60" s="11">
         <v>2002</v>
       </c>
-      <c r="C60" s="8">
-        <v>2145.6239194</v>
-      </c>
+      <c r="C60" s="3"/>
       <c r="D60" s="7"/>
-      <c r="F60" s="3">
-        <v>7822.39</v>
-      </c>
-      <c r="G60" s="3">
-        <v>19255.411</v>
-      </c>
-      <c r="H60" s="3">
-        <v>14820.972</v>
-      </c>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
     </row>
     <row r="61" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
@@ -9517,10 +9342,10 @@
   <dimension ref="A1:BU102"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C68" sqref="C68"/>
+      <selection pane="bottomRight" activeCell="L79" sqref="L79:M80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10011,6 +9836,7 @@
       <c r="B46" s="11">
         <v>1989</v>
       </c>
+      <c r="C46" s="3"/>
       <c r="I46" s="8"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -10020,6 +9846,7 @@
       <c r="B47" s="11">
         <v>1990</v>
       </c>
+      <c r="C47" s="3"/>
       <c r="I47" s="8"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -10029,221 +9856,138 @@
       <c r="B48" s="11">
         <v>1991</v>
       </c>
+      <c r="C48" s="3"/>
       <c r="I48" s="8"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>12</v>
       </c>
       <c r="B49" s="11">
         <v>1992</v>
       </c>
+      <c r="C49" s="3"/>
       <c r="I49" s="8"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>12</v>
       </c>
       <c r="B50" s="11">
         <v>1993</v>
       </c>
+      <c r="C50" s="3"/>
       <c r="I50" s="8"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>12</v>
       </c>
       <c r="B51" s="11">
         <v>1994</v>
       </c>
+      <c r="C51" s="3"/>
       <c r="I51" s="8"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>12</v>
       </c>
       <c r="B52" s="11">
         <v>1995</v>
       </c>
+      <c r="C52" s="3"/>
       <c r="I52" s="8"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>15</v>
       </c>
       <c r="B53" s="11">
         <v>1995</v>
       </c>
-      <c r="C53" s="7">
-        <v>2804.6375943999997</v>
-      </c>
-      <c r="F53" s="7">
-        <v>5350.2730000000001</v>
-      </c>
-      <c r="G53" s="7">
-        <v>10350.689</v>
-      </c>
-      <c r="H53" s="7">
-        <v>5953.241</v>
-      </c>
+      <c r="C53" s="3"/>
       <c r="I53" s="8"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>15</v>
       </c>
       <c r="B54" s="11">
         <v>1996</v>
       </c>
-      <c r="C54" s="7">
-        <v>3066.5245173500002</v>
-      </c>
-      <c r="F54" s="7">
-        <v>5190.4229999999998</v>
-      </c>
-      <c r="G54" s="7">
-        <v>11485.144</v>
-      </c>
-      <c r="H54" s="7">
-        <v>6737.9170000000004</v>
-      </c>
+      <c r="C54" s="3"/>
       <c r="I54" s="8"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>15</v>
       </c>
       <c r="B55" s="11">
         <v>1997</v>
       </c>
-      <c r="C55" s="7">
-        <v>3302.8370570149996</v>
-      </c>
-      <c r="F55" s="7">
-        <v>5691.5780000000004</v>
-      </c>
-      <c r="G55" s="7">
-        <v>11683.558000000001</v>
-      </c>
-      <c r="H55" s="7">
-        <v>6880.1769999999997</v>
-      </c>
+      <c r="C55" s="3"/>
       <c r="I55" s="8"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>15</v>
       </c>
       <c r="B56" s="11">
         <v>1998</v>
       </c>
-      <c r="C56" s="7">
-        <v>3371.0010588300001</v>
-      </c>
+      <c r="C56" s="3"/>
       <c r="D56" s="7">
         <f>642.57+224.035</f>
         <v>866.60500000000002</v>
       </c>
-      <c r="F56" s="7">
-        <v>5844.848</v>
-      </c>
-      <c r="G56" s="7">
-        <v>13531.013000000001</v>
-      </c>
-      <c r="H56" s="7">
-        <v>8422.8529999999992</v>
-      </c>
       <c r="I56" s="8"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>15</v>
       </c>
       <c r="B57" s="11">
         <v>1999</v>
       </c>
-      <c r="C57" s="7">
-        <v>3284.3094187949991</v>
-      </c>
+      <c r="C57" s="3"/>
       <c r="D57" s="7">
         <f>593.254+199.435</f>
         <v>792.68900000000008</v>
       </c>
-      <c r="F57" s="7">
-        <v>5784.3459999999995</v>
-      </c>
-      <c r="G57" s="7">
-        <v>16217.342000000001</v>
-      </c>
-      <c r="H57" s="7">
-        <v>7825.3469999999998</v>
-      </c>
       <c r="I57" s="8"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>15</v>
       </c>
       <c r="B58" s="11">
         <v>2000</v>
       </c>
-      <c r="C58" s="7">
-        <v>3677.6053743550001</v>
-      </c>
-      <c r="F58" s="7">
-        <v>7048.3940000000002</v>
-      </c>
-      <c r="G58" s="7">
-        <v>17874.256000000001</v>
-      </c>
-      <c r="H58" s="7">
-        <v>8318.5519999999997</v>
-      </c>
+      <c r="C58" s="3"/>
       <c r="I58" s="8"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>15</v>
       </c>
       <c r="B59" s="11">
         <v>2001</v>
       </c>
-      <c r="C59" s="7">
-        <v>3355.6221511100002</v>
-      </c>
-      <c r="F59" s="7">
-        <v>8277.2360000000008</v>
-      </c>
-      <c r="G59" s="7">
-        <v>17815.11</v>
-      </c>
-      <c r="H59" s="7">
-        <v>8543.8629999999994</v>
-      </c>
+      <c r="C59" s="3"/>
       <c r="I59" s="8"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>15</v>
       </c>
       <c r="B60" s="11">
         <v>2002</v>
       </c>
-      <c r="C60" s="7">
-        <v>3826.0446242099997</v>
-      </c>
-      <c r="F60" s="7">
-        <v>9688.3340000000007</v>
-      </c>
-      <c r="G60" s="7">
-        <v>19542.358</v>
-      </c>
-      <c r="H60" s="7">
-        <v>9458.7469999999994</v>
-      </c>
+      <c r="C60" s="3"/>
       <c r="I60" s="8"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>15</v>
       </c>
@@ -10264,7 +10008,7 @@
       </c>
       <c r="I61" s="8"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>15</v>
       </c>
@@ -10284,8 +10028,20 @@
         <v>2954.6019999999999</v>
       </c>
       <c r="I62" s="8"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62" s="39">
+        <f>AVERAGE(import!C61:C63)</f>
+        <v>859.64031161000003</v>
+      </c>
+      <c r="K62" s="39">
+        <f>AVERAGE(C61:C63)</f>
+        <v>1121.772342445</v>
+      </c>
+      <c r="L62" s="39">
+        <f>K62-J62</f>
+        <v>262.13203083500002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>15</v>
       </c>
@@ -10305,8 +10061,9 @@
         <v>2655.777</v>
       </c>
       <c r="I63" s="8"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L63" s="39"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>25</v>
       </c>
@@ -10318,8 +10075,9 @@
         <v>921.86300000000006</v>
       </c>
       <c r="I64" s="8"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L64" s="39"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>25</v>
       </c>
@@ -10327,8 +10085,9 @@
         <v>2004</v>
       </c>
       <c r="I65" s="8"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L65" s="39"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>25</v>
       </c>
@@ -10336,8 +10095,9 @@
         <v>2005</v>
       </c>
       <c r="I66" s="8"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L66" s="39"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>25</v>
       </c>
@@ -10345,8 +10105,9 @@
         <v>2006</v>
       </c>
       <c r="I67" s="8"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L67" s="39"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>27</v>
       </c>
@@ -10366,8 +10127,9 @@
         <v>2211.817</v>
       </c>
       <c r="I68" s="8"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L68" s="39"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>27</v>
       </c>
@@ -10387,8 +10149,20 @@
         <v>2068.3710000000001</v>
       </c>
       <c r="I69" s="8"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J69" s="39">
+        <f>AVERAGE(import!C68:C70)</f>
+        <v>864.9270302601667</v>
+      </c>
+      <c r="K69" s="39">
+        <f>AVERAGE(C68:C70)</f>
+        <v>891.32963880106661</v>
+      </c>
+      <c r="L69" s="39">
+        <f t="shared" ref="L69:L81" si="0">K69-J69</f>
+        <v>26.402608540899905</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>27</v>
       </c>
@@ -10408,8 +10182,9 @@
         <v>2189.857</v>
       </c>
       <c r="I70" s="8"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L70" s="39"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>27</v>
       </c>
@@ -10417,7 +10192,7 @@
         <v>2006</v>
       </c>
       <c r="C71" s="7">
-        <f t="shared" ref="C71:C76" si="0">D71+E71</f>
+        <f t="shared" ref="C71:C76" si="1">D71+E71</f>
         <v>1348.46</v>
       </c>
       <c r="D71" s="7">
@@ -10436,8 +10211,9 @@
         <v>2868.5459999999998</v>
       </c>
       <c r="I71" s="8"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L71" s="39"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>27</v>
       </c>
@@ -10445,7 +10221,7 @@
         <v>2007</v>
       </c>
       <c r="C72" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1383.578</v>
       </c>
       <c r="D72" s="7">
@@ -10464,8 +10240,20 @@
         <v>2729.8240000000001</v>
       </c>
       <c r="I72" s="8"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J72" s="39">
+        <f>AVERAGE(import!C71:C73)</f>
+        <v>1416.4113333333332</v>
+      </c>
+      <c r="K72" s="39">
+        <f>AVERAGE(C71:C73)</f>
+        <v>1399.8973333333333</v>
+      </c>
+      <c r="L72" s="39">
+        <f t="shared" si="0"/>
+        <v>-16.513999999999896</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>27</v>
       </c>
@@ -10473,7 +10261,7 @@
         <v>2008</v>
       </c>
       <c r="C73" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1467.654</v>
       </c>
       <c r="D73" s="7">
@@ -10492,8 +10280,9 @@
         <v>3540.538</v>
       </c>
       <c r="I73" s="8"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L73" s="39"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>27</v>
       </c>
@@ -10501,7 +10290,7 @@
         <v>2009</v>
       </c>
       <c r="C74" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1115.675</v>
       </c>
       <c r="D74" s="7">
@@ -10520,8 +10309,9 @@
         <v>4285.7719999999999</v>
       </c>
       <c r="I74" s="8"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L74" s="39"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>27</v>
       </c>
@@ -10529,7 +10319,7 @@
         <v>2010</v>
       </c>
       <c r="C75" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1539.069</v>
       </c>
       <c r="D75" s="7">
@@ -10548,8 +10338,20 @@
         <v>5618.5649999999996</v>
       </c>
       <c r="I75" s="8"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J75" s="39">
+        <f>AVERAGE(import!C74:C76)</f>
+        <v>1137.4880000000001</v>
+      </c>
+      <c r="K75" s="39">
+        <f>AVERAGE(C74:C76)</f>
+        <v>1367.8023333333331</v>
+      </c>
+      <c r="L75" s="39">
+        <f t="shared" si="0"/>
+        <v>230.31433333333302</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>27</v>
       </c>
@@ -10557,7 +10359,7 @@
         <v>2011</v>
       </c>
       <c r="C76" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1448.663</v>
       </c>
       <c r="D76" s="7">
@@ -10576,8 +10378,9 @@
         <v>6767.4059999999999</v>
       </c>
       <c r="I76" s="8"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L76" s="39"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>28</v>
       </c>
@@ -10585,7 +10388,7 @@
         <v>2012</v>
       </c>
       <c r="C77" s="7">
-        <f t="shared" ref="C77:C82" si="1">D77+E77</f>
+        <f t="shared" ref="C77:C82" si="2">D77+E77</f>
         <v>1448.3419999999999</v>
       </c>
       <c r="D77" s="7">
@@ -10603,8 +10406,9 @@
       <c r="H77" s="7">
         <v>4086.7570000000001</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L77" s="39"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>28</v>
       </c>
@@ -10612,7 +10416,7 @@
         <v>2013</v>
       </c>
       <c r="C78" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1484.9680000000001</v>
       </c>
       <c r="D78" s="7">
@@ -10630,8 +10434,20 @@
       <c r="H78" s="7">
         <v>4081.2939999999999</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J78" s="39">
+        <f>AVERAGE(import!C77:C79)</f>
+        <v>994.89766666666674</v>
+      </c>
+      <c r="K78" s="39">
+        <f>AVERAGE(C77:C79)</f>
+        <v>1405.0810000000001</v>
+      </c>
+      <c r="L78" s="39">
+        <f t="shared" si="0"/>
+        <v>410.18333333333339</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>28</v>
       </c>
@@ -10639,7 +10455,7 @@
         <v>2014</v>
       </c>
       <c r="C79" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1281.933</v>
       </c>
       <c r="D79" s="7">
@@ -10657,8 +10473,9 @@
       <c r="H79" s="7">
         <v>3610.806</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L79" s="39"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>28</v>
       </c>
@@ -10666,7 +10483,7 @@
         <v>2015</v>
       </c>
       <c r="C80" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1187.539</v>
       </c>
       <c r="D80" s="7">
@@ -10684,6 +10501,7 @@
       <c r="H80" s="7">
         <v>3253.2179999999998</v>
       </c>
+      <c r="L80" s="39"/>
     </row>
     <row r="81" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
@@ -10693,7 +10511,7 @@
         <v>2016</v>
       </c>
       <c r="C81" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1192.2070000000001</v>
       </c>
       <c r="D81" s="7">
@@ -10710,6 +10528,18 @@
       </c>
       <c r="H81" s="7">
         <v>3864.1849999999999</v>
+      </c>
+      <c r="J81" s="39">
+        <f>AVERAGE(import!C80:C82)</f>
+        <v>1289.7</v>
+      </c>
+      <c r="K81" s="39">
+        <f>AVERAGE(C80:C82)</f>
+        <v>1179.4793333333334</v>
+      </c>
+      <c r="L81" s="39">
+        <f t="shared" si="0"/>
+        <v>-110.2206666666666</v>
       </c>
     </row>
     <row r="82" spans="1:73" x14ac:dyDescent="0.25">
@@ -10720,7 +10550,7 @@
         <v>2017</v>
       </c>
       <c r="C82" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1158.692</v>
       </c>
       <c r="D82" s="7">
@@ -12436,7 +12266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46AF0D7-F026-4606-8FE3-F48C9C7C976D}">
   <dimension ref="A1:BX76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/RawData/EU_RawData_VPython.xlsx
+++ b/RawData/EU_RawData_VPython.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souvi\Documents\These\80_Calculations\01_MFA_GlassIndustry\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA97C2AA-EFB5-4F4C-85EA-386D80BE7C62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6704EDD0-2573-48B4-AA28-6363BD0CF4B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="2" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
   </bookViews>
@@ -318,7 +318,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="C62" authorId="0" shapeId="0" xr:uid="{61C0B995-E6D9-4B62-83E8-128177F7111C}">
+    <comment ref="C62" authorId="0" shapeId="0" xr:uid="{ABA1165A-04A7-4E70-BB9B-891205CF7634}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PRODCOM, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C63" authorId="0" shapeId="0" xr:uid="{86F0C66A-9D33-4161-8B74-9A88C4258AD7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PRODCOM, Eurostat, 2020</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C64" authorId="0" shapeId="0" xr:uid="{06079FF0-F391-474A-92DD-8AB76D15EB4C}">
       <text>
         <r>
           <rPr>
@@ -331,7 +357,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C63" authorId="0" shapeId="0" xr:uid="{3420A8DA-86CD-461C-B5EF-E5E341F66904}">
+    <comment ref="C65" authorId="0" shapeId="0" xr:uid="{63DC345D-894D-4762-BAE5-B5F6842FA5D7}">
       <text>
         <r>
           <rPr>
@@ -344,7 +370,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C64" authorId="0" shapeId="0" xr:uid="{E2E6B502-5E11-486A-B7F5-F7D2D1A61F18}">
+    <comment ref="C66" authorId="0" shapeId="0" xr:uid="{7DC06089-8053-4DB1-A5ED-89B24AB09D0D}">
       <text>
         <r>
           <rPr>
@@ -357,72 +383,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C65" authorId="0" shapeId="0" xr:uid="{ABA1165A-04A7-4E70-BB9B-891205CF7634}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PRODCOM, Eurostat, 2020</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C66" authorId="0" shapeId="0" xr:uid="{86F0C66A-9D33-4161-8B74-9A88C4258AD7}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PRODCOM, Eurostat, 2020</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C67" authorId="0" shapeId="0" xr:uid="{06079FF0-F391-474A-92DD-8AB76D15EB4C}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>"EU-27 glass industry 2007", Verre, vol. 14, n° 4, August 2008, p. 14-6</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C68" authorId="0" shapeId="0" xr:uid="{63DC345D-894D-4762-BAE5-B5F6842FA5D7}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>"EU-27 glass industry 2007", Verre, vol. 14, n° 4, August 2008, p. 14-6</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C69" authorId="0" shapeId="0" xr:uid="{7DC06089-8053-4DB1-A5ED-89B24AB09D0D}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>"EU-27 glass industry 2007", Verre, vol. 14, n° 4, August 2008, p. 14-6</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C70" authorId="0" shapeId="0" xr:uid="{C54884A4-57A8-405A-AD39-2A87F9480410}">
+    <comment ref="C67" authorId="0" shapeId="0" xr:uid="{C54884A4-57A8-405A-AD39-2A87F9480410}">
       <text>
         <r>
           <rPr>
@@ -435,7 +396,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C71" authorId="0" shapeId="0" xr:uid="{16444560-60C6-4C97-80F2-6D350FD378B9}">
+    <comment ref="C68" authorId="0" shapeId="0" xr:uid="{16444560-60C6-4C97-80F2-6D350FD378B9}">
       <text>
         <r>
           <rPr>
@@ -448,7 +409,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C72" authorId="0" shapeId="0" xr:uid="{609C0CB6-A79E-4EC0-B78B-D9A591E2D528}">
+    <comment ref="C69" authorId="0" shapeId="0" xr:uid="{609C0CB6-A79E-4EC0-B78B-D9A591E2D528}">
       <text>
         <r>
           <rPr>
@@ -461,7 +422,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C73" authorId="0" shapeId="0" xr:uid="{C2D64CB9-6768-4672-B9C2-D7DDC36BF91C}">
+    <comment ref="C70" authorId="0" shapeId="0" xr:uid="{C2D64CB9-6768-4672-B9C2-D7DDC36BF91C}">
       <text>
         <r>
           <rPr>
@@ -474,7 +435,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C74" authorId="0" shapeId="0" xr:uid="{7266362F-CE0F-4A8A-B31C-4BB1A3655F29}">
+    <comment ref="C71" authorId="0" shapeId="0" xr:uid="{7266362F-CE0F-4A8A-B31C-4BB1A3655F29}">
       <text>
         <r>
           <rPr>
@@ -487,7 +448,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D74" authorId="0" shapeId="0" xr:uid="{9F265CDE-4355-48C3-9184-2FC192F796F5}">
+    <comment ref="D71" authorId="0" shapeId="0" xr:uid="{9F265CDE-4355-48C3-9184-2FC192F796F5}">
       <text>
         <r>
           <rPr>
@@ -500,7 +461,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C75" authorId="0" shapeId="0" xr:uid="{1566FB03-5421-4053-856B-37728392DA6A}">
+    <comment ref="C72" authorId="0" shapeId="0" xr:uid="{1566FB03-5421-4053-856B-37728392DA6A}">
       <text>
         <r>
           <rPr>
@@ -513,7 +474,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C76" authorId="0" shapeId="0" xr:uid="{04957374-FADF-46A2-A36D-5F0000E93D45}">
+    <comment ref="C73" authorId="0" shapeId="0" xr:uid="{04957374-FADF-46A2-A36D-5F0000E93D45}">
       <text>
         <r>
           <rPr>
@@ -526,7 +487,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D76" authorId="0" shapeId="0" xr:uid="{89DCC878-CC58-40F4-84F3-96CD2E75B16C}">
+    <comment ref="D73" authorId="0" shapeId="0" xr:uid="{89DCC878-CC58-40F4-84F3-96CD2E75B16C}">
       <text>
         <r>
           <rPr>
@@ -539,7 +500,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C77" authorId="0" shapeId="0" xr:uid="{AFC55CD5-7ABF-4C88-A904-6818D97FBE7D}">
+    <comment ref="C74" authorId="0" shapeId="0" xr:uid="{AFC55CD5-7ABF-4C88-A904-6818D97FBE7D}">
       <text>
         <r>
           <rPr>
@@ -552,7 +513,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C78" authorId="0" shapeId="0" xr:uid="{E3C9A90F-913A-4472-81F0-E7FCE402BC5C}">
+    <comment ref="C75" authorId="0" shapeId="0" xr:uid="{E3C9A90F-913A-4472-81F0-E7FCE402BC5C}">
       <text>
         <r>
           <rPr>
@@ -565,7 +526,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C79" authorId="0" shapeId="0" xr:uid="{F84571EB-B01E-42E4-8975-7C5D1CF35C05}">
+    <comment ref="C76" authorId="0" shapeId="0" xr:uid="{F84571EB-B01E-42E4-8975-7C5D1CF35C05}">
       <text>
         <r>
           <rPr>
@@ -578,7 +539,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C80" authorId="0" shapeId="0" xr:uid="{58526606-2914-4328-90D3-CB9AD6D547DF}">
+    <comment ref="C77" authorId="0" shapeId="0" xr:uid="{58526606-2914-4328-90D3-CB9AD6D547DF}">
       <text>
         <r>
           <rPr>
@@ -591,7 +552,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D80" authorId="0" shapeId="0" xr:uid="{3090E952-025D-4482-89E6-80FD7B080CB1}">
+    <comment ref="D77" authorId="0" shapeId="0" xr:uid="{3090E952-025D-4482-89E6-80FD7B080CB1}">
       <text>
         <r>
           <rPr>
@@ -605,7 +566,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C81" authorId="0" shapeId="0" xr:uid="{AE1B76E1-63E4-4BE0-A1EC-B4D9B663AEBD}">
+    <comment ref="C78" authorId="0" shapeId="0" xr:uid="{AE1B76E1-63E4-4BE0-A1EC-B4D9B663AEBD}">
       <text>
         <r>
           <rPr>
@@ -619,7 +580,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D81" authorId="0" shapeId="0" xr:uid="{EAB8E431-D9B5-4B77-AF38-06614AEBF635}">
+    <comment ref="D78" authorId="0" shapeId="0" xr:uid="{EAB8E431-D9B5-4B77-AF38-06614AEBF635}">
       <text>
         <r>
           <rPr>
@@ -772,7 +733,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C61" authorId="0" shapeId="0" xr:uid="{3E80839C-5321-4543-BFB9-8D10322B7607}">
+    <comment ref="C62" authorId="0" shapeId="0" xr:uid="{42B011F6-32EB-4A59-B47F-0E7511916AB8}">
       <text>
         <r>
           <rPr>
@@ -785,33 +746,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C62" authorId="0" shapeId="0" xr:uid="{532B329C-8697-4D3E-BDAC-F9326DC57D26}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PRODCOM, Eurostat, 2020</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C63" authorId="0" shapeId="0" xr:uid="{63646367-D2FD-4E9F-963A-37B6F657DC90}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PRODCOM, Eurostat, 2020</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D64" authorId="0" shapeId="0" xr:uid="{0ECBAB56-5171-4FD8-8583-BA3C4DACF07F}">
+    <comment ref="D62" authorId="0" shapeId="0" xr:uid="{0ECBAB56-5171-4FD8-8583-BA3C4DACF07F}">
       <text>
         <r>
           <rPr>
@@ -825,7 +760,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C68" authorId="0" shapeId="0" xr:uid="{42B011F6-32EB-4A59-B47F-0E7511916AB8}">
+    <comment ref="C63" authorId="0" shapeId="0" xr:uid="{D865F151-E977-47B9-8553-F2DCB8DC12F4}">
       <text>
         <r>
           <rPr>
@@ -838,7 +773,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C69" authorId="0" shapeId="0" xr:uid="{D865F151-E977-47B9-8553-F2DCB8DC12F4}">
+    <comment ref="C64" authorId="0" shapeId="0" xr:uid="{FC8C7925-D2E6-47CF-ADFE-33FDE152CE09}">
       <text>
         <r>
           <rPr>
@@ -851,20 +786,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C70" authorId="0" shapeId="0" xr:uid="{FC8C7925-D2E6-47CF-ADFE-33FDE152CE09}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PRODCOM, Eurostat, 2020</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D71" authorId="0" shapeId="0" xr:uid="{6DCF18C4-CF40-4C9F-AB01-A03DC29900C1}">
+    <comment ref="D65" authorId="0" shapeId="0" xr:uid="{6DCF18C4-CF40-4C9F-AB01-A03DC29900C1}">
       <text>
         <r>
           <rPr>
@@ -877,7 +799,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E71" authorId="0" shapeId="0" xr:uid="{894BAE6B-2FEB-494D-B07A-7E7A7D85DA2C}">
+    <comment ref="E65" authorId="0" shapeId="0" xr:uid="{894BAE6B-2FEB-494D-B07A-7E7A7D85DA2C}">
       <text>
         <r>
           <rPr>
@@ -890,7 +812,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D72" authorId="0" shapeId="0" xr:uid="{D9E70016-A292-45D5-ABFB-ED6C209D1A54}">
+    <comment ref="D66" authorId="0" shapeId="0" xr:uid="{D9E70016-A292-45D5-ABFB-ED6C209D1A54}">
       <text>
         <r>
           <rPr>
@@ -903,7 +825,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E72" authorId="0" shapeId="0" xr:uid="{0DAD9C07-AD8B-44E1-96BD-B7F1FD788A20}">
+    <comment ref="E66" authorId="0" shapeId="0" xr:uid="{0DAD9C07-AD8B-44E1-96BD-B7F1FD788A20}">
       <text>
         <r>
           <rPr>
@@ -1042,7 +964,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C61" authorId="0" shapeId="0" xr:uid="{AF3A0F54-9D58-4EBB-BB31-5F37D6133D15}">
+    <comment ref="C62" authorId="0" shapeId="0" xr:uid="{3CB5E35A-94E9-4DF3-BCE6-888692D98EF9}">
       <text>
         <r>
           <rPr>
@@ -1055,33 +977,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C62" authorId="0" shapeId="0" xr:uid="{7A5E9FF7-3275-42ED-BA8A-0183A5D85528}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PRODCOM, Eurostat, 2020</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C63" authorId="0" shapeId="0" xr:uid="{2F9F27B2-CFC7-47C6-AB3A-03ED61E6681A}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PRODCOM, Eurostat, 2020</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D64" authorId="0" shapeId="0" xr:uid="{2DD9C977-7E7F-4630-9FF0-497CA83A0C3A}">
+    <comment ref="D62" authorId="0" shapeId="0" xr:uid="{2DD9C977-7E7F-4630-9FF0-497CA83A0C3A}">
       <text>
         <r>
           <rPr>
@@ -1096,7 +992,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C68" authorId="0" shapeId="0" xr:uid="{3CB5E35A-94E9-4DF3-BCE6-888692D98EF9}">
+    <comment ref="C63" authorId="0" shapeId="0" xr:uid="{91F16BAA-1572-4EA7-AEC8-685B78F92F45}">
       <text>
         <r>
           <rPr>
@@ -1109,7 +1005,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C69" authorId="0" shapeId="0" xr:uid="{91F16BAA-1572-4EA7-AEC8-685B78F92F45}">
+    <comment ref="C64" authorId="0" shapeId="0" xr:uid="{58145A59-CA3F-408D-94A8-38F8FA561B3E}">
       <text>
         <r>
           <rPr>
@@ -1122,20 +1018,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C70" authorId="0" shapeId="0" xr:uid="{58145A59-CA3F-408D-94A8-38F8FA561B3E}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PRODCOM, Eurostat, 2020</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D71" authorId="0" shapeId="0" xr:uid="{816167FF-0B5F-42BE-A8BD-5F96791C722A}">
+    <comment ref="D65" authorId="0" shapeId="0" xr:uid="{816167FF-0B5F-42BE-A8BD-5F96791C722A}">
       <text>
         <r>
           <rPr>
@@ -1148,7 +1031,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E71" authorId="0" shapeId="0" xr:uid="{0003E6B0-B7EF-4880-89DA-F546D6B9AE2B}">
+    <comment ref="E65" authorId="0" shapeId="0" xr:uid="{0003E6B0-B7EF-4880-89DA-F546D6B9AE2B}">
       <text>
         <r>
           <rPr>
@@ -1161,7 +1044,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D72" authorId="0" shapeId="0" xr:uid="{4268157F-E551-4D1D-BCBD-1B6904ECB103}">
+    <comment ref="D66" authorId="0" shapeId="0" xr:uid="{4268157F-E551-4D1D-BCBD-1B6904ECB103}">
       <text>
         <r>
           <rPr>
@@ -1174,7 +1057,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E72" authorId="0" shapeId="0" xr:uid="{27945D53-9EE0-4742-A0CF-637ECCF5FC7F}">
+    <comment ref="E66" authorId="0" shapeId="0" xr:uid="{27945D53-9EE0-4742-A0CF-637ECCF5FC7F}">
       <text>
         <r>
           <rPr>
@@ -5298,13 +5181,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D014A44-A0D2-41E4-AD5D-2CB29E224E01}">
-  <dimension ref="A1:BT105"/>
+  <dimension ref="A1:BT102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K63" sqref="K63"/>
+      <selection pane="bottomRight" activeCell="J75" sqref="J75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6743,18 +6626,24 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B62" s="11">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C62" s="20">
-        <v>9220</v>
-      </c>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
+        <v>8691.1670157000008</v>
+      </c>
+      <c r="D62" s="50"/>
+      <c r="E62" s="23">
+        <v>113192.66800000001</v>
+      </c>
+      <c r="F62" s="23">
+        <v>68405.209000000003</v>
+      </c>
+      <c r="G62" s="23">
+        <v>55565.65</v>
+      </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
@@ -6766,15 +6655,15 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B63" s="11">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C63" s="20">
-        <v>9372</v>
-      </c>
-      <c r="D63" s="23"/>
+        <v>10382.656077550002</v>
+      </c>
+      <c r="D63" s="50"/>
       <c r="E63" s="23"/>
       <c r="F63" s="23"/>
       <c r="G63" s="23"/>
@@ -6789,18 +6678,24 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B64" s="11">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C64" s="20">
-        <v>9605</v>
-      </c>
-      <c r="D64" s="23"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="23"/>
+        <v>9692</v>
+      </c>
+      <c r="D64" s="50"/>
+      <c r="E64" s="23">
+        <v>121769.47</v>
+      </c>
+      <c r="F64" s="23">
+        <v>80093.182000000001</v>
+      </c>
+      <c r="G64" s="23">
+        <v>55642.788999999997</v>
+      </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
@@ -6810,25 +6705,25 @@
       <c r="O64" s="8"/>
       <c r="P64" s="8"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>27</v>
       </c>
       <c r="B65" s="11">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="C65" s="20">
-        <v>8691.1670157000008</v>
+        <v>9981</v>
       </c>
       <c r="D65" s="50"/>
       <c r="E65" s="23">
-        <v>113192.66800000001</v>
+        <v>142026.62299999999</v>
       </c>
       <c r="F65" s="23">
-        <v>68405.209000000003</v>
+        <v>97098.35</v>
       </c>
       <c r="G65" s="23">
-        <v>55565.65</v>
+        <v>64801.589</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
@@ -6839,25 +6734,25 @@
       <c r="O65" s="8"/>
       <c r="P65" s="8"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>27</v>
       </c>
       <c r="B66" s="11">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="C66" s="20">
-        <v>10382.656077550002</v>
+        <v>10261.653</v>
       </c>
       <c r="D66" s="50"/>
       <c r="E66" s="23">
-        <v>181005.50700000001</v>
+        <v>148000</v>
       </c>
       <c r="F66" s="23">
-        <v>73752.312000000005</v>
+        <v>101911.291</v>
       </c>
       <c r="G66" s="23">
-        <v>59086.072999999997</v>
+        <v>65669.297000000006</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
@@ -6868,25 +6763,25 @@
       <c r="O66" s="8"/>
       <c r="P66" s="8"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>27</v>
       </c>
       <c r="B67" s="11">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="C67" s="20">
-        <v>9692</v>
+        <v>9865</v>
       </c>
       <c r="D67" s="50"/>
       <c r="E67" s="23">
-        <v>121769.47</v>
+        <v>136000</v>
       </c>
       <c r="F67" s="23">
-        <v>80093.182000000001</v>
+        <v>107679.027</v>
       </c>
       <c r="G67" s="23">
-        <v>55642.788999999997</v>
+        <v>56321.105000000003</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
@@ -6897,25 +6792,25 @@
       <c r="O67" s="8"/>
       <c r="P67" s="8"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>27</v>
       </c>
       <c r="B68" s="11">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="C68" s="20">
-        <v>9981</v>
+        <v>8965</v>
       </c>
       <c r="D68" s="50"/>
       <c r="E68" s="23">
-        <v>142026.62299999999</v>
+        <v>118000</v>
       </c>
       <c r="F68" s="23">
-        <v>97098.35</v>
+        <v>88115.28</v>
       </c>
       <c r="G68" s="23">
-        <v>64801.589</v>
+        <v>50145.05</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
@@ -6926,25 +6821,25 @@
       <c r="O68" s="8"/>
       <c r="P68" s="8"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>27</v>
       </c>
       <c r="B69" s="11">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="C69" s="20">
-        <v>10261.653</v>
+        <v>10099</v>
       </c>
       <c r="D69" s="50"/>
       <c r="E69" s="23">
-        <v>148000</v>
+        <v>120000</v>
       </c>
       <c r="F69" s="23">
-        <v>101911.291</v>
+        <v>76946.489000000001</v>
       </c>
       <c r="G69" s="23">
-        <v>65669.297000000006</v>
+        <v>52428.658000000003</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
@@ -6955,25 +6850,25 @@
       <c r="O69" s="8"/>
       <c r="P69" s="8"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>27</v>
       </c>
       <c r="B70" s="11">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="C70" s="20">
-        <v>9865</v>
+        <v>10293</v>
       </c>
       <c r="D70" s="50"/>
       <c r="E70" s="23">
-        <v>136000</v>
+        <v>120000</v>
       </c>
       <c r="F70" s="23">
-        <v>107679.027</v>
+        <v>81032.27</v>
       </c>
       <c r="G70" s="23">
-        <v>56321.105000000003</v>
+        <v>62346.044000000002</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
@@ -6984,25 +6879,27 @@
       <c r="O70" s="8"/>
       <c r="P70" s="8"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B71" s="11">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="C71" s="20">
-        <v>8965</v>
-      </c>
-      <c r="D71" s="50"/>
+        <v>9216</v>
+      </c>
+      <c r="D71" s="24">
+        <v>0.8</v>
+      </c>
       <c r="E71" s="23">
-        <v>118000</v>
+        <v>112904.86900000001</v>
       </c>
       <c r="F71" s="23">
-        <v>88115.28</v>
+        <v>77789.354000000007</v>
       </c>
       <c r="G71" s="23">
-        <v>50145.05</v>
+        <v>62604.678</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
@@ -7013,25 +6910,25 @@
       <c r="O71" s="8"/>
       <c r="P71" s="8"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B72" s="11">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="C72" s="20">
-        <v>10099</v>
-      </c>
-      <c r="D72" s="50"/>
+        <v>8893</v>
+      </c>
+      <c r="D72" s="23"/>
       <c r="E72" s="23">
-        <v>120000</v>
+        <v>105000</v>
       </c>
       <c r="F72" s="23">
-        <v>76946.489000000001</v>
+        <v>75012.630999999994</v>
       </c>
       <c r="G72" s="23">
-        <v>52428.658000000003</v>
+        <v>56927.894</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
@@ -7042,25 +6939,27 @@
       <c r="O72" s="8"/>
       <c r="P72" s="8"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B73" s="11">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="C73" s="20">
-        <v>10293</v>
-      </c>
-      <c r="D73" s="50"/>
+        <v>9284</v>
+      </c>
+      <c r="D73" s="24">
+        <v>0.82</v>
+      </c>
       <c r="E73" s="23">
-        <v>120000</v>
+        <v>110466.864</v>
       </c>
       <c r="F73" s="23">
-        <v>81032.27</v>
+        <v>93402.23</v>
       </c>
       <c r="G73" s="23">
-        <v>62346.044000000002</v>
+        <v>58911</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
@@ -7071,27 +6970,25 @@
       <c r="O73" s="8"/>
       <c r="P73" s="8"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>28</v>
       </c>
       <c r="B74" s="11">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="C74" s="20">
-        <v>9216</v>
-      </c>
-      <c r="D74" s="24">
-        <v>0.8</v>
-      </c>
+        <v>9641</v>
+      </c>
+      <c r="D74" s="23"/>
       <c r="E74" s="23">
-        <v>112904.86900000001</v>
+        <v>116000</v>
       </c>
       <c r="F74" s="23">
-        <v>77789.354000000007</v>
+        <v>94520.953999999998</v>
       </c>
       <c r="G74" s="23">
-        <v>62604.678</v>
+        <v>57000</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
@@ -7102,25 +6999,25 @@
       <c r="O74" s="8"/>
       <c r="P74" s="8"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>28</v>
       </c>
       <c r="B75" s="11">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="C75" s="20">
-        <v>8893</v>
+        <v>9835</v>
       </c>
       <c r="D75" s="23"/>
       <c r="E75" s="23">
-        <v>105000</v>
+        <v>114000</v>
       </c>
       <c r="F75" s="23">
-        <v>75012.630999999994</v>
+        <v>85681.248000000007</v>
       </c>
       <c r="G75" s="23">
-        <v>56927.894</v>
+        <v>55864.315999999999</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
@@ -7131,28 +7028,27 @@
       <c r="O75" s="8"/>
       <c r="P75" s="8"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>28</v>
       </c>
       <c r="B76" s="11">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="C76" s="20">
-        <v>9284</v>
-      </c>
-      <c r="D76" s="24">
-        <v>0.82</v>
-      </c>
+        <v>10665</v>
+      </c>
+      <c r="D76" s="23"/>
       <c r="E76" s="23">
-        <v>110466.864</v>
+        <v>121600</v>
       </c>
       <c r="F76" s="23">
-        <v>93402.23</v>
+        <v>86735.168000000005</v>
       </c>
       <c r="G76" s="23">
-        <v>58911</v>
-      </c>
+        <v>57552.178</v>
+      </c>
+      <c r="H76" s="8"/>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
@@ -7162,26 +7058,29 @@
       <c r="O76" s="8"/>
       <c r="P76" s="8"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>28</v>
       </c>
       <c r="B77" s="11">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="C77" s="20">
-        <v>9641</v>
-      </c>
-      <c r="D77" s="23"/>
+        <v>10643</v>
+      </c>
+      <c r="D77" s="24">
+        <v>0.8</v>
+      </c>
       <c r="E77" s="23">
-        <v>116000</v>
+        <v>117011.436</v>
       </c>
       <c r="F77" s="23">
-        <v>94520.953999999998</v>
+        <v>84718.142999999996</v>
       </c>
       <c r="G77" s="23">
-        <v>57000</v>
-      </c>
+        <v>50337.612999999998</v>
+      </c>
+      <c r="H77" s="8"/>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
@@ -7191,26 +7090,29 @@
       <c r="O77" s="8"/>
       <c r="P77" s="8"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>28</v>
       </c>
       <c r="B78" s="11">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="C78" s="20">
-        <v>9835</v>
-      </c>
-      <c r="D78" s="23"/>
+        <v>10840</v>
+      </c>
+      <c r="D78" s="24">
+        <v>0.8</v>
+      </c>
       <c r="E78" s="23">
-        <v>114000</v>
+        <v>121061.246</v>
       </c>
       <c r="F78" s="23">
-        <v>85681.248000000007</v>
+        <v>95316.274000000005</v>
       </c>
       <c r="G78" s="23">
-        <v>55864.315999999999</v>
-      </c>
+        <v>51128.069000000003</v>
+      </c>
+      <c r="H78" s="8"/>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
@@ -7220,112 +7122,3118 @@
       <c r="O78" s="8"/>
       <c r="P78" s="8"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
-        <v>28</v>
-      </c>
-      <c r="B79" s="11">
-        <v>2017</v>
-      </c>
-      <c r="C79" s="20">
-        <v>10665</v>
-      </c>
+    <row r="79" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="30"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="8"/>
       <c r="D79" s="23"/>
-      <c r="E79" s="23">
-        <v>121600</v>
-      </c>
-      <c r="F79" s="23">
-        <v>86735.168000000005</v>
-      </c>
-      <c r="G79" s="23">
-        <v>57552.178</v>
-      </c>
+      <c r="E79" s="23"/>
+      <c r="F79" s="23"/>
       <c r="H79" s="8"/>
       <c r="I79" s="8"/>
-      <c r="J79" s="8"/>
-      <c r="K79" s="8"/>
-      <c r="L79" s="8"/>
       <c r="M79" s="8"/>
       <c r="N79" s="8"/>
       <c r="O79" s="8"/>
-      <c r="P79" s="8"/>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
-        <v>28</v>
-      </c>
-      <c r="B80" s="11">
-        <v>2018</v>
-      </c>
-      <c r="C80" s="20">
-        <v>10643</v>
-      </c>
-      <c r="D80" s="24">
-        <v>0.8</v>
-      </c>
-      <c r="E80" s="23">
-        <v>117011.436</v>
-      </c>
-      <c r="F80" s="23">
-        <v>84718.142999999996</v>
-      </c>
-      <c r="G80" s="23">
-        <v>50337.612999999998</v>
-      </c>
+      <c r="Q79" s="6"/>
+      <c r="R79" s="6"/>
+      <c r="S79" s="6"/>
+      <c r="T79" s="6"/>
+      <c r="U79" s="6"/>
+      <c r="V79" s="6"/>
+      <c r="W79" s="6"/>
+      <c r="X79" s="6"/>
+      <c r="Y79" s="6"/>
+      <c r="Z79" s="6"/>
+      <c r="AA79" s="6"/>
+      <c r="AB79" s="6"/>
+      <c r="AC79" s="6"/>
+      <c r="AD79" s="6"/>
+      <c r="AE79" s="6"/>
+      <c r="AF79" s="6"/>
+      <c r="AG79" s="6"/>
+      <c r="AH79" s="6"/>
+      <c r="AI79" s="6"/>
+      <c r="AJ79" s="6"/>
+      <c r="AK79" s="6"/>
+      <c r="AL79" s="6"/>
+      <c r="AM79" s="6"/>
+      <c r="AN79" s="6"/>
+      <c r="AO79" s="6"/>
+      <c r="AP79" s="6"/>
+      <c r="AQ79" s="6"/>
+      <c r="AR79" s="6"/>
+      <c r="AS79" s="6"/>
+      <c r="AT79" s="6"/>
+      <c r="AU79" s="6"/>
+      <c r="AV79" s="6"/>
+      <c r="AW79" s="6"/>
+      <c r="AX79" s="6"/>
+      <c r="AY79" s="6"/>
+      <c r="AZ79" s="6"/>
+      <c r="BA79" s="6"/>
+      <c r="BB79" s="6"/>
+      <c r="BC79" s="6"/>
+      <c r="BD79" s="6"/>
+      <c r="BE79" s="6"/>
+      <c r="BF79" s="6"/>
+      <c r="BG79" s="6"/>
+      <c r="BH79" s="6"/>
+      <c r="BI79" s="6"/>
+      <c r="BJ79" s="6"/>
+      <c r="BK79" s="6"/>
+      <c r="BL79" s="6"/>
+      <c r="BM79" s="6"/>
+      <c r="BN79" s="6"/>
+      <c r="BO79" s="6"/>
+      <c r="BP79" s="6"/>
+      <c r="BQ79" s="6"/>
+      <c r="BR79" s="6"/>
+      <c r="BS79" s="6"/>
+      <c r="BT79" s="6"/>
+    </row>
+    <row r="80" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="30"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="23"/>
       <c r="H80" s="8"/>
       <c r="I80" s="8"/>
-      <c r="J80" s="8"/>
-      <c r="K80" s="8"/>
-      <c r="L80" s="8"/>
       <c r="M80" s="8"/>
       <c r="N80" s="8"/>
       <c r="O80" s="8"/>
-      <c r="P80" s="8"/>
-    </row>
-    <row r="81" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
-        <v>28</v>
-      </c>
-      <c r="B81" s="11">
-        <v>2019</v>
-      </c>
-      <c r="C81" s="20">
-        <v>10840</v>
-      </c>
-      <c r="D81" s="24">
-        <v>0.8</v>
-      </c>
-      <c r="E81" s="23">
-        <v>121061.246</v>
-      </c>
-      <c r="F81" s="23">
-        <v>95316.274000000005</v>
-      </c>
-      <c r="G81" s="23">
-        <v>51128.069000000003</v>
-      </c>
+      <c r="Q80" s="6"/>
+      <c r="R80" s="6"/>
+      <c r="S80" s="6"/>
+      <c r="T80" s="6"/>
+      <c r="U80" s="6"/>
+      <c r="V80" s="6"/>
+      <c r="W80" s="6"/>
+      <c r="X80" s="6"/>
+      <c r="Y80" s="6"/>
+      <c r="Z80" s="6"/>
+      <c r="AA80" s="6"/>
+      <c r="AB80" s="6"/>
+      <c r="AC80" s="6"/>
+      <c r="AD80" s="6"/>
+      <c r="AE80" s="6"/>
+      <c r="AF80" s="6"/>
+      <c r="AG80" s="6"/>
+      <c r="AH80" s="6"/>
+      <c r="AI80" s="6"/>
+      <c r="AJ80" s="6"/>
+      <c r="AK80" s="6"/>
+      <c r="AL80" s="6"/>
+      <c r="AM80" s="6"/>
+      <c r="AN80" s="6"/>
+      <c r="AO80" s="6"/>
+      <c r="AP80" s="6"/>
+      <c r="AQ80" s="6"/>
+      <c r="AR80" s="6"/>
+      <c r="AS80" s="6"/>
+      <c r="AT80" s="6"/>
+      <c r="AU80" s="6"/>
+      <c r="AV80" s="6"/>
+      <c r="AW80" s="6"/>
+      <c r="AX80" s="6"/>
+      <c r="AY80" s="6"/>
+      <c r="AZ80" s="6"/>
+      <c r="BA80" s="6"/>
+      <c r="BB80" s="6"/>
+      <c r="BC80" s="6"/>
+      <c r="BD80" s="6"/>
+      <c r="BE80" s="6"/>
+      <c r="BF80" s="6"/>
+      <c r="BG80" s="6"/>
+      <c r="BH80" s="6"/>
+      <c r="BI80" s="6"/>
+      <c r="BJ80" s="6"/>
+      <c r="BK80" s="6"/>
+      <c r="BL80" s="6"/>
+      <c r="BM80" s="6"/>
+      <c r="BN80" s="6"/>
+      <c r="BO80" s="6"/>
+      <c r="BP80" s="6"/>
+      <c r="BQ80" s="6"/>
+      <c r="BR80" s="6"/>
+      <c r="BS80" s="6"/>
+      <c r="BT80" s="6"/>
+    </row>
+    <row r="81" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="30"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="8"/>
+      <c r="E81" s="8"/>
       <c r="H81" s="8"/>
       <c r="I81" s="8"/>
-      <c r="J81" s="8"/>
-      <c r="K81" s="8"/>
-      <c r="L81" s="8"/>
       <c r="M81" s="8"/>
       <c r="N81" s="8"/>
       <c r="O81" s="8"/>
-      <c r="P81" s="8"/>
-    </row>
-    <row r="82" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q81" s="6"/>
+      <c r="R81" s="6"/>
+      <c r="S81" s="6"/>
+      <c r="T81" s="6"/>
+      <c r="U81" s="6"/>
+      <c r="V81" s="6"/>
+      <c r="W81" s="6"/>
+      <c r="X81" s="6"/>
+      <c r="Y81" s="6"/>
+      <c r="Z81" s="6"/>
+      <c r="AA81" s="6"/>
+      <c r="AB81" s="6"/>
+      <c r="AC81" s="6"/>
+      <c r="AD81" s="6"/>
+      <c r="AE81" s="6"/>
+      <c r="AF81" s="6"/>
+      <c r="AG81" s="6"/>
+      <c r="AH81" s="6"/>
+      <c r="AI81" s="6"/>
+      <c r="AJ81" s="6"/>
+      <c r="AK81" s="6"/>
+      <c r="AL81" s="6"/>
+      <c r="AM81" s="6"/>
+      <c r="AN81" s="6"/>
+      <c r="AO81" s="6"/>
+      <c r="AP81" s="6"/>
+      <c r="AQ81" s="6"/>
+      <c r="AR81" s="6"/>
+      <c r="AS81" s="6"/>
+      <c r="AT81" s="6"/>
+      <c r="AU81" s="6"/>
+      <c r="AV81" s="6"/>
+      <c r="AW81" s="6"/>
+      <c r="AX81" s="6"/>
+      <c r="AY81" s="6"/>
+      <c r="AZ81" s="6"/>
+      <c r="BA81" s="6"/>
+      <c r="BB81" s="6"/>
+      <c r="BC81" s="6"/>
+      <c r="BD81" s="6"/>
+      <c r="BE81" s="6"/>
+      <c r="BF81" s="6"/>
+      <c r="BG81" s="6"/>
+      <c r="BH81" s="6"/>
+      <c r="BI81" s="6"/>
+      <c r="BJ81" s="6"/>
+      <c r="BK81" s="6"/>
+      <c r="BL81" s="6"/>
+      <c r="BM81" s="6"/>
+      <c r="BN81" s="6"/>
+      <c r="BO81" s="6"/>
+      <c r="BP81" s="6"/>
+      <c r="BQ81" s="6"/>
+      <c r="BR81" s="6"/>
+      <c r="BS81" s="6"/>
+      <c r="BT81" s="6"/>
+    </row>
+    <row r="82" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="D82" s="56"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+    </row>
+    <row r="83" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+    </row>
+    <row r="84" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A84" s="30"/>
+    </row>
+    <row r="85" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A85" s="30"/>
+    </row>
+    <row r="86" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A86" s="30"/>
+      <c r="E86" s="22"/>
+    </row>
+    <row r="87" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="E87" s="22"/>
+    </row>
+    <row r="88" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="10"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="8"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="9"/>
+      <c r="Q88" s="6"/>
+      <c r="R88" s="6"/>
+      <c r="S88" s="6"/>
+      <c r="T88" s="6"/>
+      <c r="U88" s="6"/>
+      <c r="V88" s="6"/>
+      <c r="W88" s="6"/>
+      <c r="X88" s="6"/>
+      <c r="Y88" s="6"/>
+      <c r="Z88" s="6"/>
+      <c r="AA88" s="6"/>
+      <c r="AB88" s="6"/>
+      <c r="AC88" s="6"/>
+      <c r="AD88" s="6"/>
+      <c r="AE88" s="6"/>
+      <c r="AF88" s="6"/>
+      <c r="AG88" s="6"/>
+      <c r="AH88" s="6"/>
+      <c r="AI88" s="6"/>
+      <c r="AJ88" s="6"/>
+      <c r="AK88" s="6"/>
+      <c r="AL88" s="6"/>
+      <c r="AM88" s="6"/>
+      <c r="AN88" s="6"/>
+      <c r="AO88" s="6"/>
+      <c r="AP88" s="6"/>
+      <c r="AQ88" s="6"/>
+      <c r="AR88" s="6"/>
+      <c r="AS88" s="6"/>
+      <c r="AT88" s="6"/>
+      <c r="AU88" s="6"/>
+      <c r="AV88" s="6"/>
+      <c r="AW88" s="6"/>
+      <c r="AX88" s="6"/>
+      <c r="AY88" s="6"/>
+      <c r="AZ88" s="6"/>
+      <c r="BA88" s="6"/>
+      <c r="BB88" s="6"/>
+      <c r="BC88" s="6"/>
+      <c r="BD88" s="6"/>
+      <c r="BE88" s="6"/>
+      <c r="BF88" s="6"/>
+      <c r="BG88" s="6"/>
+      <c r="BH88" s="6"/>
+      <c r="BI88" s="6"/>
+      <c r="BJ88" s="6"/>
+      <c r="BK88" s="6"/>
+      <c r="BL88" s="6"/>
+      <c r="BM88" s="6"/>
+      <c r="BN88" s="6"/>
+      <c r="BO88" s="6"/>
+      <c r="BP88" s="6"/>
+      <c r="BQ88" s="6"/>
+      <c r="BR88" s="6"/>
+      <c r="BS88" s="6"/>
+      <c r="BT88" s="6"/>
+    </row>
+    <row r="89" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="10"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="8"/>
+      <c r="E89" s="22"/>
+      <c r="F89" s="9"/>
+      <c r="Q89" s="6"/>
+      <c r="R89" s="6"/>
+      <c r="S89" s="6"/>
+      <c r="T89" s="6"/>
+      <c r="U89" s="6"/>
+      <c r="V89" s="6"/>
+      <c r="W89" s="6"/>
+      <c r="X89" s="6"/>
+      <c r="Y89" s="6"/>
+      <c r="Z89" s="6"/>
+      <c r="AA89" s="6"/>
+      <c r="AB89" s="6"/>
+      <c r="AC89" s="6"/>
+      <c r="AD89" s="6"/>
+      <c r="AE89" s="6"/>
+      <c r="AF89" s="6"/>
+      <c r="AG89" s="6"/>
+      <c r="AH89" s="6"/>
+      <c r="AI89" s="6"/>
+      <c r="AJ89" s="6"/>
+      <c r="AK89" s="6"/>
+      <c r="AL89" s="6"/>
+      <c r="AM89" s="6"/>
+      <c r="AN89" s="6"/>
+      <c r="AO89" s="6"/>
+      <c r="AP89" s="6"/>
+      <c r="AQ89" s="6"/>
+      <c r="AR89" s="6"/>
+      <c r="AS89" s="6"/>
+      <c r="AT89" s="6"/>
+      <c r="AU89" s="6"/>
+      <c r="AV89" s="6"/>
+      <c r="AW89" s="6"/>
+      <c r="AX89" s="6"/>
+      <c r="AY89" s="6"/>
+      <c r="AZ89" s="6"/>
+      <c r="BA89" s="6"/>
+      <c r="BB89" s="6"/>
+      <c r="BC89" s="6"/>
+      <c r="BD89" s="6"/>
+      <c r="BE89" s="6"/>
+      <c r="BF89" s="6"/>
+      <c r="BG89" s="6"/>
+      <c r="BH89" s="6"/>
+      <c r="BI89" s="6"/>
+      <c r="BJ89" s="6"/>
+      <c r="BK89" s="6"/>
+      <c r="BL89" s="6"/>
+      <c r="BM89" s="6"/>
+      <c r="BN89" s="6"/>
+      <c r="BO89" s="6"/>
+      <c r="BP89" s="6"/>
+      <c r="BQ89" s="6"/>
+      <c r="BR89" s="6"/>
+      <c r="BS89" s="6"/>
+      <c r="BT89" s="6"/>
+    </row>
+    <row r="90" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="E90" s="22"/>
+    </row>
+    <row r="91" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="E91" s="22"/>
+    </row>
+    <row r="92" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="E92" s="22"/>
+    </row>
+    <row r="93" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A93" s="30"/>
+      <c r="E93" s="22"/>
+    </row>
+    <row r="94" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A94" s="30"/>
+      <c r="E94" s="22"/>
+    </row>
+    <row r="95" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="E95" s="22"/>
+    </row>
+    <row r="96" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="E96" s="22"/>
+    </row>
+    <row r="97" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E97" s="22"/>
+    </row>
+    <row r="98" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E98" s="22"/>
+    </row>
+    <row r="99" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E99" s="22"/>
+    </row>
+    <row r="100" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E100" s="22"/>
+    </row>
+    <row r="101" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E101" s="22"/>
+    </row>
+    <row r="102" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E102" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63B1BC36-79CC-403E-BDAB-F4ACF4DC04E2}">
+  <dimension ref="A1:BO96"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C61" sqref="C61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="2" customWidth="1"/>
+    <col min="3" max="4" width="24.140625" style="7" customWidth="1"/>
+    <col min="5" max="8" width="24.140625" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="10.7109375" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>6</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1945</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>6</v>
+      </c>
+      <c r="B3" s="11">
+        <v>1946</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>6</v>
+      </c>
+      <c r="B4" s="11">
+        <v>1947</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>6</v>
+      </c>
+      <c r="B5" s="11">
+        <v>1948</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>6</v>
+      </c>
+      <c r="B6" s="11">
+        <v>1949</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
+        <v>1950</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11">
+        <v>1951</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="11">
+        <v>1952</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>6</v>
+      </c>
+      <c r="B10" s="11">
+        <v>1953</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>6</v>
+      </c>
+      <c r="B11" s="11">
+        <v>1954</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>6</v>
+      </c>
+      <c r="B12" s="11">
+        <v>1955</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>6</v>
+      </c>
+      <c r="B13" s="11">
+        <v>1956</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>6</v>
+      </c>
+      <c r="B14" s="11">
+        <v>1957</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>6</v>
+      </c>
+      <c r="B15" s="11">
+        <v>1958</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>6</v>
+      </c>
+      <c r="B16" s="11">
+        <v>1959</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>6</v>
+      </c>
+      <c r="B17" s="11">
+        <v>1960</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>6</v>
+      </c>
+      <c r="B18" s="11">
+        <v>1961</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>6</v>
+      </c>
+      <c r="B19" s="11">
+        <v>1962</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>6</v>
+      </c>
+      <c r="B20" s="11">
+        <v>1963</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>6</v>
+      </c>
+      <c r="B21" s="11">
+        <v>1964</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>6</v>
+      </c>
+      <c r="B22" s="11">
+        <v>1965</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>6</v>
+      </c>
+      <c r="B23" s="11">
+        <v>1966</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>6</v>
+      </c>
+      <c r="B24" s="11">
+        <v>1967</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>6</v>
+      </c>
+      <c r="B25" s="11">
+        <v>1968</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>6</v>
+      </c>
+      <c r="B26" s="11">
+        <v>1969</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>6</v>
+      </c>
+      <c r="B27" s="11">
+        <v>1970</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>6</v>
+      </c>
+      <c r="B28" s="11">
+        <v>1971</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>9</v>
+      </c>
+      <c r="B29" s="11">
+        <v>1972</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>9</v>
+      </c>
+      <c r="B30" s="11">
+        <v>1973</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>9</v>
+      </c>
+      <c r="B31" s="11">
+        <v>1974</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>9</v>
+      </c>
+      <c r="B32" s="11">
+        <v>1975</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>9</v>
+      </c>
+      <c r="B33" s="11">
+        <v>1976</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>9</v>
+      </c>
+      <c r="B34" s="11">
+        <v>1977</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>9</v>
+      </c>
+      <c r="B35" s="11">
+        <v>1978</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>9</v>
+      </c>
+      <c r="B36" s="11">
+        <v>1979</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>10</v>
+      </c>
+      <c r="B37" s="11">
+        <v>1980</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>10</v>
+      </c>
+      <c r="B38" s="11">
+        <v>1981</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>10</v>
+      </c>
+      <c r="B39" s="11">
+        <v>1982</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>10</v>
+      </c>
+      <c r="B40" s="11">
+        <v>1983</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="7"/>
+    </row>
+    <row r="41" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>10</v>
+      </c>
+      <c r="B41" s="11">
+        <v>1984</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="7"/>
+    </row>
+    <row r="42" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>10</v>
+      </c>
+      <c r="B42" s="11">
+        <v>1985</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="7"/>
+    </row>
+    <row r="43" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>12</v>
+      </c>
+      <c r="B43" s="11">
+        <v>1986</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="7"/>
+    </row>
+    <row r="44" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>12</v>
+      </c>
+      <c r="B44" s="11">
+        <v>1987</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="7"/>
+    </row>
+    <row r="45" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>12</v>
+      </c>
+      <c r="B45" s="11">
+        <v>1988</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="7"/>
+    </row>
+    <row r="46" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>12</v>
+      </c>
+      <c r="B46" s="11">
+        <v>1989</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="7"/>
+    </row>
+    <row r="47" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>12</v>
+      </c>
+      <c r="B47" s="11">
+        <v>1990</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="7"/>
+    </row>
+    <row r="48" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>12</v>
+      </c>
+      <c r="B48" s="11">
+        <v>1991</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="7"/>
+    </row>
+    <row r="49" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>12</v>
+      </c>
+      <c r="B49" s="11">
+        <v>1992</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="8"/>
+    </row>
+    <row r="50" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>12</v>
+      </c>
+      <c r="B50" s="11">
+        <v>1993</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="8"/>
+    </row>
+    <row r="51" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>12</v>
+      </c>
+      <c r="B51" s="11">
+        <v>1994</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="8"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+    </row>
+    <row r="52" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>12</v>
+      </c>
+      <c r="B52" s="11">
+        <v>1995</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="8"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+    </row>
+    <row r="53" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>15</v>
+      </c>
+      <c r="B53" s="11">
+        <v>1995</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="8"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>15</v>
+      </c>
+      <c r="B54" s="11">
+        <v>1996</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="8"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>15</v>
+      </c>
+      <c r="B55" s="11">
+        <v>1997</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="8"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>15</v>
+      </c>
+      <c r="B56" s="11">
+        <v>1998</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="7">
+        <f>941.569+213.195</f>
+        <v>1154.7639999999999</v>
+      </c>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>15</v>
+      </c>
+      <c r="B57" s="11">
+        <v>1999</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="7">
+        <f>945.255+271.208</f>
+        <v>1216.463</v>
+      </c>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>15</v>
+      </c>
+      <c r="B58" s="11">
+        <v>2000</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="7"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>15</v>
+      </c>
+      <c r="B59" s="11">
+        <v>2001</v>
+      </c>
+      <c r="D59" s="7"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>15</v>
+      </c>
+      <c r="B60" s="11">
+        <v>2002</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="7"/>
+    </row>
+    <row r="61" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>15</v>
+      </c>
+      <c r="B61" s="11">
+        <v>2003</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="7"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="22"/>
+    </row>
+    <row r="62" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>27</v>
+      </c>
+      <c r="B62" s="11">
+        <v>2003</v>
+      </c>
+      <c r="C62" s="7">
+        <v>790.90893583649995</v>
+      </c>
+      <c r="D62" s="7">
+        <v>704.35699999999997</v>
+      </c>
+      <c r="F62" s="3">
+        <v>509.61599999999999</v>
+      </c>
+      <c r="G62" s="3">
+        <v>2346.2510000000002</v>
+      </c>
+      <c r="H62" s="3">
+        <v>3424.3919999999998</v>
+      </c>
+      <c r="I62" s="22"/>
+    </row>
+    <row r="63" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>27</v>
+      </c>
+      <c r="B63" s="11">
+        <v>2004</v>
+      </c>
+      <c r="C63" s="7">
+        <v>934.63890502670006</v>
+      </c>
+      <c r="D63" s="6"/>
+      <c r="F63" s="3">
+        <v>646.22699999999998</v>
+      </c>
+      <c r="G63" s="3">
+        <v>1469.97</v>
+      </c>
+      <c r="H63" s="3">
+        <v>6455.6959999999999</v>
+      </c>
+      <c r="I63" s="22"/>
+    </row>
+    <row r="64" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>27</v>
+      </c>
+      <c r="B64" s="11">
+        <v>2005</v>
+      </c>
+      <c r="C64" s="7">
+        <v>869.2332499173001</v>
+      </c>
+      <c r="D64" s="6"/>
+      <c r="F64" s="3">
+        <v>813.60900000000004</v>
+      </c>
+      <c r="G64" s="3">
+        <v>1594.422</v>
+      </c>
+      <c r="H64" s="3">
+        <v>7257.1170000000002</v>
+      </c>
+      <c r="I64" s="22"/>
+    </row>
+    <row r="65" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>27</v>
+      </c>
+      <c r="B65" s="11">
+        <v>2006</v>
+      </c>
+      <c r="C65" s="3">
+        <f>D65+E65</f>
+        <v>1013.396</v>
+      </c>
+      <c r="D65" s="7">
+        <v>586.322</v>
+      </c>
+      <c r="E65" s="3">
+        <v>427.07400000000001</v>
+      </c>
+      <c r="F65" s="3">
+        <v>810</v>
+      </c>
+      <c r="G65" s="3">
+        <v>3157.335</v>
+      </c>
+      <c r="H65" s="3">
+        <v>14911.803</v>
+      </c>
+      <c r="I65" s="22"/>
+    </row>
+    <row r="66" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>27</v>
+      </c>
+      <c r="B66" s="11">
+        <v>2007</v>
+      </c>
+      <c r="C66" s="3">
+        <f t="shared" ref="C66:C70" si="0">D66+E66</f>
+        <v>1741.2279999999998</v>
+      </c>
+      <c r="D66" s="7">
+        <v>1113.5429999999999</v>
+      </c>
+      <c r="E66" s="3">
+        <v>627.68499999999995</v>
+      </c>
+      <c r="F66" s="3">
+        <v>804.54899999999998</v>
+      </c>
+      <c r="G66" s="3">
+        <v>4406.3050000000003</v>
+      </c>
+      <c r="H66" s="3">
+        <v>21148.894</v>
+      </c>
+      <c r="I66" s="22"/>
+    </row>
+    <row r="67" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>27</v>
+      </c>
+      <c r="B67" s="11">
+        <v>2008</v>
+      </c>
+      <c r="C67" s="3">
+        <f t="shared" si="0"/>
+        <v>1494.61</v>
+      </c>
+      <c r="D67" s="7">
+        <v>820.62699999999995</v>
+      </c>
+      <c r="E67" s="3">
+        <v>673.98299999999995</v>
+      </c>
+      <c r="F67" s="3">
+        <v>732.27300000000002</v>
+      </c>
+      <c r="G67" s="3">
+        <v>4105.2259999999997</v>
+      </c>
+      <c r="H67" s="3">
+        <v>24651.62</v>
+      </c>
+      <c r="I67" s="22"/>
+    </row>
+    <row r="68" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>27</v>
+      </c>
+      <c r="B68" s="11">
+        <v>2009</v>
+      </c>
+      <c r="C68" s="3">
+        <f t="shared" si="0"/>
+        <v>1085.712</v>
+      </c>
+      <c r="D68" s="7">
+        <v>543.71500000000003</v>
+      </c>
+      <c r="E68" s="3">
+        <v>541.99699999999996</v>
+      </c>
+      <c r="F68" s="3">
+        <v>618.51900000000001</v>
+      </c>
+      <c r="G68" s="3">
+        <v>3049.2249999999999</v>
+      </c>
+      <c r="H68" s="3">
+        <v>20399.199000000001</v>
+      </c>
+      <c r="I68" s="22"/>
+    </row>
+    <row r="69" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>27</v>
+      </c>
+      <c r="B69" s="11">
+        <v>2010</v>
+      </c>
+      <c r="C69" s="3">
+        <f t="shared" si="0"/>
+        <v>1145.9780000000001</v>
+      </c>
+      <c r="D69" s="7">
+        <v>507.49700000000001</v>
+      </c>
+      <c r="E69" s="3">
+        <v>638.48099999999999</v>
+      </c>
+      <c r="F69" s="3">
+        <v>577.404</v>
+      </c>
+      <c r="G69" s="3">
+        <v>2741.011</v>
+      </c>
+      <c r="H69" s="3">
+        <v>26038.659</v>
+      </c>
+      <c r="I69" s="22"/>
+    </row>
+    <row r="70" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>27</v>
+      </c>
+      <c r="B70" s="11">
+        <v>2011</v>
+      </c>
+      <c r="C70" s="3">
+        <f t="shared" si="0"/>
+        <v>1180.7739999999999</v>
+      </c>
+      <c r="D70" s="7">
+        <v>517.15700000000004</v>
+      </c>
+      <c r="E70" s="3">
+        <v>663.61699999999996</v>
+      </c>
+      <c r="F70" s="3">
+        <v>623.62900000000002</v>
+      </c>
+      <c r="G70" s="3">
+        <v>2429.1030000000001</v>
+      </c>
+      <c r="H70" s="3">
+        <v>26446.292000000001</v>
+      </c>
+      <c r="I70" s="22"/>
+    </row>
+    <row r="71" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>28</v>
+      </c>
+      <c r="B71" s="11">
+        <v>2012</v>
+      </c>
+      <c r="C71" s="3">
+        <f t="shared" ref="C71:C77" si="1">E71+D71</f>
+        <v>1004.049</v>
+      </c>
+      <c r="D71" s="3">
+        <v>378.505</v>
+      </c>
+      <c r="E71" s="3">
+        <v>625.54399999999998</v>
+      </c>
+      <c r="F71" s="3">
+        <v>722.11400000000003</v>
+      </c>
+      <c r="G71" s="3">
+        <v>2359.4920000000002</v>
+      </c>
+      <c r="H71" s="3">
+        <v>25387.23</v>
+      </c>
+      <c r="I71" s="22"/>
+    </row>
+    <row r="72" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>28</v>
+      </c>
+      <c r="B72" s="11">
+        <v>2013</v>
+      </c>
+      <c r="C72" s="3">
+        <f t="shared" si="1"/>
+        <v>946.01599999999996</v>
+      </c>
+      <c r="D72" s="3">
+        <v>290.38400000000001</v>
+      </c>
+      <c r="E72" s="3">
+        <v>655.63199999999995</v>
+      </c>
+      <c r="F72" s="3">
+        <v>728.94299999999998</v>
+      </c>
+      <c r="G72" s="3">
+        <v>2179.9409999999998</v>
+      </c>
+      <c r="H72" s="3">
+        <v>31836.011999999999</v>
+      </c>
+      <c r="I72" s="22"/>
+    </row>
+    <row r="73" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>28</v>
+      </c>
+      <c r="B73" s="11">
+        <v>2014</v>
+      </c>
+      <c r="C73" s="3">
+        <f t="shared" si="1"/>
+        <v>1034.6280000000002</v>
+      </c>
+      <c r="D73" s="3">
+        <v>327.24400000000003</v>
+      </c>
+      <c r="E73" s="3">
+        <v>707.38400000000001</v>
+      </c>
+      <c r="F73" s="3">
+        <v>1141.9649999999999</v>
+      </c>
+      <c r="G73" s="3">
+        <v>4642.4650000000001</v>
+      </c>
+      <c r="H73" s="3">
+        <v>29436.129000000001</v>
+      </c>
+      <c r="I73" s="22"/>
+    </row>
+    <row r="74" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>28</v>
+      </c>
+      <c r="B74" s="11">
+        <v>2015</v>
+      </c>
+      <c r="C74" s="3">
+        <f t="shared" si="1"/>
+        <v>1079.1000000000001</v>
+      </c>
+      <c r="D74" s="3">
+        <v>366.73200000000003</v>
+      </c>
+      <c r="E74" s="3">
+        <v>712.36800000000005</v>
+      </c>
+      <c r="F74" s="3">
+        <v>873.85500000000002</v>
+      </c>
+      <c r="G74" s="3">
+        <v>3367.3890000000001</v>
+      </c>
+      <c r="H74" s="3">
+        <v>26235.525000000001</v>
+      </c>
+      <c r="I74" s="22"/>
+    </row>
+    <row r="75" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>28</v>
+      </c>
+      <c r="B75" s="11">
+        <v>2016</v>
+      </c>
+      <c r="C75" s="3">
+        <f t="shared" si="1"/>
+        <v>1255.011</v>
+      </c>
+      <c r="D75" s="3">
+        <v>540.10900000000004</v>
+      </c>
+      <c r="E75" s="3">
+        <v>714.90200000000004</v>
+      </c>
+      <c r="F75" s="3">
+        <v>1001.8440000000001</v>
+      </c>
+      <c r="G75" s="3">
+        <v>4195.741</v>
+      </c>
+      <c r="H75" s="3">
+        <v>26909.106</v>
+      </c>
+      <c r="I75" s="22"/>
+    </row>
+    <row r="76" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>28</v>
+      </c>
+      <c r="B76" s="11">
+        <v>2017</v>
+      </c>
+      <c r="C76" s="3">
+        <f t="shared" si="1"/>
+        <v>1534.989</v>
+      </c>
+      <c r="D76" s="3">
+        <v>730.62099999999998</v>
+      </c>
+      <c r="E76" s="3">
+        <v>804.36800000000005</v>
+      </c>
+      <c r="F76" s="3">
+        <v>2117.5160000000001</v>
+      </c>
+      <c r="G76" s="3">
+        <v>4777.6589999999997</v>
+      </c>
+      <c r="H76" s="3">
+        <v>34995.555</v>
+      </c>
+      <c r="I76" s="22"/>
+    </row>
+    <row r="77" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>28</v>
+      </c>
+      <c r="B77" s="11">
+        <v>2018</v>
+      </c>
+      <c r="C77" s="3">
+        <f t="shared" si="1"/>
+        <v>1673.6289999999999</v>
+      </c>
+      <c r="D77" s="3">
+        <v>764.327</v>
+      </c>
+      <c r="E77" s="3">
+        <v>909.30200000000002</v>
+      </c>
+      <c r="F77" s="3">
+        <v>1019.8150000000001</v>
+      </c>
+      <c r="G77" s="3">
+        <v>8142.7259999999997</v>
+      </c>
+      <c r="H77" s="3">
+        <v>45395.548999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>28</v>
+      </c>
+      <c r="B78" s="11">
+        <v>2019</v>
+      </c>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="F78" s="3">
+        <v>2317.875</v>
+      </c>
+      <c r="G78" s="3">
+        <v>9001.4130000000005</v>
+      </c>
+      <c r="H78" s="3">
+        <v>45385.997000000003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="1:67" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="30"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="6"/>
+      <c r="O81" s="6"/>
+      <c r="P81" s="6"/>
+      <c r="Q81" s="6"/>
+      <c r="R81" s="6"/>
+      <c r="S81" s="6"/>
+      <c r="T81" s="6"/>
+      <c r="U81" s="6"/>
+      <c r="V81" s="6"/>
+      <c r="W81" s="6"/>
+      <c r="X81" s="6"/>
+      <c r="Y81" s="6"/>
+      <c r="Z81" s="6"/>
+      <c r="AA81" s="6"/>
+      <c r="AB81" s="6"/>
+      <c r="AC81" s="6"/>
+      <c r="AD81" s="6"/>
+      <c r="AE81" s="6"/>
+      <c r="AF81" s="6"/>
+      <c r="AG81" s="6"/>
+      <c r="AH81" s="6"/>
+      <c r="AI81" s="6"/>
+      <c r="AJ81" s="6"/>
+      <c r="AK81" s="6"/>
+      <c r="AL81" s="6"/>
+      <c r="AM81" s="6"/>
+      <c r="AN81" s="6"/>
+      <c r="AO81" s="6"/>
+      <c r="AP81" s="6"/>
+      <c r="AQ81" s="6"/>
+      <c r="AR81" s="6"/>
+      <c r="AS81" s="6"/>
+      <c r="AT81" s="6"/>
+      <c r="AU81" s="6"/>
+      <c r="AV81" s="6"/>
+      <c r="AW81" s="6"/>
+      <c r="AX81" s="6"/>
+      <c r="AY81" s="6"/>
+      <c r="AZ81" s="6"/>
+      <c r="BA81" s="6"/>
+      <c r="BB81" s="6"/>
+      <c r="BC81" s="6"/>
+      <c r="BD81" s="6"/>
+      <c r="BE81" s="6"/>
+      <c r="BF81" s="6"/>
+      <c r="BG81" s="6"/>
+      <c r="BH81" s="6"/>
+      <c r="BI81" s="6"/>
+      <c r="BJ81" s="6"/>
+      <c r="BK81" s="6"/>
+      <c r="BL81" s="6"/>
+      <c r="BM81" s="6"/>
+      <c r="BN81" s="6"/>
+      <c r="BO81" s="6"/>
+    </row>
+    <row r="82" spans="1:67" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="30"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="6"/>
+      <c r="O82" s="6"/>
+      <c r="P82" s="6"/>
+      <c r="Q82" s="6"/>
+      <c r="R82" s="6"/>
+      <c r="S82" s="6"/>
+      <c r="T82" s="6"/>
+      <c r="U82" s="6"/>
+      <c r="V82" s="6"/>
+      <c r="W82" s="6"/>
+      <c r="X82" s="6"/>
+      <c r="Y82" s="6"/>
+      <c r="Z82" s="6"/>
+      <c r="AA82" s="6"/>
+      <c r="AB82" s="6"/>
+      <c r="AC82" s="6"/>
+      <c r="AD82" s="6"/>
+      <c r="AE82" s="6"/>
+      <c r="AF82" s="6"/>
+      <c r="AG82" s="6"/>
+      <c r="AH82" s="6"/>
+      <c r="AI82" s="6"/>
+      <c r="AJ82" s="6"/>
+      <c r="AK82" s="6"/>
+      <c r="AL82" s="6"/>
+      <c r="AM82" s="6"/>
+      <c r="AN82" s="6"/>
+      <c r="AO82" s="6"/>
+      <c r="AP82" s="6"/>
+      <c r="AQ82" s="6"/>
+      <c r="AR82" s="6"/>
+      <c r="AS82" s="6"/>
+      <c r="AT82" s="6"/>
+      <c r="AU82" s="6"/>
+      <c r="AV82" s="6"/>
+      <c r="AW82" s="6"/>
+      <c r="AX82" s="6"/>
+      <c r="AY82" s="6"/>
+      <c r="AZ82" s="6"/>
+      <c r="BA82" s="6"/>
+      <c r="BB82" s="6"/>
+      <c r="BC82" s="6"/>
+      <c r="BD82" s="6"/>
+      <c r="BE82" s="6"/>
+      <c r="BF82" s="6"/>
+      <c r="BG82" s="6"/>
+      <c r="BH82" s="6"/>
+      <c r="BI82" s="6"/>
+      <c r="BJ82" s="6"/>
+      <c r="BK82" s="6"/>
+      <c r="BL82" s="6"/>
+      <c r="BM82" s="6"/>
+      <c r="BN82" s="6"/>
+      <c r="BO82" s="6"/>
+    </row>
+    <row r="83" spans="1:67" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="30"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="7"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
+      <c r="M83" s="6"/>
+      <c r="N83" s="6"/>
+      <c r="O83" s="6"/>
+      <c r="P83" s="6"/>
+      <c r="Q83" s="6"/>
+      <c r="R83" s="6"/>
+      <c r="S83" s="6"/>
+      <c r="T83" s="6"/>
+      <c r="U83" s="6"/>
+      <c r="V83" s="6"/>
+      <c r="W83" s="6"/>
+      <c r="X83" s="6"/>
+      <c r="Y83" s="6"/>
+      <c r="Z83" s="6"/>
+      <c r="AA83" s="6"/>
+      <c r="AB83" s="6"/>
+      <c r="AC83" s="6"/>
+      <c r="AD83" s="6"/>
+      <c r="AE83" s="6"/>
+      <c r="AF83" s="6"/>
+      <c r="AG83" s="6"/>
+      <c r="AH83" s="6"/>
+      <c r="AI83" s="6"/>
+      <c r="AJ83" s="6"/>
+      <c r="AK83" s="6"/>
+      <c r="AL83" s="6"/>
+      <c r="AM83" s="6"/>
+      <c r="AN83" s="6"/>
+      <c r="AO83" s="6"/>
+      <c r="AP83" s="6"/>
+      <c r="AQ83" s="6"/>
+      <c r="AR83" s="6"/>
+      <c r="AS83" s="6"/>
+      <c r="AT83" s="6"/>
+      <c r="AU83" s="6"/>
+      <c r="AV83" s="6"/>
+      <c r="AW83" s="6"/>
+      <c r="AX83" s="6"/>
+      <c r="AY83" s="6"/>
+      <c r="AZ83" s="6"/>
+      <c r="BA83" s="6"/>
+      <c r="BB83" s="6"/>
+      <c r="BC83" s="6"/>
+      <c r="BD83" s="6"/>
+      <c r="BE83" s="6"/>
+      <c r="BF83" s="6"/>
+      <c r="BG83" s="6"/>
+      <c r="BH83" s="6"/>
+      <c r="BI83" s="6"/>
+      <c r="BJ83" s="6"/>
+      <c r="BK83" s="6"/>
+      <c r="BL83" s="6"/>
+      <c r="BM83" s="6"/>
+      <c r="BN83" s="6"/>
+      <c r="BO83" s="6"/>
+    </row>
+    <row r="86" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A86" s="30"/>
+    </row>
+    <row r="87" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A87" s="30"/>
+    </row>
+    <row r="88" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A88" s="30"/>
+    </row>
+    <row r="90" spans="1:67" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="10"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
+      <c r="L90" s="6"/>
+      <c r="M90" s="6"/>
+      <c r="N90" s="6"/>
+      <c r="O90" s="6"/>
+      <c r="P90" s="6"/>
+      <c r="Q90" s="6"/>
+      <c r="R90" s="6"/>
+      <c r="S90" s="6"/>
+      <c r="T90" s="6"/>
+      <c r="U90" s="6"/>
+      <c r="V90" s="6"/>
+      <c r="W90" s="6"/>
+      <c r="X90" s="6"/>
+      <c r="Y90" s="6"/>
+      <c r="Z90" s="6"/>
+      <c r="AA90" s="6"/>
+      <c r="AB90" s="6"/>
+      <c r="AC90" s="6"/>
+      <c r="AD90" s="6"/>
+      <c r="AE90" s="6"/>
+      <c r="AF90" s="6"/>
+      <c r="AG90" s="6"/>
+      <c r="AH90" s="6"/>
+      <c r="AI90" s="6"/>
+      <c r="AJ90" s="6"/>
+      <c r="AK90" s="6"/>
+      <c r="AL90" s="6"/>
+      <c r="AM90" s="6"/>
+      <c r="AN90" s="6"/>
+      <c r="AO90" s="6"/>
+      <c r="AP90" s="6"/>
+      <c r="AQ90" s="6"/>
+      <c r="AR90" s="6"/>
+      <c r="AS90" s="6"/>
+      <c r="AT90" s="6"/>
+      <c r="AU90" s="6"/>
+      <c r="AV90" s="6"/>
+      <c r="AW90" s="6"/>
+      <c r="AX90" s="6"/>
+      <c r="AY90" s="6"/>
+      <c r="AZ90" s="6"/>
+      <c r="BA90" s="6"/>
+      <c r="BB90" s="6"/>
+      <c r="BC90" s="6"/>
+      <c r="BD90" s="6"/>
+      <c r="BE90" s="6"/>
+      <c r="BF90" s="6"/>
+      <c r="BG90" s="6"/>
+      <c r="BH90" s="6"/>
+      <c r="BI90" s="6"/>
+      <c r="BJ90" s="6"/>
+      <c r="BK90" s="6"/>
+      <c r="BL90" s="6"/>
+      <c r="BM90" s="6"/>
+      <c r="BN90" s="6"/>
+      <c r="BO90" s="6"/>
+    </row>
+    <row r="91" spans="1:67" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="10"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6"/>
+      <c r="L91" s="6"/>
+      <c r="M91" s="6"/>
+      <c r="N91" s="6"/>
+      <c r="O91" s="6"/>
+      <c r="P91" s="6"/>
+      <c r="Q91" s="6"/>
+      <c r="R91" s="6"/>
+      <c r="S91" s="6"/>
+      <c r="T91" s="6"/>
+      <c r="U91" s="6"/>
+      <c r="V91" s="6"/>
+      <c r="W91" s="6"/>
+      <c r="X91" s="6"/>
+      <c r="Y91" s="6"/>
+      <c r="Z91" s="6"/>
+      <c r="AA91" s="6"/>
+      <c r="AB91" s="6"/>
+      <c r="AC91" s="6"/>
+      <c r="AD91" s="6"/>
+      <c r="AE91" s="6"/>
+      <c r="AF91" s="6"/>
+      <c r="AG91" s="6"/>
+      <c r="AH91" s="6"/>
+      <c r="AI91" s="6"/>
+      <c r="AJ91" s="6"/>
+      <c r="AK91" s="6"/>
+      <c r="AL91" s="6"/>
+      <c r="AM91" s="6"/>
+      <c r="AN91" s="6"/>
+      <c r="AO91" s="6"/>
+      <c r="AP91" s="6"/>
+      <c r="AQ91" s="6"/>
+      <c r="AR91" s="6"/>
+      <c r="AS91" s="6"/>
+      <c r="AT91" s="6"/>
+      <c r="AU91" s="6"/>
+      <c r="AV91" s="6"/>
+      <c r="AW91" s="6"/>
+      <c r="AX91" s="6"/>
+      <c r="AY91" s="6"/>
+      <c r="AZ91" s="6"/>
+      <c r="BA91" s="6"/>
+      <c r="BB91" s="6"/>
+      <c r="BC91" s="6"/>
+      <c r="BD91" s="6"/>
+      <c r="BE91" s="6"/>
+      <c r="BF91" s="6"/>
+      <c r="BG91" s="6"/>
+      <c r="BH91" s="6"/>
+      <c r="BI91" s="6"/>
+      <c r="BJ91" s="6"/>
+      <c r="BK91" s="6"/>
+      <c r="BL91" s="6"/>
+      <c r="BM91" s="6"/>
+      <c r="BN91" s="6"/>
+      <c r="BO91" s="6"/>
+    </row>
+    <row r="95" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A95" s="30"/>
+    </row>
+    <row r="96" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A96" s="30"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2629125-5F59-4D2B-B790-D44D45AA199C}">
+  <dimension ref="A1:BU98"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D60" sqref="D60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="10" customWidth="1"/>
+    <col min="3" max="8" width="19.7109375" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="10.7109375" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>6</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>6</v>
+      </c>
+      <c r="B3" s="11">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>6</v>
+      </c>
+      <c r="B4" s="11">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>6</v>
+      </c>
+      <c r="B5" s="11">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>6</v>
+      </c>
+      <c r="B6" s="11">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="11">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>6</v>
+      </c>
+      <c r="B10" s="11">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>6</v>
+      </c>
+      <c r="B11" s="11">
+        <v>1954</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>6</v>
+      </c>
+      <c r="B12" s="11">
+        <v>1955</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>6</v>
+      </c>
+      <c r="B13" s="11">
+        <v>1956</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>6</v>
+      </c>
+      <c r="B14" s="11">
+        <v>1957</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>6</v>
+      </c>
+      <c r="B15" s="11">
+        <v>1958</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>6</v>
+      </c>
+      <c r="B16" s="11">
+        <v>1959</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>6</v>
+      </c>
+      <c r="B17" s="11">
+        <v>1960</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>6</v>
+      </c>
+      <c r="B18" s="11">
+        <v>1961</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>6</v>
+      </c>
+      <c r="B19" s="11">
+        <v>1962</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>6</v>
+      </c>
+      <c r="B20" s="11">
+        <v>1963</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>6</v>
+      </c>
+      <c r="B21" s="11">
+        <v>1964</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>6</v>
+      </c>
+      <c r="B22" s="11">
+        <v>1965</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>6</v>
+      </c>
+      <c r="B23" s="11">
+        <v>1966</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>6</v>
+      </c>
+      <c r="B24" s="11">
+        <v>1967</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>6</v>
+      </c>
+      <c r="B25" s="11">
+        <v>1968</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>6</v>
+      </c>
+      <c r="B26" s="11">
+        <v>1969</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>6</v>
+      </c>
+      <c r="B27" s="11">
+        <v>1970</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>6</v>
+      </c>
+      <c r="B28" s="11">
+        <v>1971</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>9</v>
+      </c>
+      <c r="B29" s="11">
+        <v>1972</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>9</v>
+      </c>
+      <c r="B30" s="11">
+        <v>1973</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>9</v>
+      </c>
+      <c r="B31" s="11">
+        <v>1974</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>9</v>
+      </c>
+      <c r="B32" s="11">
+        <v>1975</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>9</v>
+      </c>
+      <c r="B33" s="11">
+        <v>1976</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>9</v>
+      </c>
+      <c r="B34" s="11">
+        <v>1977</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>9</v>
+      </c>
+      <c r="B35" s="11">
+        <v>1978</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>9</v>
+      </c>
+      <c r="B36" s="11">
+        <v>1979</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>10</v>
+      </c>
+      <c r="B37" s="11">
+        <v>1980</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>10</v>
+      </c>
+      <c r="B38" s="11">
+        <v>1981</v>
+      </c>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>10</v>
+      </c>
+      <c r="B39" s="11">
+        <v>1982</v>
+      </c>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>10</v>
+      </c>
+      <c r="B40" s="11">
+        <v>1983</v>
+      </c>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>10</v>
+      </c>
+      <c r="B41" s="11">
+        <v>1984</v>
+      </c>
+      <c r="I41" s="8"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>10</v>
+      </c>
+      <c r="B42" s="11">
+        <v>1985</v>
+      </c>
+      <c r="I42" s="8"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>12</v>
+      </c>
+      <c r="B43" s="11">
+        <v>1986</v>
+      </c>
+      <c r="I43" s="8"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>12</v>
+      </c>
+      <c r="B44" s="11">
+        <v>1987</v>
+      </c>
+      <c r="I44" s="8"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>12</v>
+      </c>
+      <c r="B45" s="11">
+        <v>1988</v>
+      </c>
+      <c r="I45" s="8"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>12</v>
+      </c>
+      <c r="B46" s="11">
+        <v>1989</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="I46" s="8"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>12</v>
+      </c>
+      <c r="B47" s="11">
+        <v>1990</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="I47" s="8"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>12</v>
+      </c>
+      <c r="B48" s="11">
+        <v>1991</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="I48" s="8"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>12</v>
+      </c>
+      <c r="B49" s="11">
+        <v>1992</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="I49" s="8"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>12</v>
+      </c>
+      <c r="B50" s="11">
+        <v>1993</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="I50" s="8"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>12</v>
+      </c>
+      <c r="B51" s="11">
+        <v>1994</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="I51" s="8"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>12</v>
+      </c>
+      <c r="B52" s="11">
+        <v>1995</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="I52" s="8"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>15</v>
+      </c>
+      <c r="B53" s="11">
+        <v>1995</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="I53" s="8"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>15</v>
+      </c>
+      <c r="B54" s="11">
+        <v>1996</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="I54" s="8"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>15</v>
+      </c>
+      <c r="B55" s="11">
+        <v>1997</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="I55" s="8"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>15</v>
+      </c>
+      <c r="B56" s="11">
+        <v>1998</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="7">
+        <f>642.57+224.035</f>
+        <v>866.60500000000002</v>
+      </c>
+      <c r="I56" s="8"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>15</v>
+      </c>
+      <c r="B57" s="11">
+        <v>1999</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="7">
+        <f>593.254+199.435</f>
+        <v>792.68900000000008</v>
+      </c>
+      <c r="I57" s="8"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>15</v>
+      </c>
+      <c r="B58" s="11">
+        <v>2000</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="I58" s="8"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>15</v>
+      </c>
+      <c r="B59" s="11">
+        <v>2001</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="I59" s="8"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>15</v>
+      </c>
+      <c r="B60" s="11">
+        <v>2002</v>
+      </c>
+      <c r="I60" s="8"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>15</v>
+      </c>
+      <c r="B61" s="11">
+        <v>2003</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="I61" s="8"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>27</v>
+      </c>
+      <c r="B62" s="11">
+        <v>2003</v>
+      </c>
+      <c r="C62" s="7">
+        <v>762.55452276400001</v>
+      </c>
+      <c r="D62" s="7">
+        <f>921.863</f>
+        <v>921.86300000000006</v>
+      </c>
+      <c r="F62" s="7">
+        <v>1722.568</v>
+      </c>
+      <c r="G62" s="7">
+        <v>1885.9570000000001</v>
+      </c>
+      <c r="H62" s="7">
+        <v>2211.817</v>
+      </c>
+      <c r="I62" s="8"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>27</v>
+      </c>
+      <c r="B63" s="11">
+        <v>2004</v>
+      </c>
+      <c r="C63" s="7">
+        <v>985.56460808499992</v>
+      </c>
+      <c r="F63" s="7">
+        <v>1544.7529999999999</v>
+      </c>
+      <c r="G63" s="7">
+        <v>2122.0839999999998</v>
+      </c>
+      <c r="H63" s="7">
+        <v>2068.3710000000001</v>
+      </c>
+      <c r="I63" s="8"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>27</v>
+      </c>
+      <c r="B64" s="11">
+        <v>2005</v>
+      </c>
+      <c r="C64" s="7">
+        <v>925.86978555419989</v>
+      </c>
+      <c r="F64" s="7">
+        <v>1326.1379999999999</v>
+      </c>
+      <c r="G64" s="7">
+        <v>2545.4520000000002</v>
+      </c>
+      <c r="H64" s="7">
+        <v>2189.857</v>
+      </c>
+      <c r="I64" s="8"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>27</v>
+      </c>
+      <c r="B65" s="11">
+        <v>2006</v>
+      </c>
+      <c r="C65" s="7">
+        <f t="shared" ref="C65:C70" si="0">D65+E65</f>
+        <v>1348.46</v>
+      </c>
+      <c r="D65" s="7">
+        <v>1007.268</v>
+      </c>
+      <c r="E65" s="7">
+        <v>341.19200000000001</v>
+      </c>
+      <c r="F65" s="7">
+        <v>2641.1060000000002</v>
+      </c>
+      <c r="G65" s="7">
+        <v>3349.741</v>
+      </c>
+      <c r="H65" s="7">
+        <v>2868.5459999999998</v>
+      </c>
+      <c r="I65" s="8"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>27</v>
+      </c>
+      <c r="B66" s="11">
+        <v>2007</v>
+      </c>
+      <c r="C66" s="7">
+        <f t="shared" si="0"/>
+        <v>1383.578</v>
+      </c>
+      <c r="D66" s="7">
+        <v>1074.24</v>
+      </c>
+      <c r="E66" s="7">
+        <v>309.33800000000002</v>
+      </c>
+      <c r="F66" s="7">
+        <v>3148.8449999999998</v>
+      </c>
+      <c r="G66" s="7">
+        <v>3267.6909999999998</v>
+      </c>
+      <c r="H66" s="7">
+        <v>2729.8240000000001</v>
+      </c>
+      <c r="I66" s="8"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>27</v>
+      </c>
+      <c r="B67" s="11">
+        <v>2008</v>
+      </c>
+      <c r="C67" s="7">
+        <f t="shared" si="0"/>
+        <v>1467.654</v>
+      </c>
+      <c r="D67" s="7">
+        <v>1114.9590000000001</v>
+      </c>
+      <c r="E67" s="7">
+        <v>352.69499999999999</v>
+      </c>
+      <c r="F67" s="7">
+        <v>2422.9180000000001</v>
+      </c>
+      <c r="G67" s="7">
+        <v>3611.6860000000001</v>
+      </c>
+      <c r="H67" s="7">
+        <v>3540.538</v>
+      </c>
+      <c r="I67" s="8"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>27</v>
+      </c>
+      <c r="B68" s="11">
+        <v>2009</v>
+      </c>
+      <c r="C68" s="7">
+        <f t="shared" si="0"/>
+        <v>1115.675</v>
+      </c>
+      <c r="D68" s="7">
+        <v>828.10799999999995</v>
+      </c>
+      <c r="E68" s="7">
+        <v>287.56700000000001</v>
+      </c>
+      <c r="F68" s="7">
+        <v>1868.1790000000001</v>
+      </c>
+      <c r="G68" s="7">
+        <v>2757.027</v>
+      </c>
+      <c r="H68" s="7">
+        <v>4285.7719999999999</v>
+      </c>
+      <c r="I68" s="8"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>27</v>
+      </c>
+      <c r="B69" s="11">
+        <v>2010</v>
+      </c>
+      <c r="C69" s="7">
+        <f t="shared" si="0"/>
+        <v>1539.069</v>
+      </c>
+      <c r="D69" s="7">
+        <v>1180.9100000000001</v>
+      </c>
+      <c r="E69" s="7">
+        <v>358.15899999999999</v>
+      </c>
+      <c r="F69" s="7">
+        <v>2025.9480000000001</v>
+      </c>
+      <c r="G69" s="7">
+        <v>3089.2269999999999</v>
+      </c>
+      <c r="H69" s="7">
+        <v>5618.5649999999996</v>
+      </c>
+      <c r="I69" s="8"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>27</v>
+      </c>
+      <c r="B70" s="11">
+        <v>2011</v>
+      </c>
+      <c r="C70" s="7">
+        <f t="shared" si="0"/>
+        <v>1448.663</v>
+      </c>
+      <c r="D70" s="7">
+        <v>1052.134</v>
+      </c>
+      <c r="E70" s="7">
+        <v>396.529</v>
+      </c>
+      <c r="F70" s="7">
+        <v>2480.3870000000002</v>
+      </c>
+      <c r="G70" s="7">
+        <v>3578.6190000000001</v>
+      </c>
+      <c r="H70" s="7">
+        <v>6767.4059999999999</v>
+      </c>
+      <c r="I70" s="8"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>28</v>
+      </c>
+      <c r="B71" s="11">
+        <v>2012</v>
+      </c>
+      <c r="C71" s="7">
+        <f t="shared" ref="C71:C76" si="1">D71+E71</f>
+        <v>1448.3419999999999</v>
+      </c>
+      <c r="D71" s="7">
+        <v>1053.7329999999999</v>
+      </c>
+      <c r="E71" s="7">
+        <v>394.60899999999998</v>
+      </c>
+      <c r="F71" s="7">
+        <v>2572.4760000000001</v>
+      </c>
+      <c r="G71" s="7">
+        <v>4019.998</v>
+      </c>
+      <c r="H71" s="7">
+        <v>4086.7570000000001</v>
+      </c>
+      <c r="I71" s="8"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>28</v>
+      </c>
+      <c r="B72" s="11">
+        <v>2013</v>
+      </c>
+      <c r="C72" s="7">
+        <f t="shared" si="1"/>
+        <v>1484.9680000000001</v>
+      </c>
+      <c r="D72" s="7">
+        <v>1068.7080000000001</v>
+      </c>
+      <c r="E72" s="7">
+        <v>416.26</v>
+      </c>
+      <c r="F72" s="7">
+        <v>2472.8229999999999</v>
+      </c>
+      <c r="G72" s="7">
+        <v>4474.7030000000004</v>
+      </c>
+      <c r="H72" s="7">
+        <v>4081.2939999999999</v>
+      </c>
+      <c r="I72" s="8"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>28</v>
+      </c>
+      <c r="B73" s="11">
+        <v>2014</v>
+      </c>
+      <c r="C73" s="7">
+        <f t="shared" si="1"/>
+        <v>1281.933</v>
+      </c>
+      <c r="D73" s="7">
+        <v>864.29300000000001</v>
+      </c>
+      <c r="E73" s="7">
+        <v>417.64</v>
+      </c>
+      <c r="F73" s="7">
+        <v>2628.556</v>
+      </c>
+      <c r="G73" s="7">
+        <v>5069.1350000000002</v>
+      </c>
+      <c r="H73" s="7">
+        <v>3610.806</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>28</v>
+      </c>
+      <c r="B74" s="11">
+        <v>2015</v>
+      </c>
+      <c r="C74" s="7">
+        <f t="shared" si="1"/>
+        <v>1187.539</v>
+      </c>
+      <c r="D74" s="7">
+        <v>794.27099999999996</v>
+      </c>
+      <c r="E74" s="7">
+        <v>393.26799999999997</v>
+      </c>
+      <c r="F74" s="7">
+        <v>2833.78</v>
+      </c>
+      <c r="G74" s="7">
+        <v>4255.9660000000003</v>
+      </c>
+      <c r="H74" s="7">
+        <v>3253.2179999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>28</v>
+      </c>
+      <c r="B75" s="11">
+        <v>2016</v>
+      </c>
+      <c r="C75" s="7">
+        <f t="shared" si="1"/>
+        <v>1192.2070000000001</v>
+      </c>
+      <c r="D75" s="7">
+        <v>753.94</v>
+      </c>
+      <c r="E75" s="7">
+        <v>438.267</v>
+      </c>
+      <c r="F75" s="7">
+        <v>2941.31</v>
+      </c>
+      <c r="G75" s="7">
+        <v>4430.3440000000001</v>
+      </c>
+      <c r="H75" s="7">
+        <v>3864.1849999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>28</v>
+      </c>
+      <c r="B76" s="11">
+        <v>2017</v>
+      </c>
+      <c r="C76" s="7">
+        <f t="shared" si="1"/>
+        <v>1158.692</v>
+      </c>
+      <c r="D76" s="7">
+        <v>732.66899999999998</v>
+      </c>
+      <c r="E76" s="7">
+        <v>426.02300000000002</v>
+      </c>
+      <c r="F76" s="7">
+        <v>3406.7809999999999</v>
+      </c>
+      <c r="G76" s="7">
+        <v>4634.991</v>
+      </c>
+      <c r="H76" s="7">
+        <v>4788.6809999999996</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>28</v>
+      </c>
+      <c r="B77" s="11">
+        <v>2018</v>
+      </c>
+      <c r="C77" s="7">
+        <f>D77+E77</f>
+        <v>1178.923</v>
+      </c>
+      <c r="D77" s="7">
+        <v>734.2</v>
+      </c>
+      <c r="E77" s="7">
+        <v>444.72300000000001</v>
+      </c>
+      <c r="F77" s="7">
+        <v>3195.5569999999998</v>
+      </c>
+      <c r="G77" s="7">
+        <v>7563.942</v>
+      </c>
+      <c r="H77" s="7">
+        <v>5885.2169999999996</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>28</v>
+      </c>
+      <c r="B78" s="11">
+        <v>2019</v>
+      </c>
+      <c r="F78" s="7">
+        <v>3415.4450000000002</v>
+      </c>
+      <c r="G78" s="7">
+        <v>5511.6109999999999</v>
+      </c>
+      <c r="H78" s="7">
+        <v>4615.6750000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="6"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="6"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+    </row>
+    <row r="81" spans="1:73" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="30"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="6"/>
+      <c r="O81" s="6"/>
+      <c r="P81" s="6"/>
+      <c r="Q81" s="6"/>
+      <c r="R81" s="6"/>
+      <c r="S81" s="6"/>
+      <c r="T81" s="6"/>
+      <c r="U81" s="6"/>
+      <c r="V81" s="6"/>
+      <c r="W81" s="6"/>
+      <c r="X81" s="6"/>
+      <c r="Y81" s="6"/>
+      <c r="Z81" s="6"/>
+      <c r="AA81" s="6"/>
+      <c r="AB81" s="6"/>
+      <c r="AC81" s="6"/>
+      <c r="AD81" s="6"/>
+      <c r="AE81" s="6"/>
+      <c r="AF81" s="6"/>
+      <c r="AG81" s="6"/>
+      <c r="AH81" s="6"/>
+      <c r="AI81" s="6"/>
+      <c r="AJ81" s="6"/>
+      <c r="AK81" s="6"/>
+      <c r="AL81" s="6"/>
+      <c r="AM81" s="6"/>
+      <c r="AN81" s="6"/>
+      <c r="AO81" s="6"/>
+      <c r="AP81" s="6"/>
+      <c r="AQ81" s="6"/>
+      <c r="AR81" s="6"/>
+      <c r="AS81" s="6"/>
+      <c r="AT81" s="6"/>
+      <c r="AU81" s="6"/>
+      <c r="AV81" s="6"/>
+      <c r="AW81" s="6"/>
+      <c r="AX81" s="6"/>
+      <c r="AY81" s="6"/>
+      <c r="AZ81" s="6"/>
+      <c r="BA81" s="6"/>
+      <c r="BB81" s="6"/>
+      <c r="BC81" s="6"/>
+      <c r="BD81" s="6"/>
+      <c r="BE81" s="6"/>
+      <c r="BF81" s="6"/>
+      <c r="BG81" s="6"/>
+      <c r="BH81" s="6"/>
+      <c r="BI81" s="6"/>
+      <c r="BJ81" s="6"/>
+      <c r="BK81" s="6"/>
+      <c r="BL81" s="6"/>
+      <c r="BM81" s="6"/>
+      <c r="BN81" s="6"/>
+      <c r="BO81" s="6"/>
+      <c r="BP81" s="6"/>
+      <c r="BQ81" s="6"/>
+      <c r="BR81" s="6"/>
+      <c r="BS81" s="6"/>
+      <c r="BT81" s="6"/>
+      <c r="BU81" s="6"/>
+    </row>
+    <row r="82" spans="1:73" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="30"/>
       <c r="B82" s="10"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="23"/>
-      <c r="E82" s="23"/>
-      <c r="F82" s="23"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="8"/>
-      <c r="M82" s="8"/>
-      <c r="N82" s="8"/>
-      <c r="O82" s="8"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="6"/>
+      <c r="O82" s="6"/>
+      <c r="P82" s="6"/>
       <c r="Q82" s="6"/>
       <c r="R82" s="6"/>
       <c r="S82" s="6"/>
@@ -7382,19 +10290,25 @@
       <c r="BR82" s="6"/>
       <c r="BS82" s="6"/>
       <c r="BT82" s="6"/>
-    </row>
-    <row r="83" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BU82" s="6"/>
+    </row>
+    <row r="83" spans="1:73" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="30"/>
       <c r="B83" s="10"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="23"/>
-      <c r="E83" s="23"/>
-      <c r="F83" s="23"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
-      <c r="M83" s="8"/>
-      <c r="N83" s="8"/>
-      <c r="O83" s="8"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
+      <c r="M83" s="6"/>
+      <c r="N83" s="6"/>
+      <c r="O83" s="6"/>
+      <c r="P83" s="6"/>
       <c r="Q83" s="6"/>
       <c r="R83" s="6"/>
       <c r="S83" s="6"/>
@@ -7451,102 +10365,112 @@
       <c r="BR83" s="6"/>
       <c r="BS83" s="6"/>
       <c r="BT83" s="6"/>
-    </row>
-    <row r="84" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="30"/>
-      <c r="B84" s="10"/>
-      <c r="C84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8"/>
-      <c r="M84" s="8"/>
-      <c r="N84" s="8"/>
-      <c r="O84" s="8"/>
-      <c r="Q84" s="6"/>
-      <c r="R84" s="6"/>
-      <c r="S84" s="6"/>
-      <c r="T84" s="6"/>
-      <c r="U84" s="6"/>
-      <c r="V84" s="6"/>
-      <c r="W84" s="6"/>
-      <c r="X84" s="6"/>
-      <c r="Y84" s="6"/>
-      <c r="Z84" s="6"/>
-      <c r="AA84" s="6"/>
-      <c r="AB84" s="6"/>
-      <c r="AC84" s="6"/>
-      <c r="AD84" s="6"/>
-      <c r="AE84" s="6"/>
-      <c r="AF84" s="6"/>
-      <c r="AG84" s="6"/>
-      <c r="AH84" s="6"/>
-      <c r="AI84" s="6"/>
-      <c r="AJ84" s="6"/>
-      <c r="AK84" s="6"/>
-      <c r="AL84" s="6"/>
-      <c r="AM84" s="6"/>
-      <c r="AN84" s="6"/>
-      <c r="AO84" s="6"/>
-      <c r="AP84" s="6"/>
-      <c r="AQ84" s="6"/>
-      <c r="AR84" s="6"/>
-      <c r="AS84" s="6"/>
-      <c r="AT84" s="6"/>
-      <c r="AU84" s="6"/>
-      <c r="AV84" s="6"/>
-      <c r="AW84" s="6"/>
-      <c r="AX84" s="6"/>
-      <c r="AY84" s="6"/>
-      <c r="AZ84" s="6"/>
-      <c r="BA84" s="6"/>
-      <c r="BB84" s="6"/>
-      <c r="BC84" s="6"/>
-      <c r="BD84" s="6"/>
-      <c r="BE84" s="6"/>
-      <c r="BF84" s="6"/>
-      <c r="BG84" s="6"/>
-      <c r="BH84" s="6"/>
-      <c r="BI84" s="6"/>
-      <c r="BJ84" s="6"/>
-      <c r="BK84" s="6"/>
-      <c r="BL84" s="6"/>
-      <c r="BM84" s="6"/>
-      <c r="BN84" s="6"/>
-      <c r="BO84" s="6"/>
-      <c r="BP84" s="6"/>
-      <c r="BQ84" s="6"/>
-      <c r="BR84" s="6"/>
-      <c r="BS84" s="6"/>
-      <c r="BT84" s="6"/>
-    </row>
-    <row r="85" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="D85" s="56"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="8"/>
-    </row>
-    <row r="86" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="H86" s="8"/>
-      <c r="I86" s="8"/>
-    </row>
-    <row r="87" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="BU83" s="6"/>
+    </row>
+    <row r="86" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="A86" s="30"/>
+    </row>
+    <row r="87" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A87" s="30"/>
     </row>
-    <row r="88" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A88" s="30"/>
     </row>
-    <row r="89" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A89" s="30"/>
+    <row r="89" spans="1:73" x14ac:dyDescent="0.25">
       <c r="E89" s="22"/>
     </row>
-    <row r="90" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:73" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="10"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
       <c r="E90" s="22"/>
-    </row>
-    <row r="91" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
+      <c r="L90" s="6"/>
+      <c r="M90" s="6"/>
+      <c r="N90" s="6"/>
+      <c r="O90" s="6"/>
+      <c r="P90" s="6"/>
+      <c r="Q90" s="6"/>
+      <c r="R90" s="6"/>
+      <c r="S90" s="6"/>
+      <c r="T90" s="6"/>
+      <c r="U90" s="6"/>
+      <c r="V90" s="6"/>
+      <c r="W90" s="6"/>
+      <c r="X90" s="6"/>
+      <c r="Y90" s="6"/>
+      <c r="Z90" s="6"/>
+      <c r="AA90" s="6"/>
+      <c r="AB90" s="6"/>
+      <c r="AC90" s="6"/>
+      <c r="AD90" s="6"/>
+      <c r="AE90" s="6"/>
+      <c r="AF90" s="6"/>
+      <c r="AG90" s="6"/>
+      <c r="AH90" s="6"/>
+      <c r="AI90" s="6"/>
+      <c r="AJ90" s="6"/>
+      <c r="AK90" s="6"/>
+      <c r="AL90" s="6"/>
+      <c r="AM90" s="6"/>
+      <c r="AN90" s="6"/>
+      <c r="AO90" s="6"/>
+      <c r="AP90" s="6"/>
+      <c r="AQ90" s="6"/>
+      <c r="AR90" s="6"/>
+      <c r="AS90" s="6"/>
+      <c r="AT90" s="6"/>
+      <c r="AU90" s="6"/>
+      <c r="AV90" s="6"/>
+      <c r="AW90" s="6"/>
+      <c r="AX90" s="6"/>
+      <c r="AY90" s="6"/>
+      <c r="AZ90" s="6"/>
+      <c r="BA90" s="6"/>
+      <c r="BB90" s="6"/>
+      <c r="BC90" s="6"/>
+      <c r="BD90" s="6"/>
+      <c r="BE90" s="6"/>
+      <c r="BF90" s="6"/>
+      <c r="BG90" s="6"/>
+      <c r="BH90" s="6"/>
+      <c r="BI90" s="6"/>
+      <c r="BJ90" s="6"/>
+      <c r="BK90" s="6"/>
+      <c r="BL90" s="6"/>
+      <c r="BM90" s="6"/>
+      <c r="BN90" s="6"/>
+      <c r="BO90" s="6"/>
+      <c r="BP90" s="6"/>
+      <c r="BQ90" s="6"/>
+      <c r="BR90" s="6"/>
+      <c r="BS90" s="6"/>
+      <c r="BT90" s="6"/>
+      <c r="BU90" s="6"/>
+    </row>
+    <row r="91" spans="1:73" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
-      <c r="C91" s="8"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
       <c r="E91" s="22"/>
-      <c r="F91" s="9"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6"/>
+      <c r="L91" s="6"/>
+      <c r="M91" s="6"/>
+      <c r="N91" s="6"/>
+      <c r="O91" s="6"/>
+      <c r="P91" s="6"/>
       <c r="Q91" s="6"/>
       <c r="R91" s="6"/>
       <c r="S91" s="6"/>
@@ -7603,3424 +10527,30 @@
       <c r="BR91" s="6"/>
       <c r="BS91" s="6"/>
       <c r="BT91" s="6"/>
-    </row>
-    <row r="92" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="10"/>
-      <c r="B92" s="10"/>
-      <c r="C92" s="8"/>
+      <c r="BU91" s="6"/>
+    </row>
+    <row r="92" spans="1:73" x14ac:dyDescent="0.25">
       <c r="E92" s="22"/>
-      <c r="F92" s="9"/>
-      <c r="Q92" s="6"/>
-      <c r="R92" s="6"/>
-      <c r="S92" s="6"/>
-      <c r="T92" s="6"/>
-      <c r="U92" s="6"/>
-      <c r="V92" s="6"/>
-      <c r="W92" s="6"/>
-      <c r="X92" s="6"/>
-      <c r="Y92" s="6"/>
-      <c r="Z92" s="6"/>
-      <c r="AA92" s="6"/>
-      <c r="AB92" s="6"/>
-      <c r="AC92" s="6"/>
-      <c r="AD92" s="6"/>
-      <c r="AE92" s="6"/>
-      <c r="AF92" s="6"/>
-      <c r="AG92" s="6"/>
-      <c r="AH92" s="6"/>
-      <c r="AI92" s="6"/>
-      <c r="AJ92" s="6"/>
-      <c r="AK92" s="6"/>
-      <c r="AL92" s="6"/>
-      <c r="AM92" s="6"/>
-      <c r="AN92" s="6"/>
-      <c r="AO92" s="6"/>
-      <c r="AP92" s="6"/>
-      <c r="AQ92" s="6"/>
-      <c r="AR92" s="6"/>
-      <c r="AS92" s="6"/>
-      <c r="AT92" s="6"/>
-      <c r="AU92" s="6"/>
-      <c r="AV92" s="6"/>
-      <c r="AW92" s="6"/>
-      <c r="AX92" s="6"/>
-      <c r="AY92" s="6"/>
-      <c r="AZ92" s="6"/>
-      <c r="BA92" s="6"/>
-      <c r="BB92" s="6"/>
-      <c r="BC92" s="6"/>
-      <c r="BD92" s="6"/>
-      <c r="BE92" s="6"/>
-      <c r="BF92" s="6"/>
-      <c r="BG92" s="6"/>
-      <c r="BH92" s="6"/>
-      <c r="BI92" s="6"/>
-      <c r="BJ92" s="6"/>
-      <c r="BK92" s="6"/>
-      <c r="BL92" s="6"/>
-      <c r="BM92" s="6"/>
-      <c r="BN92" s="6"/>
-      <c r="BO92" s="6"/>
-      <c r="BP92" s="6"/>
-      <c r="BQ92" s="6"/>
-      <c r="BR92" s="6"/>
-      <c r="BS92" s="6"/>
-      <c r="BT92" s="6"/>
-    </row>
-    <row r="93" spans="1:72" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:73" x14ac:dyDescent="0.25">
       <c r="E93" s="22"/>
     </row>
-    <row r="94" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:73" x14ac:dyDescent="0.25">
       <c r="E94" s="22"/>
     </row>
-    <row r="95" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="A95" s="30"/>
       <c r="E95" s="22"/>
     </row>
-    <row r="96" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A96" s="30"/>
       <c r="E96" s="22"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="30"/>
+    <row r="97" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E97" s="22"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E98" s="22"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E99" s="22"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E100" s="22"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E101" s="22"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E102" s="22"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E103" s="22"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E104" s="22"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E105" s="22"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63B1BC36-79CC-403E-BDAB-F4ACF4DC04E2}">
-  <dimension ref="A1:BT100"/>
-  <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G56" sqref="G56"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="2" customWidth="1"/>
-    <col min="3" max="4" width="24.140625" style="7" customWidth="1"/>
-    <col min="5" max="8" width="24.140625" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="10.7109375" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>6</v>
-      </c>
-      <c r="B2" s="11">
-        <v>1945</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>6</v>
-      </c>
-      <c r="B3" s="11">
-        <v>1946</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>6</v>
-      </c>
-      <c r="B4" s="11">
-        <v>1947</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>6</v>
-      </c>
-      <c r="B5" s="11">
-        <v>1948</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>6</v>
-      </c>
-      <c r="B6" s="11">
-        <v>1949</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="11">
-        <v>1950</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="11">
-        <v>1951</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>6</v>
-      </c>
-      <c r="B9" s="11">
-        <v>1952</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>6</v>
-      </c>
-      <c r="B10" s="11">
-        <v>1953</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>6</v>
-      </c>
-      <c r="B11" s="11">
-        <v>1954</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>6</v>
-      </c>
-      <c r="B12" s="11">
-        <v>1955</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>6</v>
-      </c>
-      <c r="B13" s="11">
-        <v>1956</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>6</v>
-      </c>
-      <c r="B14" s="11">
-        <v>1957</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>6</v>
-      </c>
-      <c r="B15" s="11">
-        <v>1958</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>6</v>
-      </c>
-      <c r="B16" s="11">
-        <v>1959</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>6</v>
-      </c>
-      <c r="B17" s="11">
-        <v>1960</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>6</v>
-      </c>
-      <c r="B18" s="11">
-        <v>1961</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>6</v>
-      </c>
-      <c r="B19" s="11">
-        <v>1962</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>6</v>
-      </c>
-      <c r="B20" s="11">
-        <v>1963</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>6</v>
-      </c>
-      <c r="B21" s="11">
-        <v>1964</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>6</v>
-      </c>
-      <c r="B22" s="11">
-        <v>1965</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>6</v>
-      </c>
-      <c r="B23" s="11">
-        <v>1966</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>6</v>
-      </c>
-      <c r="B24" s="11">
-        <v>1967</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>6</v>
-      </c>
-      <c r="B25" s="11">
-        <v>1968</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>6</v>
-      </c>
-      <c r="B26" s="11">
-        <v>1969</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>6</v>
-      </c>
-      <c r="B27" s="11">
-        <v>1970</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>6</v>
-      </c>
-      <c r="B28" s="11">
-        <v>1971</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>9</v>
-      </c>
-      <c r="B29" s="11">
-        <v>1972</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>9</v>
-      </c>
-      <c r="B30" s="11">
-        <v>1973</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>9</v>
-      </c>
-      <c r="B31" s="11">
-        <v>1974</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>9</v>
-      </c>
-      <c r="B32" s="11">
-        <v>1975</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>9</v>
-      </c>
-      <c r="B33" s="11">
-        <v>1976</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>9</v>
-      </c>
-      <c r="B34" s="11">
-        <v>1977</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>9</v>
-      </c>
-      <c r="B35" s="11">
-        <v>1978</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>9</v>
-      </c>
-      <c r="B36" s="11">
-        <v>1979</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>10</v>
-      </c>
-      <c r="B37" s="11">
-        <v>1980</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="7"/>
-    </row>
-    <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>10</v>
-      </c>
-      <c r="B38" s="11">
-        <v>1981</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="7"/>
-    </row>
-    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>10</v>
-      </c>
-      <c r="B39" s="11">
-        <v>1982</v>
-      </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="7"/>
-    </row>
-    <row r="40" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>10</v>
-      </c>
-      <c r="B40" s="11">
-        <v>1983</v>
-      </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="7"/>
-    </row>
-    <row r="41" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>10</v>
-      </c>
-      <c r="B41" s="11">
-        <v>1984</v>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="7"/>
-    </row>
-    <row r="42" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>10</v>
-      </c>
-      <c r="B42" s="11">
-        <v>1985</v>
-      </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="7"/>
-    </row>
-    <row r="43" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>12</v>
-      </c>
-      <c r="B43" s="11">
-        <v>1986</v>
-      </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="7"/>
-    </row>
-    <row r="44" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>12</v>
-      </c>
-      <c r="B44" s="11">
-        <v>1987</v>
-      </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="7"/>
-    </row>
-    <row r="45" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
-        <v>12</v>
-      </c>
-      <c r="B45" s="11">
-        <v>1988</v>
-      </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="7"/>
-    </row>
-    <row r="46" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
-        <v>12</v>
-      </c>
-      <c r="B46" s="11">
-        <v>1989</v>
-      </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="7"/>
-    </row>
-    <row r="47" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
-        <v>12</v>
-      </c>
-      <c r="B47" s="11">
-        <v>1990</v>
-      </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="7"/>
-    </row>
-    <row r="48" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
-        <v>12</v>
-      </c>
-      <c r="B48" s="11">
-        <v>1991</v>
-      </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="7"/>
-    </row>
-    <row r="49" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>12</v>
-      </c>
-      <c r="B49" s="11">
-        <v>1992</v>
-      </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="8"/>
-    </row>
-    <row r="50" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
-        <v>12</v>
-      </c>
-      <c r="B50" s="11">
-        <v>1993</v>
-      </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="8"/>
-    </row>
-    <row r="51" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>12</v>
-      </c>
-      <c r="B51" s="11">
-        <v>1994</v>
-      </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="8"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-    </row>
-    <row r="52" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
-        <v>12</v>
-      </c>
-      <c r="B52" s="11">
-        <v>1995</v>
-      </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="8"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-    </row>
-    <row r="53" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
-        <v>15</v>
-      </c>
-      <c r="B53" s="11">
-        <v>1995</v>
-      </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="8"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-    </row>
-    <row r="54" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
-        <v>15</v>
-      </c>
-      <c r="B54" s="11">
-        <v>1996</v>
-      </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="8"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-    </row>
-    <row r="55" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
-        <v>15</v>
-      </c>
-      <c r="B55" s="11">
-        <v>1997</v>
-      </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="8"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-    </row>
-    <row r="56" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
-        <v>15</v>
-      </c>
-      <c r="B56" s="11">
-        <v>1998</v>
-      </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="7">
-        <f>941.569+213.195</f>
-        <v>1154.7639999999999</v>
-      </c>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-    </row>
-    <row r="57" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
-        <v>15</v>
-      </c>
-      <c r="B57" s="11">
-        <v>1999</v>
-      </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="7">
-        <f>945.255+271.208</f>
-        <v>1216.463</v>
-      </c>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-    </row>
-    <row r="58" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
-        <v>15</v>
-      </c>
-      <c r="B58" s="11">
-        <v>2000</v>
-      </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="7"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-    </row>
-    <row r="59" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
-        <v>15</v>
-      </c>
-      <c r="B59" s="11">
-        <v>2001</v>
-      </c>
-      <c r="C59" s="3"/>
-      <c r="D59" s="7"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-    </row>
-    <row r="60" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
-        <v>15</v>
-      </c>
-      <c r="B60" s="11">
-        <v>2002</v>
-      </c>
-      <c r="C60" s="3"/>
-      <c r="D60" s="7"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-    </row>
-    <row r="61" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
-        <v>15</v>
-      </c>
-      <c r="B61" s="11">
-        <v>2003</v>
-      </c>
-      <c r="C61" s="8">
-        <v>901.44722968999997</v>
-      </c>
-      <c r="D61" s="7"/>
-      <c r="F61" s="3">
-        <v>1172.6949999999999</v>
-      </c>
-      <c r="G61" s="3">
-        <v>3355.3629999999998</v>
-      </c>
-      <c r="H61" s="3">
-        <v>7628.6629999999996</v>
-      </c>
-      <c r="I61" s="22"/>
-    </row>
-    <row r="62" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
-        <v>15</v>
-      </c>
-      <c r="B62" s="11">
-        <v>2004</v>
-      </c>
-      <c r="C62" s="8">
-        <v>819.09412166000004</v>
-      </c>
-      <c r="D62" s="7"/>
-      <c r="F62" s="3">
-        <v>1444.4349999999999</v>
-      </c>
-      <c r="G62" s="3">
-        <v>3298.2890000000002</v>
-      </c>
-      <c r="H62" s="3">
-        <v>10972.534</v>
-      </c>
-      <c r="I62" s="22"/>
-    </row>
-    <row r="63" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
-        <v>15</v>
-      </c>
-      <c r="B63" s="11">
-        <v>2005</v>
-      </c>
-      <c r="C63" s="8">
-        <v>858.37958348000006</v>
-      </c>
-      <c r="D63" s="7"/>
-      <c r="F63" s="3">
-        <v>2228.107</v>
-      </c>
-      <c r="G63" s="3">
-        <v>3318.0369999999998</v>
-      </c>
-      <c r="H63" s="3">
-        <v>11535.121999999999</v>
-      </c>
-      <c r="I63" s="22"/>
-    </row>
-    <row r="64" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
-        <v>25</v>
-      </c>
-      <c r="B64" s="11">
-        <v>2003</v>
-      </c>
-      <c r="C64" s="19"/>
-      <c r="D64" s="7">
-        <v>704.35699999999997</v>
-      </c>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="22"/>
-    </row>
-    <row r="65" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
-        <v>25</v>
-      </c>
-      <c r="B65" s="11">
-        <v>2004</v>
-      </c>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="I65" s="22"/>
-    </row>
-    <row r="66" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
-        <v>25</v>
-      </c>
-      <c r="B66" s="11">
-        <v>2005</v>
-      </c>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="I66" s="22"/>
-    </row>
-    <row r="67" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
-        <v>25</v>
-      </c>
-      <c r="B67" s="11">
-        <v>2006</v>
-      </c>
-      <c r="D67" s="6"/>
-      <c r="I67" s="22"/>
-    </row>
-    <row r="68" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
-        <v>27</v>
-      </c>
-      <c r="B68" s="11">
-        <v>2003</v>
-      </c>
-      <c r="C68" s="7">
-        <v>790.90893583649995</v>
-      </c>
-      <c r="D68" s="6"/>
-      <c r="F68" s="3">
-        <v>509.61599999999999</v>
-      </c>
-      <c r="G68" s="3">
-        <v>2346.2510000000002</v>
-      </c>
-      <c r="H68" s="3">
-        <v>3424.3919999999998</v>
-      </c>
-      <c r="I68" s="22"/>
-    </row>
-    <row r="69" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
-        <v>27</v>
-      </c>
-      <c r="B69" s="11">
-        <v>2004</v>
-      </c>
-      <c r="C69" s="7">
-        <v>934.63890502670006</v>
-      </c>
-      <c r="D69" s="6"/>
-      <c r="F69" s="3">
-        <v>646.22699999999998</v>
-      </c>
-      <c r="G69" s="3">
-        <v>1469.97</v>
-      </c>
-      <c r="H69" s="3">
-        <v>6455.6959999999999</v>
-      </c>
-      <c r="I69" s="22"/>
-    </row>
-    <row r="70" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
-        <v>27</v>
-      </c>
-      <c r="B70" s="11">
-        <v>2005</v>
-      </c>
-      <c r="C70" s="7">
-        <v>869.2332499173001</v>
-      </c>
-      <c r="D70" s="6"/>
-      <c r="F70" s="3">
-        <v>813.60900000000004</v>
-      </c>
-      <c r="G70" s="3">
-        <v>1594.422</v>
-      </c>
-      <c r="H70" s="3">
-        <v>7257.1170000000002</v>
-      </c>
-      <c r="I70" s="22"/>
-    </row>
-    <row r="71" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
-        <v>27</v>
-      </c>
-      <c r="B71" s="11">
-        <v>2006</v>
-      </c>
-      <c r="C71" s="3">
-        <f>D71+E71</f>
-        <v>1013.396</v>
-      </c>
-      <c r="D71" s="7">
-        <v>586.322</v>
-      </c>
-      <c r="E71" s="3">
-        <v>427.07400000000001</v>
-      </c>
-      <c r="F71" s="3">
-        <v>810</v>
-      </c>
-      <c r="G71" s="3">
-        <v>3157.335</v>
-      </c>
-      <c r="H71" s="3">
-        <v>14911.803</v>
-      </c>
-      <c r="I71" s="22"/>
-    </row>
-    <row r="72" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
-        <v>27</v>
-      </c>
-      <c r="B72" s="11">
-        <v>2007</v>
-      </c>
-      <c r="C72" s="3">
-        <f t="shared" ref="C72:C76" si="0">D72+E72</f>
-        <v>1741.2279999999998</v>
-      </c>
-      <c r="D72" s="7">
-        <v>1113.5429999999999</v>
-      </c>
-      <c r="E72" s="3">
-        <v>627.68499999999995</v>
-      </c>
-      <c r="F72" s="3">
-        <v>804.54899999999998</v>
-      </c>
-      <c r="G72" s="3">
-        <v>4406.3050000000003</v>
-      </c>
-      <c r="H72" s="3">
-        <v>21148.894</v>
-      </c>
-      <c r="I72" s="22"/>
-    </row>
-    <row r="73" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
-        <v>27</v>
-      </c>
-      <c r="B73" s="11">
-        <v>2008</v>
-      </c>
-      <c r="C73" s="3">
-        <f t="shared" si="0"/>
-        <v>1494.61</v>
-      </c>
-      <c r="D73" s="7">
-        <v>820.62699999999995</v>
-      </c>
-      <c r="E73" s="3">
-        <v>673.98299999999995</v>
-      </c>
-      <c r="F73" s="3">
-        <v>732.27300000000002</v>
-      </c>
-      <c r="G73" s="3">
-        <v>4105.2259999999997</v>
-      </c>
-      <c r="H73" s="3">
-        <v>24651.62</v>
-      </c>
-      <c r="I73" s="22"/>
-    </row>
-    <row r="74" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
-        <v>27</v>
-      </c>
-      <c r="B74" s="11">
-        <v>2009</v>
-      </c>
-      <c r="C74" s="3">
-        <f t="shared" si="0"/>
-        <v>1085.712</v>
-      </c>
-      <c r="D74" s="7">
-        <v>543.71500000000003</v>
-      </c>
-      <c r="E74" s="3">
-        <v>541.99699999999996</v>
-      </c>
-      <c r="F74" s="3">
-        <v>618.51900000000001</v>
-      </c>
-      <c r="G74" s="3">
-        <v>3049.2249999999999</v>
-      </c>
-      <c r="H74" s="3">
-        <v>20399.199000000001</v>
-      </c>
-      <c r="I74" s="22"/>
-    </row>
-    <row r="75" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
-        <v>27</v>
-      </c>
-      <c r="B75" s="11">
-        <v>2010</v>
-      </c>
-      <c r="C75" s="3">
-        <f t="shared" si="0"/>
-        <v>1145.9780000000001</v>
-      </c>
-      <c r="D75" s="7">
-        <v>507.49700000000001</v>
-      </c>
-      <c r="E75" s="3">
-        <v>638.48099999999999</v>
-      </c>
-      <c r="F75" s="3">
-        <v>577.404</v>
-      </c>
-      <c r="G75" s="3">
-        <v>2741.011</v>
-      </c>
-      <c r="H75" s="3">
-        <v>26038.659</v>
-      </c>
-      <c r="I75" s="22"/>
-    </row>
-    <row r="76" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
-        <v>27</v>
-      </c>
-      <c r="B76" s="11">
-        <v>2011</v>
-      </c>
-      <c r="C76" s="3">
-        <f t="shared" si="0"/>
-        <v>1180.7739999999999</v>
-      </c>
-      <c r="D76" s="7">
-        <v>517.15700000000004</v>
-      </c>
-      <c r="E76" s="3">
-        <v>663.61699999999996</v>
-      </c>
-      <c r="F76" s="3">
-        <v>623.62900000000002</v>
-      </c>
-      <c r="G76" s="3">
-        <v>2429.1030000000001</v>
-      </c>
-      <c r="H76" s="3">
-        <v>26446.292000000001</v>
-      </c>
-      <c r="I76" s="22"/>
-    </row>
-    <row r="77" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
-        <v>28</v>
-      </c>
-      <c r="B77" s="11">
-        <v>2012</v>
-      </c>
-      <c r="C77" s="3">
-        <f t="shared" ref="C77:C83" si="1">E77+D77</f>
-        <v>1004.049</v>
-      </c>
-      <c r="D77" s="3">
-        <v>378.505</v>
-      </c>
-      <c r="E77" s="3">
-        <v>625.54399999999998</v>
-      </c>
-      <c r="F77" s="3">
-        <v>722.11400000000003</v>
-      </c>
-      <c r="G77" s="3">
-        <v>2359.4920000000002</v>
-      </c>
-      <c r="H77" s="3">
-        <v>25387.23</v>
-      </c>
-      <c r="I77" s="22"/>
-    </row>
-    <row r="78" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
-        <v>28</v>
-      </c>
-      <c r="B78" s="11">
-        <v>2013</v>
-      </c>
-      <c r="C78" s="3">
-        <f t="shared" si="1"/>
-        <v>946.01599999999996</v>
-      </c>
-      <c r="D78" s="3">
-        <v>290.38400000000001</v>
-      </c>
-      <c r="E78" s="3">
-        <v>655.63199999999995</v>
-      </c>
-      <c r="F78" s="3">
-        <v>728.94299999999998</v>
-      </c>
-      <c r="G78" s="3">
-        <v>2179.9409999999998</v>
-      </c>
-      <c r="H78" s="3">
-        <v>31836.011999999999</v>
-      </c>
-      <c r="I78" s="22"/>
-    </row>
-    <row r="79" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
-        <v>28</v>
-      </c>
-      <c r="B79" s="11">
-        <v>2014</v>
-      </c>
-      <c r="C79" s="3">
-        <f t="shared" si="1"/>
-        <v>1034.6280000000002</v>
-      </c>
-      <c r="D79" s="3">
-        <v>327.24400000000003</v>
-      </c>
-      <c r="E79" s="3">
-        <v>707.38400000000001</v>
-      </c>
-      <c r="F79" s="3">
-        <v>1141.9649999999999</v>
-      </c>
-      <c r="G79" s="3">
-        <v>4642.4650000000001</v>
-      </c>
-      <c r="H79" s="3">
-        <v>29436.129000000001</v>
-      </c>
-      <c r="I79" s="22"/>
-    </row>
-    <row r="80" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
-        <v>28</v>
-      </c>
-      <c r="B80" s="11">
-        <v>2015</v>
-      </c>
-      <c r="C80" s="3">
-        <f t="shared" si="1"/>
-        <v>1079.1000000000001</v>
-      </c>
-      <c r="D80" s="3">
-        <v>366.73200000000003</v>
-      </c>
-      <c r="E80" s="3">
-        <v>712.36800000000005</v>
-      </c>
-      <c r="F80" s="3">
-        <v>873.85500000000002</v>
-      </c>
-      <c r="G80" s="3">
-        <v>3367.3890000000001</v>
-      </c>
-      <c r="H80" s="3">
-        <v>26235.525000000001</v>
-      </c>
-      <c r="I80" s="22"/>
-    </row>
-    <row r="81" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
-        <v>28</v>
-      </c>
-      <c r="B81" s="11">
-        <v>2016</v>
-      </c>
-      <c r="C81" s="3">
-        <f t="shared" si="1"/>
-        <v>1255.011</v>
-      </c>
-      <c r="D81" s="3">
-        <v>540.10900000000004</v>
-      </c>
-      <c r="E81" s="3">
-        <v>714.90200000000004</v>
-      </c>
-      <c r="F81" s="3">
-        <v>1001.8440000000001</v>
-      </c>
-      <c r="G81" s="3">
-        <v>4195.741</v>
-      </c>
-      <c r="H81" s="3">
-        <v>26909.106</v>
-      </c>
-    </row>
-    <row r="82" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
-        <v>28</v>
-      </c>
-      <c r="B82" s="11">
-        <v>2017</v>
-      </c>
-      <c r="C82" s="3">
-        <f t="shared" si="1"/>
-        <v>1534.989</v>
-      </c>
-      <c r="D82" s="3">
-        <v>730.62099999999998</v>
-      </c>
-      <c r="E82" s="3">
-        <v>804.36800000000005</v>
-      </c>
-      <c r="F82" s="3">
-        <v>2117.5160000000001</v>
-      </c>
-      <c r="G82" s="3">
-        <v>4777.6589999999997</v>
-      </c>
-      <c r="H82" s="3">
-        <v>34995.555</v>
-      </c>
-    </row>
-    <row r="83" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
-        <v>28</v>
-      </c>
-      <c r="B83" s="11">
-        <v>2018</v>
-      </c>
-      <c r="C83" s="3">
-        <f t="shared" si="1"/>
-        <v>1673.6289999999999</v>
-      </c>
-      <c r="D83" s="3">
-        <v>764.327</v>
-      </c>
-      <c r="E83" s="3">
-        <v>909.30200000000002</v>
-      </c>
-      <c r="F83" s="3">
-        <v>1019.8150000000001</v>
-      </c>
-      <c r="G83" s="3">
-        <v>8142.7259999999997</v>
-      </c>
-      <c r="H83" s="3">
-        <v>45395.548999999999</v>
-      </c>
-    </row>
-    <row r="84" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
-        <v>28</v>
-      </c>
-      <c r="B84" s="11">
-        <v>2019</v>
-      </c>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="F84" s="3">
-        <v>2317.875</v>
-      </c>
-      <c r="G84" s="3">
-        <v>9001.4130000000005</v>
-      </c>
-      <c r="H84" s="3">
-        <v>45385.997000000003</v>
-      </c>
-    </row>
-    <row r="85" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="30"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="6"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="6"/>
-      <c r="K85" s="6"/>
-      <c r="L85" s="6"/>
-      <c r="M85" s="6"/>
-      <c r="N85" s="6"/>
-      <c r="O85" s="6"/>
-      <c r="P85" s="6"/>
-      <c r="Q85" s="6"/>
-      <c r="R85" s="6"/>
-      <c r="S85" s="6"/>
-      <c r="T85" s="6"/>
-      <c r="U85" s="6"/>
-      <c r="V85" s="6"/>
-      <c r="W85" s="6"/>
-      <c r="X85" s="6"/>
-      <c r="Y85" s="6"/>
-      <c r="Z85" s="6"/>
-      <c r="AA85" s="6"/>
-      <c r="AB85" s="6"/>
-      <c r="AC85" s="6"/>
-      <c r="AD85" s="6"/>
-      <c r="AE85" s="6"/>
-      <c r="AF85" s="6"/>
-      <c r="AG85" s="6"/>
-      <c r="AH85" s="6"/>
-      <c r="AI85" s="6"/>
-      <c r="AJ85" s="6"/>
-      <c r="AK85" s="6"/>
-      <c r="AL85" s="6"/>
-      <c r="AM85" s="6"/>
-      <c r="AN85" s="6"/>
-      <c r="AO85" s="6"/>
-      <c r="AP85" s="6"/>
-      <c r="AQ85" s="6"/>
-      <c r="AR85" s="6"/>
-      <c r="AS85" s="6"/>
-      <c r="AT85" s="6"/>
-      <c r="AU85" s="6"/>
-      <c r="AV85" s="6"/>
-      <c r="AW85" s="6"/>
-      <c r="AX85" s="6"/>
-      <c r="AY85" s="6"/>
-      <c r="AZ85" s="6"/>
-      <c r="BA85" s="6"/>
-      <c r="BB85" s="6"/>
-      <c r="BC85" s="6"/>
-      <c r="BD85" s="6"/>
-      <c r="BE85" s="6"/>
-      <c r="BF85" s="6"/>
-      <c r="BG85" s="6"/>
-      <c r="BH85" s="6"/>
-      <c r="BI85" s="6"/>
-      <c r="BJ85" s="6"/>
-      <c r="BK85" s="6"/>
-      <c r="BL85" s="6"/>
-      <c r="BM85" s="6"/>
-      <c r="BN85" s="6"/>
-      <c r="BO85" s="6"/>
-      <c r="BP85" s="6"/>
-      <c r="BQ85" s="6"/>
-      <c r="BR85" s="6"/>
-      <c r="BS85" s="6"/>
-      <c r="BT85" s="6"/>
-    </row>
-    <row r="86" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="30"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
-      <c r="K86" s="6"/>
-      <c r="L86" s="6"/>
-      <c r="M86" s="6"/>
-      <c r="N86" s="6"/>
-      <c r="O86" s="6"/>
-      <c r="P86" s="6"/>
-      <c r="Q86" s="6"/>
-      <c r="R86" s="6"/>
-      <c r="S86" s="6"/>
-      <c r="T86" s="6"/>
-      <c r="U86" s="6"/>
-      <c r="V86" s="6"/>
-      <c r="W86" s="6"/>
-      <c r="X86" s="6"/>
-      <c r="Y86" s="6"/>
-      <c r="Z86" s="6"/>
-      <c r="AA86" s="6"/>
-      <c r="AB86" s="6"/>
-      <c r="AC86" s="6"/>
-      <c r="AD86" s="6"/>
-      <c r="AE86" s="6"/>
-      <c r="AF86" s="6"/>
-      <c r="AG86" s="6"/>
-      <c r="AH86" s="6"/>
-      <c r="AI86" s="6"/>
-      <c r="AJ86" s="6"/>
-      <c r="AK86" s="6"/>
-      <c r="AL86" s="6"/>
-      <c r="AM86" s="6"/>
-      <c r="AN86" s="6"/>
-      <c r="AO86" s="6"/>
-      <c r="AP86" s="6"/>
-      <c r="AQ86" s="6"/>
-      <c r="AR86" s="6"/>
-      <c r="AS86" s="6"/>
-      <c r="AT86" s="6"/>
-      <c r="AU86" s="6"/>
-      <c r="AV86" s="6"/>
-      <c r="AW86" s="6"/>
-      <c r="AX86" s="6"/>
-      <c r="AY86" s="6"/>
-      <c r="AZ86" s="6"/>
-      <c r="BA86" s="6"/>
-      <c r="BB86" s="6"/>
-      <c r="BC86" s="6"/>
-      <c r="BD86" s="6"/>
-      <c r="BE86" s="6"/>
-      <c r="BF86" s="6"/>
-      <c r="BG86" s="6"/>
-      <c r="BH86" s="6"/>
-      <c r="BI86" s="6"/>
-      <c r="BJ86" s="6"/>
-      <c r="BK86" s="6"/>
-      <c r="BL86" s="6"/>
-      <c r="BM86" s="6"/>
-      <c r="BN86" s="6"/>
-      <c r="BO86" s="6"/>
-      <c r="BP86" s="6"/>
-      <c r="BQ86" s="6"/>
-      <c r="BR86" s="6"/>
-      <c r="BS86" s="6"/>
-      <c r="BT86" s="6"/>
-    </row>
-    <row r="87" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="30"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="7"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
-      <c r="K87" s="6"/>
-      <c r="L87" s="6"/>
-      <c r="M87" s="6"/>
-      <c r="N87" s="6"/>
-      <c r="O87" s="6"/>
-      <c r="P87" s="6"/>
-      <c r="Q87" s="6"/>
-      <c r="R87" s="6"/>
-      <c r="S87" s="6"/>
-      <c r="T87" s="6"/>
-      <c r="U87" s="6"/>
-      <c r="V87" s="6"/>
-      <c r="W87" s="6"/>
-      <c r="X87" s="6"/>
-      <c r="Y87" s="6"/>
-      <c r="Z87" s="6"/>
-      <c r="AA87" s="6"/>
-      <c r="AB87" s="6"/>
-      <c r="AC87" s="6"/>
-      <c r="AD87" s="6"/>
-      <c r="AE87" s="6"/>
-      <c r="AF87" s="6"/>
-      <c r="AG87" s="6"/>
-      <c r="AH87" s="6"/>
-      <c r="AI87" s="6"/>
-      <c r="AJ87" s="6"/>
-      <c r="AK87" s="6"/>
-      <c r="AL87" s="6"/>
-      <c r="AM87" s="6"/>
-      <c r="AN87" s="6"/>
-      <c r="AO87" s="6"/>
-      <c r="AP87" s="6"/>
-      <c r="AQ87" s="6"/>
-      <c r="AR87" s="6"/>
-      <c r="AS87" s="6"/>
-      <c r="AT87" s="6"/>
-      <c r="AU87" s="6"/>
-      <c r="AV87" s="6"/>
-      <c r="AW87" s="6"/>
-      <c r="AX87" s="6"/>
-      <c r="AY87" s="6"/>
-      <c r="AZ87" s="6"/>
-      <c r="BA87" s="6"/>
-      <c r="BB87" s="6"/>
-      <c r="BC87" s="6"/>
-      <c r="BD87" s="6"/>
-      <c r="BE87" s="6"/>
-      <c r="BF87" s="6"/>
-      <c r="BG87" s="6"/>
-      <c r="BH87" s="6"/>
-      <c r="BI87" s="6"/>
-      <c r="BJ87" s="6"/>
-      <c r="BK87" s="6"/>
-      <c r="BL87" s="6"/>
-      <c r="BM87" s="6"/>
-      <c r="BN87" s="6"/>
-      <c r="BO87" s="6"/>
-      <c r="BP87" s="6"/>
-      <c r="BQ87" s="6"/>
-      <c r="BR87" s="6"/>
-      <c r="BS87" s="6"/>
-      <c r="BT87" s="6"/>
-    </row>
-    <row r="90" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A90" s="30"/>
-    </row>
-    <row r="91" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A91" s="30"/>
-    </row>
-    <row r="92" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A92" s="30"/>
-    </row>
-    <row r="94" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="10"/>
-      <c r="B94" s="2"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
-      <c r="I94" s="6"/>
-      <c r="J94" s="6"/>
-      <c r="K94" s="6"/>
-      <c r="L94" s="6"/>
-      <c r="M94" s="6"/>
-      <c r="N94" s="6"/>
-      <c r="O94" s="6"/>
-      <c r="P94" s="6"/>
-      <c r="Q94" s="6"/>
-      <c r="R94" s="6"/>
-      <c r="S94" s="6"/>
-      <c r="T94" s="6"/>
-      <c r="U94" s="6"/>
-      <c r="V94" s="6"/>
-      <c r="W94" s="6"/>
-      <c r="X94" s="6"/>
-      <c r="Y94" s="6"/>
-      <c r="Z94" s="6"/>
-      <c r="AA94" s="6"/>
-      <c r="AB94" s="6"/>
-      <c r="AC94" s="6"/>
-      <c r="AD94" s="6"/>
-      <c r="AE94" s="6"/>
-      <c r="AF94" s="6"/>
-      <c r="AG94" s="6"/>
-      <c r="AH94" s="6"/>
-      <c r="AI94" s="6"/>
-      <c r="AJ94" s="6"/>
-      <c r="AK94" s="6"/>
-      <c r="AL94" s="6"/>
-      <c r="AM94" s="6"/>
-      <c r="AN94" s="6"/>
-      <c r="AO94" s="6"/>
-      <c r="AP94" s="6"/>
-      <c r="AQ94" s="6"/>
-      <c r="AR94" s="6"/>
-      <c r="AS94" s="6"/>
-      <c r="AT94" s="6"/>
-      <c r="AU94" s="6"/>
-      <c r="AV94" s="6"/>
-      <c r="AW94" s="6"/>
-      <c r="AX94" s="6"/>
-      <c r="AY94" s="6"/>
-      <c r="AZ94" s="6"/>
-      <c r="BA94" s="6"/>
-      <c r="BB94" s="6"/>
-      <c r="BC94" s="6"/>
-      <c r="BD94" s="6"/>
-      <c r="BE94" s="6"/>
-      <c r="BF94" s="6"/>
-      <c r="BG94" s="6"/>
-      <c r="BH94" s="6"/>
-      <c r="BI94" s="6"/>
-      <c r="BJ94" s="6"/>
-      <c r="BK94" s="6"/>
-      <c r="BL94" s="6"/>
-      <c r="BM94" s="6"/>
-      <c r="BN94" s="6"/>
-      <c r="BO94" s="6"/>
-      <c r="BP94" s="6"/>
-      <c r="BQ94" s="6"/>
-      <c r="BR94" s="6"/>
-      <c r="BS94" s="6"/>
-      <c r="BT94" s="6"/>
-    </row>
-    <row r="95" spans="1:72" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="10"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
-      <c r="I95" s="6"/>
-      <c r="J95" s="6"/>
-      <c r="K95" s="6"/>
-      <c r="L95" s="6"/>
-      <c r="M95" s="6"/>
-      <c r="N95" s="6"/>
-      <c r="O95" s="6"/>
-      <c r="P95" s="6"/>
-      <c r="Q95" s="6"/>
-      <c r="R95" s="6"/>
-      <c r="S95" s="6"/>
-      <c r="T95" s="6"/>
-      <c r="U95" s="6"/>
-      <c r="V95" s="6"/>
-      <c r="W95" s="6"/>
-      <c r="X95" s="6"/>
-      <c r="Y95" s="6"/>
-      <c r="Z95" s="6"/>
-      <c r="AA95" s="6"/>
-      <c r="AB95" s="6"/>
-      <c r="AC95" s="6"/>
-      <c r="AD95" s="6"/>
-      <c r="AE95" s="6"/>
-      <c r="AF95" s="6"/>
-      <c r="AG95" s="6"/>
-      <c r="AH95" s="6"/>
-      <c r="AI95" s="6"/>
-      <c r="AJ95" s="6"/>
-      <c r="AK95" s="6"/>
-      <c r="AL95" s="6"/>
-      <c r="AM95" s="6"/>
-      <c r="AN95" s="6"/>
-      <c r="AO95" s="6"/>
-      <c r="AP95" s="6"/>
-      <c r="AQ95" s="6"/>
-      <c r="AR95" s="6"/>
-      <c r="AS95" s="6"/>
-      <c r="AT95" s="6"/>
-      <c r="AU95" s="6"/>
-      <c r="AV95" s="6"/>
-      <c r="AW95" s="6"/>
-      <c r="AX95" s="6"/>
-      <c r="AY95" s="6"/>
-      <c r="AZ95" s="6"/>
-      <c r="BA95" s="6"/>
-      <c r="BB95" s="6"/>
-      <c r="BC95" s="6"/>
-      <c r="BD95" s="6"/>
-      <c r="BE95" s="6"/>
-      <c r="BF95" s="6"/>
-      <c r="BG95" s="6"/>
-      <c r="BH95" s="6"/>
-      <c r="BI95" s="6"/>
-      <c r="BJ95" s="6"/>
-      <c r="BK95" s="6"/>
-      <c r="BL95" s="6"/>
-      <c r="BM95" s="6"/>
-      <c r="BN95" s="6"/>
-      <c r="BO95" s="6"/>
-      <c r="BP95" s="6"/>
-      <c r="BQ95" s="6"/>
-      <c r="BR95" s="6"/>
-      <c r="BS95" s="6"/>
-      <c r="BT95" s="6"/>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="30"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="30"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2629125-5F59-4D2B-B790-D44D45AA199C}">
-  <dimension ref="A1:BU102"/>
-  <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L79" sqref="L79:M80"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="10" customWidth="1"/>
-    <col min="3" max="8" width="19.7109375" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="10.7109375" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="42" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>6</v>
-      </c>
-      <c r="B2" s="11">
-        <v>1945</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>6</v>
-      </c>
-      <c r="B3" s="11">
-        <v>1946</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>6</v>
-      </c>
-      <c r="B4" s="11">
-        <v>1947</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>6</v>
-      </c>
-      <c r="B5" s="11">
-        <v>1948</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>6</v>
-      </c>
-      <c r="B6" s="11">
-        <v>1949</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="11">
-        <v>1950</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="11">
-        <v>1951</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>6</v>
-      </c>
-      <c r="B9" s="11">
-        <v>1952</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>6</v>
-      </c>
-      <c r="B10" s="11">
-        <v>1953</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>6</v>
-      </c>
-      <c r="B11" s="11">
-        <v>1954</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>6</v>
-      </c>
-      <c r="B12" s="11">
-        <v>1955</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>6</v>
-      </c>
-      <c r="B13" s="11">
-        <v>1956</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>6</v>
-      </c>
-      <c r="B14" s="11">
-        <v>1957</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>6</v>
-      </c>
-      <c r="B15" s="11">
-        <v>1958</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>6</v>
-      </c>
-      <c r="B16" s="11">
-        <v>1959</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>6</v>
-      </c>
-      <c r="B17" s="11">
-        <v>1960</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>6</v>
-      </c>
-      <c r="B18" s="11">
-        <v>1961</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>6</v>
-      </c>
-      <c r="B19" s="11">
-        <v>1962</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>6</v>
-      </c>
-      <c r="B20" s="11">
-        <v>1963</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>6</v>
-      </c>
-      <c r="B21" s="11">
-        <v>1964</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>6</v>
-      </c>
-      <c r="B22" s="11">
-        <v>1965</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>6</v>
-      </c>
-      <c r="B23" s="11">
-        <v>1966</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>6</v>
-      </c>
-      <c r="B24" s="11">
-        <v>1967</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>6</v>
-      </c>
-      <c r="B25" s="11">
-        <v>1968</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>6</v>
-      </c>
-      <c r="B26" s="11">
-        <v>1969</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>6</v>
-      </c>
-      <c r="B27" s="11">
-        <v>1970</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>6</v>
-      </c>
-      <c r="B28" s="11">
-        <v>1971</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>9</v>
-      </c>
-      <c r="B29" s="11">
-        <v>1972</v>
-      </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>9</v>
-      </c>
-      <c r="B30" s="11">
-        <v>1973</v>
-      </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>9</v>
-      </c>
-      <c r="B31" s="11">
-        <v>1974</v>
-      </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>9</v>
-      </c>
-      <c r="B32" s="11">
-        <v>1975</v>
-      </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>9</v>
-      </c>
-      <c r="B33" s="11">
-        <v>1976</v>
-      </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>9</v>
-      </c>
-      <c r="B34" s="11">
-        <v>1977</v>
-      </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>9</v>
-      </c>
-      <c r="B35" s="11">
-        <v>1978</v>
-      </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>9</v>
-      </c>
-      <c r="B36" s="11">
-        <v>1979</v>
-      </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>10</v>
-      </c>
-      <c r="B37" s="11">
-        <v>1980</v>
-      </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>10</v>
-      </c>
-      <c r="B38" s="11">
-        <v>1981</v>
-      </c>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>10</v>
-      </c>
-      <c r="B39" s="11">
-        <v>1982</v>
-      </c>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>10</v>
-      </c>
-      <c r="B40" s="11">
-        <v>1983</v>
-      </c>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>10</v>
-      </c>
-      <c r="B41" s="11">
-        <v>1984</v>
-      </c>
-      <c r="I41" s="8"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>10</v>
-      </c>
-      <c r="B42" s="11">
-        <v>1985</v>
-      </c>
-      <c r="I42" s="8"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>12</v>
-      </c>
-      <c r="B43" s="11">
-        <v>1986</v>
-      </c>
-      <c r="I43" s="8"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>12</v>
-      </c>
-      <c r="B44" s="11">
-        <v>1987</v>
-      </c>
-      <c r="I44" s="8"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
-        <v>12</v>
-      </c>
-      <c r="B45" s="11">
-        <v>1988</v>
-      </c>
-      <c r="I45" s="8"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
-        <v>12</v>
-      </c>
-      <c r="B46" s="11">
-        <v>1989</v>
-      </c>
-      <c r="C46" s="3"/>
-      <c r="I46" s="8"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
-        <v>12</v>
-      </c>
-      <c r="B47" s="11">
-        <v>1990</v>
-      </c>
-      <c r="C47" s="3"/>
-      <c r="I47" s="8"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
-        <v>12</v>
-      </c>
-      <c r="B48" s="11">
-        <v>1991</v>
-      </c>
-      <c r="C48" s="3"/>
-      <c r="I48" s="8"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>12</v>
-      </c>
-      <c r="B49" s="11">
-        <v>1992</v>
-      </c>
-      <c r="C49" s="3"/>
-      <c r="I49" s="8"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
-        <v>12</v>
-      </c>
-      <c r="B50" s="11">
-        <v>1993</v>
-      </c>
-      <c r="C50" s="3"/>
-      <c r="I50" s="8"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>12</v>
-      </c>
-      <c r="B51" s="11">
-        <v>1994</v>
-      </c>
-      <c r="C51" s="3"/>
-      <c r="I51" s="8"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
-        <v>12</v>
-      </c>
-      <c r="B52" s="11">
-        <v>1995</v>
-      </c>
-      <c r="C52" s="3"/>
-      <c r="I52" s="8"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
-        <v>15</v>
-      </c>
-      <c r="B53" s="11">
-        <v>1995</v>
-      </c>
-      <c r="C53" s="3"/>
-      <c r="I53" s="8"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
-        <v>15</v>
-      </c>
-      <c r="B54" s="11">
-        <v>1996</v>
-      </c>
-      <c r="C54" s="3"/>
-      <c r="I54" s="8"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
-        <v>15</v>
-      </c>
-      <c r="B55" s="11">
-        <v>1997</v>
-      </c>
-      <c r="C55" s="3"/>
-      <c r="I55" s="8"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
-        <v>15</v>
-      </c>
-      <c r="B56" s="11">
-        <v>1998</v>
-      </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="7">
-        <f>642.57+224.035</f>
-        <v>866.60500000000002</v>
-      </c>
-      <c r="I56" s="8"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
-        <v>15</v>
-      </c>
-      <c r="B57" s="11">
-        <v>1999</v>
-      </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="7">
-        <f>593.254+199.435</f>
-        <v>792.68900000000008</v>
-      </c>
-      <c r="I57" s="8"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
-        <v>15</v>
-      </c>
-      <c r="B58" s="11">
-        <v>2000</v>
-      </c>
-      <c r="C58" s="3"/>
-      <c r="I58" s="8"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
-        <v>15</v>
-      </c>
-      <c r="B59" s="11">
-        <v>2001</v>
-      </c>
-      <c r="C59" s="3"/>
-      <c r="I59" s="8"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
-        <v>15</v>
-      </c>
-      <c r="B60" s="11">
-        <v>2002</v>
-      </c>
-      <c r="C60" s="3"/>
-      <c r="I60" s="8"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
-        <v>15</v>
-      </c>
-      <c r="B61" s="11">
-        <v>2003</v>
-      </c>
-      <c r="C61" s="7">
-        <v>996.9946056849999</v>
-      </c>
-      <c r="F61" s="7">
-        <v>1840.808</v>
-      </c>
-      <c r="G61" s="7">
-        <v>2948.6559999999999</v>
-      </c>
-      <c r="H61" s="7">
-        <v>2814.6170000000002</v>
-      </c>
-      <c r="I61" s="8"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
-        <v>15</v>
-      </c>
-      <c r="B62" s="11">
-        <v>2004</v>
-      </c>
-      <c r="C62" s="7">
-        <v>1209.7130233650003</v>
-      </c>
-      <c r="F62" s="7">
-        <v>1739.0219999999999</v>
-      </c>
-      <c r="G62" s="7">
-        <v>3453.4580000000001</v>
-      </c>
-      <c r="H62" s="7">
-        <v>2954.6019999999999</v>
-      </c>
-      <c r="I62" s="8"/>
-      <c r="J62" s="39">
-        <f>AVERAGE(import!C61:C63)</f>
-        <v>859.64031161000003</v>
-      </c>
-      <c r="K62" s="39">
-        <f>AVERAGE(C61:C63)</f>
-        <v>1121.772342445</v>
-      </c>
-      <c r="L62" s="39">
-        <f>K62-J62</f>
-        <v>262.13203083500002</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
-        <v>15</v>
-      </c>
-      <c r="B63" s="11">
-        <v>2005</v>
-      </c>
-      <c r="C63" s="7">
-        <v>1158.6093982850002</v>
-      </c>
-      <c r="F63" s="7">
-        <v>1588.31</v>
-      </c>
-      <c r="G63" s="7">
-        <v>4276.2860000000001</v>
-      </c>
-      <c r="H63" s="7">
-        <v>2655.777</v>
-      </c>
-      <c r="I63" s="8"/>
-      <c r="L63" s="39"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
-        <v>25</v>
-      </c>
-      <c r="B64" s="11">
-        <v>2003</v>
-      </c>
-      <c r="D64" s="7">
-        <f>921.863</f>
-        <v>921.86300000000006</v>
-      </c>
-      <c r="I64" s="8"/>
-      <c r="L64" s="39"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
-        <v>25</v>
-      </c>
-      <c r="B65" s="11">
-        <v>2004</v>
-      </c>
-      <c r="I65" s="8"/>
-      <c r="L65" s="39"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
-        <v>25</v>
-      </c>
-      <c r="B66" s="11">
-        <v>2005</v>
-      </c>
-      <c r="I66" s="8"/>
-      <c r="L66" s="39"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
-        <v>25</v>
-      </c>
-      <c r="B67" s="11">
-        <v>2006</v>
-      </c>
-      <c r="I67" s="8"/>
-      <c r="L67" s="39"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
-        <v>27</v>
-      </c>
-      <c r="B68" s="11">
-        <v>2003</v>
-      </c>
-      <c r="C68" s="7">
-        <v>762.55452276400001</v>
-      </c>
-      <c r="F68" s="7">
-        <v>1722.568</v>
-      </c>
-      <c r="G68" s="7">
-        <v>1885.9570000000001</v>
-      </c>
-      <c r="H68" s="7">
-        <v>2211.817</v>
-      </c>
-      <c r="I68" s="8"/>
-      <c r="L68" s="39"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
-        <v>27</v>
-      </c>
-      <c r="B69" s="11">
-        <v>2004</v>
-      </c>
-      <c r="C69" s="7">
-        <v>985.56460808499992</v>
-      </c>
-      <c r="F69" s="7">
-        <v>1544.7529999999999</v>
-      </c>
-      <c r="G69" s="7">
-        <v>2122.0839999999998</v>
-      </c>
-      <c r="H69" s="7">
-        <v>2068.3710000000001</v>
-      </c>
-      <c r="I69" s="8"/>
-      <c r="J69" s="39">
-        <f>AVERAGE(import!C68:C70)</f>
-        <v>864.9270302601667</v>
-      </c>
-      <c r="K69" s="39">
-        <f>AVERAGE(C68:C70)</f>
-        <v>891.32963880106661</v>
-      </c>
-      <c r="L69" s="39">
-        <f t="shared" ref="L69:L81" si="0">K69-J69</f>
-        <v>26.402608540899905</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
-        <v>27</v>
-      </c>
-      <c r="B70" s="11">
-        <v>2005</v>
-      </c>
-      <c r="C70" s="7">
-        <v>925.86978555419989</v>
-      </c>
-      <c r="F70" s="7">
-        <v>1326.1379999999999</v>
-      </c>
-      <c r="G70" s="7">
-        <v>2545.4520000000002</v>
-      </c>
-      <c r="H70" s="7">
-        <v>2189.857</v>
-      </c>
-      <c r="I70" s="8"/>
-      <c r="L70" s="39"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
-        <v>27</v>
-      </c>
-      <c r="B71" s="11">
-        <v>2006</v>
-      </c>
-      <c r="C71" s="7">
-        <f t="shared" ref="C71:C76" si="1">D71+E71</f>
-        <v>1348.46</v>
-      </c>
-      <c r="D71" s="7">
-        <v>1007.268</v>
-      </c>
-      <c r="E71" s="7">
-        <v>341.19200000000001</v>
-      </c>
-      <c r="F71" s="7">
-        <v>2641.1060000000002</v>
-      </c>
-      <c r="G71" s="7">
-        <v>3349.741</v>
-      </c>
-      <c r="H71" s="7">
-        <v>2868.5459999999998</v>
-      </c>
-      <c r="I71" s="8"/>
-      <c r="L71" s="39"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
-        <v>27</v>
-      </c>
-      <c r="B72" s="11">
-        <v>2007</v>
-      </c>
-      <c r="C72" s="7">
-        <f t="shared" si="1"/>
-        <v>1383.578</v>
-      </c>
-      <c r="D72" s="7">
-        <v>1074.24</v>
-      </c>
-      <c r="E72" s="7">
-        <v>309.33800000000002</v>
-      </c>
-      <c r="F72" s="7">
-        <v>3148.8449999999998</v>
-      </c>
-      <c r="G72" s="7">
-        <v>3267.6909999999998</v>
-      </c>
-      <c r="H72" s="7">
-        <v>2729.8240000000001</v>
-      </c>
-      <c r="I72" s="8"/>
-      <c r="J72" s="39">
-        <f>AVERAGE(import!C71:C73)</f>
-        <v>1416.4113333333332</v>
-      </c>
-      <c r="K72" s="39">
-        <f>AVERAGE(C71:C73)</f>
-        <v>1399.8973333333333</v>
-      </c>
-      <c r="L72" s="39">
-        <f t="shared" si="0"/>
-        <v>-16.513999999999896</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
-        <v>27</v>
-      </c>
-      <c r="B73" s="11">
-        <v>2008</v>
-      </c>
-      <c r="C73" s="7">
-        <f t="shared" si="1"/>
-        <v>1467.654</v>
-      </c>
-      <c r="D73" s="7">
-        <v>1114.9590000000001</v>
-      </c>
-      <c r="E73" s="7">
-        <v>352.69499999999999</v>
-      </c>
-      <c r="F73" s="7">
-        <v>2422.9180000000001</v>
-      </c>
-      <c r="G73" s="7">
-        <v>3611.6860000000001</v>
-      </c>
-      <c r="H73" s="7">
-        <v>3540.538</v>
-      </c>
-      <c r="I73" s="8"/>
-      <c r="L73" s="39"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
-        <v>27</v>
-      </c>
-      <c r="B74" s="11">
-        <v>2009</v>
-      </c>
-      <c r="C74" s="7">
-        <f t="shared" si="1"/>
-        <v>1115.675</v>
-      </c>
-      <c r="D74" s="7">
-        <v>828.10799999999995</v>
-      </c>
-      <c r="E74" s="7">
-        <v>287.56700000000001</v>
-      </c>
-      <c r="F74" s="7">
-        <v>1868.1790000000001</v>
-      </c>
-      <c r="G74" s="7">
-        <v>2757.027</v>
-      </c>
-      <c r="H74" s="7">
-        <v>4285.7719999999999</v>
-      </c>
-      <c r="I74" s="8"/>
-      <c r="L74" s="39"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
-        <v>27</v>
-      </c>
-      <c r="B75" s="11">
-        <v>2010</v>
-      </c>
-      <c r="C75" s="7">
-        <f t="shared" si="1"/>
-        <v>1539.069</v>
-      </c>
-      <c r="D75" s="7">
-        <v>1180.9100000000001</v>
-      </c>
-      <c r="E75" s="7">
-        <v>358.15899999999999</v>
-      </c>
-      <c r="F75" s="7">
-        <v>2025.9480000000001</v>
-      </c>
-      <c r="G75" s="7">
-        <v>3089.2269999999999</v>
-      </c>
-      <c r="H75" s="7">
-        <v>5618.5649999999996</v>
-      </c>
-      <c r="I75" s="8"/>
-      <c r="J75" s="39">
-        <f>AVERAGE(import!C74:C76)</f>
-        <v>1137.4880000000001</v>
-      </c>
-      <c r="K75" s="39">
-        <f>AVERAGE(C74:C76)</f>
-        <v>1367.8023333333331</v>
-      </c>
-      <c r="L75" s="39">
-        <f t="shared" si="0"/>
-        <v>230.31433333333302</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
-        <v>27</v>
-      </c>
-      <c r="B76" s="11">
-        <v>2011</v>
-      </c>
-      <c r="C76" s="7">
-        <f t="shared" si="1"/>
-        <v>1448.663</v>
-      </c>
-      <c r="D76" s="7">
-        <v>1052.134</v>
-      </c>
-      <c r="E76" s="7">
-        <v>396.529</v>
-      </c>
-      <c r="F76" s="7">
-        <v>2480.3870000000002</v>
-      </c>
-      <c r="G76" s="7">
-        <v>3578.6190000000001</v>
-      </c>
-      <c r="H76" s="7">
-        <v>6767.4059999999999</v>
-      </c>
-      <c r="I76" s="8"/>
-      <c r="L76" s="39"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
-        <v>28</v>
-      </c>
-      <c r="B77" s="11">
-        <v>2012</v>
-      </c>
-      <c r="C77" s="7">
-        <f t="shared" ref="C77:C82" si="2">D77+E77</f>
-        <v>1448.3419999999999</v>
-      </c>
-      <c r="D77" s="7">
-        <v>1053.7329999999999</v>
-      </c>
-      <c r="E77" s="7">
-        <v>394.60899999999998</v>
-      </c>
-      <c r="F77" s="7">
-        <v>2572.4760000000001</v>
-      </c>
-      <c r="G77" s="7">
-        <v>4019.998</v>
-      </c>
-      <c r="H77" s="7">
-        <v>4086.7570000000001</v>
-      </c>
-      <c r="L77" s="39"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
-        <v>28</v>
-      </c>
-      <c r="B78" s="11">
-        <v>2013</v>
-      </c>
-      <c r="C78" s="7">
-        <f t="shared" si="2"/>
-        <v>1484.9680000000001</v>
-      </c>
-      <c r="D78" s="7">
-        <v>1068.7080000000001</v>
-      </c>
-      <c r="E78" s="7">
-        <v>416.26</v>
-      </c>
-      <c r="F78" s="7">
-        <v>2472.8229999999999</v>
-      </c>
-      <c r="G78" s="7">
-        <v>4474.7030000000004</v>
-      </c>
-      <c r="H78" s="7">
-        <v>4081.2939999999999</v>
-      </c>
-      <c r="J78" s="39">
-        <f>AVERAGE(import!C77:C79)</f>
-        <v>994.89766666666674</v>
-      </c>
-      <c r="K78" s="39">
-        <f>AVERAGE(C77:C79)</f>
-        <v>1405.0810000000001</v>
-      </c>
-      <c r="L78" s="39">
-        <f t="shared" si="0"/>
-        <v>410.18333333333339</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
-        <v>28</v>
-      </c>
-      <c r="B79" s="11">
-        <v>2014</v>
-      </c>
-      <c r="C79" s="7">
-        <f t="shared" si="2"/>
-        <v>1281.933</v>
-      </c>
-      <c r="D79" s="7">
-        <v>864.29300000000001</v>
-      </c>
-      <c r="E79" s="7">
-        <v>417.64</v>
-      </c>
-      <c r="F79" s="7">
-        <v>2628.556</v>
-      </c>
-      <c r="G79" s="7">
-        <v>5069.1350000000002</v>
-      </c>
-      <c r="H79" s="7">
-        <v>3610.806</v>
-      </c>
-      <c r="L79" s="39"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
-        <v>28</v>
-      </c>
-      <c r="B80" s="11">
-        <v>2015</v>
-      </c>
-      <c r="C80" s="7">
-        <f t="shared" si="2"/>
-        <v>1187.539</v>
-      </c>
-      <c r="D80" s="7">
-        <v>794.27099999999996</v>
-      </c>
-      <c r="E80" s="7">
-        <v>393.26799999999997</v>
-      </c>
-      <c r="F80" s="7">
-        <v>2833.78</v>
-      </c>
-      <c r="G80" s="7">
-        <v>4255.9660000000003</v>
-      </c>
-      <c r="H80" s="7">
-        <v>3253.2179999999998</v>
-      </c>
-      <c r="L80" s="39"/>
-    </row>
-    <row r="81" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
-        <v>28</v>
-      </c>
-      <c r="B81" s="11">
-        <v>2016</v>
-      </c>
-      <c r="C81" s="7">
-        <f t="shared" si="2"/>
-        <v>1192.2070000000001</v>
-      </c>
-      <c r="D81" s="7">
-        <v>753.94</v>
-      </c>
-      <c r="E81" s="7">
-        <v>438.267</v>
-      </c>
-      <c r="F81" s="7">
-        <v>2941.31</v>
-      </c>
-      <c r="G81" s="7">
-        <v>4430.3440000000001</v>
-      </c>
-      <c r="H81" s="7">
-        <v>3864.1849999999999</v>
-      </c>
-      <c r="J81" s="39">
-        <f>AVERAGE(import!C80:C82)</f>
-        <v>1289.7</v>
-      </c>
-      <c r="K81" s="39">
-        <f>AVERAGE(C80:C82)</f>
-        <v>1179.4793333333334</v>
-      </c>
-      <c r="L81" s="39">
-        <f t="shared" si="0"/>
-        <v>-110.2206666666666</v>
-      </c>
-    </row>
-    <row r="82" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
-        <v>28</v>
-      </c>
-      <c r="B82" s="11">
-        <v>2017</v>
-      </c>
-      <c r="C82" s="7">
-        <f t="shared" si="2"/>
-        <v>1158.692</v>
-      </c>
-      <c r="D82" s="7">
-        <v>732.66899999999998</v>
-      </c>
-      <c r="E82" s="7">
-        <v>426.02300000000002</v>
-      </c>
-      <c r="F82" s="7">
-        <v>3406.7809999999999</v>
-      </c>
-      <c r="G82" s="7">
-        <v>4634.991</v>
-      </c>
-      <c r="H82" s="7">
-        <v>4788.6809999999996</v>
-      </c>
-    </row>
-    <row r="83" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
-        <v>28</v>
-      </c>
-      <c r="B83" s="11">
-        <v>2018</v>
-      </c>
-      <c r="C83" s="7">
-        <f>D83+E83</f>
-        <v>1178.923</v>
-      </c>
-      <c r="D83" s="7">
-        <v>734.2</v>
-      </c>
-      <c r="E83" s="7">
-        <v>444.72300000000001</v>
-      </c>
-      <c r="F83" s="7">
-        <v>3195.5569999999998</v>
-      </c>
-      <c r="G83" s="7">
-        <v>7563.942</v>
-      </c>
-      <c r="H83" s="7">
-        <v>5885.2169999999996</v>
-      </c>
-    </row>
-    <row r="84" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
-        <v>28</v>
-      </c>
-      <c r="B84" s="11">
-        <v>2019</v>
-      </c>
-      <c r="F84" s="7">
-        <v>3415.4450000000002</v>
-      </c>
-      <c r="G84" s="7">
-        <v>5511.6109999999999</v>
-      </c>
-      <c r="H84" s="7">
-        <v>4615.6750000000002</v>
-      </c>
-    </row>
-    <row r="85" spans="1:73" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="30"/>
-      <c r="B85" s="10"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="6"/>
-      <c r="K85" s="6"/>
-      <c r="L85" s="6"/>
-      <c r="M85" s="6"/>
-      <c r="N85" s="6"/>
-      <c r="O85" s="6"/>
-      <c r="P85" s="6"/>
-      <c r="Q85" s="6"/>
-      <c r="R85" s="6"/>
-      <c r="S85" s="6"/>
-      <c r="T85" s="6"/>
-      <c r="U85" s="6"/>
-      <c r="V85" s="6"/>
-      <c r="W85" s="6"/>
-      <c r="X85" s="6"/>
-      <c r="Y85" s="6"/>
-      <c r="Z85" s="6"/>
-      <c r="AA85" s="6"/>
-      <c r="AB85" s="6"/>
-      <c r="AC85" s="6"/>
-      <c r="AD85" s="6"/>
-      <c r="AE85" s="6"/>
-      <c r="AF85" s="6"/>
-      <c r="AG85" s="6"/>
-      <c r="AH85" s="6"/>
-      <c r="AI85" s="6"/>
-      <c r="AJ85" s="6"/>
-      <c r="AK85" s="6"/>
-      <c r="AL85" s="6"/>
-      <c r="AM85" s="6"/>
-      <c r="AN85" s="6"/>
-      <c r="AO85" s="6"/>
-      <c r="AP85" s="6"/>
-      <c r="AQ85" s="6"/>
-      <c r="AR85" s="6"/>
-      <c r="AS85" s="6"/>
-      <c r="AT85" s="6"/>
-      <c r="AU85" s="6"/>
-      <c r="AV85" s="6"/>
-      <c r="AW85" s="6"/>
-      <c r="AX85" s="6"/>
-      <c r="AY85" s="6"/>
-      <c r="AZ85" s="6"/>
-      <c r="BA85" s="6"/>
-      <c r="BB85" s="6"/>
-      <c r="BC85" s="6"/>
-      <c r="BD85" s="6"/>
-      <c r="BE85" s="6"/>
-      <c r="BF85" s="6"/>
-      <c r="BG85" s="6"/>
-      <c r="BH85" s="6"/>
-      <c r="BI85" s="6"/>
-      <c r="BJ85" s="6"/>
-      <c r="BK85" s="6"/>
-      <c r="BL85" s="6"/>
-      <c r="BM85" s="6"/>
-      <c r="BN85" s="6"/>
-      <c r="BO85" s="6"/>
-      <c r="BP85" s="6"/>
-      <c r="BQ85" s="6"/>
-      <c r="BR85" s="6"/>
-      <c r="BS85" s="6"/>
-      <c r="BT85" s="6"/>
-      <c r="BU85" s="6"/>
-    </row>
-    <row r="86" spans="1:73" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="30"/>
-      <c r="B86" s="10"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
-      <c r="K86" s="6"/>
-      <c r="L86" s="6"/>
-      <c r="M86" s="6"/>
-      <c r="N86" s="6"/>
-      <c r="O86" s="6"/>
-      <c r="P86" s="6"/>
-      <c r="Q86" s="6"/>
-      <c r="R86" s="6"/>
-      <c r="S86" s="6"/>
-      <c r="T86" s="6"/>
-      <c r="U86" s="6"/>
-      <c r="V86" s="6"/>
-      <c r="W86" s="6"/>
-      <c r="X86" s="6"/>
-      <c r="Y86" s="6"/>
-      <c r="Z86" s="6"/>
-      <c r="AA86" s="6"/>
-      <c r="AB86" s="6"/>
-      <c r="AC86" s="6"/>
-      <c r="AD86" s="6"/>
-      <c r="AE86" s="6"/>
-      <c r="AF86" s="6"/>
-      <c r="AG86" s="6"/>
-      <c r="AH86" s="6"/>
-      <c r="AI86" s="6"/>
-      <c r="AJ86" s="6"/>
-      <c r="AK86" s="6"/>
-      <c r="AL86" s="6"/>
-      <c r="AM86" s="6"/>
-      <c r="AN86" s="6"/>
-      <c r="AO86" s="6"/>
-      <c r="AP86" s="6"/>
-      <c r="AQ86" s="6"/>
-      <c r="AR86" s="6"/>
-      <c r="AS86" s="6"/>
-      <c r="AT86" s="6"/>
-      <c r="AU86" s="6"/>
-      <c r="AV86" s="6"/>
-      <c r="AW86" s="6"/>
-      <c r="AX86" s="6"/>
-      <c r="AY86" s="6"/>
-      <c r="AZ86" s="6"/>
-      <c r="BA86" s="6"/>
-      <c r="BB86" s="6"/>
-      <c r="BC86" s="6"/>
-      <c r="BD86" s="6"/>
-      <c r="BE86" s="6"/>
-      <c r="BF86" s="6"/>
-      <c r="BG86" s="6"/>
-      <c r="BH86" s="6"/>
-      <c r="BI86" s="6"/>
-      <c r="BJ86" s="6"/>
-      <c r="BK86" s="6"/>
-      <c r="BL86" s="6"/>
-      <c r="BM86" s="6"/>
-      <c r="BN86" s="6"/>
-      <c r="BO86" s="6"/>
-      <c r="BP86" s="6"/>
-      <c r="BQ86" s="6"/>
-      <c r="BR86" s="6"/>
-      <c r="BS86" s="6"/>
-      <c r="BT86" s="6"/>
-      <c r="BU86" s="6"/>
-    </row>
-    <row r="87" spans="1:73" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="30"/>
-      <c r="B87" s="10"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
-      <c r="K87" s="6"/>
-      <c r="L87" s="6"/>
-      <c r="M87" s="6"/>
-      <c r="N87" s="6"/>
-      <c r="O87" s="6"/>
-      <c r="P87" s="6"/>
-      <c r="Q87" s="6"/>
-      <c r="R87" s="6"/>
-      <c r="S87" s="6"/>
-      <c r="T87" s="6"/>
-      <c r="U87" s="6"/>
-      <c r="V87" s="6"/>
-      <c r="W87" s="6"/>
-      <c r="X87" s="6"/>
-      <c r="Y87" s="6"/>
-      <c r="Z87" s="6"/>
-      <c r="AA87" s="6"/>
-      <c r="AB87" s="6"/>
-      <c r="AC87" s="6"/>
-      <c r="AD87" s="6"/>
-      <c r="AE87" s="6"/>
-      <c r="AF87" s="6"/>
-      <c r="AG87" s="6"/>
-      <c r="AH87" s="6"/>
-      <c r="AI87" s="6"/>
-      <c r="AJ87" s="6"/>
-      <c r="AK87" s="6"/>
-      <c r="AL87" s="6"/>
-      <c r="AM87" s="6"/>
-      <c r="AN87" s="6"/>
-      <c r="AO87" s="6"/>
-      <c r="AP87" s="6"/>
-      <c r="AQ87" s="6"/>
-      <c r="AR87" s="6"/>
-      <c r="AS87" s="6"/>
-      <c r="AT87" s="6"/>
-      <c r="AU87" s="6"/>
-      <c r="AV87" s="6"/>
-      <c r="AW87" s="6"/>
-      <c r="AX87" s="6"/>
-      <c r="AY87" s="6"/>
-      <c r="AZ87" s="6"/>
-      <c r="BA87" s="6"/>
-      <c r="BB87" s="6"/>
-      <c r="BC87" s="6"/>
-      <c r="BD87" s="6"/>
-      <c r="BE87" s="6"/>
-      <c r="BF87" s="6"/>
-      <c r="BG87" s="6"/>
-      <c r="BH87" s="6"/>
-      <c r="BI87" s="6"/>
-      <c r="BJ87" s="6"/>
-      <c r="BK87" s="6"/>
-      <c r="BL87" s="6"/>
-      <c r="BM87" s="6"/>
-      <c r="BN87" s="6"/>
-      <c r="BO87" s="6"/>
-      <c r="BP87" s="6"/>
-      <c r="BQ87" s="6"/>
-      <c r="BR87" s="6"/>
-      <c r="BS87" s="6"/>
-      <c r="BT87" s="6"/>
-      <c r="BU87" s="6"/>
-    </row>
-    <row r="90" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A90" s="30"/>
-    </row>
-    <row r="91" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A91" s="30"/>
-    </row>
-    <row r="92" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A92" s="30"/>
-    </row>
-    <row r="93" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="E93" s="22"/>
-    </row>
-    <row r="94" spans="1:73" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="10"/>
-      <c r="B94" s="10"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="22"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
-      <c r="I94" s="6"/>
-      <c r="J94" s="6"/>
-      <c r="K94" s="6"/>
-      <c r="L94" s="6"/>
-      <c r="M94" s="6"/>
-      <c r="N94" s="6"/>
-      <c r="O94" s="6"/>
-      <c r="P94" s="6"/>
-      <c r="Q94" s="6"/>
-      <c r="R94" s="6"/>
-      <c r="S94" s="6"/>
-      <c r="T94" s="6"/>
-      <c r="U94" s="6"/>
-      <c r="V94" s="6"/>
-      <c r="W94" s="6"/>
-      <c r="X94" s="6"/>
-      <c r="Y94" s="6"/>
-      <c r="Z94" s="6"/>
-      <c r="AA94" s="6"/>
-      <c r="AB94" s="6"/>
-      <c r="AC94" s="6"/>
-      <c r="AD94" s="6"/>
-      <c r="AE94" s="6"/>
-      <c r="AF94" s="6"/>
-      <c r="AG94" s="6"/>
-      <c r="AH94" s="6"/>
-      <c r="AI94" s="6"/>
-      <c r="AJ94" s="6"/>
-      <c r="AK94" s="6"/>
-      <c r="AL94" s="6"/>
-      <c r="AM94" s="6"/>
-      <c r="AN94" s="6"/>
-      <c r="AO94" s="6"/>
-      <c r="AP94" s="6"/>
-      <c r="AQ94" s="6"/>
-      <c r="AR94" s="6"/>
-      <c r="AS94" s="6"/>
-      <c r="AT94" s="6"/>
-      <c r="AU94" s="6"/>
-      <c r="AV94" s="6"/>
-      <c r="AW94" s="6"/>
-      <c r="AX94" s="6"/>
-      <c r="AY94" s="6"/>
-      <c r="AZ94" s="6"/>
-      <c r="BA94" s="6"/>
-      <c r="BB94" s="6"/>
-      <c r="BC94" s="6"/>
-      <c r="BD94" s="6"/>
-      <c r="BE94" s="6"/>
-      <c r="BF94" s="6"/>
-      <c r="BG94" s="6"/>
-      <c r="BH94" s="6"/>
-      <c r="BI94" s="6"/>
-      <c r="BJ94" s="6"/>
-      <c r="BK94" s="6"/>
-      <c r="BL94" s="6"/>
-      <c r="BM94" s="6"/>
-      <c r="BN94" s="6"/>
-      <c r="BO94" s="6"/>
-      <c r="BP94" s="6"/>
-      <c r="BQ94" s="6"/>
-      <c r="BR94" s="6"/>
-      <c r="BS94" s="6"/>
-      <c r="BT94" s="6"/>
-      <c r="BU94" s="6"/>
-    </row>
-    <row r="95" spans="1:73" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="10"/>
-      <c r="B95" s="10"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="22"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="7"/>
-      <c r="I95" s="6"/>
-      <c r="J95" s="6"/>
-      <c r="K95" s="6"/>
-      <c r="L95" s="6"/>
-      <c r="M95" s="6"/>
-      <c r="N95" s="6"/>
-      <c r="O95" s="6"/>
-      <c r="P95" s="6"/>
-      <c r="Q95" s="6"/>
-      <c r="R95" s="6"/>
-      <c r="S95" s="6"/>
-      <c r="T95" s="6"/>
-      <c r="U95" s="6"/>
-      <c r="V95" s="6"/>
-      <c r="W95" s="6"/>
-      <c r="X95" s="6"/>
-      <c r="Y95" s="6"/>
-      <c r="Z95" s="6"/>
-      <c r="AA95" s="6"/>
-      <c r="AB95" s="6"/>
-      <c r="AC95" s="6"/>
-      <c r="AD95" s="6"/>
-      <c r="AE95" s="6"/>
-      <c r="AF95" s="6"/>
-      <c r="AG95" s="6"/>
-      <c r="AH95" s="6"/>
-      <c r="AI95" s="6"/>
-      <c r="AJ95" s="6"/>
-      <c r="AK95" s="6"/>
-      <c r="AL95" s="6"/>
-      <c r="AM95" s="6"/>
-      <c r="AN95" s="6"/>
-      <c r="AO95" s="6"/>
-      <c r="AP95" s="6"/>
-      <c r="AQ95" s="6"/>
-      <c r="AR95" s="6"/>
-      <c r="AS95" s="6"/>
-      <c r="AT95" s="6"/>
-      <c r="AU95" s="6"/>
-      <c r="AV95" s="6"/>
-      <c r="AW95" s="6"/>
-      <c r="AX95" s="6"/>
-      <c r="AY95" s="6"/>
-      <c r="AZ95" s="6"/>
-      <c r="BA95" s="6"/>
-      <c r="BB95" s="6"/>
-      <c r="BC95" s="6"/>
-      <c r="BD95" s="6"/>
-      <c r="BE95" s="6"/>
-      <c r="BF95" s="6"/>
-      <c r="BG95" s="6"/>
-      <c r="BH95" s="6"/>
-      <c r="BI95" s="6"/>
-      <c r="BJ95" s="6"/>
-      <c r="BK95" s="6"/>
-      <c r="BL95" s="6"/>
-      <c r="BM95" s="6"/>
-      <c r="BN95" s="6"/>
-      <c r="BO95" s="6"/>
-      <c r="BP95" s="6"/>
-      <c r="BQ95" s="6"/>
-      <c r="BR95" s="6"/>
-      <c r="BS95" s="6"/>
-      <c r="BT95" s="6"/>
-      <c r="BU95" s="6"/>
-    </row>
-    <row r="96" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="E96" s="22"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E97" s="22"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E98" s="22"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="30"/>
-      <c r="E99" s="22"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="30"/>
-      <c r="E100" s="22"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E101" s="22"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E102" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RawData/EU_RawData_VPython.xlsx
+++ b/RawData/EU_RawData_VPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souvi\Documents\These\80_Calculations\01_MFA_GlassIndustry\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6704EDD0-2573-48B4-AA28-6363BD0CF4B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112A9C13-01CF-4B9D-AA78-788CCA29F668}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="2" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
   </bookViews>
@@ -5184,10 +5184,10 @@
   <dimension ref="A1:BT102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J75" sqref="J75"/>
+      <selection pane="bottomRight" activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RawData/EU_RawData_VPython.xlsx
+++ b/RawData/EU_RawData_VPython.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souvi\Documents\These\80_Calculations\01_MFA_GlassIndustry\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112A9C13-01CF-4B9D-AA78-788CCA29F668}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2837516-155B-4BA5-93BB-622879605916}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="2" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
+    <workbookView xWindow="3900" yWindow="600" windowWidth="13125" windowHeight="15600" firstSheet="1" activeTab="2" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
   </bookViews>
   <sheets>
     <sheet name="stock" sheetId="17" r:id="rId1"/>
@@ -584,23 +584,12 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>jean:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-EUROPE’S FLAT GLASS SECTOR: AN INDUSTRY PROFILE
+          <t>EUROPE’S FLAT GLASS SECTOR: AN INDUSTRY PROFILE
 Europe's Flat Glass Sector: An Industry Profile, 2020.
 Find at:
 https://www.euractiv.com/section/energy-environment/special_report/europes-flat-glass-sector-an-industry-profile/</t>
@@ -1796,7 +1785,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0\ _z_ł_-;\-* #,##0\ _z_ł_-;_-* &quot;-&quot;??\ _z_ł_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1857,13 +1846,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -5184,10 +5166,10 @@
   <dimension ref="A1:BT102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L50" sqref="L50"/>
+      <selection pane="bottomRight" activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RawData/EU_RawData_VPython.xlsx
+++ b/RawData/EU_RawData_VPython.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souvi\Documents\These\80_Calculations\01_MFA_GlassIndustry\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A944C2C3-821C-4EB4-A39C-E085F81CF192}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E44B2F8-D47F-4C3C-9495-53E095762954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="600" windowWidth="23325" windowHeight="15600" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
+    <workbookView xWindow="1950" yWindow="600" windowWidth="21165" windowHeight="15600" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
   </bookViews>
   <sheets>
     <sheet name="References" sheetId="21" r:id="rId1"/>
     <sheet name="prod" sheetId="20" r:id="rId2"/>
     <sheet name="import" sheetId="14" r:id="rId3"/>
     <sheet name="export" sheetId="12" r:id="rId4"/>
+    <sheet name="emissions" sheetId="22" r:id="rId5"/>
+    <sheet name="Energy_Intensity" sheetId="23" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -750,8 +752,770 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>jean</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{3EC0338B-1A34-4F5D-B203-FBF43F39AB78}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Unless otherwise indicated in a note attached to the cell, all data collected in this column comes from:
+(Glass for Europe, 2020)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B27" authorId="0" shapeId="0" xr:uid="{1D88AD49-423B-4283-913C-DB385B16E889}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Glass for Europe, 2018)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B32" authorId="0" shapeId="0" xr:uid="{89AAE291-9502-45CD-9533-926E736AE820}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Glass for Europe, 2018)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B37" authorId="0" shapeId="0" xr:uid="{F589DEA4-E50F-424E-8AED-B533650D07A4}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Glass for Europe, 2018)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B42" authorId="0" shapeId="0" xr:uid="{F9A7AA29-E6C7-401B-9A88-FF94DEA6DC82}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Glass for Europe, 2018)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B65" authorId="0" shapeId="0" xr:uid="{F9BCB8FB-344D-4AB9-9F3A-8529EB056EF5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Average between: 606tCO2/tp (Ecofys, 2009) and 730tCO2/tp (Schmitz et al., 2011)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>jean</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{B35DFB4A-E337-4E6E-894B-6E763CB3F551}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Average; Calculated according to window glass/plate glass and then float glass ratio.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{16DDFDD6-A5E8-4C0C-8B9F-E3842C8C717A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Average; Calculated according to window glass/plate glass and then float glass ratio.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{EA6323DE-4A0B-48CC-9944-03E809A14E25}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Average; Calculated according to window glass/plate glass and then float glass ratio.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B27" authorId="0" shapeId="0" xr:uid="{B490FFCF-F9F6-4CC8-AFC9-33862396878C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Commission of the European Communities, 1984)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C27" authorId="0" shapeId="0" xr:uid="{42636AF9-4CD9-4ACD-A68E-BFFB6616AB37}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Commission of the European Communities, 1984)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D27" authorId="0" shapeId="0" xr:uid="{03A9F670-AB31-4AFD-B095-FB38BBED8FEF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Commission of the European Communities, 1984)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E27" authorId="0" shapeId="0" xr:uid="{0CCDF4D6-21E5-4C87-8A79-09C0E3895724}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Commission of the European Communities, 1984)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B30" authorId="0" shapeId="0" xr:uid="{80F3FC82-B4CD-4C96-9670-DB3454E4CEEA}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Commission of the European Communities, 1984)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C30" authorId="0" shapeId="0" xr:uid="{CE9034DC-89EA-4571-839B-C031E7492059}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Commission of the European Communities, 1984)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D30" authorId="0" shapeId="0" xr:uid="{4DCC37BA-C924-45AA-A5D8-553F897F01A7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Commission of the European Communities, 1984)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E30" authorId="0" shapeId="0" xr:uid="{B29F68CC-5836-45A6-BD6F-8479E7F8D882}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Commission of the European Communities, 1984)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B31" authorId="0" shapeId="0" xr:uid="{CDF92728-F315-403A-96C7-460CB384AD09}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Commission of the European Communities, 1984)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C31" authorId="0" shapeId="0" xr:uid="{4E455437-E410-4F53-A4B6-987B7BBC0733}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Commission of the European Communities, 1984)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D31" authorId="0" shapeId="0" xr:uid="{227BD0A9-16FB-4DE6-9013-CB185F584F9A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Commission of the European Communities, 1984)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E31" authorId="0" shapeId="0" xr:uid="{865CD091-EA8E-4572-99B6-19055AF61389}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Commission of the European Communities, 1984)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B32" authorId="0" shapeId="0" xr:uid="{C21C3390-F668-43E9-A83E-A966E94F4A50}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Commission of the European Communities, 1984)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C32" authorId="0" shapeId="0" xr:uid="{DE0B29E5-514A-476C-B27E-A312700BCD04}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Commission of the European Communities, 1984)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D32" authorId="0" shapeId="0" xr:uid="{C15347AC-1DFA-4912-B2F4-46067FF17294}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Commission of the European Communities, 1984)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E32" authorId="0" shapeId="0" xr:uid="{E1129521-B49F-4CC6-88E6-534A35517FD3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Commission of the European Communities, 1984)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B33" authorId="0" shapeId="0" xr:uid="{8943C542-41EF-49BD-A067-20E14393B27C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Commission of the European Communities, 1984)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C33" authorId="0" shapeId="0" xr:uid="{855C86F4-EF4B-43B7-A122-F76F947D3381}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Commission of the European Communities, 1984)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D33" authorId="0" shapeId="0" xr:uid="{D9218DCB-BA7B-413A-9F80-28EDE2A15F86}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Commission of the European Communities, 1984)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E33" authorId="0" shapeId="0" xr:uid="{5A5299CF-A141-4199-B43B-EABED53E2E29}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Commission of the European Communities, 1984)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B34" authorId="0" shapeId="0" xr:uid="{CED125D8-4372-47BD-92E9-8EB711EDF94F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Commission of the European Communities, 1984)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C34" authorId="0" shapeId="0" xr:uid="{28755412-0774-4517-A732-209EA28CE787}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Commission of the European Communities, 1984)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D34" authorId="0" shapeId="0" xr:uid="{4AEE0F57-0741-4916-9B68-2078BA02607A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Commission of the European Communities, 1984)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E34" authorId="0" shapeId="0" xr:uid="{0885F00F-D885-4E14-A3A4-5C2CCB3D7F12}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Commission of the European Communities, 1984)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B35" authorId="0" shapeId="0" xr:uid="{E84708F8-61EC-4C77-B455-0739C54911FC}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Commission of the European Communities, 1984)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C35" authorId="0" shapeId="0" xr:uid="{08A785A8-41E4-4D88-B879-46D5A9FBE898}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Commission of the European Communities, 1984)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D35" authorId="0" shapeId="0" xr:uid="{38F30AF5-CC92-40F5-8D03-6528747C0C4A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Commission of the European Communities, 1984)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E35" authorId="0" shapeId="0" xr:uid="{EFA2EFED-C5FC-443B-91B9-35FEE9FC1FE5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Commission of the European Communities, 1984)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B37" authorId="0" shapeId="0" xr:uid="{78908130-9D04-4681-BC74-643A32595F85}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Commission of the European Communities, 1984)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C37" authorId="0" shapeId="0" xr:uid="{A8A53EF9-99DD-4D6D-A74E-7784DADE3BDC}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Commission of the European Communities, 1984)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D37" authorId="0" shapeId="0" xr:uid="{5F87AD8D-D762-401E-A443-E31062D59C75}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Commission of the European Communities, 1984)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E37" authorId="0" shapeId="0" xr:uid="{8CAAF9E0-3338-435E-BB83-79B067672DC1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Commission of the European Communities, 1984)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B38" authorId="0" shapeId="0" xr:uid="{03255725-15E6-4EA6-93B2-FF2183283AA5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Commission of the European Communities, 1984)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C38" authorId="0" shapeId="0" xr:uid="{EBB13E9B-033C-4306-AEEF-059DC0B88028}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Commission of the European Communities, 1984)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D38" authorId="0" shapeId="0" xr:uid="{594C437C-AEF3-4BB0-ABE6-917AA32C0D46}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Commission of the European Communities, 1984)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E38" authorId="0" shapeId="0" xr:uid="{4DCA003C-D2E0-4025-8AFB-D3CA8BC503A6}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Commission of the European Communities, 1984)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B52" authorId="0" shapeId="0" xr:uid="{ADCC3B3E-0B0D-40E2-8698-851D745B2DB6}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Dinesen et al., 1994),  (Tackels, 1993), (Weir, 1998) and (West et al., 2011)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C52" authorId="0" shapeId="0" xr:uid="{B95065AD-33D5-4044-91CC-498CA23B0B57}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Dinesen et al., 1994),  (Tackels, 1993), (Weir, 1998) and (West et al., 2011)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D52" authorId="0" shapeId="0" xr:uid="{1A8C80B2-89ED-485E-8AA3-2E423E03ED5F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Dinesen et al., 1994),  (Tackels, 1993), (Weir, 1998) and (West et al., 2011)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E52" authorId="0" shapeId="0" xr:uid="{3CA480E8-98C2-4544-AA84-53BE0CF6D88B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Dinesen et al., 1994),  (Tackels, 1993), (Weir, 1998) and (West et al., 2011)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B67" authorId="0" shapeId="0" xr:uid="{8E614E68-4370-4AE4-9FC3-4A3FF87ABA0E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(PE International, 2011) and (Schmitz et al., 2011)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C67" authorId="0" shapeId="0" xr:uid="{A68C4F09-7CAF-477C-8C94-1992C241B5AB}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(PE International, 2011) and (Schmitz et al., 2011)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D67" authorId="0" shapeId="0" xr:uid="{C0EDE7FE-B5AB-4CEF-ADC4-0E11CE9BC2FC}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(PE International, 2011) and (Schmitz et al., 2011)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E67" authorId="0" shapeId="0" xr:uid="{A34CDED6-254B-46F4-99A1-931CACE815EB}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(PE International, 2011) and (Schmitz et al., 2011)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B76" authorId="0" shapeId="0" xr:uid="{A2F862C5-C775-4D40-B85B-F30740505D18}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(PE International, 2011) and (Schmitz et al., 2011)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C76" authorId="0" shapeId="0" xr:uid="{7020E171-37A9-4334-8281-152F07513ED3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(PE International, 2011) and (Schmitz et al., 2011)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D76" authorId="0" shapeId="0" xr:uid="{EC1FE66F-A8AE-46B7-A3A9-0CA731782598}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(PE International, 2011) and (Schmitz et al., 2011)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E76" authorId="0" shapeId="0" xr:uid="{8918FDC3-8559-4443-B8E5-9DE4488C8A50}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(PE International, 2011) and (Schmitz et al., 2011)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
   <si>
     <t>year</t>
   </si>
@@ -836,17 +1600,102 @@
   <si>
     <t>(Euractiv, 2020)</t>
   </si>
+  <si>
+    <t>CO2 glass ind, kg/t</t>
+  </si>
+  <si>
+    <t>(Glass for Europe, 2020)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glass for Europe, 2020. 2050: Flat Glass in Climate-Neutral Europe. Triggering a Virtuous Cycle of  Decarbonisation. </t>
+  </si>
+  <si>
+    <t>https://glassforeurope.com/2050-flat-glass-in-a-climate-neutral-europe/</t>
+  </si>
+  <si>
+    <t>(Ecofys et al., 2009)</t>
+  </si>
+  <si>
+    <t>Ecofys, Fraunhofer ISI, Öko-Institut, 2009. Methodology for the Free Allocation of Emission Allowances in the EU ETS Post 2012: Sector Report for the Glass Industry. Brussels: The European Commission</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/clima/sites/default/files/ets/allowances/docs/bm_study-lime_en.pdf</t>
+  </si>
+  <si>
+    <t>fuel oil, GJ/t</t>
+  </si>
+  <si>
+    <t>electricity, GJ/t</t>
+  </si>
+  <si>
+    <t>natural gas, GJ/t</t>
+  </si>
+  <si>
+    <t>Total, GJ/t</t>
+  </si>
+  <si>
+    <t>(Ecoinvent, n.d.)</t>
+  </si>
+  <si>
+    <t>Ecoinvent database</t>
+  </si>
+  <si>
+    <t>(Schmitz et al., 2011)</t>
+  </si>
+  <si>
+    <t>Schmitz, A., Kamiński, J., Maria Scalet, B., Soria, A., 2011. 'Energy Consumption and CO2 Emissions of the European Glass Industry." Energy Policy 39, 142–155.</t>
+  </si>
+  <si>
+    <t>(Ligeron Sonovision, 2011)</t>
+  </si>
+  <si>
+    <t>www.glassforeurope.com/images/cont/184_15954_file.pdf</t>
+  </si>
+  <si>
+    <t>(PE International, 2011)</t>
+  </si>
+  <si>
+    <t>https://glassforeurope.com/wp-content/uploads/2018/04/Life-Cycle-Assessment.pdf</t>
+  </si>
+  <si>
+    <t>Ligeron Sonovision, 2011. Analyse de Cycle de Vie ‘cradle to gate’ d’un verre plat type float. EPD for Glass for Europe.</t>
+  </si>
+  <si>
+    <t>PE International, 2011. Life Cycle Assessment of Float Glass. EPD for Glass for Europe.</t>
+  </si>
+  <si>
+    <t>Dinesen, J. and S. Trabergy-Borup, 1994. An energy life cycle assessment model for building
+design. Proceedings of the first international conference on buildings and the environment, CIB.</t>
+  </si>
+  <si>
+    <t>(Dinesen et al., 1994)</t>
+  </si>
+  <si>
+    <t>West, J., C. Atkinson and N. Howard, 1994. Embodied energy and carbon dioxide emissions
+for building materials. Proceedings of the first international conference of building and
+the environment, CIB.</t>
+  </si>
+  <si>
+    <t>(West et al., 2011)</t>
+  </si>
+  <si>
+    <t>Weir, G. F., 1998. Life Cycle Assessment of Multi-Glazed Windows. Phd, Edinburgh Napier University.</t>
+  </si>
+  <si>
+    <t>(Weir, 1998)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0\ _z_ł_-;\-* #,##0\ _z_ł_-;_-* &quot;-&quot;??\ _z_ł_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -912,6 +1761,13 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -974,12 +1830,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1067,11 +1924,69 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1383,10 +2298,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35E3C1A-7DB8-449E-A8EC-FA7A1B58165D}">
-  <dimension ref="A2:D15"/>
+  <dimension ref="A2:D37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="118.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1422,79 +2337,201 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B10" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="30"/>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="30"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="30"/>
+    </row>
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" s="27" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>25</v>
-      </c>
+      <c r="D12" s="30"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="30"/>
+    </row>
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B15" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="30"/>
+    </row>
+    <row r="17" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B17" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="30"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="30"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C21" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D21" s="30" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="27" t="s">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="30"/>
+    </row>
+    <row r="23" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C23" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D23" s="30" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="27" t="s">
+    <row r="24" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="30"/>
+    </row>
+    <row r="25" spans="2:4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B25" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="27"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="36"/>
+    </row>
+    <row r="27" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B27" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C27" s="28" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B29" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="30"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B33" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B35" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B37" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D13" r:id="rId1" xr:uid="{074B990A-078B-4D6A-BA8E-C45BA56359F5}"/>
+    <hyperlink ref="D21" r:id="rId1" xr:uid="{074B990A-078B-4D6A-BA8E-C45BA56359F5}"/>
     <hyperlink ref="D7" r:id="rId2" xr:uid="{0AC27D0C-73E4-468F-95B0-BCA277E9C8DB}"/>
-    <hyperlink ref="D14" r:id="rId3" xr:uid="{698DCDAE-D4BC-4789-87CD-255F2D255892}"/>
-    <hyperlink ref="D12" r:id="rId4" xr:uid="{F325B4E6-50C2-4598-97DD-F743C72FFBDD}"/>
-    <hyperlink ref="D11" r:id="rId5" xr:uid="{20E2E194-D7F5-474C-B745-8067C1173CEB}"/>
+    <hyperlink ref="D23" r:id="rId3" xr:uid="{698DCDAE-D4BC-4789-87CD-255F2D255892}"/>
+    <hyperlink ref="D19" r:id="rId4" xr:uid="{F325B4E6-50C2-4598-97DD-F743C72FFBDD}"/>
+    <hyperlink ref="D17" r:id="rId5" xr:uid="{20E2E194-D7F5-474C-B745-8067C1173CEB}"/>
+    <hyperlink ref="D25" r:id="rId6" xr:uid="{05ECBED1-E86B-467C-8496-89BBB26BB9D8}"/>
+    <hyperlink ref="D11" r:id="rId7" xr:uid="{A3D4D65B-F46E-4110-A2BD-A04DC6D0626D}"/>
+    <hyperlink ref="D29" r:id="rId8" xr:uid="{C1CCBF1B-8950-40B3-B223-9107985646D9}"/>
+    <hyperlink ref="D31" r:id="rId9" xr:uid="{D4D3B854-143D-4B8D-B807-7F7AD767F35A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -4088,7 +5125,7 @@
         <v>2006</v>
       </c>
       <c r="C65" s="3">
-        <f>D65+E65</f>
+        <f t="shared" ref="C65:C70" si="0">D65+E65</f>
         <v>1013.396</v>
       </c>
       <c r="D65" s="7">
@@ -4107,7 +5144,7 @@
         <v>2007</v>
       </c>
       <c r="C66" s="3">
-        <f>D66+E66</f>
+        <f t="shared" si="0"/>
         <v>1741.2279999999998</v>
       </c>
       <c r="D66" s="7">
@@ -4126,7 +5163,7 @@
         <v>2008</v>
       </c>
       <c r="C67" s="3">
-        <f>D67+E67</f>
+        <f t="shared" si="0"/>
         <v>1494.61</v>
       </c>
       <c r="D67" s="7">
@@ -4145,7 +5182,7 @@
         <v>2009</v>
       </c>
       <c r="C68" s="3">
-        <f>D68+E68</f>
+        <f t="shared" si="0"/>
         <v>1085.712</v>
       </c>
       <c r="D68" s="7">
@@ -4164,7 +5201,7 @@
         <v>2010</v>
       </c>
       <c r="C69" s="3">
-        <f>D69+E69</f>
+        <f t="shared" si="0"/>
         <v>1145.9780000000001</v>
       </c>
       <c r="D69" s="7">
@@ -4183,7 +5220,7 @@
         <v>2011</v>
       </c>
       <c r="C70" s="3">
-        <f>D70+E70</f>
+        <f t="shared" si="0"/>
         <v>1180.7739999999999</v>
       </c>
       <c r="D70" s="7">
@@ -4202,7 +5239,7 @@
         <v>2012</v>
       </c>
       <c r="C71" s="3">
-        <f>E71+D71</f>
+        <f t="shared" ref="C71:C77" si="1">E71+D71</f>
         <v>1004.049</v>
       </c>
       <c r="D71" s="3">
@@ -4221,7 +5258,7 @@
         <v>2013</v>
       </c>
       <c r="C72" s="3">
-        <f>E72+D72</f>
+        <f t="shared" si="1"/>
         <v>946.01599999999996</v>
       </c>
       <c r="D72" s="3">
@@ -4240,7 +5277,7 @@
         <v>2014</v>
       </c>
       <c r="C73" s="3">
-        <f>E73+D73</f>
+        <f t="shared" si="1"/>
         <v>1034.6280000000002</v>
       </c>
       <c r="D73" s="3">
@@ -4259,7 +5296,7 @@
         <v>2015</v>
       </c>
       <c r="C74" s="3">
-        <f>E74+D74</f>
+        <f t="shared" si="1"/>
         <v>1079.1000000000001</v>
       </c>
       <c r="D74" s="3">
@@ -4278,7 +5315,7 @@
         <v>2016</v>
       </c>
       <c r="C75" s="3">
-        <f>E75+D75</f>
+        <f t="shared" si="1"/>
         <v>1255.011</v>
       </c>
       <c r="D75" s="3">
@@ -4297,7 +5334,7 @@
         <v>2017</v>
       </c>
       <c r="C76" s="3">
-        <f>E76+D76</f>
+        <f t="shared" si="1"/>
         <v>1534.989</v>
       </c>
       <c r="D76" s="3">
@@ -4316,7 +5353,7 @@
         <v>2018</v>
       </c>
       <c r="C77" s="3">
-        <f>E77+D77</f>
+        <f t="shared" si="1"/>
         <v>1673.6289999999999</v>
       </c>
       <c r="D77" s="3">
@@ -6037,4 +7074,1760 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F945308-8D2A-4BB2-AD6A-B85804FC149E}">
+  <dimension ref="A1:BC88"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>1970</v>
+      </c>
+      <c r="B27" s="33">
+        <v>1605.7353135313531</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>1971</v>
+      </c>
+      <c r="B28" s="33"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>1972</v>
+      </c>
+      <c r="B29" s="33"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <v>1973</v>
+      </c>
+      <c r="B30" s="33"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <v>1974</v>
+      </c>
+      <c r="B31" s="33"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <v>1975</v>
+      </c>
+      <c r="B32" s="33">
+        <v>1364.8805280528052</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
+        <v>1976</v>
+      </c>
+      <c r="B33" s="33"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
+        <v>1977</v>
+      </c>
+      <c r="B34" s="33"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
+        <v>1978</v>
+      </c>
+      <c r="B35" s="33"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
+        <v>1979</v>
+      </c>
+      <c r="B36" s="33"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="10">
+        <v>1980</v>
+      </c>
+      <c r="B37" s="33">
+        <v>1204.3841584158415</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="10">
+        <v>1981</v>
+      </c>
+      <c r="B38" s="33"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="10">
+        <v>1982</v>
+      </c>
+      <c r="B39" s="33"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="10">
+        <v>1983</v>
+      </c>
+      <c r="B40" s="33"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="10">
+        <v>1984</v>
+      </c>
+      <c r="B41" s="33"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="10">
+        <v>1985</v>
+      </c>
+      <c r="B42" s="33">
+        <v>1083.9016501650165</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="10">
+        <v>1986</v>
+      </c>
+      <c r="B43" s="33"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="10">
+        <v>1987</v>
+      </c>
+      <c r="B44" s="33"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="10">
+        <v>1988</v>
+      </c>
+      <c r="B45" s="33"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="10">
+        <v>1989</v>
+      </c>
+      <c r="B46" s="33"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="10">
+        <v>1990</v>
+      </c>
+      <c r="B47" s="33">
+        <v>1043.7775577557754</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="10">
+        <v>1991</v>
+      </c>
+      <c r="B48" s="33">
+        <v>1012.4719471947195</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="10">
+        <v>1992</v>
+      </c>
+      <c r="B49" s="33">
+        <v>986.34719471947199</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="10">
+        <v>1993</v>
+      </c>
+      <c r="B50" s="33">
+        <v>960.22244224422445</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="10">
+        <v>1994</v>
+      </c>
+      <c r="B51" s="33">
+        <v>929.02706270627061</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="10">
+        <v>1995</v>
+      </c>
+      <c r="B52" s="33">
+        <v>902.79207920792078</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="10">
+        <v>1996</v>
+      </c>
+      <c r="B53" s="33">
+        <v>876.77755775577555</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="10">
+        <v>1997</v>
+      </c>
+      <c r="B54" s="33">
+        <v>850.65280528052813</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="10">
+        <v>1998</v>
+      </c>
+      <c r="B55" s="33">
+        <v>824.52805280528048</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="10">
+        <v>1999</v>
+      </c>
+      <c r="B56" s="33">
+        <v>793.22244224422445</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="10">
+        <v>2000</v>
+      </c>
+      <c r="B57" s="33">
+        <v>767.20792079207922</v>
+      </c>
+      <c r="L57" s="48"/>
+      <c r="M57" s="49"/>
+      <c r="N57" s="48"/>
+      <c r="O57" s="49"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="10">
+        <v>2001</v>
+      </c>
+      <c r="B58" s="33">
+        <v>741.08316831683157</v>
+      </c>
+      <c r="L58" s="48"/>
+      <c r="M58" s="49"/>
+      <c r="N58" s="48"/>
+      <c r="O58" s="49"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="10">
+        <v>2002</v>
+      </c>
+      <c r="B59" s="33">
+        <v>720.13927392739265</v>
+      </c>
+      <c r="L59" s="48"/>
+      <c r="M59" s="49"/>
+      <c r="N59" s="48"/>
+      <c r="O59" s="49"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="10">
+        <v>2003</v>
+      </c>
+      <c r="B60" s="33">
+        <v>699.30561056105614</v>
+      </c>
+      <c r="L60" s="48"/>
+      <c r="M60" s="49"/>
+      <c r="N60" s="48"/>
+      <c r="O60" s="49"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" s="10">
+        <v>2004</v>
+      </c>
+      <c r="B61" s="33">
+        <v>688.94389438943892</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" s="10">
+        <v>2005</v>
+      </c>
+      <c r="B62" s="33">
+        <v>683.65280528052813</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" s="10">
+        <v>2006</v>
+      </c>
+      <c r="B63" s="33">
+        <v>678.47194719471952</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" s="10">
+        <v>2007</v>
+      </c>
+      <c r="B64" s="33">
+        <v>673.18085808580861</v>
+      </c>
+    </row>
+    <row r="65" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A65" s="10">
+        <v>2008</v>
+      </c>
+      <c r="B65" s="33">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="66" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A66" s="10">
+        <v>2009</v>
+      </c>
+      <c r="B66" s="33">
+        <v>657.52805280528048</v>
+      </c>
+    </row>
+    <row r="67" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A67" s="10">
+        <v>2010</v>
+      </c>
+      <c r="B67" s="33">
+        <v>647.05610561056108</v>
+      </c>
+    </row>
+    <row r="68" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A68" s="10">
+        <v>2011</v>
+      </c>
+      <c r="B68" s="33">
+        <v>626.22244224422445</v>
+      </c>
+    </row>
+    <row r="69" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A69" s="10">
+        <v>2012</v>
+      </c>
+      <c r="B69" s="33">
+        <v>626.22244224422445</v>
+      </c>
+    </row>
+    <row r="70" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A70" s="10">
+        <v>2013</v>
+      </c>
+      <c r="B70" s="33">
+        <v>636.69438943894386</v>
+      </c>
+    </row>
+    <row r="71" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A71" s="10">
+        <v>2014</v>
+      </c>
+      <c r="B71" s="33">
+        <v>626.22244224422445</v>
+      </c>
+    </row>
+    <row r="72" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A72" s="10">
+        <v>2015</v>
+      </c>
+      <c r="B72" s="33">
+        <v>615.86072607260735</v>
+      </c>
+    </row>
+    <row r="73" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A73" s="10">
+        <v>2016</v>
+      </c>
+      <c r="B73" s="33">
+        <v>605.38877887788783</v>
+      </c>
+    </row>
+    <row r="74" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A74" s="10">
+        <v>2017</v>
+      </c>
+      <c r="B74" s="33">
+        <v>594.91683168316843</v>
+      </c>
+    </row>
+    <row r="75" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A75" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B75" s="33">
+        <v>594.91683168316843</v>
+      </c>
+    </row>
+    <row r="76" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A76" s="10">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="77" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A77" s="10">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="78" spans="1:55" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
+      <c r="U78" s="1"/>
+      <c r="V78" s="1"/>
+      <c r="W78" s="1"/>
+      <c r="X78" s="1"/>
+      <c r="Y78" s="1"/>
+      <c r="Z78" s="1"/>
+      <c r="AA78" s="1"/>
+      <c r="AB78" s="1"/>
+      <c r="AC78" s="1"/>
+      <c r="AD78" s="1"/>
+      <c r="AE78" s="1"/>
+      <c r="AF78" s="1"/>
+      <c r="AG78" s="1"/>
+      <c r="AH78" s="1"/>
+      <c r="AI78" s="1"/>
+      <c r="AJ78" s="1"/>
+      <c r="AK78" s="1"/>
+      <c r="AL78" s="1"/>
+      <c r="AM78" s="1"/>
+      <c r="AN78" s="1"/>
+      <c r="AO78" s="1"/>
+      <c r="AP78" s="1"/>
+      <c r="AQ78" s="1"/>
+      <c r="AR78" s="1"/>
+      <c r="AS78" s="1"/>
+      <c r="AT78" s="1"/>
+      <c r="AU78" s="1"/>
+      <c r="AV78" s="1"/>
+      <c r="AW78" s="1"/>
+      <c r="AX78" s="1"/>
+      <c r="AY78" s="1"/>
+      <c r="AZ78" s="1"/>
+      <c r="BA78" s="1"/>
+      <c r="BB78" s="1"/>
+      <c r="BC78" s="1"/>
+    </row>
+    <row r="79" spans="1:55" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
+      <c r="T79" s="1"/>
+      <c r="U79" s="1"/>
+      <c r="V79" s="1"/>
+      <c r="W79" s="1"/>
+      <c r="X79" s="1"/>
+      <c r="Y79" s="1"/>
+      <c r="Z79" s="1"/>
+      <c r="AA79" s="1"/>
+      <c r="AB79" s="1"/>
+      <c r="AC79" s="1"/>
+      <c r="AD79" s="1"/>
+      <c r="AE79" s="1"/>
+      <c r="AF79" s="1"/>
+      <c r="AG79" s="1"/>
+      <c r="AH79" s="1"/>
+      <c r="AI79" s="1"/>
+      <c r="AJ79" s="1"/>
+      <c r="AK79" s="1"/>
+      <c r="AL79" s="1"/>
+      <c r="AM79" s="1"/>
+      <c r="AN79" s="1"/>
+      <c r="AO79" s="1"/>
+      <c r="AP79" s="1"/>
+      <c r="AQ79" s="1"/>
+      <c r="AR79" s="1"/>
+      <c r="AS79" s="1"/>
+      <c r="AT79" s="1"/>
+      <c r="AU79" s="1"/>
+      <c r="AV79" s="1"/>
+      <c r="AW79" s="1"/>
+      <c r="AX79" s="1"/>
+      <c r="AY79" s="1"/>
+      <c r="AZ79" s="1"/>
+      <c r="BA79" s="1"/>
+      <c r="BB79" s="1"/>
+      <c r="BC79" s="1"/>
+    </row>
+    <row r="80" spans="1:55" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="2"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+      <c r="T80" s="1"/>
+      <c r="U80" s="1"/>
+      <c r="V80" s="1"/>
+      <c r="W80" s="1"/>
+      <c r="X80" s="1"/>
+      <c r="Y80" s="1"/>
+      <c r="Z80" s="1"/>
+      <c r="AA80" s="1"/>
+      <c r="AB80" s="1"/>
+      <c r="AC80" s="1"/>
+      <c r="AD80" s="1"/>
+      <c r="AE80" s="1"/>
+      <c r="AF80" s="1"/>
+      <c r="AG80" s="1"/>
+      <c r="AH80" s="1"/>
+      <c r="AI80" s="1"/>
+      <c r="AJ80" s="1"/>
+      <c r="AK80" s="1"/>
+      <c r="AL80" s="1"/>
+      <c r="AM80" s="1"/>
+      <c r="AN80" s="1"/>
+      <c r="AO80" s="1"/>
+      <c r="AP80" s="1"/>
+      <c r="AQ80" s="1"/>
+      <c r="AR80" s="1"/>
+      <c r="AS80" s="1"/>
+      <c r="AT80" s="1"/>
+      <c r="AU80" s="1"/>
+      <c r="AV80" s="1"/>
+      <c r="AW80" s="1"/>
+      <c r="AX80" s="1"/>
+      <c r="AY80" s="1"/>
+      <c r="AZ80" s="1"/>
+      <c r="BA80" s="1"/>
+      <c r="BB80" s="1"/>
+      <c r="BC80" s="1"/>
+    </row>
+    <row r="87" spans="1:55" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+      <c r="T87" s="1"/>
+      <c r="U87" s="1"/>
+      <c r="V87" s="1"/>
+      <c r="W87" s="1"/>
+      <c r="X87" s="1"/>
+      <c r="Y87" s="1"/>
+      <c r="Z87" s="1"/>
+      <c r="AA87" s="1"/>
+      <c r="AB87" s="1"/>
+      <c r="AC87" s="1"/>
+      <c r="AD87" s="1"/>
+      <c r="AE87" s="1"/>
+      <c r="AF87" s="1"/>
+      <c r="AG87" s="1"/>
+      <c r="AH87" s="1"/>
+      <c r="AI87" s="1"/>
+      <c r="AJ87" s="1"/>
+      <c r="AK87" s="1"/>
+      <c r="AL87" s="1"/>
+      <c r="AM87" s="1"/>
+      <c r="AN87" s="1"/>
+      <c r="AO87" s="1"/>
+      <c r="AP87" s="1"/>
+      <c r="AQ87" s="1"/>
+      <c r="AR87" s="1"/>
+      <c r="AS87" s="1"/>
+      <c r="AT87" s="1"/>
+      <c r="AU87" s="1"/>
+      <c r="AV87" s="1"/>
+      <c r="AW87" s="1"/>
+      <c r="AX87" s="1"/>
+      <c r="AY87" s="1"/>
+      <c r="AZ87" s="1"/>
+      <c r="BA87" s="1"/>
+      <c r="BB87" s="1"/>
+      <c r="BC87" s="1"/>
+    </row>
+    <row r="88" spans="1:55" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="2"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
+      <c r="T88" s="1"/>
+      <c r="U88" s="1"/>
+      <c r="V88" s="1"/>
+      <c r="W88" s="1"/>
+      <c r="X88" s="1"/>
+      <c r="Y88" s="1"/>
+      <c r="Z88" s="1"/>
+      <c r="AA88" s="1"/>
+      <c r="AB88" s="1"/>
+      <c r="AC88" s="1"/>
+      <c r="AD88" s="1"/>
+      <c r="AE88" s="1"/>
+      <c r="AF88" s="1"/>
+      <c r="AG88" s="1"/>
+      <c r="AH88" s="1"/>
+      <c r="AI88" s="1"/>
+      <c r="AJ88" s="1"/>
+      <c r="AK88" s="1"/>
+      <c r="AL88" s="1"/>
+      <c r="AM88" s="1"/>
+      <c r="AN88" s="1"/>
+      <c r="AO88" s="1"/>
+      <c r="AP88" s="1"/>
+      <c r="AQ88" s="1"/>
+      <c r="AR88" s="1"/>
+      <c r="AS88" s="1"/>
+      <c r="AT88" s="1"/>
+      <c r="AU88" s="1"/>
+      <c r="AV88" s="1"/>
+      <c r="AW88" s="1"/>
+      <c r="AX88" s="1"/>
+      <c r="AY88" s="1"/>
+      <c r="AZ88" s="1"/>
+      <c r="BA88" s="1"/>
+      <c r="BB88" s="1"/>
+      <c r="BC88" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D1B2D9-471D-46DC-ABD9-72F8E600EFE6}">
+  <dimension ref="A1:AL88"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8" style="45" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="15.140625" style="42" customWidth="1"/>
+    <col min="5" max="16384" width="10.7109375" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="40">
+        <v>1945</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="40">
+        <v>1946</v>
+      </c>
+      <c r="B3" s="41"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="40">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="40">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="40">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="40">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="40">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="40">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="40">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="40">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="40">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="40">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="40">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="40">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="40">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="40">
+        <v>1960</v>
+      </c>
+      <c r="G17" s="47"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="40">
+        <v>1961</v>
+      </c>
+      <c r="G18" s="47"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="40">
+        <v>1962</v>
+      </c>
+      <c r="G19" s="47"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="40">
+        <v>1963</v>
+      </c>
+      <c r="G20" s="47"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="40">
+        <v>1964</v>
+      </c>
+      <c r="G21" s="47"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="40">
+        <v>1965</v>
+      </c>
+      <c r="G22" s="47"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="40">
+        <v>1966</v>
+      </c>
+      <c r="G23" s="47"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="40">
+        <v>1967</v>
+      </c>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="G24" s="47"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="40">
+        <v>1968</v>
+      </c>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="G25" s="47"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="40">
+        <v>1969</v>
+      </c>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="G26" s="47"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="40">
+        <v>1970</v>
+      </c>
+      <c r="B27" s="43">
+        <f>0.65*E27</f>
+        <v>11.375</v>
+      </c>
+      <c r="C27" s="43">
+        <f>0.14*E27</f>
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D27" s="43">
+        <f>0.2*E27</f>
+        <v>3.5</v>
+      </c>
+      <c r="E27" s="43">
+        <v>17.5</v>
+      </c>
+      <c r="G27" s="47"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="40">
+        <v>1971</v>
+      </c>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="43"/>
+      <c r="G28" s="47"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="40">
+        <v>1972</v>
+      </c>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="43"/>
+      <c r="G29" s="47"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="40">
+        <v>1973</v>
+      </c>
+      <c r="B30" s="43">
+        <f>0.65*E30</f>
+        <v>11.375</v>
+      </c>
+      <c r="C30" s="43">
+        <f>0.14*E30</f>
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D30" s="43">
+        <f>0.2*E30</f>
+        <v>3.5</v>
+      </c>
+      <c r="E30" s="43">
+        <v>17.5</v>
+      </c>
+      <c r="G30" s="47"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="40">
+        <v>1974</v>
+      </c>
+      <c r="B31" s="43">
+        <f>0.67*E31</f>
+        <v>11.457000000000003</v>
+      </c>
+      <c r="C31" s="43">
+        <f>0.14*E31</f>
+        <v>2.3940000000000006</v>
+      </c>
+      <c r="D31" s="43">
+        <f>0.21*E31</f>
+        <v>3.5910000000000002</v>
+      </c>
+      <c r="E31" s="43">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="G31" s="47"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="40">
+        <v>1975</v>
+      </c>
+      <c r="B32" s="43">
+        <f>0.56*E32</f>
+        <v>9.3520000000000003</v>
+      </c>
+      <c r="C32" s="43">
+        <f>0.15*E32</f>
+        <v>2.5049999999999999</v>
+      </c>
+      <c r="D32" s="43">
+        <f>0.2*E32</f>
+        <v>3.34</v>
+      </c>
+      <c r="E32" s="43">
+        <v>16.7</v>
+      </c>
+      <c r="G32" s="47"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="40">
+        <v>1976</v>
+      </c>
+      <c r="B33" s="43">
+        <f>0.62*E33</f>
+        <v>9.2379999999999995</v>
+      </c>
+      <c r="C33" s="43">
+        <f>0.15*E33</f>
+        <v>2.2349999999999999</v>
+      </c>
+      <c r="D33" s="43">
+        <f>0.22*E33</f>
+        <v>3.278</v>
+      </c>
+      <c r="E33" s="43">
+        <v>14.9</v>
+      </c>
+      <c r="G33" s="47"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="40">
+        <v>1977</v>
+      </c>
+      <c r="B34" s="43">
+        <f>0.62*E34</f>
+        <v>8.6180000000000003</v>
+      </c>
+      <c r="C34" s="43">
+        <f>0.14*E34</f>
+        <v>1.9460000000000002</v>
+      </c>
+      <c r="D34" s="43">
+        <f>0.24*E34</f>
+        <v>3.3359999999999999</v>
+      </c>
+      <c r="E34" s="43">
+        <v>13.9</v>
+      </c>
+      <c r="G34" s="47"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="40">
+        <v>1978</v>
+      </c>
+      <c r="B35" s="43">
+        <f>0.59*E35</f>
+        <v>7.8470000000000004</v>
+      </c>
+      <c r="C35" s="43">
+        <f>0.13*E35</f>
+        <v>1.7290000000000001</v>
+      </c>
+      <c r="D35" s="43">
+        <f>0.24*E35</f>
+        <v>3.1920000000000002</v>
+      </c>
+      <c r="E35" s="43">
+        <v>13.3</v>
+      </c>
+      <c r="G35" s="47"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="40">
+        <v>1979</v>
+      </c>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="G36" s="47"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="40">
+        <v>1980</v>
+      </c>
+      <c r="B37" s="43">
+        <f>0.56*E37</f>
+        <v>7.056</v>
+      </c>
+      <c r="C37" s="43">
+        <f>0.12*E37</f>
+        <v>1.512</v>
+      </c>
+      <c r="D37" s="43">
+        <f>0.22*E37</f>
+        <v>2.7719999999999998</v>
+      </c>
+      <c r="E37" s="43">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="40">
+        <v>1981</v>
+      </c>
+      <c r="B38" s="43">
+        <f>0.53*E38</f>
+        <v>6.519000000000001</v>
+      </c>
+      <c r="C38" s="43">
+        <f>0.13*E38</f>
+        <v>1.5990000000000002</v>
+      </c>
+      <c r="D38" s="43">
+        <f>0.26*E38</f>
+        <v>3.1980000000000004</v>
+      </c>
+      <c r="E38" s="43">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="40">
+        <v>1982</v>
+      </c>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="40">
+        <v>1983</v>
+      </c>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="40">
+        <v>1984</v>
+      </c>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="40">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="40">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="40">
+        <v>1987</v>
+      </c>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="40">
+        <v>1988</v>
+      </c>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="40">
+        <v>1989</v>
+      </c>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="40">
+        <v>1990</v>
+      </c>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="40">
+        <v>1991</v>
+      </c>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="40">
+        <v>1992</v>
+      </c>
+      <c r="B49" s="43"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="40">
+        <v>1993</v>
+      </c>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="40">
+        <v>1994</v>
+      </c>
+      <c r="B51" s="41"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="40">
+        <v>1995</v>
+      </c>
+      <c r="B52" s="43">
+        <v>5.01</v>
+      </c>
+      <c r="C52" s="43">
+        <v>1.48</v>
+      </c>
+      <c r="D52" s="43">
+        <v>4.8</v>
+      </c>
+      <c r="E52" s="43">
+        <v>11.3</v>
+      </c>
+      <c r="F52" s="43"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="40">
+        <v>1996</v>
+      </c>
+      <c r="B53" s="43"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="40">
+        <v>1997</v>
+      </c>
+      <c r="B54" s="43"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="43"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="40">
+        <v>1998</v>
+      </c>
+      <c r="B55" s="43"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="43"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="40">
+        <v>1999</v>
+      </c>
+      <c r="B56" s="43"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="40">
+        <v>2000</v>
+      </c>
+      <c r="F57" s="43"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="40">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="40">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="40">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="40">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="40">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="40">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="40">
+        <v>2007</v>
+      </c>
+      <c r="B64" s="43"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="43"/>
+      <c r="E64" s="43"/>
+    </row>
+    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A65" s="40">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A66" s="40">
+        <v>2009</v>
+      </c>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="44"/>
+    </row>
+    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A67" s="40">
+        <v>2010</v>
+      </c>
+      <c r="B67" s="43">
+        <v>2.1</v>
+      </c>
+      <c r="C67" s="43">
+        <v>0.9</v>
+      </c>
+      <c r="D67" s="43">
+        <v>6.1</v>
+      </c>
+      <c r="E67" s="41">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A68" s="40">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A69" s="40">
+        <v>2012</v>
+      </c>
+      <c r="B69" s="43"/>
+      <c r="C69" s="43"/>
+      <c r="D69" s="43"/>
+    </row>
+    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A70" s="40">
+        <v>2013</v>
+      </c>
+      <c r="B70" s="43"/>
+      <c r="C70" s="43"/>
+      <c r="D70" s="43"/>
+    </row>
+    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A71" s="40">
+        <v>2014</v>
+      </c>
+      <c r="B71" s="43"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="43"/>
+    </row>
+    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A72" s="40">
+        <v>2015</v>
+      </c>
+      <c r="B72" s="43"/>
+      <c r="C72" s="43"/>
+      <c r="D72" s="43"/>
+    </row>
+    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A73" s="40">
+        <v>2016</v>
+      </c>
+      <c r="B73" s="43"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="43"/>
+    </row>
+    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A74" s="40">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A75" s="40">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A76" s="40">
+        <v>2019</v>
+      </c>
+      <c r="B76" s="43">
+        <v>2.1</v>
+      </c>
+      <c r="C76" s="43">
+        <v>0.9</v>
+      </c>
+      <c r="D76" s="43">
+        <v>6.1</v>
+      </c>
+      <c r="E76" s="41">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A77" s="40">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="78" spans="1:38" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="45"/>
+      <c r="B78" s="42"/>
+      <c r="C78" s="42"/>
+      <c r="D78" s="42"/>
+      <c r="E78" s="42"/>
+      <c r="F78" s="42"/>
+      <c r="G78" s="42"/>
+      <c r="H78" s="42"/>
+      <c r="I78" s="42"/>
+      <c r="J78" s="42"/>
+      <c r="K78" s="42"/>
+      <c r="L78" s="42"/>
+      <c r="M78" s="42"/>
+      <c r="N78" s="42"/>
+      <c r="O78" s="42"/>
+      <c r="P78" s="42"/>
+      <c r="Q78" s="42"/>
+      <c r="R78" s="42"/>
+      <c r="S78" s="42"/>
+      <c r="T78" s="42"/>
+      <c r="U78" s="42"/>
+      <c r="V78" s="42"/>
+      <c r="W78" s="42"/>
+      <c r="X78" s="42"/>
+      <c r="Y78" s="42"/>
+      <c r="Z78" s="42"/>
+      <c r="AA78" s="42"/>
+      <c r="AB78" s="42"/>
+      <c r="AC78" s="42"/>
+      <c r="AD78" s="42"/>
+      <c r="AE78" s="42"/>
+      <c r="AF78" s="42"/>
+      <c r="AG78" s="42"/>
+      <c r="AH78" s="42"/>
+      <c r="AI78" s="42"/>
+      <c r="AJ78" s="42"/>
+      <c r="AK78" s="42"/>
+      <c r="AL78" s="42"/>
+    </row>
+    <row r="79" spans="1:38" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="45"/>
+      <c r="B79" s="42"/>
+      <c r="C79" s="42"/>
+      <c r="D79" s="42"/>
+      <c r="E79" s="42"/>
+      <c r="F79" s="42"/>
+      <c r="G79" s="42"/>
+      <c r="H79" s="42"/>
+      <c r="I79" s="42"/>
+      <c r="J79" s="42"/>
+      <c r="K79" s="42"/>
+      <c r="L79" s="42"/>
+      <c r="M79" s="42"/>
+      <c r="N79" s="42"/>
+      <c r="O79" s="42"/>
+      <c r="P79" s="42"/>
+      <c r="Q79" s="42"/>
+      <c r="R79" s="42"/>
+      <c r="S79" s="42"/>
+      <c r="T79" s="42"/>
+      <c r="U79" s="42"/>
+      <c r="V79" s="42"/>
+      <c r="W79" s="42"/>
+      <c r="X79" s="42"/>
+      <c r="Y79" s="42"/>
+      <c r="Z79" s="42"/>
+      <c r="AA79" s="42"/>
+      <c r="AB79" s="42"/>
+      <c r="AC79" s="42"/>
+      <c r="AD79" s="42"/>
+      <c r="AE79" s="42"/>
+      <c r="AF79" s="42"/>
+      <c r="AG79" s="42"/>
+      <c r="AH79" s="42"/>
+      <c r="AI79" s="42"/>
+      <c r="AJ79" s="42"/>
+      <c r="AK79" s="42"/>
+      <c r="AL79" s="42"/>
+    </row>
+    <row r="80" spans="1:38" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="45"/>
+      <c r="B80" s="42"/>
+      <c r="C80" s="42"/>
+      <c r="D80" s="42"/>
+      <c r="E80" s="42"/>
+      <c r="F80" s="42"/>
+      <c r="G80" s="42"/>
+      <c r="H80" s="42"/>
+      <c r="I80" s="42"/>
+      <c r="J80" s="42"/>
+      <c r="K80" s="42"/>
+      <c r="L80" s="42"/>
+      <c r="M80" s="42"/>
+      <c r="N80" s="42"/>
+      <c r="O80" s="42"/>
+      <c r="P80" s="42"/>
+      <c r="Q80" s="42"/>
+      <c r="R80" s="42"/>
+      <c r="S80" s="42"/>
+      <c r="T80" s="42"/>
+      <c r="U80" s="42"/>
+      <c r="V80" s="42"/>
+      <c r="W80" s="42"/>
+      <c r="X80" s="42"/>
+      <c r="Y80" s="42"/>
+      <c r="Z80" s="42"/>
+      <c r="AA80" s="42"/>
+      <c r="AB80" s="42"/>
+      <c r="AC80" s="42"/>
+      <c r="AD80" s="42"/>
+      <c r="AE80" s="42"/>
+      <c r="AF80" s="42"/>
+      <c r="AG80" s="42"/>
+      <c r="AH80" s="42"/>
+      <c r="AI80" s="42"/>
+      <c r="AJ80" s="42"/>
+      <c r="AK80" s="42"/>
+      <c r="AL80" s="42"/>
+    </row>
+    <row r="87" spans="1:38" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="45"/>
+      <c r="B87" s="42"/>
+      <c r="C87" s="42"/>
+      <c r="D87" s="42"/>
+      <c r="E87" s="42"/>
+      <c r="F87" s="42"/>
+      <c r="G87" s="42"/>
+      <c r="H87" s="42"/>
+      <c r="I87" s="42"/>
+      <c r="J87" s="42"/>
+      <c r="K87" s="42"/>
+      <c r="L87" s="42"/>
+      <c r="M87" s="42"/>
+      <c r="N87" s="42"/>
+      <c r="O87" s="42"/>
+      <c r="P87" s="42"/>
+      <c r="Q87" s="42"/>
+      <c r="R87" s="42"/>
+      <c r="S87" s="42"/>
+      <c r="T87" s="42"/>
+      <c r="U87" s="42"/>
+      <c r="V87" s="42"/>
+      <c r="W87" s="42"/>
+      <c r="X87" s="42"/>
+      <c r="Y87" s="42"/>
+      <c r="Z87" s="42"/>
+      <c r="AA87" s="42"/>
+      <c r="AB87" s="42"/>
+      <c r="AC87" s="42"/>
+      <c r="AD87" s="42"/>
+      <c r="AE87" s="42"/>
+      <c r="AF87" s="42"/>
+      <c r="AG87" s="42"/>
+      <c r="AH87" s="42"/>
+      <c r="AI87" s="42"/>
+      <c r="AJ87" s="42"/>
+      <c r="AK87" s="42"/>
+      <c r="AL87" s="42"/>
+    </row>
+    <row r="88" spans="1:38" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="45"/>
+      <c r="B88" s="42"/>
+      <c r="C88" s="42"/>
+      <c r="D88" s="42"/>
+      <c r="E88" s="42"/>
+      <c r="F88" s="42"/>
+      <c r="G88" s="42"/>
+      <c r="H88" s="42"/>
+      <c r="I88" s="42"/>
+      <c r="J88" s="42"/>
+      <c r="K88" s="42"/>
+      <c r="L88" s="42"/>
+      <c r="M88" s="42"/>
+      <c r="N88" s="42"/>
+      <c r="O88" s="42"/>
+      <c r="P88" s="42"/>
+      <c r="Q88" s="42"/>
+      <c r="R88" s="42"/>
+      <c r="S88" s="42"/>
+      <c r="T88" s="42"/>
+      <c r="U88" s="42"/>
+      <c r="V88" s="42"/>
+      <c r="W88" s="42"/>
+      <c r="X88" s="42"/>
+      <c r="Y88" s="42"/>
+      <c r="Z88" s="42"/>
+      <c r="AA88" s="42"/>
+      <c r="AB88" s="42"/>
+      <c r="AC88" s="42"/>
+      <c r="AD88" s="42"/>
+      <c r="AE88" s="42"/>
+      <c r="AF88" s="42"/>
+      <c r="AG88" s="42"/>
+      <c r="AH88" s="42"/>
+      <c r="AI88" s="42"/>
+      <c r="AJ88" s="42"/>
+      <c r="AK88" s="42"/>
+      <c r="AL88" s="42"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/RawData/EU_RawData_VPython.xlsx
+++ b/RawData/EU_RawData_VPython.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souvi\Documents\These\80_Calculations\01_MFA_GlassIndustry\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E44B2F8-D47F-4C3C-9495-53E095762954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583278A8-DC2B-4CDA-BBE9-6B778ACD7FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="600" windowWidth="21165" windowHeight="15600" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21165" windowHeight="15600" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
   </bookViews>
   <sheets>
     <sheet name="References" sheetId="21" r:id="rId1"/>
@@ -85,9 +85,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>L'industrie du verre dans la CEE, Commission des Communautés Européennes, 1984
-https://op.europa.eu/en/publication-detail/-/publication/9441267d-6d47-461a-bc38-494d8c007e02/language-fr
-(accessed October 10, 2020)</t>
+          <t>(CCE, 1984: 6)</t>
         </r>
       </text>
     </comment>
@@ -2301,7 +2299,7 @@
   <dimension ref="A2:D37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="118.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2540,10 +2538,10 @@
   <dimension ref="A1:BQ94"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E67" sqref="E67"/>
+      <selection pane="bottomRight" activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RawData/EU_RawData_VPython.xlsx
+++ b/RawData/EU_RawData_VPython.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souvi\Documents\These\80_Calculations\01_MFA_GlassIndustry\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583278A8-DC2B-4CDA-BBE9-6B778ACD7FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36033F2-2350-4540-80B8-8529514F17FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21165" windowHeight="15600" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
   </bookViews>
   <sheets>
     <sheet name="References" sheetId="21" r:id="rId1"/>
@@ -2298,9 +2298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35E3C1A-7DB8-449E-A8EC-FA7A1B58165D}">
   <dimension ref="A2:D37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="118.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
